--- a/Assets/06.Table/SusanoTable.xlsx
+++ b/Assets/06.Table/SusanoTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5186753E-6661-40D0-A778-60B28A0D79F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E60390-40ED-4BFE-8026-A00CAC6032EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SusanoTable" sheetId="1" r:id="rId1"/>
@@ -1884,11 +1884,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:K353"/>
+  <dimension ref="A1:K367"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A335" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M352" sqref="M352"/>
+      <pane ySplit="1" topLeftCell="A345" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B365" sqref="B365"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15015,6 +15015,636 @@
         <v>1.0040000000000002</v>
       </c>
     </row>
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A354">
+        <v>352</v>
+      </c>
+      <c r="B354">
+        <f>VLOOKUP(A354,UnitChange!B:K,2,FALSE)</f>
+        <v>2.0000000000000002E+128</v>
+      </c>
+      <c r="C354" t="str">
+        <f>VLOOKUP(A354,UnitChange!B:K,3,FALSE)</f>
+        <v>2위</v>
+      </c>
+      <c r="D354">
+        <f>VLOOKUP(A354,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E354">
+        <f>VLOOKUP(A354,UnitChange!B:K,5,FALSE)</f>
+        <v>34200000</v>
+      </c>
+      <c r="F354">
+        <f>VLOOKUP(A354,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G354">
+        <f>VLOOKUP(A354,UnitChange!B:K,7,FALSE)</f>
+        <v>0.28960000000000102</v>
+      </c>
+      <c r="H354">
+        <f>VLOOKUP(A354,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I354">
+        <f>VLOOKUP(A354,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J354">
+        <f>VLOOKUP(A354,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K354" s="1">
+        <f>VLOOKUP(A354,UnitChange!B:L,11,FALSE)</f>
+        <v>1.0080000000000002</v>
+      </c>
+    </row>
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A355">
+        <v>353</v>
+      </c>
+      <c r="B355">
+        <f>VLOOKUP(A355,UnitChange!B:K,2,FALSE)</f>
+        <v>5E+128</v>
+      </c>
+      <c r="C355" t="str">
+        <f>VLOOKUP(A355,UnitChange!B:K,3,FALSE)</f>
+        <v>5위</v>
+      </c>
+      <c r="D355">
+        <f>VLOOKUP(A355,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E355">
+        <f>VLOOKUP(A355,UnitChange!B:K,5,FALSE)</f>
+        <v>34300000</v>
+      </c>
+      <c r="F355">
+        <f>VLOOKUP(A355,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G355">
+        <f>VLOOKUP(A355,UnitChange!B:K,7,FALSE)</f>
+        <v>0.29000000000000103</v>
+      </c>
+      <c r="H355">
+        <f>VLOOKUP(A355,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I355">
+        <f>VLOOKUP(A355,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J355">
+        <f>VLOOKUP(A355,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K355" s="1">
+        <f>VLOOKUP(A355,UnitChange!B:L,11,FALSE)</f>
+        <v>1.0120000000000002</v>
+      </c>
+    </row>
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A356">
+        <v>354</v>
+      </c>
+      <c r="B356">
+        <f>VLOOKUP(A356,UnitChange!B:K,2,FALSE)</f>
+        <v>1E+129</v>
+      </c>
+      <c r="C356" t="str">
+        <f>VLOOKUP(A356,UnitChange!B:K,3,FALSE)</f>
+        <v>10위</v>
+      </c>
+      <c r="D356">
+        <f>VLOOKUP(A356,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E356">
+        <f>VLOOKUP(A356,UnitChange!B:K,5,FALSE)</f>
+        <v>34400000</v>
+      </c>
+      <c r="F356">
+        <f>VLOOKUP(A356,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G356">
+        <f>VLOOKUP(A356,UnitChange!B:K,7,FALSE)</f>
+        <v>0.29040000000000105</v>
+      </c>
+      <c r="H356">
+        <f>VLOOKUP(A356,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I356">
+        <f>VLOOKUP(A356,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J356">
+        <f>VLOOKUP(A356,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K356" s="1">
+        <f>VLOOKUP(A356,UnitChange!B:L,11,FALSE)</f>
+        <v>1.0160000000000002</v>
+      </c>
+    </row>
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A357">
+        <v>355</v>
+      </c>
+      <c r="B357">
+        <f>VLOOKUP(A357,UnitChange!B:K,2,FALSE)</f>
+        <v>2E+129</v>
+      </c>
+      <c r="C357" t="str">
+        <f>VLOOKUP(A357,UnitChange!B:K,3,FALSE)</f>
+        <v>20위</v>
+      </c>
+      <c r="D357">
+        <f>VLOOKUP(A357,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E357">
+        <f>VLOOKUP(A357,UnitChange!B:K,5,FALSE)</f>
+        <v>34500000</v>
+      </c>
+      <c r="F357">
+        <f>VLOOKUP(A357,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G357">
+        <f>VLOOKUP(A357,UnitChange!B:K,7,FALSE)</f>
+        <v>0.29080000000000106</v>
+      </c>
+      <c r="H357">
+        <f>VLOOKUP(A357,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I357">
+        <f>VLOOKUP(A357,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J357">
+        <f>VLOOKUP(A357,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K357" s="1">
+        <f>VLOOKUP(A357,UnitChange!B:L,11,FALSE)</f>
+        <v>1.0200000000000002</v>
+      </c>
+    </row>
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A358">
+        <v>356</v>
+      </c>
+      <c r="B358">
+        <f>VLOOKUP(A358,UnitChange!B:K,2,FALSE)</f>
+        <v>5.0000000000000003E+129</v>
+      </c>
+      <c r="C358" t="str">
+        <f>VLOOKUP(A358,UnitChange!B:K,3,FALSE)</f>
+        <v>50위</v>
+      </c>
+      <c r="D358">
+        <f>VLOOKUP(A358,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E358">
+        <f>VLOOKUP(A358,UnitChange!B:K,5,FALSE)</f>
+        <v>34600000</v>
+      </c>
+      <c r="F358">
+        <f>VLOOKUP(A358,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G358">
+        <f>VLOOKUP(A358,UnitChange!B:K,7,FALSE)</f>
+        <v>0.29120000000000107</v>
+      </c>
+      <c r="H358">
+        <f>VLOOKUP(A358,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I358">
+        <f>VLOOKUP(A358,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J358">
+        <f>VLOOKUP(A358,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K358" s="1">
+        <f>VLOOKUP(A358,UnitChange!B:L,11,FALSE)</f>
+        <v>1.0240000000000002</v>
+      </c>
+    </row>
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A359">
+        <v>357</v>
+      </c>
+      <c r="B359">
+        <f>VLOOKUP(A359,UnitChange!B:K,2,FALSE)</f>
+        <v>1.0000000000000001E+130</v>
+      </c>
+      <c r="C359" t="str">
+        <f>VLOOKUP(A359,UnitChange!B:K,3,FALSE)</f>
+        <v>100위</v>
+      </c>
+      <c r="D359">
+        <f>VLOOKUP(A359,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E359">
+        <f>VLOOKUP(A359,UnitChange!B:K,5,FALSE)</f>
+        <v>34700000</v>
+      </c>
+      <c r="F359">
+        <f>VLOOKUP(A359,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G359">
+        <f>VLOOKUP(A359,UnitChange!B:K,7,FALSE)</f>
+        <v>0.29160000000000108</v>
+      </c>
+      <c r="H359">
+        <f>VLOOKUP(A359,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I359">
+        <f>VLOOKUP(A359,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J359">
+        <f>VLOOKUP(A359,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K359" s="1">
+        <f>VLOOKUP(A359,UnitChange!B:L,11,FALSE)</f>
+        <v>1.0280000000000002</v>
+      </c>
+    </row>
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A360">
+        <v>358</v>
+      </c>
+      <c r="B360">
+        <f>VLOOKUP(A360,UnitChange!B:K,2,FALSE)</f>
+        <v>1.5000000000000002E+130</v>
+      </c>
+      <c r="C360" t="str">
+        <f>VLOOKUP(A360,UnitChange!B:K,3,FALSE)</f>
+        <v>150위</v>
+      </c>
+      <c r="D360">
+        <f>VLOOKUP(A360,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E360">
+        <f>VLOOKUP(A360,UnitChange!B:K,5,FALSE)</f>
+        <v>34800000</v>
+      </c>
+      <c r="F360">
+        <f>VLOOKUP(A360,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G360">
+        <f>VLOOKUP(A360,UnitChange!B:K,7,FALSE)</f>
+        <v>0.29200000000000109</v>
+      </c>
+      <c r="H360">
+        <f>VLOOKUP(A360,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I360">
+        <f>VLOOKUP(A360,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J360">
+        <f>VLOOKUP(A360,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K360" s="1">
+        <f>VLOOKUP(A360,UnitChange!B:L,11,FALSE)</f>
+        <v>1.0320000000000003</v>
+      </c>
+    </row>
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A361">
+        <v>359</v>
+      </c>
+      <c r="B361">
+        <f>VLOOKUP(A361,UnitChange!B:K,2,FALSE)</f>
+        <v>2.0000000000000001E+130</v>
+      </c>
+      <c r="C361" t="str">
+        <f>VLOOKUP(A361,UnitChange!B:K,3,FALSE)</f>
+        <v>200위</v>
+      </c>
+      <c r="D361">
+        <f>VLOOKUP(A361,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E361">
+        <f>VLOOKUP(A361,UnitChange!B:K,5,FALSE)</f>
+        <v>34900000</v>
+      </c>
+      <c r="F361">
+        <f>VLOOKUP(A361,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G361">
+        <f>VLOOKUP(A361,UnitChange!B:K,7,FALSE)</f>
+        <v>0.2924000000000011</v>
+      </c>
+      <c r="H361">
+        <f>VLOOKUP(A361,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I361">
+        <f>VLOOKUP(A361,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J361">
+        <f>VLOOKUP(A361,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K361" s="1">
+        <f>VLOOKUP(A361,UnitChange!B:L,11,FALSE)</f>
+        <v>1.0360000000000003</v>
+      </c>
+    </row>
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A362">
+        <v>360</v>
+      </c>
+      <c r="B362">
+        <f>VLOOKUP(A362,UnitChange!B:K,2,FALSE)</f>
+        <v>3.0000000000000004E+130</v>
+      </c>
+      <c r="C362" t="str">
+        <f>VLOOKUP(A362,UnitChange!B:K,3,FALSE)</f>
+        <v>300위</v>
+      </c>
+      <c r="D362">
+        <f>VLOOKUP(A362,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E362">
+        <f>VLOOKUP(A362,UnitChange!B:K,5,FALSE)</f>
+        <v>35000000</v>
+      </c>
+      <c r="F362">
+        <f>VLOOKUP(A362,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G362">
+        <f>VLOOKUP(A362,UnitChange!B:K,7,FALSE)</f>
+        <v>0.29280000000000111</v>
+      </c>
+      <c r="H362">
+        <f>VLOOKUP(A362,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I362">
+        <f>VLOOKUP(A362,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J362">
+        <f>VLOOKUP(A362,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K362" s="1">
+        <f>VLOOKUP(A362,UnitChange!B:L,11,FALSE)</f>
+        <v>1.0400000000000003</v>
+      </c>
+    </row>
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A363">
+        <v>361</v>
+      </c>
+      <c r="B363">
+        <f>VLOOKUP(A363,UnitChange!B:K,2,FALSE)</f>
+        <v>5.0000000000000005E+130</v>
+      </c>
+      <c r="C363" t="str">
+        <f>VLOOKUP(A363,UnitChange!B:K,3,FALSE)</f>
+        <v>500위</v>
+      </c>
+      <c r="D363">
+        <f>VLOOKUP(A363,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E363">
+        <f>VLOOKUP(A363,UnitChange!B:K,5,FALSE)</f>
+        <v>35100000</v>
+      </c>
+      <c r="F363">
+        <f>VLOOKUP(A363,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G363">
+        <f>VLOOKUP(A363,UnitChange!B:K,7,FALSE)</f>
+        <v>0.29320000000000113</v>
+      </c>
+      <c r="H363">
+        <f>VLOOKUP(A363,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I363">
+        <f>VLOOKUP(A363,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J363">
+        <f>VLOOKUP(A363,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K363" s="1">
+        <f>VLOOKUP(A363,UnitChange!B:L,11,FALSE)</f>
+        <v>1.0440000000000003</v>
+      </c>
+    </row>
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A364">
+        <v>362</v>
+      </c>
+      <c r="B364">
+        <f>VLOOKUP(A364,UnitChange!B:K,2,FALSE)</f>
+        <v>8.0000000000000005E+130</v>
+      </c>
+      <c r="C364" t="str">
+        <f>VLOOKUP(A364,UnitChange!B:K,3,FALSE)</f>
+        <v>800위</v>
+      </c>
+      <c r="D364">
+        <f>VLOOKUP(A364,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E364">
+        <f>VLOOKUP(A364,UnitChange!B:K,5,FALSE)</f>
+        <v>35200000</v>
+      </c>
+      <c r="F364">
+        <f>VLOOKUP(A364,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G364">
+        <f>VLOOKUP(A364,UnitChange!B:K,7,FALSE)</f>
+        <v>0.29360000000000114</v>
+      </c>
+      <c r="H364">
+        <f>VLOOKUP(A364,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I364">
+        <f>VLOOKUP(A364,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J364">
+        <f>VLOOKUP(A364,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K364" s="1">
+        <f>VLOOKUP(A364,UnitChange!B:L,11,FALSE)</f>
+        <v>1.0480000000000003</v>
+      </c>
+    </row>
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A365">
+        <v>363</v>
+      </c>
+      <c r="B365">
+        <f>VLOOKUP(A365,UnitChange!B:K,2,FALSE)</f>
+        <v>1.0000000000000001E+131</v>
+      </c>
+      <c r="C365" t="str">
+        <f>VLOOKUP(A365,UnitChange!B:K,3,FALSE)</f>
+        <v>1000위</v>
+      </c>
+      <c r="D365">
+        <f>VLOOKUP(A365,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E365">
+        <f>VLOOKUP(A365,UnitChange!B:K,5,FALSE)</f>
+        <v>35300000</v>
+      </c>
+      <c r="F365">
+        <f>VLOOKUP(A365,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G365">
+        <f>VLOOKUP(A365,UnitChange!B:K,7,FALSE)</f>
+        <v>0.29400000000000115</v>
+      </c>
+      <c r="H365">
+        <f>VLOOKUP(A365,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I365">
+        <f>VLOOKUP(A365,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J365">
+        <f>VLOOKUP(A365,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K365" s="1">
+        <f>VLOOKUP(A365,UnitChange!B:L,11,FALSE)</f>
+        <v>1.0520000000000003</v>
+      </c>
+    </row>
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A366">
+        <v>364</v>
+      </c>
+      <c r="B366">
+        <f>VLOOKUP(A366,UnitChange!B:K,2,FALSE)</f>
+        <v>2.0000000000000002E+131</v>
+      </c>
+      <c r="C366" t="str">
+        <f>VLOOKUP(A366,UnitChange!B:K,3,FALSE)</f>
+        <v>2000위</v>
+      </c>
+      <c r="D366">
+        <f>VLOOKUP(A366,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E366">
+        <f>VLOOKUP(A366,UnitChange!B:K,5,FALSE)</f>
+        <v>35400000</v>
+      </c>
+      <c r="F366">
+        <f>VLOOKUP(A366,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G366">
+        <f>VLOOKUP(A366,UnitChange!B:K,7,FALSE)</f>
+        <v>0.29440000000000116</v>
+      </c>
+      <c r="H366">
+        <f>VLOOKUP(A366,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I366">
+        <f>VLOOKUP(A366,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J366">
+        <f>VLOOKUP(A366,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K366" s="1">
+        <f>VLOOKUP(A366,UnitChange!B:L,11,FALSE)</f>
+        <v>1.0560000000000003</v>
+      </c>
+    </row>
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A367">
+        <v>365</v>
+      </c>
+      <c r="B367">
+        <f>VLOOKUP(A367,UnitChange!B:K,2,FALSE)</f>
+        <v>5.0000000000000007E+131</v>
+      </c>
+      <c r="C367" t="str">
+        <f>VLOOKUP(A367,UnitChange!B:K,3,FALSE)</f>
+        <v>5000위</v>
+      </c>
+      <c r="D367">
+        <f>VLOOKUP(A367,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E367">
+        <f>VLOOKUP(A367,UnitChange!B:K,5,FALSE)</f>
+        <v>35500000</v>
+      </c>
+      <c r="F367">
+        <f>VLOOKUP(A367,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G367">
+        <f>VLOOKUP(A367,UnitChange!B:K,7,FALSE)</f>
+        <v>0.29480000000000117</v>
+      </c>
+      <c r="H367">
+        <f>VLOOKUP(A367,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I367">
+        <f>VLOOKUP(A367,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J367">
+        <f>VLOOKUP(A367,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K367" s="1">
+        <f>VLOOKUP(A367,UnitChange!B:L,11,FALSE)</f>
+        <v>1.0600000000000003</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15026,7 +15656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626C1493-E0FD-4651-99C5-58D15BDAC6AC}">
   <dimension ref="B1:AC119"/>
   <sheetViews>
-    <sheetView topLeftCell="A87" workbookViewId="0">
+    <sheetView topLeftCell="A102" workbookViewId="0">
       <selection activeCell="M119" sqref="M119"/>
     </sheetView>
   </sheetViews>
@@ -15237,7 +15867,7 @@
         <v>306</v>
       </c>
       <c r="O7" s="12" t="str">
-        <f>VLOOKUP(N7,Q:T,4,FALSE)</f>
+        <f t="shared" ref="O7:O38" si="2">VLOOKUP(N7,Q:T,4,FALSE)</f>
         <v>1E+100</v>
       </c>
       <c r="Q7" s="12" t="s">
@@ -15247,11 +15877,11 @@
         <v>8</v>
       </c>
       <c r="S7" s="13">
-        <f t="shared" ref="S7:S29" si="2">POWER(10,R7)</f>
+        <f t="shared" ref="S7:S29" si="3">POWER(10,R7)</f>
         <v>100000000</v>
       </c>
       <c r="T7" s="13" t="str">
-        <f t="shared" ref="T7:T29" si="3">RIGHT(S7,R7)</f>
+        <f t="shared" ref="T7:T29" si="4">RIGHT(S7,R7)</f>
         <v>00000000</v>
       </c>
     </row>
@@ -15301,7 +15931,7 @@
         <v>306</v>
       </c>
       <c r="O8" s="12" t="str">
-        <f>VLOOKUP(N8,Q:T,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+100</v>
       </c>
       <c r="Q8" s="12" t="s">
@@ -15311,11 +15941,11 @@
         <v>12</v>
       </c>
       <c r="S8" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1000000000000</v>
       </c>
       <c r="T8" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>000000000000</v>
       </c>
     </row>
@@ -15335,7 +15965,7 @@
         <v>20</v>
       </c>
       <c r="F9" s="16">
-        <f t="shared" ref="F9:F59" si="4">F8+100000</f>
+        <f t="shared" ref="F9:F59" si="5">F8+100000</f>
         <v>24500000</v>
       </c>
       <c r="G9" s="16">
@@ -15355,7 +15985,7 @@
         <v>60</v>
       </c>
       <c r="L9" s="16">
-        <f t="shared" ref="L9:L59" si="5">L8+0.004</f>
+        <f t="shared" ref="L9:L59" si="6">L8+0.004</f>
         <v>0.62</v>
       </c>
       <c r="M9" s="20">
@@ -15365,7 +15995,7 @@
         <v>306</v>
       </c>
       <c r="O9" s="12" t="str">
-        <f>VLOOKUP(N9,Q:T,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+100</v>
       </c>
       <c r="Q9" s="12" t="s">
@@ -15375,11 +16005,11 @@
         <v>16</v>
       </c>
       <c r="S9" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1E+16</v>
       </c>
       <c r="T9" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0000000000000000</v>
       </c>
     </row>
@@ -15399,14 +16029,14 @@
         <v>20</v>
       </c>
       <c r="F10" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>24600000</v>
       </c>
       <c r="G10" s="16">
         <v>2</v>
       </c>
       <c r="H10" s="16">
-        <f t="shared" ref="H10:H75" si="6">IF(RIGHT(H9,2)="24",H9+0.0076,H9+0.0004)</f>
+        <f t="shared" ref="H10:H75" si="7">IF(RIGHT(H9,2)="24",H9+0.0076,H9+0.0004)</f>
         <v>0.20800000000000005</v>
       </c>
       <c r="I10" s="16">
@@ -15419,7 +16049,7 @@
         <v>60</v>
       </c>
       <c r="L10" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.624</v>
       </c>
       <c r="M10" s="20">
@@ -15429,7 +16059,7 @@
         <v>306</v>
       </c>
       <c r="O10" s="12" t="str">
-        <f>VLOOKUP(N10,Q:T,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+100</v>
       </c>
       <c r="Q10" s="12" t="s">
@@ -15439,11 +16069,11 @@
         <v>20</v>
       </c>
       <c r="S10" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1E+20</v>
       </c>
       <c r="T10" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1E+20</v>
       </c>
     </row>
@@ -15463,27 +16093,27 @@
         <v>20</v>
       </c>
       <c r="F11" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>24700000</v>
       </c>
       <c r="G11" s="16">
         <v>2</v>
       </c>
       <c r="H11" s="16">
+        <f t="shared" si="7"/>
+        <v>0.20840000000000006</v>
+      </c>
+      <c r="I11" s="16">
+        <v>23</v>
+      </c>
+      <c r="J11" s="16">
+        <v>0</v>
+      </c>
+      <c r="K11" s="16">
+        <v>60</v>
+      </c>
+      <c r="L11" s="16">
         <f t="shared" si="6"/>
-        <v>0.20840000000000006</v>
-      </c>
-      <c r="I11" s="16">
-        <v>23</v>
-      </c>
-      <c r="J11" s="16">
-        <v>0</v>
-      </c>
-      <c r="K11" s="16">
-        <v>60</v>
-      </c>
-      <c r="L11" s="16">
-        <f t="shared" si="5"/>
         <v>0.628</v>
       </c>
       <c r="M11" s="20">
@@ -15493,7 +16123,7 @@
         <v>306</v>
       </c>
       <c r="O11" s="12" t="str">
-        <f>VLOOKUP(N11,Q:T,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+100</v>
       </c>
       <c r="Q11" s="12" t="s">
@@ -15503,11 +16133,11 @@
         <v>24</v>
       </c>
       <c r="S11" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999998E+23</v>
       </c>
       <c r="T11" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1E+24</v>
       </c>
     </row>
@@ -15527,27 +16157,27 @@
         <v>20</v>
       </c>
       <c r="F12" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>24800000</v>
       </c>
       <c r="G12" s="16">
         <v>2</v>
       </c>
       <c r="H12" s="16">
+        <f t="shared" si="7"/>
+        <v>0.20880000000000007</v>
+      </c>
+      <c r="I12" s="16">
+        <v>23</v>
+      </c>
+      <c r="J12" s="16">
+        <v>0</v>
+      </c>
+      <c r="K12" s="16">
+        <v>60</v>
+      </c>
+      <c r="L12" s="16">
         <f t="shared" si="6"/>
-        <v>0.20880000000000007</v>
-      </c>
-      <c r="I12" s="16">
-        <v>23</v>
-      </c>
-      <c r="J12" s="16">
-        <v>0</v>
-      </c>
-      <c r="K12" s="16">
-        <v>60</v>
-      </c>
-      <c r="L12" s="16">
-        <f t="shared" si="5"/>
         <v>0.63200000000000001</v>
       </c>
       <c r="M12" s="20">
@@ -15557,7 +16187,7 @@
         <v>306</v>
       </c>
       <c r="O12" s="12" t="str">
-        <f>VLOOKUP(N12,Q:T,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+100</v>
       </c>
       <c r="Q12" s="12" t="s">
@@ -15567,11 +16197,11 @@
         <v>28</v>
       </c>
       <c r="S12" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999996E+27</v>
       </c>
       <c r="T12" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1E+28</v>
       </c>
     </row>
@@ -15591,27 +16221,27 @@
         <v>20</v>
       </c>
       <c r="F13" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>24900000</v>
       </c>
       <c r="G13" s="16">
         <v>2</v>
       </c>
       <c r="H13" s="16">
+        <f t="shared" si="7"/>
+        <v>0.20920000000000008</v>
+      </c>
+      <c r="I13" s="16">
+        <v>23</v>
+      </c>
+      <c r="J13" s="16">
+        <v>0</v>
+      </c>
+      <c r="K13" s="16">
+        <v>60</v>
+      </c>
+      <c r="L13" s="16">
         <f t="shared" si="6"/>
-        <v>0.20920000000000008</v>
-      </c>
-      <c r="I13" s="16">
-        <v>23</v>
-      </c>
-      <c r="J13" s="16">
-        <v>0</v>
-      </c>
-      <c r="K13" s="16">
-        <v>60</v>
-      </c>
-      <c r="L13" s="16">
-        <f t="shared" si="5"/>
         <v>0.63600000000000001</v>
       </c>
       <c r="M13" s="20">
@@ -15621,7 +16251,7 @@
         <v>306</v>
       </c>
       <c r="O13" s="12" t="str">
-        <f>VLOOKUP(N13,Q:T,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+100</v>
       </c>
       <c r="Q13" s="12" t="s">
@@ -15631,11 +16261,11 @@
         <v>32</v>
       </c>
       <c r="S13" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0000000000000001E+32</v>
       </c>
       <c r="T13" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1E+32</v>
       </c>
     </row>
@@ -15655,27 +16285,27 @@
         <v>20</v>
       </c>
       <c r="F14" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>25000000</v>
       </c>
       <c r="G14" s="16">
         <v>2</v>
       </c>
       <c r="H14" s="16">
+        <f t="shared" si="7"/>
+        <v>0.20960000000000009</v>
+      </c>
+      <c r="I14" s="16">
+        <v>23</v>
+      </c>
+      <c r="J14" s="16">
+        <v>0</v>
+      </c>
+      <c r="K14" s="16">
+        <v>60</v>
+      </c>
+      <c r="L14" s="16">
         <f t="shared" si="6"/>
-        <v>0.20960000000000009</v>
-      </c>
-      <c r="I14" s="16">
-        <v>23</v>
-      </c>
-      <c r="J14" s="16">
-        <v>0</v>
-      </c>
-      <c r="K14" s="16">
-        <v>60</v>
-      </c>
-      <c r="L14" s="16">
-        <f t="shared" si="5"/>
         <v>0.64</v>
       </c>
       <c r="M14" s="20">
@@ -15685,7 +16315,7 @@
         <v>306</v>
       </c>
       <c r="O14" s="12" t="str">
-        <f>VLOOKUP(N14,Q:T,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+100</v>
       </c>
       <c r="Q14" s="12" t="s">
@@ -15695,11 +16325,11 @@
         <v>36</v>
       </c>
       <c r="S14" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1E+36</v>
       </c>
       <c r="T14" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1E+36</v>
       </c>
     </row>
@@ -15719,27 +16349,27 @@
         <v>20</v>
       </c>
       <c r="F15" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>25100000</v>
       </c>
       <c r="G15" s="16">
         <v>2</v>
       </c>
       <c r="H15" s="16">
+        <f t="shared" si="7"/>
+        <v>0.2100000000000001</v>
+      </c>
+      <c r="I15" s="16">
+        <v>23</v>
+      </c>
+      <c r="J15" s="16">
+        <v>0</v>
+      </c>
+      <c r="K15" s="16">
+        <v>60</v>
+      </c>
+      <c r="L15" s="16">
         <f t="shared" si="6"/>
-        <v>0.2100000000000001</v>
-      </c>
-      <c r="I15" s="16">
-        <v>23</v>
-      </c>
-      <c r="J15" s="16">
-        <v>0</v>
-      </c>
-      <c r="K15" s="16">
-        <v>60</v>
-      </c>
-      <c r="L15" s="16">
-        <f t="shared" si="5"/>
         <v>0.64400000000000002</v>
       </c>
       <c r="M15" s="20">
@@ -15749,7 +16379,7 @@
         <v>305</v>
       </c>
       <c r="O15" s="12" t="str">
-        <f>VLOOKUP(N15,Q:T,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+104</v>
       </c>
       <c r="Q15" s="12" t="s">
@@ -15759,11 +16389,11 @@
         <v>40</v>
       </c>
       <c r="S15" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1E+40</v>
       </c>
       <c r="T15" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1E+40</v>
       </c>
     </row>
@@ -15783,27 +16413,27 @@
         <v>20</v>
       </c>
       <c r="F16" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>25200000</v>
       </c>
       <c r="G16" s="16">
         <v>2</v>
       </c>
       <c r="H16" s="16">
+        <f t="shared" si="7"/>
+        <v>0.21040000000000011</v>
+      </c>
+      <c r="I16" s="16">
+        <v>23</v>
+      </c>
+      <c r="J16" s="16">
+        <v>0</v>
+      </c>
+      <c r="K16" s="16">
+        <v>60</v>
+      </c>
+      <c r="L16" s="16">
         <f t="shared" si="6"/>
-        <v>0.21040000000000011</v>
-      </c>
-      <c r="I16" s="16">
-        <v>23</v>
-      </c>
-      <c r="J16" s="16">
-        <v>0</v>
-      </c>
-      <c r="K16" s="16">
-        <v>60</v>
-      </c>
-      <c r="L16" s="16">
-        <f t="shared" si="5"/>
         <v>0.64800000000000002</v>
       </c>
       <c r="M16" s="20">
@@ -15813,7 +16443,7 @@
         <v>305</v>
       </c>
       <c r="O16" s="12" t="str">
-        <f>VLOOKUP(N16,Q:T,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+104</v>
       </c>
       <c r="Q16" s="12" t="s">
@@ -15823,11 +16453,11 @@
         <v>44</v>
       </c>
       <c r="S16" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0000000000000001E+44</v>
       </c>
       <c r="T16" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1E+44</v>
       </c>
     </row>
@@ -15847,27 +16477,27 @@
         <v>20</v>
       </c>
       <c r="F17" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>25300000</v>
       </c>
       <c r="G17" s="16">
         <v>2</v>
       </c>
       <c r="H17" s="16">
+        <f t="shared" si="7"/>
+        <v>0.21080000000000013</v>
+      </c>
+      <c r="I17" s="16">
+        <v>23</v>
+      </c>
+      <c r="J17" s="16">
+        <v>0</v>
+      </c>
+      <c r="K17" s="16">
+        <v>60</v>
+      </c>
+      <c r="L17" s="16">
         <f t="shared" si="6"/>
-        <v>0.21080000000000013</v>
-      </c>
-      <c r="I17" s="16">
-        <v>23</v>
-      </c>
-      <c r="J17" s="16">
-        <v>0</v>
-      </c>
-      <c r="K17" s="16">
-        <v>60</v>
-      </c>
-      <c r="L17" s="16">
-        <f t="shared" si="5"/>
         <v>0.65200000000000002</v>
       </c>
       <c r="M17" s="20">
@@ -15877,7 +16507,7 @@
         <v>305</v>
       </c>
       <c r="O17" s="12" t="str">
-        <f>VLOOKUP(N17,Q:T,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+104</v>
       </c>
       <c r="Q17" s="12" t="s">
@@ -15887,11 +16517,11 @@
         <v>48</v>
       </c>
       <c r="S17" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1E+48</v>
       </c>
       <c r="T17" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1E+48</v>
       </c>
     </row>
@@ -15911,27 +16541,27 @@
         <v>20</v>
       </c>
       <c r="F18" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>25400000</v>
       </c>
       <c r="G18" s="16">
         <v>2</v>
       </c>
       <c r="H18" s="16">
+        <f t="shared" si="7"/>
+        <v>0.21120000000000014</v>
+      </c>
+      <c r="I18" s="16">
+        <v>23</v>
+      </c>
+      <c r="J18" s="16">
+        <v>0</v>
+      </c>
+      <c r="K18" s="16">
+        <v>60</v>
+      </c>
+      <c r="L18" s="16">
         <f t="shared" si="6"/>
-        <v>0.21120000000000014</v>
-      </c>
-      <c r="I18" s="16">
-        <v>23</v>
-      </c>
-      <c r="J18" s="16">
-        <v>0</v>
-      </c>
-      <c r="K18" s="16">
-        <v>60</v>
-      </c>
-      <c r="L18" s="16">
-        <f t="shared" si="5"/>
         <v>0.65600000000000003</v>
       </c>
       <c r="M18" s="20">
@@ -15941,7 +16571,7 @@
         <v>305</v>
       </c>
       <c r="O18" s="12" t="str">
-        <f>VLOOKUP(N18,Q:T,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+104</v>
       </c>
       <c r="Q18" s="12" t="s">
@@ -15951,11 +16581,11 @@
         <v>52</v>
       </c>
       <c r="S18" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999999E+51</v>
       </c>
       <c r="T18" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1E+52</v>
       </c>
     </row>
@@ -15975,27 +16605,27 @@
         <v>20</v>
       </c>
       <c r="F19" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>25500000</v>
       </c>
       <c r="G19" s="16">
         <v>2</v>
       </c>
       <c r="H19" s="16">
+        <f t="shared" si="7"/>
+        <v>0.21160000000000015</v>
+      </c>
+      <c r="I19" s="16">
+        <v>23</v>
+      </c>
+      <c r="J19" s="16">
+        <v>0</v>
+      </c>
+      <c r="K19" s="16">
+        <v>60</v>
+      </c>
+      <c r="L19" s="16">
         <f t="shared" si="6"/>
-        <v>0.21160000000000015</v>
-      </c>
-      <c r="I19" s="16">
-        <v>23</v>
-      </c>
-      <c r="J19" s="16">
-        <v>0</v>
-      </c>
-      <c r="K19" s="16">
-        <v>60</v>
-      </c>
-      <c r="L19" s="16">
-        <f t="shared" si="5"/>
         <v>0.66</v>
       </c>
       <c r="M19" s="20">
@@ -16005,7 +16635,7 @@
         <v>305</v>
       </c>
       <c r="O19" s="12" t="str">
-        <f>VLOOKUP(N19,Q:T,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+104</v>
       </c>
       <c r="Q19" s="12" t="s">
@@ -16015,11 +16645,11 @@
         <v>56</v>
       </c>
       <c r="S19" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0000000000000001E+56</v>
       </c>
       <c r="T19" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1E+56</v>
       </c>
     </row>
@@ -16028,38 +16658,38 @@
         <v>266</v>
       </c>
       <c r="C20" s="16">
-        <f t="shared" ref="C20:C21" si="7">M20*O20</f>
+        <f t="shared" ref="C20:C21" si="8">M20*O20</f>
         <v>5.0000000000000005E+105</v>
       </c>
       <c r="D20" s="16" t="str">
-        <f t="shared" ref="D20:D21" si="8">M20&amp;N20</f>
+        <f t="shared" ref="D20:D21" si="9">M20&amp;N20</f>
         <v>50승</v>
       </c>
       <c r="E20" s="16">
         <v>20</v>
       </c>
       <c r="F20" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>25600000</v>
       </c>
       <c r="G20" s="16">
         <v>2</v>
       </c>
       <c r="H20" s="16">
+        <f t="shared" si="7"/>
+        <v>0.21200000000000016</v>
+      </c>
+      <c r="I20" s="16">
+        <v>23</v>
+      </c>
+      <c r="J20" s="16">
+        <v>0</v>
+      </c>
+      <c r="K20" s="16">
+        <v>60</v>
+      </c>
+      <c r="L20" s="16">
         <f t="shared" si="6"/>
-        <v>0.21200000000000016</v>
-      </c>
-      <c r="I20" s="16">
-        <v>23</v>
-      </c>
-      <c r="J20" s="16">
-        <v>0</v>
-      </c>
-      <c r="K20" s="16">
-        <v>60</v>
-      </c>
-      <c r="L20" s="16">
-        <f t="shared" si="5"/>
         <v>0.66400000000000003</v>
       </c>
       <c r="M20" s="20">
@@ -16069,7 +16699,7 @@
         <v>305</v>
       </c>
       <c r="O20" s="12" t="str">
-        <f>VLOOKUP(N20,Q:T,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+104</v>
       </c>
       <c r="Q20" s="12" t="s">
@@ -16079,11 +16709,11 @@
         <v>60</v>
       </c>
       <c r="S20" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999995E+59</v>
       </c>
       <c r="T20" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1E+60</v>
       </c>
     </row>
@@ -16092,38 +16722,38 @@
         <v>267</v>
       </c>
       <c r="C21" s="16">
+        <f t="shared" si="8"/>
+        <v>1.0000000000000001E+106</v>
+      </c>
+      <c r="D21" s="16" t="str">
+        <f t="shared" si="9"/>
+        <v>100승</v>
+      </c>
+      <c r="E21" s="16">
+        <v>20</v>
+      </c>
+      <c r="F21" s="16">
+        <f t="shared" si="5"/>
+        <v>25700000</v>
+      </c>
+      <c r="G21" s="16">
+        <v>2</v>
+      </c>
+      <c r="H21" s="16">
         <f t="shared" si="7"/>
-        <v>1.0000000000000001E+106</v>
-      </c>
-      <c r="D21" s="16" t="str">
-        <f t="shared" si="8"/>
-        <v>100승</v>
-      </c>
-      <c r="E21" s="16">
-        <v>20</v>
-      </c>
-      <c r="F21" s="16">
-        <f t="shared" si="4"/>
-        <v>25700000</v>
-      </c>
-      <c r="G21" s="16">
-        <v>2</v>
-      </c>
-      <c r="H21" s="16">
+        <v>0.21240000000000017</v>
+      </c>
+      <c r="I21" s="16">
+        <v>23</v>
+      </c>
+      <c r="J21" s="16">
+        <v>0</v>
+      </c>
+      <c r="K21" s="16">
+        <v>60</v>
+      </c>
+      <c r="L21" s="16">
         <f t="shared" si="6"/>
-        <v>0.21240000000000017</v>
-      </c>
-      <c r="I21" s="16">
-        <v>23</v>
-      </c>
-      <c r="J21" s="16">
-        <v>0</v>
-      </c>
-      <c r="K21" s="16">
-        <v>60</v>
-      </c>
-      <c r="L21" s="16">
-        <f t="shared" si="5"/>
         <v>0.66800000000000004</v>
       </c>
       <c r="M21" s="20">
@@ -16133,7 +16763,7 @@
         <v>305</v>
       </c>
       <c r="O21" s="12" t="str">
-        <f>VLOOKUP(N21,Q:T,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+104</v>
       </c>
       <c r="Q21" s="12" t="s">
@@ -16143,11 +16773,11 @@
         <v>64</v>
       </c>
       <c r="S21" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1E+64</v>
       </c>
       <c r="T21" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1E+64</v>
       </c>
     </row>
@@ -16156,38 +16786,38 @@
         <v>268</v>
       </c>
       <c r="C22" s="16">
-        <f t="shared" ref="C22:C40" si="9">M22*O22</f>
+        <f t="shared" ref="C22:C40" si="10">M22*O22</f>
         <v>1.5E+106</v>
       </c>
       <c r="D22" s="16" t="str">
-        <f t="shared" ref="D22:D40" si="10">M22&amp;N22</f>
+        <f t="shared" ref="D22:D40" si="11">M22&amp;N22</f>
         <v>150승</v>
       </c>
       <c r="E22" s="16">
         <v>20</v>
       </c>
       <c r="F22" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>25800000</v>
       </c>
       <c r="G22" s="16">
         <v>2</v>
       </c>
       <c r="H22" s="16">
+        <f t="shared" si="7"/>
+        <v>0.22000000000000017</v>
+      </c>
+      <c r="I22" s="16">
+        <v>23</v>
+      </c>
+      <c r="J22" s="16">
+        <v>0</v>
+      </c>
+      <c r="K22" s="16">
+        <v>60</v>
+      </c>
+      <c r="L22" s="16">
         <f t="shared" si="6"/>
-        <v>0.22000000000000017</v>
-      </c>
-      <c r="I22" s="16">
-        <v>23</v>
-      </c>
-      <c r="J22" s="16">
-        <v>0</v>
-      </c>
-      <c r="K22" s="16">
-        <v>60</v>
-      </c>
-      <c r="L22" s="16">
-        <f t="shared" si="5"/>
         <v>0.67200000000000004</v>
       </c>
       <c r="M22" s="20">
@@ -16197,7 +16827,7 @@
         <v>305</v>
       </c>
       <c r="O22" s="12" t="str">
-        <f>VLOOKUP(N22,Q:T,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+104</v>
       </c>
       <c r="Q22" s="12" t="s">
@@ -16207,11 +16837,11 @@
         <v>68</v>
       </c>
       <c r="S22" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999995E+67</v>
       </c>
       <c r="T22" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1E+68</v>
       </c>
     </row>
@@ -16220,38 +16850,38 @@
         <v>269</v>
       </c>
       <c r="C23" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.0000000000000002E+106</v>
       </c>
       <c r="D23" s="16" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>200승</v>
       </c>
       <c r="E23" s="16">
         <v>20</v>
       </c>
       <c r="F23" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>25900000</v>
       </c>
       <c r="G23" s="16">
         <v>2</v>
       </c>
       <c r="H23" s="16">
+        <f t="shared" si="7"/>
+        <v>0.22040000000000018</v>
+      </c>
+      <c r="I23" s="16">
+        <v>23</v>
+      </c>
+      <c r="J23" s="16">
+        <v>0</v>
+      </c>
+      <c r="K23" s="16">
+        <v>60</v>
+      </c>
+      <c r="L23" s="16">
         <f t="shared" si="6"/>
-        <v>0.22040000000000018</v>
-      </c>
-      <c r="I23" s="16">
-        <v>23</v>
-      </c>
-      <c r="J23" s="16">
-        <v>0</v>
-      </c>
-      <c r="K23" s="16">
-        <v>60</v>
-      </c>
-      <c r="L23" s="16">
-        <f t="shared" si="5"/>
         <v>0.67600000000000005</v>
       </c>
       <c r="M23" s="20">
@@ -16261,7 +16891,7 @@
         <v>305</v>
       </c>
       <c r="O23" s="12" t="str">
-        <f>VLOOKUP(N23,Q:T,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+104</v>
       </c>
       <c r="Q23" s="12" t="s">
@@ -16271,11 +16901,11 @@
         <v>72</v>
       </c>
       <c r="S23" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999994E+71</v>
       </c>
       <c r="T23" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1E+72</v>
       </c>
     </row>
@@ -16284,38 +16914,38 @@
         <v>270</v>
       </c>
       <c r="C24" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.0000000000000001E+106</v>
       </c>
       <c r="D24" s="16" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>300승</v>
       </c>
       <c r="E24" s="16">
         <v>20</v>
       </c>
       <c r="F24" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>26000000</v>
       </c>
       <c r="G24" s="16">
         <v>2</v>
       </c>
       <c r="H24" s="16">
+        <f t="shared" si="7"/>
+        <v>0.22080000000000019</v>
+      </c>
+      <c r="I24" s="16">
+        <v>23</v>
+      </c>
+      <c r="J24" s="16">
+        <v>0</v>
+      </c>
+      <c r="K24" s="16">
+        <v>60</v>
+      </c>
+      <c r="L24" s="16">
         <f t="shared" si="6"/>
-        <v>0.22080000000000019</v>
-      </c>
-      <c r="I24" s="16">
-        <v>23</v>
-      </c>
-      <c r="J24" s="16">
-        <v>0</v>
-      </c>
-      <c r="K24" s="16">
-        <v>60</v>
-      </c>
-      <c r="L24" s="16">
-        <f t="shared" si="5"/>
         <v>0.68</v>
       </c>
       <c r="M24" s="20">
@@ -16325,7 +16955,7 @@
         <v>305</v>
       </c>
       <c r="O24" s="12" t="str">
-        <f>VLOOKUP(N24,Q:T,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+104</v>
       </c>
       <c r="Q24" s="12" t="s">
@@ -16335,11 +16965,11 @@
         <v>76</v>
       </c>
       <c r="S24" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1E+76</v>
       </c>
       <c r="T24" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1E+76</v>
       </c>
     </row>
@@ -16348,38 +16978,38 @@
         <v>271</v>
       </c>
       <c r="C25" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4.9999999999999998E+106</v>
       </c>
       <c r="D25" s="16" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>500승</v>
       </c>
       <c r="E25" s="16">
         <v>20</v>
       </c>
       <c r="F25" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>26100000</v>
       </c>
       <c r="G25" s="16">
         <v>2</v>
       </c>
       <c r="H25" s="16">
+        <f t="shared" si="7"/>
+        <v>0.2212000000000002</v>
+      </c>
+      <c r="I25" s="16">
+        <v>23</v>
+      </c>
+      <c r="J25" s="16">
+        <v>0</v>
+      </c>
+      <c r="K25" s="16">
+        <v>60</v>
+      </c>
+      <c r="L25" s="16">
         <f t="shared" si="6"/>
-        <v>0.2212000000000002</v>
-      </c>
-      <c r="I25" s="16">
-        <v>23</v>
-      </c>
-      <c r="J25" s="16">
-        <v>0</v>
-      </c>
-      <c r="K25" s="16">
-        <v>60</v>
-      </c>
-      <c r="L25" s="16">
-        <f t="shared" si="5"/>
         <v>0.68400000000000005</v>
       </c>
       <c r="M25" s="20">
@@ -16389,7 +17019,7 @@
         <v>305</v>
       </c>
       <c r="O25" s="12" t="str">
-        <f>VLOOKUP(N25,Q:T,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+104</v>
       </c>
       <c r="Q25" s="12" t="s">
@@ -16399,11 +17029,11 @@
         <v>80</v>
       </c>
       <c r="S25" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1E+80</v>
       </c>
       <c r="T25" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1E+80</v>
       </c>
     </row>
@@ -16412,38 +17042,38 @@
         <v>272</v>
       </c>
       <c r="C26" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.0000000000000007E+106</v>
       </c>
       <c r="D26" s="16" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>800승</v>
       </c>
       <c r="E26" s="16">
         <v>20</v>
       </c>
       <c r="F26" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>26200000</v>
       </c>
       <c r="G26" s="16">
         <v>2</v>
       </c>
       <c r="H26" s="16">
+        <f t="shared" si="7"/>
+        <v>0.22160000000000021</v>
+      </c>
+      <c r="I26" s="16">
+        <v>23</v>
+      </c>
+      <c r="J26" s="16">
+        <v>0</v>
+      </c>
+      <c r="K26" s="16">
+        <v>60</v>
+      </c>
+      <c r="L26" s="16">
         <f t="shared" si="6"/>
-        <v>0.22160000000000021</v>
-      </c>
-      <c r="I26" s="16">
-        <v>23</v>
-      </c>
-      <c r="J26" s="16">
-        <v>0</v>
-      </c>
-      <c r="K26" s="16">
-        <v>60</v>
-      </c>
-      <c r="L26" s="16">
-        <f t="shared" si="5"/>
         <v>0.68800000000000006</v>
       </c>
       <c r="M26" s="20">
@@ -16453,7 +17083,7 @@
         <v>305</v>
       </c>
       <c r="O26" s="12" t="str">
-        <f>VLOOKUP(N26,Q:T,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+104</v>
       </c>
       <c r="Q26" s="12" t="s">
@@ -16463,11 +17093,11 @@
         <v>84</v>
       </c>
       <c r="S26" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0000000000000001E+84</v>
       </c>
       <c r="T26" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1E+84</v>
       </c>
     </row>
@@ -16476,38 +17106,38 @@
         <v>273</v>
       </c>
       <c r="C27" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9.9999999999999997E+106</v>
       </c>
       <c r="D27" s="16" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1000승</v>
       </c>
       <c r="E27" s="16">
         <v>20</v>
       </c>
       <c r="F27" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>26300000</v>
       </c>
       <c r="G27" s="16">
         <v>2</v>
       </c>
       <c r="H27" s="16">
+        <f t="shared" si="7"/>
+        <v>0.22200000000000022</v>
+      </c>
+      <c r="I27" s="16">
+        <v>23</v>
+      </c>
+      <c r="J27" s="16">
+        <v>0</v>
+      </c>
+      <c r="K27" s="16">
+        <v>60</v>
+      </c>
+      <c r="L27" s="16">
         <f t="shared" si="6"/>
-        <v>0.22200000000000022</v>
-      </c>
-      <c r="I27" s="16">
-        <v>23</v>
-      </c>
-      <c r="J27" s="16">
-        <v>0</v>
-      </c>
-      <c r="K27" s="16">
-        <v>60</v>
-      </c>
-      <c r="L27" s="16">
-        <f t="shared" si="5"/>
         <v>0.69200000000000006</v>
       </c>
       <c r="M27" s="20">
@@ -16517,7 +17147,7 @@
         <v>305</v>
       </c>
       <c r="O27" s="12" t="str">
-        <f>VLOOKUP(N27,Q:T,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+104</v>
       </c>
       <c r="Q27" s="12" t="s">
@@ -16527,11 +17157,11 @@
         <v>88</v>
       </c>
       <c r="S27" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.9999999999999996E+87</v>
       </c>
       <c r="T27" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1E+88</v>
       </c>
     </row>
@@ -16540,38 +17170,38 @@
         <v>274</v>
       </c>
       <c r="C28" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.9999999999999999E+107</v>
       </c>
       <c r="D28" s="16" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2000승</v>
       </c>
       <c r="E28" s="16">
         <v>20</v>
       </c>
       <c r="F28" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>26400000</v>
       </c>
       <c r="G28" s="16">
         <v>2</v>
       </c>
       <c r="H28" s="16">
+        <f t="shared" si="7"/>
+        <v>0.22240000000000024</v>
+      </c>
+      <c r="I28" s="16">
+        <v>23</v>
+      </c>
+      <c r="J28" s="16">
+        <v>0</v>
+      </c>
+      <c r="K28" s="16">
+        <v>60</v>
+      </c>
+      <c r="L28" s="16">
         <f t="shared" si="6"/>
-        <v>0.22240000000000024</v>
-      </c>
-      <c r="I28" s="16">
-        <v>23</v>
-      </c>
-      <c r="J28" s="16">
-        <v>0</v>
-      </c>
-      <c r="K28" s="16">
-        <v>60</v>
-      </c>
-      <c r="L28" s="16">
-        <f t="shared" si="5"/>
         <v>0.69600000000000006</v>
       </c>
       <c r="M28" s="20">
@@ -16581,7 +17211,7 @@
         <v>305</v>
       </c>
       <c r="O28" s="12" t="str">
-        <f>VLOOKUP(N28,Q:T,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+104</v>
       </c>
       <c r="Q28" s="12" t="s">
@@ -16591,11 +17221,11 @@
         <v>92</v>
       </c>
       <c r="S28" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1E+92</v>
       </c>
       <c r="T28" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1E+92</v>
       </c>
     </row>
@@ -16604,38 +17234,38 @@
         <v>275</v>
       </c>
       <c r="C29" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.0000000000000002E+107</v>
       </c>
       <c r="D29" s="16" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5000승</v>
       </c>
       <c r="E29" s="16">
         <v>20</v>
       </c>
       <c r="F29" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>26500000</v>
       </c>
       <c r="G29" s="16">
         <v>2</v>
       </c>
       <c r="H29" s="16">
+        <f t="shared" si="7"/>
+        <v>0.23000000000000023</v>
+      </c>
+      <c r="I29" s="16">
+        <v>23</v>
+      </c>
+      <c r="J29" s="16">
+        <v>0</v>
+      </c>
+      <c r="K29" s="16">
+        <v>60</v>
+      </c>
+      <c r="L29" s="16">
         <f t="shared" si="6"/>
-        <v>0.23000000000000023</v>
-      </c>
-      <c r="I29" s="16">
-        <v>23</v>
-      </c>
-      <c r="J29" s="16">
-        <v>0</v>
-      </c>
-      <c r="K29" s="16">
-        <v>60</v>
-      </c>
-      <c r="L29" s="16">
-        <f t="shared" si="5"/>
         <v>0.70000000000000007</v>
       </c>
       <c r="M29" s="20">
@@ -16645,7 +17275,7 @@
         <v>305</v>
       </c>
       <c r="O29" s="12" t="str">
-        <f>VLOOKUP(N29,Q:T,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+104</v>
       </c>
       <c r="Q29" s="12" t="s">
@@ -16655,11 +17285,11 @@
         <v>96</v>
       </c>
       <c r="S29" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1E+96</v>
       </c>
       <c r="T29" s="13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1E+96</v>
       </c>
     </row>
@@ -16668,38 +17298,38 @@
         <v>276</v>
       </c>
       <c r="C30" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1E+108</v>
       </c>
       <c r="D30" s="16" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1마</v>
       </c>
       <c r="E30" s="16">
         <v>20</v>
       </c>
       <c r="F30" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>26600000</v>
       </c>
       <c r="G30" s="16">
         <v>2</v>
       </c>
       <c r="H30" s="16">
+        <f t="shared" si="7"/>
+        <v>0.23040000000000024</v>
+      </c>
+      <c r="I30" s="16">
+        <v>23</v>
+      </c>
+      <c r="J30" s="16">
+        <v>0</v>
+      </c>
+      <c r="K30" s="16">
+        <v>60</v>
+      </c>
+      <c r="L30" s="16">
         <f t="shared" si="6"/>
-        <v>0.23040000000000024</v>
-      </c>
-      <c r="I30" s="16">
-        <v>23</v>
-      </c>
-      <c r="J30" s="16">
-        <v>0</v>
-      </c>
-      <c r="K30" s="16">
-        <v>60</v>
-      </c>
-      <c r="L30" s="16">
-        <f t="shared" si="5"/>
         <v>0.70400000000000007</v>
       </c>
       <c r="M30" s="20">
@@ -16709,7 +17339,7 @@
         <v>307</v>
       </c>
       <c r="O30" s="12" t="str">
-        <f>VLOOKUP(N30,Q:T,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+108</v>
       </c>
       <c r="P30" s="12"/>
@@ -16720,11 +17350,11 @@
         <v>100</v>
       </c>
       <c r="S30" s="13">
-        <f t="shared" ref="S30:S32" si="11">POWER(10,R30)</f>
+        <f t="shared" ref="S30:S32" si="12">POWER(10,R30)</f>
         <v>1E+100</v>
       </c>
       <c r="T30" s="13" t="str">
-        <f t="shared" ref="T30:T32" si="12">RIGHT(S30,R30)</f>
+        <f t="shared" ref="T30:T32" si="13">RIGHT(S30,R30)</f>
         <v>1E+100</v>
       </c>
     </row>
@@ -16733,38 +17363,38 @@
         <v>277</v>
       </c>
       <c r="C31" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.0000000000000001E+108</v>
       </c>
       <c r="D31" s="16" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2마</v>
       </c>
       <c r="E31" s="16">
         <v>20</v>
       </c>
       <c r="F31" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>26700000</v>
       </c>
       <c r="G31" s="16">
         <v>2</v>
       </c>
       <c r="H31" s="16">
+        <f t="shared" si="7"/>
+        <v>0.23080000000000025</v>
+      </c>
+      <c r="I31" s="16">
+        <v>23</v>
+      </c>
+      <c r="J31" s="16">
+        <v>0</v>
+      </c>
+      <c r="K31" s="16">
+        <v>60</v>
+      </c>
+      <c r="L31" s="16">
         <f t="shared" si="6"/>
-        <v>0.23080000000000025</v>
-      </c>
-      <c r="I31" s="16">
-        <v>23</v>
-      </c>
-      <c r="J31" s="16">
-        <v>0</v>
-      </c>
-      <c r="K31" s="16">
-        <v>60</v>
-      </c>
-      <c r="L31" s="16">
-        <f t="shared" si="5"/>
         <v>0.70800000000000007</v>
       </c>
       <c r="M31" s="20">
@@ -16774,7 +17404,7 @@
         <v>307</v>
       </c>
       <c r="O31" s="12" t="str">
-        <f>VLOOKUP(N31,Q:T,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+108</v>
       </c>
       <c r="P31" s="10"/>
@@ -16785,11 +17415,11 @@
         <v>104</v>
       </c>
       <c r="S31" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1E+104</v>
       </c>
       <c r="T31" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1E+104</v>
       </c>
       <c r="U31" s="8"/>
@@ -16807,38 +17437,38 @@
         <v>278</v>
       </c>
       <c r="C32" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4.9999999999999999E+108</v>
       </c>
       <c r="D32" s="16" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5마</v>
       </c>
       <c r="E32" s="16">
         <v>20</v>
       </c>
       <c r="F32" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>26800000</v>
       </c>
       <c r="G32" s="16">
         <v>2</v>
       </c>
       <c r="H32" s="16">
+        <f t="shared" si="7"/>
+        <v>0.23120000000000027</v>
+      </c>
+      <c r="I32" s="16">
+        <v>23</v>
+      </c>
+      <c r="J32" s="16">
+        <v>0</v>
+      </c>
+      <c r="K32" s="16">
+        <v>60</v>
+      </c>
+      <c r="L32" s="16">
         <f t="shared" si="6"/>
-        <v>0.23120000000000027</v>
-      </c>
-      <c r="I32" s="16">
-        <v>23</v>
-      </c>
-      <c r="J32" s="16">
-        <v>0</v>
-      </c>
-      <c r="K32" s="16">
-        <v>60</v>
-      </c>
-      <c r="L32" s="16">
-        <f t="shared" si="5"/>
         <v>0.71200000000000008</v>
       </c>
       <c r="M32" s="20">
@@ -16848,7 +17478,7 @@
         <v>307</v>
       </c>
       <c r="O32" s="12" t="str">
-        <f>VLOOKUP(N32,Q:T,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+108</v>
       </c>
       <c r="P32" s="10"/>
@@ -16859,11 +17489,11 @@
         <v>108</v>
       </c>
       <c r="S32" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1E+108</v>
       </c>
       <c r="T32" s="13" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1E+108</v>
       </c>
       <c r="U32" s="8"/>
@@ -16881,38 +17511,38 @@
         <v>279</v>
       </c>
       <c r="C33" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9.9999999999999998E+108</v>
       </c>
       <c r="D33" s="16" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>10마</v>
       </c>
       <c r="E33" s="16">
         <v>20</v>
       </c>
       <c r="F33" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>26900000</v>
       </c>
       <c r="G33" s="16">
         <v>2</v>
       </c>
       <c r="H33" s="16">
+        <f t="shared" si="7"/>
+        <v>0.23160000000000028</v>
+      </c>
+      <c r="I33" s="16">
+        <v>23</v>
+      </c>
+      <c r="J33" s="16">
+        <v>0</v>
+      </c>
+      <c r="K33" s="16">
+        <v>60</v>
+      </c>
+      <c r="L33" s="16">
         <f t="shared" si="6"/>
-        <v>0.23160000000000028</v>
-      </c>
-      <c r="I33" s="16">
-        <v>23</v>
-      </c>
-      <c r="J33" s="16">
-        <v>0</v>
-      </c>
-      <c r="K33" s="16">
-        <v>60</v>
-      </c>
-      <c r="L33" s="16">
-        <f t="shared" si="5"/>
         <v>0.71600000000000008</v>
       </c>
       <c r="M33" s="20">
@@ -16922,7 +17552,7 @@
         <v>307</v>
       </c>
       <c r="O33" s="12" t="str">
-        <f>VLOOKUP(N33,Q:T,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+108</v>
       </c>
       <c r="P33" s="10"/>
@@ -16933,11 +17563,11 @@
         <v>112</v>
       </c>
       <c r="S33" s="13">
-        <f t="shared" ref="S33:S34" si="13">POWER(10,R33)</f>
+        <f t="shared" ref="S33:S34" si="14">POWER(10,R33)</f>
         <v>9.9999999999999993E+111</v>
       </c>
       <c r="T33" s="13" t="str">
-        <f t="shared" ref="T33:T34" si="14">RIGHT(S33,R33)</f>
+        <f t="shared" ref="T33:T34" si="15">RIGHT(S33,R33)</f>
         <v>1E+112</v>
       </c>
       <c r="U33" s="8"/>
@@ -16955,38 +17585,38 @@
         <v>280</v>
       </c>
       <c r="C34" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2E+109</v>
       </c>
       <c r="D34" s="16" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>20마</v>
       </c>
       <c r="E34" s="16">
         <v>20</v>
       </c>
       <c r="F34" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>27000000</v>
       </c>
       <c r="G34" s="16">
         <v>2</v>
       </c>
       <c r="H34" s="16">
+        <f t="shared" si="7"/>
+        <v>0.23200000000000029</v>
+      </c>
+      <c r="I34" s="16">
+        <v>23</v>
+      </c>
+      <c r="J34" s="16">
+        <v>0</v>
+      </c>
+      <c r="K34" s="16">
+        <v>60</v>
+      </c>
+      <c r="L34" s="16">
         <f t="shared" si="6"/>
-        <v>0.23200000000000029</v>
-      </c>
-      <c r="I34" s="16">
-        <v>23</v>
-      </c>
-      <c r="J34" s="16">
-        <v>0</v>
-      </c>
-      <c r="K34" s="16">
-        <v>60</v>
-      </c>
-      <c r="L34" s="16">
-        <f t="shared" si="5"/>
         <v>0.72000000000000008</v>
       </c>
       <c r="M34" s="20">
@@ -16996,7 +17626,7 @@
         <v>307</v>
       </c>
       <c r="O34" s="12" t="str">
-        <f>VLOOKUP(N34,Q:T,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+108</v>
       </c>
       <c r="P34" s="10"/>
@@ -17007,11 +17637,11 @@
         <v>116</v>
       </c>
       <c r="S34" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1E+116</v>
       </c>
       <c r="T34" s="13" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1E+116</v>
       </c>
       <c r="U34" s="8"/>
@@ -17029,38 +17659,38 @@
         <v>281</v>
       </c>
       <c r="C35" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.0000000000000001E+109</v>
       </c>
       <c r="D35" s="16" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>50마</v>
       </c>
       <c r="E35" s="16">
         <v>20</v>
       </c>
       <c r="F35" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>27100000</v>
       </c>
       <c r="G35" s="16">
         <v>2</v>
       </c>
       <c r="H35" s="16">
+        <f t="shared" si="7"/>
+        <v>0.2324000000000003</v>
+      </c>
+      <c r="I35" s="16">
+        <v>23</v>
+      </c>
+      <c r="J35" s="16">
+        <v>0</v>
+      </c>
+      <c r="K35" s="16">
+        <v>60</v>
+      </c>
+      <c r="L35" s="16">
         <f t="shared" si="6"/>
-        <v>0.2324000000000003</v>
-      </c>
-      <c r="I35" s="16">
-        <v>23</v>
-      </c>
-      <c r="J35" s="16">
-        <v>0</v>
-      </c>
-      <c r="K35" s="16">
-        <v>60</v>
-      </c>
-      <c r="L35" s="16">
-        <f t="shared" si="5"/>
         <v>0.72400000000000009</v>
       </c>
       <c r="M35" s="20">
@@ -17070,7 +17700,7 @@
         <v>307</v>
       </c>
       <c r="O35" s="12" t="str">
-        <f>VLOOKUP(N35,Q:T,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+108</v>
       </c>
       <c r="P35" s="10"/>
@@ -17081,11 +17711,11 @@
         <v>120</v>
       </c>
       <c r="S35" s="13">
-        <f t="shared" ref="S35:S36" si="15">POWER(10,R35)</f>
+        <f t="shared" ref="S35:S36" si="16">POWER(10,R35)</f>
         <v>9.9999999999999998E+119</v>
       </c>
       <c r="T35" s="13" t="str">
-        <f t="shared" ref="T35:T36" si="16">RIGHT(S35,R35)</f>
+        <f t="shared" ref="T35:T36" si="17">RIGHT(S35,R35)</f>
         <v>1E+120</v>
       </c>
       <c r="U35" s="8"/>
@@ -17103,38 +17733,38 @@
         <v>282</v>
       </c>
       <c r="C36" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1E+110</v>
       </c>
       <c r="D36" s="16" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>100마</v>
       </c>
       <c r="E36" s="16">
         <v>20</v>
       </c>
       <c r="F36" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>27200000</v>
       </c>
       <c r="G36" s="16">
         <v>2</v>
       </c>
       <c r="H36" s="16">
+        <f t="shared" si="7"/>
+        <v>0.2400000000000003</v>
+      </c>
+      <c r="I36" s="16">
+        <v>23</v>
+      </c>
+      <c r="J36" s="16">
+        <v>0</v>
+      </c>
+      <c r="K36" s="16">
+        <v>60</v>
+      </c>
+      <c r="L36" s="16">
         <f t="shared" si="6"/>
-        <v>0.2400000000000003</v>
-      </c>
-      <c r="I36" s="16">
-        <v>23</v>
-      </c>
-      <c r="J36" s="16">
-        <v>0</v>
-      </c>
-      <c r="K36" s="16">
-        <v>60</v>
-      </c>
-      <c r="L36" s="16">
-        <f t="shared" si="5"/>
         <v>0.72800000000000009</v>
       </c>
       <c r="M36" s="20">
@@ -17144,7 +17774,7 @@
         <v>307</v>
       </c>
       <c r="O36" s="12" t="str">
-        <f>VLOOKUP(N36,Q:T,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+108</v>
       </c>
       <c r="P36" s="10"/>
@@ -17155,11 +17785,11 @@
         <v>124</v>
       </c>
       <c r="S36" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>9.9999999999999995E+123</v>
       </c>
       <c r="T36" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1E+124</v>
       </c>
       <c r="U36" s="8"/>
@@ -17177,38 +17807,38 @@
         <v>283</v>
       </c>
       <c r="C37" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.5E+110</v>
       </c>
       <c r="D37" s="16" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>150마</v>
       </c>
       <c r="E37" s="16">
         <v>20</v>
       </c>
       <c r="F37" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>27300000</v>
       </c>
       <c r="G37" s="16">
         <v>2</v>
       </c>
       <c r="H37" s="16">
+        <f t="shared" si="7"/>
+        <v>0.24760000000000029</v>
+      </c>
+      <c r="I37" s="16">
+        <v>23</v>
+      </c>
+      <c r="J37" s="16">
+        <v>0</v>
+      </c>
+      <c r="K37" s="16">
+        <v>60</v>
+      </c>
+      <c r="L37" s="16">
         <f t="shared" si="6"/>
-        <v>0.24760000000000029</v>
-      </c>
-      <c r="I37" s="16">
-        <v>23</v>
-      </c>
-      <c r="J37" s="16">
-        <v>0</v>
-      </c>
-      <c r="K37" s="16">
-        <v>60</v>
-      </c>
-      <c r="L37" s="16">
-        <f t="shared" si="5"/>
         <v>0.7320000000000001</v>
       </c>
       <c r="M37" s="20">
@@ -17218,7 +17848,7 @@
         <v>307</v>
       </c>
       <c r="O37" s="12" t="str">
-        <f>VLOOKUP(N37,Q:T,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+108</v>
       </c>
       <c r="P37" s="10"/>
@@ -17229,11 +17859,11 @@
         <v>128</v>
       </c>
       <c r="S37" s="13">
-        <f t="shared" ref="S37:S38" si="17">POWER(10,R37)</f>
+        <f t="shared" ref="S37:S38" si="18">POWER(10,R37)</f>
         <v>1.0000000000000001E+128</v>
       </c>
       <c r="T37" s="13" t="str">
-        <f t="shared" ref="T37:T38" si="18">RIGHT(S37,R37)</f>
+        <f t="shared" ref="T37:T38" si="19">RIGHT(S37,R37)</f>
         <v>1E+128</v>
       </c>
       <c r="U37" s="8"/>
@@ -17251,38 +17881,38 @@
         <v>284</v>
       </c>
       <c r="C38" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2E+110</v>
       </c>
       <c r="D38" s="16" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>200마</v>
       </c>
       <c r="E38" s="16">
         <v>20</v>
       </c>
       <c r="F38" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>27400000</v>
       </c>
       <c r="G38" s="16">
         <v>2</v>
       </c>
       <c r="H38" s="16">
+        <f t="shared" si="7"/>
+        <v>0.2480000000000003</v>
+      </c>
+      <c r="I38" s="16">
+        <v>23</v>
+      </c>
+      <c r="J38" s="16">
+        <v>0</v>
+      </c>
+      <c r="K38" s="16">
+        <v>60</v>
+      </c>
+      <c r="L38" s="16">
         <f t="shared" si="6"/>
-        <v>0.2480000000000003</v>
-      </c>
-      <c r="I38" s="16">
-        <v>23</v>
-      </c>
-      <c r="J38" s="16">
-        <v>0</v>
-      </c>
-      <c r="K38" s="16">
-        <v>60</v>
-      </c>
-      <c r="L38" s="16">
-        <f t="shared" si="5"/>
         <v>0.7360000000000001</v>
       </c>
       <c r="M38" s="20">
@@ -17292,7 +17922,7 @@
         <v>307</v>
       </c>
       <c r="O38" s="12" t="str">
-        <f>VLOOKUP(N38,Q:T,4,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>1E+108</v>
       </c>
       <c r="Q38" s="12" t="s">
@@ -17302,11 +17932,11 @@
         <v>132</v>
       </c>
       <c r="S38" s="13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>9.9999999999999999E+131</v>
       </c>
       <c r="T38" s="13" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1E+132</v>
       </c>
       <c r="U38" s="8"/>
@@ -17324,38 +17954,38 @@
         <v>285</v>
       </c>
       <c r="C39" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.0000000000000001E+110</v>
       </c>
       <c r="D39" s="16" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>300마</v>
       </c>
       <c r="E39" s="16">
         <v>20</v>
       </c>
       <c r="F39" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>27500000</v>
       </c>
       <c r="G39" s="16">
         <v>2</v>
       </c>
       <c r="H39" s="16">
+        <f t="shared" si="7"/>
+        <v>0.24840000000000031</v>
+      </c>
+      <c r="I39" s="16">
+        <v>23</v>
+      </c>
+      <c r="J39" s="16">
+        <v>0</v>
+      </c>
+      <c r="K39" s="16">
+        <v>60</v>
+      </c>
+      <c r="L39" s="16">
         <f t="shared" si="6"/>
-        <v>0.24840000000000031</v>
-      </c>
-      <c r="I39" s="16">
-        <v>23</v>
-      </c>
-      <c r="J39" s="16">
-        <v>0</v>
-      </c>
-      <c r="K39" s="16">
-        <v>60</v>
-      </c>
-      <c r="L39" s="16">
-        <f t="shared" si="5"/>
         <v>0.7400000000000001</v>
       </c>
       <c r="M39" s="20">
@@ -17365,7 +17995,7 @@
         <v>307</v>
       </c>
       <c r="O39" s="12" t="str">
-        <f>VLOOKUP(N39,Q:T,4,FALSE)</f>
+        <f t="shared" ref="O39:O70" si="20">VLOOKUP(N39,Q:T,4,FALSE)</f>
         <v>1E+108</v>
       </c>
       <c r="Q39" s="12" t="s">
@@ -17375,11 +18005,11 @@
         <v>136</v>
       </c>
       <c r="S39" s="13">
-        <f t="shared" ref="S39:S42" si="19">POWER(10,R39)</f>
+        <f t="shared" ref="S39:S42" si="21">POWER(10,R39)</f>
         <v>1.0000000000000001E+136</v>
       </c>
       <c r="T39" s="13" t="str">
-        <f t="shared" ref="T39:T42" si="20">RIGHT(S39,R39)</f>
+        <f t="shared" ref="T39:T42" si="22">RIGHT(S39,R39)</f>
         <v>1E+136</v>
       </c>
       <c r="U39" s="8"/>
@@ -17397,38 +18027,38 @@
         <v>286</v>
       </c>
       <c r="C40" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.0000000000000005E+110</v>
       </c>
       <c r="D40" s="16" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>500마</v>
       </c>
       <c r="E40" s="16">
         <v>20</v>
       </c>
       <c r="F40" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>27600000</v>
       </c>
       <c r="G40" s="16">
         <v>2</v>
       </c>
       <c r="H40" s="16">
+        <f t="shared" si="7"/>
+        <v>0.24880000000000033</v>
+      </c>
+      <c r="I40" s="16">
+        <v>23</v>
+      </c>
+      <c r="J40" s="16">
+        <v>0</v>
+      </c>
+      <c r="K40" s="16">
+        <v>60</v>
+      </c>
+      <c r="L40" s="16">
         <f t="shared" si="6"/>
-        <v>0.24880000000000033</v>
-      </c>
-      <c r="I40" s="16">
-        <v>23</v>
-      </c>
-      <c r="J40" s="16">
-        <v>0</v>
-      </c>
-      <c r="K40" s="16">
-        <v>60</v>
-      </c>
-      <c r="L40" s="16">
-        <f t="shared" si="5"/>
         <v>0.74400000000000011</v>
       </c>
       <c r="M40" s="20">
@@ -17438,7 +18068,7 @@
         <v>307</v>
       </c>
       <c r="O40" s="12" t="str">
-        <f>VLOOKUP(N40,Q:T,4,FALSE)</f>
+        <f t="shared" si="20"/>
         <v>1E+108</v>
       </c>
       <c r="Q40" s="12" t="s">
@@ -17448,11 +18078,11 @@
         <v>140</v>
       </c>
       <c r="S40" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.0000000000000001E+140</v>
       </c>
       <c r="T40" s="13" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+140</v>
       </c>
       <c r="U40" s="8"/>
@@ -17470,38 +18100,38 @@
         <v>287</v>
       </c>
       <c r="C41" s="16">
-        <f t="shared" ref="C41:C44" si="21">M41*O41</f>
+        <f t="shared" ref="C41:C44" si="23">M41*O41</f>
         <v>8.0000000000000002E+110</v>
       </c>
       <c r="D41" s="16" t="str">
-        <f t="shared" ref="D41:D44" si="22">M41&amp;N41</f>
+        <f t="shared" ref="D41:D44" si="24">M41&amp;N41</f>
         <v>800마</v>
       </c>
       <c r="E41" s="16">
         <v>20</v>
       </c>
       <c r="F41" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>27700000</v>
       </c>
       <c r="G41" s="16">
         <v>2</v>
       </c>
       <c r="H41" s="16">
+        <f t="shared" si="7"/>
+        <v>0.24920000000000034</v>
+      </c>
+      <c r="I41" s="16">
+        <v>23</v>
+      </c>
+      <c r="J41" s="16">
+        <v>0</v>
+      </c>
+      <c r="K41" s="16">
+        <v>60</v>
+      </c>
+      <c r="L41" s="16">
         <f t="shared" si="6"/>
-        <v>0.24920000000000034</v>
-      </c>
-      <c r="I41" s="16">
-        <v>23</v>
-      </c>
-      <c r="J41" s="16">
-        <v>0</v>
-      </c>
-      <c r="K41" s="16">
-        <v>60</v>
-      </c>
-      <c r="L41" s="16">
-        <f t="shared" si="5"/>
         <v>0.74800000000000011</v>
       </c>
       <c r="M41" s="20">
@@ -17511,7 +18141,7 @@
         <v>307</v>
       </c>
       <c r="O41" s="12" t="str">
-        <f>VLOOKUP(N41,Q:T,4,FALSE)</f>
+        <f t="shared" si="20"/>
         <v>1E+108</v>
       </c>
       <c r="Q41" s="12" t="s">
@@ -17521,11 +18151,11 @@
         <v>144</v>
       </c>
       <c r="S41" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1E+144</v>
       </c>
       <c r="T41" s="13" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+144</v>
       </c>
       <c r="U41" s="8"/>
@@ -17543,38 +18173,38 @@
         <v>288</v>
       </c>
       <c r="C42" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1.0000000000000001E+111</v>
       </c>
       <c r="D42" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1000마</v>
       </c>
       <c r="E42" s="16">
         <v>20</v>
       </c>
       <c r="F42" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>27800000</v>
       </c>
       <c r="G42" s="16">
         <v>2</v>
       </c>
       <c r="H42" s="16">
+        <f t="shared" si="7"/>
+        <v>0.24960000000000035</v>
+      </c>
+      <c r="I42" s="16">
+        <v>23</v>
+      </c>
+      <c r="J42" s="16">
+        <v>0</v>
+      </c>
+      <c r="K42" s="16">
+        <v>60</v>
+      </c>
+      <c r="L42" s="16">
         <f t="shared" si="6"/>
-        <v>0.24960000000000035</v>
-      </c>
-      <c r="I42" s="16">
-        <v>23</v>
-      </c>
-      <c r="J42" s="16">
-        <v>0</v>
-      </c>
-      <c r="K42" s="16">
-        <v>60</v>
-      </c>
-      <c r="L42" s="16">
-        <f t="shared" si="5"/>
         <v>0.75200000000000011</v>
       </c>
       <c r="M42" s="20">
@@ -17584,7 +18214,7 @@
         <v>307</v>
       </c>
       <c r="O42" s="12" t="str">
-        <f>VLOOKUP(N42,Q:T,4,FALSE)</f>
+        <f t="shared" si="20"/>
         <v>1E+108</v>
       </c>
       <c r="Q42" s="12" t="s">
@@ -17594,11 +18224,11 @@
         <v>148</v>
       </c>
       <c r="S42" s="13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1E+148</v>
       </c>
       <c r="T42" s="13" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1E+148</v>
       </c>
       <c r="U42" s="8"/>
@@ -17616,25 +18246,25 @@
         <v>289</v>
       </c>
       <c r="C43" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2.0000000000000002E+111</v>
       </c>
       <c r="D43" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>2000마</v>
       </c>
       <c r="E43" s="16">
         <v>20</v>
       </c>
       <c r="F43" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>27900000</v>
       </c>
       <c r="G43" s="16">
         <v>2</v>
       </c>
       <c r="H43" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.25000000000000033</v>
       </c>
       <c r="I43" s="16">
@@ -17657,7 +18287,7 @@
         <v>307</v>
       </c>
       <c r="O43" s="12" t="str">
-        <f>VLOOKUP(N43,Q:T,4,FALSE)</f>
+        <f t="shared" si="20"/>
         <v>1E+108</v>
       </c>
       <c r="S43" s="8"/>
@@ -17677,38 +18307,38 @@
         <v>290</v>
       </c>
       <c r="C44" s="16">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4.9999999999999997E+111</v>
       </c>
       <c r="D44" s="16" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>5000마</v>
       </c>
       <c r="E44" s="16">
         <v>20</v>
       </c>
       <c r="F44" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28000000</v>
       </c>
       <c r="G44" s="16">
         <v>2</v>
       </c>
       <c r="H44" s="16">
+        <f t="shared" si="7"/>
+        <v>0.25040000000000034</v>
+      </c>
+      <c r="I44" s="16">
+        <v>23</v>
+      </c>
+      <c r="J44" s="16">
+        <v>0</v>
+      </c>
+      <c r="K44" s="16">
+        <v>60</v>
+      </c>
+      <c r="L44" s="16">
         <f t="shared" si="6"/>
-        <v>0.25040000000000034</v>
-      </c>
-      <c r="I44" s="16">
-        <v>23</v>
-      </c>
-      <c r="J44" s="16">
-        <v>0</v>
-      </c>
-      <c r="K44" s="16">
-        <v>60</v>
-      </c>
-      <c r="L44" s="16">
-        <f t="shared" si="5"/>
         <v>0.76000000000000012</v>
       </c>
       <c r="M44" s="20">
@@ -17718,7 +18348,7 @@
         <v>307</v>
       </c>
       <c r="O44" s="12" t="str">
-        <f>VLOOKUP(N44,Q:T,4,FALSE)</f>
+        <f t="shared" si="20"/>
         <v>1E+108</v>
       </c>
       <c r="S44" s="8"/>
@@ -17738,38 +18368,38 @@
         <v>291</v>
       </c>
       <c r="C45" s="16">
-        <f t="shared" ref="C45:C59" si="23">M45*O45</f>
+        <f t="shared" ref="C45:C59" si="25">M45*O45</f>
         <v>9.9999999999999993E+111</v>
       </c>
       <c r="D45" s="16" t="str">
-        <f t="shared" ref="D45:D59" si="24">M45&amp;N45</f>
+        <f t="shared" ref="D45:D59" si="26">M45&amp;N45</f>
         <v>1살</v>
       </c>
       <c r="E45" s="16">
         <v>20</v>
       </c>
       <c r="F45" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28100000</v>
       </c>
       <c r="G45" s="16">
         <v>2</v>
       </c>
       <c r="H45" s="16">
+        <f t="shared" si="7"/>
+        <v>0.25080000000000036</v>
+      </c>
+      <c r="I45" s="16">
+        <v>23</v>
+      </c>
+      <c r="J45" s="16">
+        <v>0</v>
+      </c>
+      <c r="K45" s="16">
+        <v>60</v>
+      </c>
+      <c r="L45" s="16">
         <f t="shared" si="6"/>
-        <v>0.25080000000000036</v>
-      </c>
-      <c r="I45" s="16">
-        <v>23</v>
-      </c>
-      <c r="J45" s="16">
-        <v>0</v>
-      </c>
-      <c r="K45" s="16">
-        <v>60</v>
-      </c>
-      <c r="L45" s="16">
-        <f t="shared" si="5"/>
         <v>0.76400000000000012</v>
       </c>
       <c r="M45" s="20">
@@ -17779,7 +18409,7 @@
         <v>331</v>
       </c>
       <c r="O45" s="12" t="str">
-        <f>VLOOKUP(N45,Q:T,4,FALSE)</f>
+        <f t="shared" si="20"/>
         <v>1E+112</v>
       </c>
       <c r="S45" s="8"/>
@@ -17799,38 +18429,38 @@
         <v>292</v>
       </c>
       <c r="C46" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1.9999999999999999E+112</v>
       </c>
       <c r="D46" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2살</v>
       </c>
       <c r="E46" s="16">
         <v>20</v>
       </c>
       <c r="F46" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28200000</v>
       </c>
       <c r="G46" s="16">
         <v>2</v>
       </c>
       <c r="H46" s="16">
+        <f t="shared" si="7"/>
+        <v>0.25120000000000037</v>
+      </c>
+      <c r="I46" s="16">
+        <v>23</v>
+      </c>
+      <c r="J46" s="16">
+        <v>0</v>
+      </c>
+      <c r="K46" s="16">
+        <v>60</v>
+      </c>
+      <c r="L46" s="16">
         <f t="shared" si="6"/>
-        <v>0.25120000000000037</v>
-      </c>
-      <c r="I46" s="16">
-        <v>23</v>
-      </c>
-      <c r="J46" s="16">
-        <v>0</v>
-      </c>
-      <c r="K46" s="16">
-        <v>60</v>
-      </c>
-      <c r="L46" s="16">
-        <f t="shared" si="5"/>
         <v>0.76800000000000013</v>
       </c>
       <c r="M46" s="20">
@@ -17840,7 +18470,7 @@
         <v>331</v>
       </c>
       <c r="O46" s="12" t="str">
-        <f>VLOOKUP(N46,Q:T,4,FALSE)</f>
+        <f t="shared" si="20"/>
         <v>1E+112</v>
       </c>
       <c r="S46" s="8"/>
@@ -17860,38 +18490,38 @@
         <v>293</v>
       </c>
       <c r="C47" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>5.0000000000000001E+112</v>
       </c>
       <c r="D47" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>5살</v>
       </c>
       <c r="E47" s="16">
         <v>20</v>
       </c>
       <c r="F47" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28300000</v>
       </c>
       <c r="G47" s="16">
         <v>2</v>
       </c>
       <c r="H47" s="16">
+        <f t="shared" si="7"/>
+        <v>0.25160000000000038</v>
+      </c>
+      <c r="I47" s="16">
+        <v>23</v>
+      </c>
+      <c r="J47" s="16">
+        <v>0</v>
+      </c>
+      <c r="K47" s="16">
+        <v>60</v>
+      </c>
+      <c r="L47" s="16">
         <f t="shared" si="6"/>
-        <v>0.25160000000000038</v>
-      </c>
-      <c r="I47" s="16">
-        <v>23</v>
-      </c>
-      <c r="J47" s="16">
-        <v>0</v>
-      </c>
-      <c r="K47" s="16">
-        <v>60</v>
-      </c>
-      <c r="L47" s="16">
-        <f t="shared" si="5"/>
         <v>0.77200000000000013</v>
       </c>
       <c r="M47" s="20">
@@ -17901,7 +18531,7 @@
         <v>331</v>
       </c>
       <c r="O47" s="12" t="str">
-        <f>VLOOKUP(N47,Q:T,4,FALSE)</f>
+        <f t="shared" si="20"/>
         <v>1E+112</v>
       </c>
       <c r="S47" s="8"/>
@@ -17921,38 +18551,38 @@
         <v>294</v>
       </c>
       <c r="C48" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1E+113</v>
       </c>
       <c r="D48" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>10살</v>
       </c>
       <c r="E48" s="16">
         <v>20</v>
       </c>
       <c r="F48" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28400000</v>
       </c>
       <c r="G48" s="16">
         <v>2</v>
       </c>
       <c r="H48" s="16">
+        <f t="shared" si="7"/>
+        <v>0.25200000000000039</v>
+      </c>
+      <c r="I48" s="16">
+        <v>23</v>
+      </c>
+      <c r="J48" s="16">
+        <v>0</v>
+      </c>
+      <c r="K48" s="16">
+        <v>60</v>
+      </c>
+      <c r="L48" s="16">
         <f t="shared" si="6"/>
-        <v>0.25200000000000039</v>
-      </c>
-      <c r="I48" s="16">
-        <v>23</v>
-      </c>
-      <c r="J48" s="16">
-        <v>0</v>
-      </c>
-      <c r="K48" s="16">
-        <v>60</v>
-      </c>
-      <c r="L48" s="16">
-        <f t="shared" si="5"/>
         <v>0.77600000000000013</v>
       </c>
       <c r="M48" s="20">
@@ -17962,7 +18592,7 @@
         <v>331</v>
       </c>
       <c r="O48" s="12" t="str">
-        <f>VLOOKUP(N48,Q:T,4,FALSE)</f>
+        <f t="shared" si="20"/>
         <v>1E+112</v>
       </c>
       <c r="S48" s="8"/>
@@ -17982,38 +18612,38 @@
         <v>295</v>
       </c>
       <c r="C49" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>2E+113</v>
       </c>
       <c r="D49" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>20살</v>
       </c>
       <c r="E49" s="16">
         <v>20</v>
       </c>
       <c r="F49" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28500000</v>
       </c>
       <c r="G49" s="16">
         <v>2</v>
       </c>
       <c r="H49" s="16">
+        <f t="shared" si="7"/>
+        <v>0.2524000000000004</v>
+      </c>
+      <c r="I49" s="16">
+        <v>23</v>
+      </c>
+      <c r="J49" s="16">
+        <v>0</v>
+      </c>
+      <c r="K49" s="16">
+        <v>60</v>
+      </c>
+      <c r="L49" s="16">
         <f t="shared" si="6"/>
-        <v>0.2524000000000004</v>
-      </c>
-      <c r="I49" s="16">
-        <v>23</v>
-      </c>
-      <c r="J49" s="16">
-        <v>0</v>
-      </c>
-      <c r="K49" s="16">
-        <v>60</v>
-      </c>
-      <c r="L49" s="16">
-        <f t="shared" si="5"/>
         <v>0.78000000000000014</v>
       </c>
       <c r="M49" s="20">
@@ -18023,7 +18653,7 @@
         <v>331</v>
       </c>
       <c r="O49" s="12" t="str">
-        <f>VLOOKUP(N49,Q:T,4,FALSE)</f>
+        <f t="shared" si="20"/>
         <v>1E+112</v>
       </c>
       <c r="S49" s="8"/>
@@ -18043,38 +18673,38 @@
         <v>296</v>
       </c>
       <c r="C50" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>4.9999999999999994E+113</v>
       </c>
       <c r="D50" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>50살</v>
       </c>
       <c r="E50" s="16">
         <v>20</v>
       </c>
       <c r="F50" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28600000</v>
       </c>
       <c r="G50" s="16">
         <v>2</v>
       </c>
       <c r="H50" s="16">
+        <f t="shared" si="7"/>
+        <v>0.2600000000000004</v>
+      </c>
+      <c r="I50" s="16">
+        <v>23</v>
+      </c>
+      <c r="J50" s="16">
+        <v>0</v>
+      </c>
+      <c r="K50" s="16">
+        <v>60</v>
+      </c>
+      <c r="L50" s="16">
         <f t="shared" si="6"/>
-        <v>0.2600000000000004</v>
-      </c>
-      <c r="I50" s="16">
-        <v>23</v>
-      </c>
-      <c r="J50" s="16">
-        <v>0</v>
-      </c>
-      <c r="K50" s="16">
-        <v>60</v>
-      </c>
-      <c r="L50" s="16">
-        <f t="shared" si="5"/>
         <v>0.78400000000000014</v>
       </c>
       <c r="M50" s="20">
@@ -18084,7 +18714,7 @@
         <v>331</v>
       </c>
       <c r="O50" s="12" t="str">
-        <f>VLOOKUP(N50,Q:T,4,FALSE)</f>
+        <f t="shared" si="20"/>
         <v>1E+112</v>
       </c>
       <c r="S50" s="8"/>
@@ -18104,38 +18734,38 @@
         <v>297</v>
       </c>
       <c r="C51" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>9.9999999999999988E+113</v>
       </c>
       <c r="D51" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>100살</v>
       </c>
       <c r="E51" s="16">
         <v>20</v>
       </c>
       <c r="F51" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28700000</v>
       </c>
       <c r="G51" s="16">
         <v>2</v>
       </c>
       <c r="H51" s="16">
+        <f t="shared" si="7"/>
+        <v>0.26040000000000041</v>
+      </c>
+      <c r="I51" s="16">
+        <v>23</v>
+      </c>
+      <c r="J51" s="16">
+        <v>0</v>
+      </c>
+      <c r="K51" s="16">
+        <v>60</v>
+      </c>
+      <c r="L51" s="16">
         <f t="shared" si="6"/>
-        <v>0.26040000000000041</v>
-      </c>
-      <c r="I51" s="16">
-        <v>23</v>
-      </c>
-      <c r="J51" s="16">
-        <v>0</v>
-      </c>
-      <c r="K51" s="16">
-        <v>60</v>
-      </c>
-      <c r="L51" s="16">
-        <f t="shared" si="5"/>
         <v>0.78800000000000014</v>
       </c>
       <c r="M51" s="20">
@@ -18145,7 +18775,7 @@
         <v>331</v>
       </c>
       <c r="O51" s="12" t="str">
-        <f>VLOOKUP(N51,Q:T,4,FALSE)</f>
+        <f t="shared" si="20"/>
         <v>1E+112</v>
       </c>
       <c r="S51" s="8"/>
@@ -18165,38 +18795,38 @@
         <v>298</v>
       </c>
       <c r="C52" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1.5E+114</v>
       </c>
       <c r="D52" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>150살</v>
       </c>
       <c r="E52" s="16">
         <v>20</v>
       </c>
       <c r="F52" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28800000</v>
       </c>
       <c r="G52" s="16">
         <v>2</v>
       </c>
       <c r="H52" s="16">
+        <f t="shared" si="7"/>
+        <v>0.26080000000000042</v>
+      </c>
+      <c r="I52" s="16">
+        <v>23</v>
+      </c>
+      <c r="J52" s="16">
+        <v>0</v>
+      </c>
+      <c r="K52" s="16">
+        <v>60</v>
+      </c>
+      <c r="L52" s="16">
         <f t="shared" si="6"/>
-        <v>0.26080000000000042</v>
-      </c>
-      <c r="I52" s="16">
-        <v>23</v>
-      </c>
-      <c r="J52" s="16">
-        <v>0</v>
-      </c>
-      <c r="K52" s="16">
-        <v>60</v>
-      </c>
-      <c r="L52" s="16">
-        <f t="shared" si="5"/>
         <v>0.79200000000000015</v>
       </c>
       <c r="M52" s="20">
@@ -18206,7 +18836,7 @@
         <v>331</v>
       </c>
       <c r="O52" s="12" t="str">
-        <f>VLOOKUP(N52,Q:T,4,FALSE)</f>
+        <f t="shared" si="20"/>
         <v>1E+112</v>
       </c>
       <c r="S52" s="8"/>
@@ -18226,38 +18856,38 @@
         <v>299</v>
       </c>
       <c r="C53" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1.9999999999999998E+114</v>
       </c>
       <c r="D53" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>200살</v>
       </c>
       <c r="E53" s="16">
         <v>20</v>
       </c>
       <c r="F53" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28900000</v>
       </c>
       <c r="G53" s="16">
         <v>2</v>
       </c>
       <c r="H53" s="16">
+        <f t="shared" si="7"/>
+        <v>0.26120000000000043</v>
+      </c>
+      <c r="I53" s="16">
+        <v>23</v>
+      </c>
+      <c r="J53" s="16">
+        <v>0</v>
+      </c>
+      <c r="K53" s="16">
+        <v>60</v>
+      </c>
+      <c r="L53" s="16">
         <f t="shared" si="6"/>
-        <v>0.26120000000000043</v>
-      </c>
-      <c r="I53" s="16">
-        <v>23</v>
-      </c>
-      <c r="J53" s="16">
-        <v>0</v>
-      </c>
-      <c r="K53" s="16">
-        <v>60</v>
-      </c>
-      <c r="L53" s="16">
-        <f t="shared" si="5"/>
         <v>0.79600000000000015</v>
       </c>
       <c r="M53" s="20">
@@ -18267,7 +18897,7 @@
         <v>331</v>
       </c>
       <c r="O53" s="12" t="str">
-        <f>VLOOKUP(N53,Q:T,4,FALSE)</f>
+        <f t="shared" si="20"/>
         <v>1E+112</v>
       </c>
       <c r="S53" s="8"/>
@@ -18287,38 +18917,38 @@
         <v>300</v>
       </c>
       <c r="C54" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>3E+114</v>
       </c>
       <c r="D54" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>300살</v>
       </c>
       <c r="E54" s="16">
         <v>20</v>
       </c>
       <c r="F54" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29000000</v>
       </c>
       <c r="G54" s="16">
         <v>2</v>
       </c>
       <c r="H54" s="16">
+        <f t="shared" si="7"/>
+        <v>0.26160000000000044</v>
+      </c>
+      <c r="I54" s="16">
+        <v>23</v>
+      </c>
+      <c r="J54" s="16">
+        <v>0</v>
+      </c>
+      <c r="K54" s="16">
+        <v>60</v>
+      </c>
+      <c r="L54" s="16">
         <f t="shared" si="6"/>
-        <v>0.26160000000000044</v>
-      </c>
-      <c r="I54" s="16">
-        <v>23</v>
-      </c>
-      <c r="J54" s="16">
-        <v>0</v>
-      </c>
-      <c r="K54" s="16">
-        <v>60</v>
-      </c>
-      <c r="L54" s="16">
-        <f t="shared" si="5"/>
         <v>0.80000000000000016</v>
       </c>
       <c r="M54" s="20">
@@ -18328,7 +18958,7 @@
         <v>331</v>
       </c>
       <c r="O54" s="12" t="str">
-        <f>VLOOKUP(N54,Q:T,4,FALSE)</f>
+        <f t="shared" si="20"/>
         <v>1E+112</v>
       </c>
       <c r="S54" s="8"/>
@@ -18348,38 +18978,38 @@
         <v>301</v>
       </c>
       <c r="C55" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>5.0000000000000001E+114</v>
       </c>
       <c r="D55" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>500살</v>
       </c>
       <c r="E55" s="16">
         <v>20</v>
       </c>
       <c r="F55" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29100000</v>
       </c>
       <c r="G55" s="16">
         <v>2</v>
       </c>
       <c r="H55" s="16">
+        <f t="shared" si="7"/>
+        <v>0.26200000000000045</v>
+      </c>
+      <c r="I55" s="16">
+        <v>23</v>
+      </c>
+      <c r="J55" s="16">
+        <v>0</v>
+      </c>
+      <c r="K55" s="16">
+        <v>60</v>
+      </c>
+      <c r="L55" s="16">
         <f t="shared" si="6"/>
-        <v>0.26200000000000045</v>
-      </c>
-      <c r="I55" s="16">
-        <v>23</v>
-      </c>
-      <c r="J55" s="16">
-        <v>0</v>
-      </c>
-      <c r="K55" s="16">
-        <v>60</v>
-      </c>
-      <c r="L55" s="16">
-        <f t="shared" si="5"/>
         <v>0.80400000000000016</v>
       </c>
       <c r="M55" s="20">
@@ -18389,7 +19019,7 @@
         <v>331</v>
       </c>
       <c r="O55" s="12" t="str">
-        <f>VLOOKUP(N55,Q:T,4,FALSE)</f>
+        <f t="shared" si="20"/>
         <v>1E+112</v>
       </c>
       <c r="S55" s="8"/>
@@ -18409,38 +19039,38 @@
         <v>302</v>
       </c>
       <c r="C56" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>7.999999999999999E+114</v>
       </c>
       <c r="D56" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>800살</v>
       </c>
       <c r="E56" s="16">
         <v>20</v>
       </c>
       <c r="F56" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29200000</v>
       </c>
       <c r="G56" s="16">
         <v>2</v>
       </c>
       <c r="H56" s="16">
+        <f t="shared" si="7"/>
+        <v>0.26240000000000047</v>
+      </c>
+      <c r="I56" s="16">
+        <v>23</v>
+      </c>
+      <c r="J56" s="16">
+        <v>0</v>
+      </c>
+      <c r="K56" s="16">
+        <v>60</v>
+      </c>
+      <c r="L56" s="16">
         <f t="shared" si="6"/>
-        <v>0.26240000000000047</v>
-      </c>
-      <c r="I56" s="16">
-        <v>23</v>
-      </c>
-      <c r="J56" s="16">
-        <v>0</v>
-      </c>
-      <c r="K56" s="16">
-        <v>60</v>
-      </c>
-      <c r="L56" s="16">
-        <f t="shared" si="5"/>
         <v>0.80800000000000016</v>
       </c>
       <c r="M56" s="20">
@@ -18450,7 +19080,7 @@
         <v>331</v>
       </c>
       <c r="O56" s="12" t="str">
-        <f>VLOOKUP(N56,Q:T,4,FALSE)</f>
+        <f t="shared" si="20"/>
         <v>1E+112</v>
       </c>
       <c r="S56" s="8"/>
@@ -18470,38 +19100,38 @@
         <v>303</v>
       </c>
       <c r="C57" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1E+115</v>
       </c>
       <c r="D57" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1000살</v>
       </c>
       <c r="E57" s="16">
         <v>20</v>
       </c>
       <c r="F57" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29300000</v>
       </c>
       <c r="G57" s="16">
         <v>2</v>
       </c>
       <c r="H57" s="16">
+        <f t="shared" si="7"/>
+        <v>0.27000000000000046</v>
+      </c>
+      <c r="I57" s="16">
+        <v>23</v>
+      </c>
+      <c r="J57" s="16">
+        <v>0</v>
+      </c>
+      <c r="K57" s="16">
+        <v>60</v>
+      </c>
+      <c r="L57" s="16">
         <f t="shared" si="6"/>
-        <v>0.27000000000000046</v>
-      </c>
-      <c r="I57" s="16">
-        <v>23</v>
-      </c>
-      <c r="J57" s="16">
-        <v>0</v>
-      </c>
-      <c r="K57" s="16">
-        <v>60</v>
-      </c>
-      <c r="L57" s="16">
-        <f t="shared" si="5"/>
         <v>0.81200000000000017</v>
       </c>
       <c r="M57" s="20">
@@ -18511,7 +19141,7 @@
         <v>331</v>
       </c>
       <c r="O57" s="12" t="str">
-        <f>VLOOKUP(N57,Q:T,4,FALSE)</f>
+        <f t="shared" si="20"/>
         <v>1E+112</v>
       </c>
       <c r="S57" s="8"/>
@@ -18531,38 +19161,38 @@
         <v>304</v>
       </c>
       <c r="C58" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>2E+115</v>
       </c>
       <c r="D58" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2000살</v>
       </c>
       <c r="E58" s="16">
         <v>20</v>
       </c>
       <c r="F58" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29400000</v>
       </c>
       <c r="G58" s="16">
         <v>2</v>
       </c>
       <c r="H58" s="16">
+        <f t="shared" si="7"/>
+        <v>0.27040000000000047</v>
+      </c>
+      <c r="I58" s="16">
+        <v>23</v>
+      </c>
+      <c r="J58" s="16">
+        <v>0</v>
+      </c>
+      <c r="K58" s="16">
+        <v>60</v>
+      </c>
+      <c r="L58" s="16">
         <f t="shared" si="6"/>
-        <v>0.27040000000000047</v>
-      </c>
-      <c r="I58" s="16">
-        <v>23</v>
-      </c>
-      <c r="J58" s="16">
-        <v>0</v>
-      </c>
-      <c r="K58" s="16">
-        <v>60</v>
-      </c>
-      <c r="L58" s="16">
-        <f t="shared" si="5"/>
         <v>0.81600000000000017</v>
       </c>
       <c r="M58" s="20">
@@ -18572,7 +19202,7 @@
         <v>331</v>
       </c>
       <c r="O58" s="12" t="str">
-        <f>VLOOKUP(N58,Q:T,4,FALSE)</f>
+        <f t="shared" si="20"/>
         <v>1E+112</v>
       </c>
       <c r="S58" s="8"/>
@@ -18592,38 +19222,38 @@
         <v>305</v>
       </c>
       <c r="C59" s="16">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>5.0000000000000001E+115</v>
       </c>
       <c r="D59" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>5000살</v>
       </c>
       <c r="E59" s="16">
         <v>20</v>
       </c>
       <c r="F59" s="16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29500000</v>
       </c>
       <c r="G59" s="16">
         <v>2</v>
       </c>
       <c r="H59" s="16">
+        <f t="shared" si="7"/>
+        <v>0.27080000000000048</v>
+      </c>
+      <c r="I59" s="16">
+        <v>23</v>
+      </c>
+      <c r="J59" s="16">
+        <v>0</v>
+      </c>
+      <c r="K59" s="16">
+        <v>60</v>
+      </c>
+      <c r="L59" s="16">
         <f t="shared" si="6"/>
-        <v>0.27080000000000048</v>
-      </c>
-      <c r="I59" s="16">
-        <v>23</v>
-      </c>
-      <c r="J59" s="16">
-        <v>0</v>
-      </c>
-      <c r="K59" s="16">
-        <v>60</v>
-      </c>
-      <c r="L59" s="16">
-        <f t="shared" si="5"/>
         <v>0.82000000000000017</v>
       </c>
       <c r="M59" s="20">
@@ -18633,7 +19263,7 @@
         <v>331</v>
       </c>
       <c r="O59" s="12" t="str">
-        <f>VLOOKUP(N59,Q:T,4,FALSE)</f>
+        <f t="shared" si="20"/>
         <v>1E+112</v>
       </c>
       <c r="S59" s="8"/>
@@ -18653,25 +19283,25 @@
         <v>306</v>
       </c>
       <c r="C60" s="16">
-        <f t="shared" ref="C60:C74" si="25">M60*O60</f>
+        <f t="shared" ref="C60:C74" si="27">M60*O60</f>
         <v>1E+116</v>
       </c>
       <c r="D60" s="16" t="str">
-        <f t="shared" ref="D60:D74" si="26">M60&amp;N60</f>
+        <f t="shared" ref="D60:D74" si="28">M60&amp;N60</f>
         <v>1섬</v>
       </c>
       <c r="E60" s="16">
         <v>20</v>
       </c>
       <c r="F60" s="16">
-        <f t="shared" ref="F60:F119" si="27">F59+100000</f>
+        <f t="shared" ref="F60:F119" si="29">F59+100000</f>
         <v>29600000</v>
       </c>
       <c r="G60" s="16">
         <v>2</v>
       </c>
       <c r="H60" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.2712000000000005</v>
       </c>
       <c r="I60" s="16">
@@ -18684,7 +19314,7 @@
         <v>60</v>
       </c>
       <c r="L60" s="16">
-        <f t="shared" ref="L60:L119" si="28">L59+0.004</f>
+        <f t="shared" ref="L60:L119" si="30">L59+0.004</f>
         <v>0.82400000000000018</v>
       </c>
       <c r="M60" s="20">
@@ -18694,7 +19324,7 @@
         <v>332</v>
       </c>
       <c r="O60" s="12" t="str">
-        <f>VLOOKUP(N60,Q:T,4,FALSE)</f>
+        <f t="shared" si="20"/>
         <v>1E+116</v>
       </c>
       <c r="S60" s="8"/>
@@ -18714,25 +19344,25 @@
         <v>307</v>
       </c>
       <c r="C61" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>2E+116</v>
       </c>
       <c r="D61" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>2섬</v>
       </c>
       <c r="E61" s="16">
         <v>20</v>
       </c>
       <c r="F61" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>29700000</v>
       </c>
       <c r="G61" s="16">
         <v>2</v>
       </c>
       <c r="H61" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.27160000000000051</v>
       </c>
       <c r="I61" s="16">
@@ -18745,7 +19375,7 @@
         <v>60</v>
       </c>
       <c r="L61" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.82800000000000018</v>
       </c>
       <c r="M61" s="20">
@@ -18755,7 +19385,7 @@
         <v>332</v>
       </c>
       <c r="O61" s="12" t="str">
-        <f>VLOOKUP(N61,Q:T,4,FALSE)</f>
+        <f t="shared" si="20"/>
         <v>1E+116</v>
       </c>
       <c r="S61" s="8"/>
@@ -18775,25 +19405,25 @@
         <v>308</v>
       </c>
       <c r="C62" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>5.0000000000000003E+116</v>
       </c>
       <c r="D62" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>5섬</v>
       </c>
       <c r="E62" s="16">
         <v>20</v>
       </c>
       <c r="F62" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>29800000</v>
       </c>
       <c r="G62" s="16">
         <v>2</v>
       </c>
       <c r="H62" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.27200000000000052</v>
       </c>
       <c r="I62" s="16">
@@ -18806,7 +19436,7 @@
         <v>60</v>
       </c>
       <c r="L62" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.83200000000000018</v>
       </c>
       <c r="M62" s="20">
@@ -18816,7 +19446,7 @@
         <v>332</v>
       </c>
       <c r="O62" s="12" t="str">
-        <f>VLOOKUP(N62,Q:T,4,FALSE)</f>
+        <f t="shared" si="20"/>
         <v>1E+116</v>
       </c>
       <c r="S62" s="8"/>
@@ -18836,25 +19466,25 @@
         <v>309</v>
       </c>
       <c r="C63" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.0000000000000001E+117</v>
       </c>
       <c r="D63" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>10섬</v>
       </c>
       <c r="E63" s="16">
         <v>20</v>
       </c>
       <c r="F63" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>29900000</v>
       </c>
       <c r="G63" s="16">
         <v>2</v>
       </c>
       <c r="H63" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.27240000000000053</v>
       </c>
       <c r="I63" s="16">
@@ -18867,7 +19497,7 @@
         <v>60</v>
       </c>
       <c r="L63" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.83600000000000019</v>
       </c>
       <c r="M63" s="20">
@@ -18877,7 +19507,7 @@
         <v>332</v>
       </c>
       <c r="O63" s="12" t="str">
-        <f>VLOOKUP(N63,Q:T,4,FALSE)</f>
+        <f t="shared" si="20"/>
         <v>1E+116</v>
       </c>
     </row>
@@ -18886,25 +19516,25 @@
         <v>310</v>
       </c>
       <c r="C64" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>2.0000000000000001E+117</v>
       </c>
       <c r="D64" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>20섬</v>
       </c>
       <c r="E64" s="16">
         <v>20</v>
       </c>
       <c r="F64" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>30000000</v>
       </c>
       <c r="G64" s="16">
         <v>2</v>
       </c>
       <c r="H64" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.27280000000000054</v>
       </c>
       <c r="I64" s="16">
@@ -18917,7 +19547,7 @@
         <v>60</v>
       </c>
       <c r="L64" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.84000000000000019</v>
       </c>
       <c r="M64" s="20">
@@ -18927,7 +19557,7 @@
         <v>332</v>
       </c>
       <c r="O64" s="12" t="str">
-        <f>VLOOKUP(N64,Q:T,4,FALSE)</f>
+        <f t="shared" si="20"/>
         <v>1E+116</v>
       </c>
     </row>
@@ -18936,25 +19566,25 @@
         <v>311</v>
       </c>
       <c r="C65" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>4.9999999999999998E+117</v>
       </c>
       <c r="D65" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>50섬</v>
       </c>
       <c r="E65" s="16">
         <v>20</v>
       </c>
       <c r="F65" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>30100000</v>
       </c>
       <c r="G65" s="16">
         <v>2</v>
       </c>
       <c r="H65" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.27320000000000055</v>
       </c>
       <c r="I65" s="16">
@@ -18967,7 +19597,7 @@
         <v>60</v>
       </c>
       <c r="L65" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.84400000000000019</v>
       </c>
       <c r="M65" s="20">
@@ -18977,7 +19607,7 @@
         <v>332</v>
       </c>
       <c r="O65" s="12" t="str">
-        <f>VLOOKUP(N65,Q:T,4,FALSE)</f>
+        <f t="shared" si="20"/>
         <v>1E+116</v>
       </c>
     </row>
@@ -18986,25 +19616,25 @@
         <v>312</v>
       </c>
       <c r="C66" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>9.9999999999999997E+117</v>
       </c>
       <c r="D66" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>100섬</v>
       </c>
       <c r="E66" s="16">
         <v>20</v>
       </c>
       <c r="F66" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>30200000</v>
       </c>
       <c r="G66" s="16">
         <v>2</v>
       </c>
       <c r="H66" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.27360000000000056</v>
       </c>
       <c r="I66" s="16">
@@ -19017,7 +19647,7 @@
         <v>60</v>
       </c>
       <c r="L66" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.8480000000000002</v>
       </c>
       <c r="M66" s="20">
@@ -19027,7 +19657,7 @@
         <v>332</v>
       </c>
       <c r="O66" s="12" t="str">
-        <f>VLOOKUP(N66,Q:T,4,FALSE)</f>
+        <f t="shared" si="20"/>
         <v>1E+116</v>
       </c>
     </row>
@@ -19036,25 +19666,25 @@
         <v>313</v>
       </c>
       <c r="C67" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.5E+118</v>
       </c>
       <c r="D67" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>150섬</v>
       </c>
       <c r="E67" s="16">
         <v>20</v>
       </c>
       <c r="F67" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>30300000</v>
       </c>
       <c r="G67" s="16">
         <v>2</v>
       </c>
       <c r="H67" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.27400000000000058</v>
       </c>
       <c r="I67" s="16">
@@ -19067,7 +19697,7 @@
         <v>60</v>
       </c>
       <c r="L67" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.8520000000000002</v>
       </c>
       <c r="M67" s="20">
@@ -19077,7 +19707,7 @@
         <v>332</v>
       </c>
       <c r="O67" s="12" t="str">
-        <f>VLOOKUP(N67,Q:T,4,FALSE)</f>
+        <f t="shared" si="20"/>
         <v>1E+116</v>
       </c>
     </row>
@@ -19086,25 +19716,25 @@
         <v>314</v>
       </c>
       <c r="C68" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.9999999999999999E+118</v>
       </c>
       <c r="D68" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>200섬</v>
       </c>
       <c r="E68" s="16">
         <v>20</v>
       </c>
       <c r="F68" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>30400000</v>
       </c>
       <c r="G68" s="16">
         <v>2</v>
       </c>
       <c r="H68" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.27440000000000059</v>
       </c>
       <c r="I68" s="16">
@@ -19117,7 +19747,7 @@
         <v>60</v>
       </c>
       <c r="L68" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.85600000000000021</v>
       </c>
       <c r="M68" s="20">
@@ -19127,7 +19757,7 @@
         <v>332</v>
       </c>
       <c r="O68" s="12" t="str">
-        <f>VLOOKUP(N68,Q:T,4,FALSE)</f>
+        <f t="shared" si="20"/>
         <v>1E+116</v>
       </c>
     </row>
@@ -19136,25 +19766,25 @@
         <v>315</v>
       </c>
       <c r="C69" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3E+118</v>
       </c>
       <c r="D69" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>300섬</v>
       </c>
       <c r="E69" s="16">
         <v>20</v>
       </c>
       <c r="F69" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>30500000</v>
       </c>
       <c r="G69" s="16">
         <v>2</v>
       </c>
       <c r="H69" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.2748000000000006</v>
       </c>
       <c r="I69" s="16">
@@ -19167,7 +19797,7 @@
         <v>60</v>
       </c>
       <c r="L69" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.86000000000000021</v>
       </c>
       <c r="M69" s="20">
@@ -19177,7 +19807,7 @@
         <v>332</v>
       </c>
       <c r="O69" s="12" t="str">
-        <f>VLOOKUP(N69,Q:T,4,FALSE)</f>
+        <f t="shared" si="20"/>
         <v>1E+116</v>
       </c>
     </row>
@@ -19186,25 +19816,25 @@
         <v>316</v>
       </c>
       <c r="C70" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>4.9999999999999997E+118</v>
       </c>
       <c r="D70" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>500섬</v>
       </c>
       <c r="E70" s="16">
         <v>20</v>
       </c>
       <c r="F70" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>30600000</v>
       </c>
       <c r="G70" s="16">
         <v>2</v>
       </c>
       <c r="H70" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.27520000000000061</v>
       </c>
       <c r="I70" s="16">
@@ -19217,7 +19847,7 @@
         <v>60</v>
       </c>
       <c r="L70" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.86400000000000021</v>
       </c>
       <c r="M70" s="20">
@@ -19227,7 +19857,7 @@
         <v>332</v>
       </c>
       <c r="O70" s="12" t="str">
-        <f>VLOOKUP(N70,Q:T,4,FALSE)</f>
+        <f t="shared" si="20"/>
         <v>1E+116</v>
       </c>
     </row>
@@ -19236,25 +19866,25 @@
         <v>317</v>
       </c>
       <c r="C71" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>7.9999999999999997E+118</v>
       </c>
       <c r="D71" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>800섬</v>
       </c>
       <c r="E71" s="16">
         <v>20</v>
       </c>
       <c r="F71" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>30700000</v>
       </c>
       <c r="G71" s="16">
         <v>2</v>
       </c>
       <c r="H71" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.27560000000000062</v>
       </c>
       <c r="I71" s="16">
@@ -19267,7 +19897,7 @@
         <v>60</v>
       </c>
       <c r="L71" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.86800000000000022</v>
       </c>
       <c r="M71" s="20">
@@ -19277,7 +19907,7 @@
         <v>332</v>
       </c>
       <c r="O71" s="12" t="str">
-        <f>VLOOKUP(N71,Q:T,4,FALSE)</f>
+        <f t="shared" ref="O71:O102" si="31">VLOOKUP(N71,Q:T,4,FALSE)</f>
         <v>1E+116</v>
       </c>
     </row>
@@ -19286,25 +19916,25 @@
         <v>318</v>
       </c>
       <c r="C72" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>9.9999999999999994E+118</v>
       </c>
       <c r="D72" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1000섬</v>
       </c>
       <c r="E72" s="16">
         <v>20</v>
       </c>
       <c r="F72" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>30800000</v>
       </c>
       <c r="G72" s="16">
         <v>2</v>
       </c>
       <c r="H72" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.27600000000000063</v>
       </c>
       <c r="I72" s="16">
@@ -19317,7 +19947,7 @@
         <v>60</v>
       </c>
       <c r="L72" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.87200000000000022</v>
       </c>
       <c r="M72" s="20">
@@ -19327,7 +19957,7 @@
         <v>332</v>
       </c>
       <c r="O72" s="12" t="str">
-        <f>VLOOKUP(N72,Q:T,4,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>1E+116</v>
       </c>
     </row>
@@ -19336,25 +19966,25 @@
         <v>319</v>
       </c>
       <c r="C73" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.9999999999999999E+119</v>
       </c>
       <c r="D73" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>2000섬</v>
       </c>
       <c r="E73" s="16">
         <v>20</v>
       </c>
       <c r="F73" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>30900000</v>
       </c>
       <c r="G73" s="16">
         <v>2</v>
       </c>
       <c r="H73" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.27640000000000065</v>
       </c>
       <c r="I73" s="16">
@@ -19367,7 +19997,7 @@
         <v>60</v>
       </c>
       <c r="L73" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.87600000000000022</v>
       </c>
       <c r="M73" s="20">
@@ -19377,7 +20007,7 @@
         <v>332</v>
       </c>
       <c r="O73" s="12" t="str">
-        <f>VLOOKUP(N73,Q:T,4,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>1E+116</v>
       </c>
     </row>
@@ -19386,25 +20016,25 @@
         <v>320</v>
       </c>
       <c r="C74" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>4.9999999999999999E+119</v>
       </c>
       <c r="D74" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>5000섬</v>
       </c>
       <c r="E74" s="16">
         <v>20</v>
       </c>
       <c r="F74" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>31000000</v>
       </c>
       <c r="G74" s="16">
         <v>2</v>
       </c>
       <c r="H74" s="16">
-        <f t="shared" ref="H74:H119" si="29">IF(RIGHT(H73,2)="24",H73+0.0076,H73+0.0004)</f>
+        <f t="shared" ref="H74:H119" si="32">IF(RIGHT(H73,2)="24",H73+0.0076,H73+0.0004)</f>
         <v>0.27680000000000066</v>
       </c>
       <c r="I74" s="16">
@@ -19417,7 +20047,7 @@
         <v>60</v>
       </c>
       <c r="L74" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.88000000000000023</v>
       </c>
       <c r="M74" s="20">
@@ -19427,7 +20057,7 @@
         <v>332</v>
       </c>
       <c r="O74" s="12" t="str">
-        <f>VLOOKUP(N74,Q:T,4,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>1E+116</v>
       </c>
     </row>
@@ -19436,25 +20066,25 @@
         <v>321</v>
       </c>
       <c r="C75" s="16">
-        <f t="shared" ref="C75:C79" si="30">M75*O75</f>
+        <f t="shared" ref="C75:C79" si="33">M75*O75</f>
         <v>9.9999999999999998E+119</v>
       </c>
       <c r="D75" s="16" t="str">
-        <f t="shared" ref="D75:D79" si="31">M75&amp;N75</f>
+        <f t="shared" ref="D75:D79" si="34">M75&amp;N75</f>
         <v>1찰</v>
       </c>
       <c r="E75" s="16">
         <v>20</v>
       </c>
       <c r="F75" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>31100000</v>
       </c>
       <c r="G75" s="16">
         <v>2</v>
       </c>
       <c r="H75" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.27720000000000067</v>
       </c>
       <c r="I75" s="16">
@@ -19467,7 +20097,7 @@
         <v>60</v>
       </c>
       <c r="L75" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.88400000000000023</v>
       </c>
       <c r="M75" s="20">
@@ -19477,7 +20107,7 @@
         <v>333</v>
       </c>
       <c r="O75" s="12" t="str">
-        <f>VLOOKUP(N75,Q:T,4,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>1E+120</v>
       </c>
     </row>
@@ -19486,38 +20116,38 @@
         <v>322</v>
       </c>
       <c r="C76" s="16">
+        <f t="shared" si="33"/>
+        <v>2E+120</v>
+      </c>
+      <c r="D76" s="16" t="str">
+        <f t="shared" si="34"/>
+        <v>2찰</v>
+      </c>
+      <c r="E76" s="16">
+        <v>20</v>
+      </c>
+      <c r="F76" s="16">
+        <f t="shared" si="29"/>
+        <v>31200000</v>
+      </c>
+      <c r="G76" s="16">
+        <v>2</v>
+      </c>
+      <c r="H76" s="16">
+        <f t="shared" si="32"/>
+        <v>0.27760000000000068</v>
+      </c>
+      <c r="I76" s="16">
+        <v>23</v>
+      </c>
+      <c r="J76" s="16">
+        <v>0</v>
+      </c>
+      <c r="K76" s="16">
+        <v>60</v>
+      </c>
+      <c r="L76" s="16">
         <f t="shared" si="30"/>
-        <v>2E+120</v>
-      </c>
-      <c r="D76" s="16" t="str">
-        <f t="shared" si="31"/>
-        <v>2찰</v>
-      </c>
-      <c r="E76" s="16">
-        <v>20</v>
-      </c>
-      <c r="F76" s="16">
-        <f t="shared" si="27"/>
-        <v>31200000</v>
-      </c>
-      <c r="G76" s="16">
-        <v>2</v>
-      </c>
-      <c r="H76" s="16">
-        <f t="shared" si="29"/>
-        <v>0.27760000000000068</v>
-      </c>
-      <c r="I76" s="16">
-        <v>23</v>
-      </c>
-      <c r="J76" s="16">
-        <v>0</v>
-      </c>
-      <c r="K76" s="16">
-        <v>60</v>
-      </c>
-      <c r="L76" s="16">
-        <f t="shared" si="28"/>
         <v>0.88800000000000023</v>
       </c>
       <c r="M76" s="20">
@@ -19527,7 +20157,7 @@
         <v>333</v>
       </c>
       <c r="O76" s="12" t="str">
-        <f>VLOOKUP(N76,Q:T,4,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>1E+120</v>
       </c>
     </row>
@@ -19536,38 +20166,38 @@
         <v>323</v>
       </c>
       <c r="C77" s="16">
+        <f t="shared" si="33"/>
+        <v>4.9999999999999996E+120</v>
+      </c>
+      <c r="D77" s="16" t="str">
+        <f t="shared" si="34"/>
+        <v>5찰</v>
+      </c>
+      <c r="E77" s="16">
+        <v>20</v>
+      </c>
+      <c r="F77" s="16">
+        <f t="shared" si="29"/>
+        <v>31300000</v>
+      </c>
+      <c r="G77" s="16">
+        <v>2</v>
+      </c>
+      <c r="H77" s="16">
+        <f t="shared" si="32"/>
+        <v>0.27800000000000069</v>
+      </c>
+      <c r="I77" s="16">
+        <v>23</v>
+      </c>
+      <c r="J77" s="16">
+        <v>0</v>
+      </c>
+      <c r="K77" s="16">
+        <v>60</v>
+      </c>
+      <c r="L77" s="16">
         <f t="shared" si="30"/>
-        <v>4.9999999999999996E+120</v>
-      </c>
-      <c r="D77" s="16" t="str">
-        <f t="shared" si="31"/>
-        <v>5찰</v>
-      </c>
-      <c r="E77" s="16">
-        <v>20</v>
-      </c>
-      <c r="F77" s="16">
-        <f t="shared" si="27"/>
-        <v>31300000</v>
-      </c>
-      <c r="G77" s="16">
-        <v>2</v>
-      </c>
-      <c r="H77" s="16">
-        <f t="shared" si="29"/>
-        <v>0.27800000000000069</v>
-      </c>
-      <c r="I77" s="16">
-        <v>23</v>
-      </c>
-      <c r="J77" s="16">
-        <v>0</v>
-      </c>
-      <c r="K77" s="16">
-        <v>60</v>
-      </c>
-      <c r="L77" s="16">
-        <f t="shared" si="28"/>
         <v>0.89200000000000024</v>
       </c>
       <c r="M77" s="20">
@@ -19577,7 +20207,7 @@
         <v>333</v>
       </c>
       <c r="O77" s="12" t="str">
-        <f>VLOOKUP(N77,Q:T,4,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>1E+120</v>
       </c>
     </row>
@@ -19586,38 +20216,38 @@
         <v>324</v>
       </c>
       <c r="C78" s="16">
+        <f t="shared" si="33"/>
+        <v>9.9999999999999992E+120</v>
+      </c>
+      <c r="D78" s="16" t="str">
+        <f t="shared" si="34"/>
+        <v>10찰</v>
+      </c>
+      <c r="E78" s="16">
+        <v>20</v>
+      </c>
+      <c r="F78" s="16">
+        <f t="shared" si="29"/>
+        <v>31400000</v>
+      </c>
+      <c r="G78" s="16">
+        <v>2</v>
+      </c>
+      <c r="H78" s="16">
+        <f t="shared" si="32"/>
+        <v>0.2784000000000007</v>
+      </c>
+      <c r="I78" s="16">
+        <v>23</v>
+      </c>
+      <c r="J78" s="16">
+        <v>0</v>
+      </c>
+      <c r="K78" s="16">
+        <v>60</v>
+      </c>
+      <c r="L78" s="16">
         <f t="shared" si="30"/>
-        <v>9.9999999999999992E+120</v>
-      </c>
-      <c r="D78" s="16" t="str">
-        <f t="shared" si="31"/>
-        <v>10찰</v>
-      </c>
-      <c r="E78" s="16">
-        <v>20</v>
-      </c>
-      <c r="F78" s="16">
-        <f t="shared" si="27"/>
-        <v>31400000</v>
-      </c>
-      <c r="G78" s="16">
-        <v>2</v>
-      </c>
-      <c r="H78" s="16">
-        <f t="shared" si="29"/>
-        <v>0.2784000000000007</v>
-      </c>
-      <c r="I78" s="16">
-        <v>23</v>
-      </c>
-      <c r="J78" s="16">
-        <v>0</v>
-      </c>
-      <c r="K78" s="16">
-        <v>60</v>
-      </c>
-      <c r="L78" s="16">
-        <f t="shared" si="28"/>
         <v>0.89600000000000024</v>
       </c>
       <c r="M78" s="20">
@@ -19627,7 +20257,7 @@
         <v>333</v>
       </c>
       <c r="O78" s="12" t="str">
-        <f>VLOOKUP(N78,Q:T,4,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>1E+120</v>
       </c>
     </row>
@@ -19636,38 +20266,38 @@
         <v>325</v>
       </c>
       <c r="C79" s="16">
+        <f t="shared" si="33"/>
+        <v>1.9999999999999998E+121</v>
+      </c>
+      <c r="D79" s="16" t="str">
+        <f t="shared" si="34"/>
+        <v>20찰</v>
+      </c>
+      <c r="E79" s="16">
+        <v>20</v>
+      </c>
+      <c r="F79" s="16">
+        <f t="shared" si="29"/>
+        <v>31500000</v>
+      </c>
+      <c r="G79" s="16">
+        <v>2</v>
+      </c>
+      <c r="H79" s="16">
+        <f t="shared" si="32"/>
+        <v>0.27880000000000071</v>
+      </c>
+      <c r="I79" s="16">
+        <v>23</v>
+      </c>
+      <c r="J79" s="16">
+        <v>0</v>
+      </c>
+      <c r="K79" s="16">
+        <v>60</v>
+      </c>
+      <c r="L79" s="16">
         <f t="shared" si="30"/>
-        <v>1.9999999999999998E+121</v>
-      </c>
-      <c r="D79" s="16" t="str">
-        <f t="shared" si="31"/>
-        <v>20찰</v>
-      </c>
-      <c r="E79" s="16">
-        <v>20</v>
-      </c>
-      <c r="F79" s="16">
-        <f t="shared" si="27"/>
-        <v>31500000</v>
-      </c>
-      <c r="G79" s="16">
-        <v>2</v>
-      </c>
-      <c r="H79" s="16">
-        <f t="shared" si="29"/>
-        <v>0.27880000000000071</v>
-      </c>
-      <c r="I79" s="16">
-        <v>23</v>
-      </c>
-      <c r="J79" s="16">
-        <v>0</v>
-      </c>
-      <c r="K79" s="16">
-        <v>60</v>
-      </c>
-      <c r="L79" s="16">
-        <f t="shared" si="28"/>
         <v>0.90000000000000024</v>
       </c>
       <c r="M79" s="20">
@@ -19677,7 +20307,7 @@
         <v>333</v>
       </c>
       <c r="O79" s="12" t="str">
-        <f>VLOOKUP(N79,Q:T,4,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>1E+120</v>
       </c>
     </row>
@@ -19686,25 +20316,25 @@
         <v>326</v>
       </c>
       <c r="C80" s="16">
-        <f t="shared" ref="C80:C104" si="32">M80*O80</f>
+        <f t="shared" ref="C80:C104" si="35">M80*O80</f>
         <v>5.0000000000000001E+121</v>
       </c>
       <c r="D80" s="16" t="str">
-        <f t="shared" ref="D80:D104" si="33">M80&amp;N80</f>
+        <f t="shared" ref="D80:D104" si="36">M80&amp;N80</f>
         <v>50찰</v>
       </c>
       <c r="E80" s="16">
         <v>20</v>
       </c>
       <c r="F80" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>31600000</v>
       </c>
       <c r="G80" s="16">
         <v>2</v>
       </c>
       <c r="H80" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.27920000000000073</v>
       </c>
       <c r="I80" s="16">
@@ -19717,7 +20347,7 @@
         <v>60</v>
       </c>
       <c r="L80" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.90400000000000025</v>
       </c>
       <c r="M80" s="20">
@@ -19727,7 +20357,7 @@
         <v>333</v>
       </c>
       <c r="O80" s="12" t="str">
-        <f>VLOOKUP(N80,Q:T,4,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>1E+120</v>
       </c>
     </row>
@@ -19736,25 +20366,25 @@
         <v>327</v>
       </c>
       <c r="C81" s="16">
+        <f t="shared" si="35"/>
+        <v>1E+122</v>
+      </c>
+      <c r="D81" s="16" t="str">
+        <f t="shared" si="36"/>
+        <v>100찰</v>
+      </c>
+      <c r="E81" s="16">
+        <v>20</v>
+      </c>
+      <c r="F81" s="16">
+        <f t="shared" si="29"/>
+        <v>31700000</v>
+      </c>
+      <c r="G81" s="16">
+        <v>2</v>
+      </c>
+      <c r="H81" s="16">
         <f t="shared" si="32"/>
-        <v>1E+122</v>
-      </c>
-      <c r="D81" s="16" t="str">
-        <f t="shared" si="33"/>
-        <v>100찰</v>
-      </c>
-      <c r="E81" s="16">
-        <v>20</v>
-      </c>
-      <c r="F81" s="16">
-        <f t="shared" si="27"/>
-        <v>31700000</v>
-      </c>
-      <c r="G81" s="16">
-        <v>2</v>
-      </c>
-      <c r="H81" s="16">
-        <f t="shared" si="29"/>
         <v>0.27960000000000074</v>
       </c>
       <c r="I81" s="16">
@@ -19767,7 +20397,7 @@
         <v>60</v>
       </c>
       <c r="L81" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.90800000000000025</v>
       </c>
       <c r="M81" s="20">
@@ -19777,7 +20407,7 @@
         <v>333</v>
       </c>
       <c r="O81" s="12" t="str">
-        <f>VLOOKUP(N81,Q:T,4,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>1E+120</v>
       </c>
     </row>
@@ -19786,25 +20416,25 @@
         <v>328</v>
       </c>
       <c r="C82" s="16">
+        <f t="shared" si="35"/>
+        <v>1.4999999999999999E+122</v>
+      </c>
+      <c r="D82" s="16" t="str">
+        <f t="shared" si="36"/>
+        <v>150찰</v>
+      </c>
+      <c r="E82" s="16">
+        <v>20</v>
+      </c>
+      <c r="F82" s="16">
+        <f t="shared" si="29"/>
+        <v>31800000</v>
+      </c>
+      <c r="G82" s="16">
+        <v>2</v>
+      </c>
+      <c r="H82" s="16">
         <f t="shared" si="32"/>
-        <v>1.4999999999999999E+122</v>
-      </c>
-      <c r="D82" s="16" t="str">
-        <f t="shared" si="33"/>
-        <v>150찰</v>
-      </c>
-      <c r="E82" s="16">
-        <v>20</v>
-      </c>
-      <c r="F82" s="16">
-        <f t="shared" si="27"/>
-        <v>31800000</v>
-      </c>
-      <c r="G82" s="16">
-        <v>2</v>
-      </c>
-      <c r="H82" s="16">
-        <f t="shared" si="29"/>
         <v>0.28000000000000075</v>
       </c>
       <c r="I82" s="16">
@@ -19817,7 +20447,7 @@
         <v>60</v>
       </c>
       <c r="L82" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.91200000000000025</v>
       </c>
       <c r="M82" s="20">
@@ -19827,7 +20457,7 @@
         <v>333</v>
       </c>
       <c r="O82" s="12" t="str">
-        <f>VLOOKUP(N82,Q:T,4,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>1E+120</v>
       </c>
     </row>
@@ -19836,25 +20466,25 @@
         <v>329</v>
       </c>
       <c r="C83" s="16">
+        <f t="shared" si="35"/>
+        <v>2E+122</v>
+      </c>
+      <c r="D83" s="16" t="str">
+        <f t="shared" si="36"/>
+        <v>200찰</v>
+      </c>
+      <c r="E83" s="16">
+        <v>20</v>
+      </c>
+      <c r="F83" s="16">
+        <f t="shared" si="29"/>
+        <v>31900000</v>
+      </c>
+      <c r="G83" s="16">
+        <v>2</v>
+      </c>
+      <c r="H83" s="16">
         <f t="shared" si="32"/>
-        <v>2E+122</v>
-      </c>
-      <c r="D83" s="16" t="str">
-        <f t="shared" si="33"/>
-        <v>200찰</v>
-      </c>
-      <c r="E83" s="16">
-        <v>20</v>
-      </c>
-      <c r="F83" s="16">
-        <f t="shared" si="27"/>
-        <v>31900000</v>
-      </c>
-      <c r="G83" s="16">
-        <v>2</v>
-      </c>
-      <c r="H83" s="16">
-        <f t="shared" si="29"/>
         <v>0.28040000000000076</v>
       </c>
       <c r="I83" s="16">
@@ -19867,7 +20497,7 @@
         <v>60</v>
       </c>
       <c r="L83" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.91600000000000026</v>
       </c>
       <c r="M83" s="20">
@@ -19877,7 +20507,7 @@
         <v>333</v>
       </c>
       <c r="O83" s="12" t="str">
-        <f>VLOOKUP(N83,Q:T,4,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>1E+120</v>
       </c>
     </row>
@@ -19886,25 +20516,25 @@
         <v>330</v>
       </c>
       <c r="C84" s="16">
+        <f t="shared" si="35"/>
+        <v>2.9999999999999999E+122</v>
+      </c>
+      <c r="D84" s="16" t="str">
+        <f t="shared" si="36"/>
+        <v>300찰</v>
+      </c>
+      <c r="E84" s="16">
+        <v>20</v>
+      </c>
+      <c r="F84" s="16">
+        <f t="shared" si="29"/>
+        <v>32000000</v>
+      </c>
+      <c r="G84" s="16">
+        <v>2</v>
+      </c>
+      <c r="H84" s="16">
         <f t="shared" si="32"/>
-        <v>2.9999999999999999E+122</v>
-      </c>
-      <c r="D84" s="16" t="str">
-        <f t="shared" si="33"/>
-        <v>300찰</v>
-      </c>
-      <c r="E84" s="16">
-        <v>20</v>
-      </c>
-      <c r="F84" s="16">
-        <f t="shared" si="27"/>
-        <v>32000000</v>
-      </c>
-      <c r="G84" s="16">
-        <v>2</v>
-      </c>
-      <c r="H84" s="16">
-        <f t="shared" si="29"/>
         <v>0.28080000000000077</v>
       </c>
       <c r="I84" s="16">
@@ -19917,7 +20547,7 @@
         <v>60</v>
       </c>
       <c r="L84" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.92000000000000026</v>
       </c>
       <c r="M84" s="20">
@@ -19927,7 +20557,7 @@
         <v>333</v>
       </c>
       <c r="O84" s="12" t="str">
-        <f>VLOOKUP(N84,Q:T,4,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>1E+120</v>
       </c>
     </row>
@@ -19936,25 +20566,25 @@
         <v>331</v>
       </c>
       <c r="C85" s="16">
+        <f t="shared" si="35"/>
+        <v>4.9999999999999999E+122</v>
+      </c>
+      <c r="D85" s="16" t="str">
+        <f t="shared" si="36"/>
+        <v>500찰</v>
+      </c>
+      <c r="E85" s="16">
+        <v>20</v>
+      </c>
+      <c r="F85" s="16">
+        <f t="shared" si="29"/>
+        <v>32100000</v>
+      </c>
+      <c r="G85" s="16">
+        <v>2</v>
+      </c>
+      <c r="H85" s="16">
         <f t="shared" si="32"/>
-        <v>4.9999999999999999E+122</v>
-      </c>
-      <c r="D85" s="16" t="str">
-        <f t="shared" si="33"/>
-        <v>500찰</v>
-      </c>
-      <c r="E85" s="16">
-        <v>20</v>
-      </c>
-      <c r="F85" s="16">
-        <f t="shared" si="27"/>
-        <v>32100000</v>
-      </c>
-      <c r="G85" s="16">
-        <v>2</v>
-      </c>
-      <c r="H85" s="16">
-        <f t="shared" si="29"/>
         <v>0.28120000000000078</v>
       </c>
       <c r="I85" s="16">
@@ -19967,7 +20597,7 @@
         <v>60</v>
       </c>
       <c r="L85" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.92400000000000027</v>
       </c>
       <c r="M85" s="20">
@@ -19977,7 +20607,7 @@
         <v>333</v>
       </c>
       <c r="O85" s="12" t="str">
-        <f>VLOOKUP(N85,Q:T,4,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>1E+120</v>
       </c>
     </row>
@@ -19986,25 +20616,25 @@
         <v>332</v>
       </c>
       <c r="C86" s="16">
+        <f t="shared" si="35"/>
+        <v>8.0000000000000001E+122</v>
+      </c>
+      <c r="D86" s="16" t="str">
+        <f t="shared" si="36"/>
+        <v>800찰</v>
+      </c>
+      <c r="E86" s="16">
+        <v>20</v>
+      </c>
+      <c r="F86" s="16">
+        <f t="shared" si="29"/>
+        <v>32200000</v>
+      </c>
+      <c r="G86" s="16">
+        <v>2</v>
+      </c>
+      <c r="H86" s="16">
         <f t="shared" si="32"/>
-        <v>8.0000000000000001E+122</v>
-      </c>
-      <c r="D86" s="16" t="str">
-        <f t="shared" si="33"/>
-        <v>800찰</v>
-      </c>
-      <c r="E86" s="16">
-        <v>20</v>
-      </c>
-      <c r="F86" s="16">
-        <f t="shared" si="27"/>
-        <v>32200000</v>
-      </c>
-      <c r="G86" s="16">
-        <v>2</v>
-      </c>
-      <c r="H86" s="16">
-        <f t="shared" si="29"/>
         <v>0.28160000000000079</v>
       </c>
       <c r="I86" s="16">
@@ -20017,7 +20647,7 @@
         <v>60</v>
       </c>
       <c r="L86" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.92800000000000027</v>
       </c>
       <c r="M86" s="20">
@@ -20027,7 +20657,7 @@
         <v>333</v>
       </c>
       <c r="O86" s="12" t="str">
-        <f>VLOOKUP(N86,Q:T,4,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>1E+120</v>
       </c>
     </row>
@@ -20036,25 +20666,25 @@
         <v>333</v>
       </c>
       <c r="C87" s="16">
+        <f t="shared" si="35"/>
+        <v>9.9999999999999998E+122</v>
+      </c>
+      <c r="D87" s="16" t="str">
+        <f t="shared" si="36"/>
+        <v>1000찰</v>
+      </c>
+      <c r="E87" s="16">
+        <v>20</v>
+      </c>
+      <c r="F87" s="16">
+        <f t="shared" si="29"/>
+        <v>32300000</v>
+      </c>
+      <c r="G87" s="16">
+        <v>2</v>
+      </c>
+      <c r="H87" s="16">
         <f t="shared" si="32"/>
-        <v>9.9999999999999998E+122</v>
-      </c>
-      <c r="D87" s="16" t="str">
-        <f t="shared" si="33"/>
-        <v>1000찰</v>
-      </c>
-      <c r="E87" s="16">
-        <v>20</v>
-      </c>
-      <c r="F87" s="16">
-        <f t="shared" si="27"/>
-        <v>32300000</v>
-      </c>
-      <c r="G87" s="16">
-        <v>2</v>
-      </c>
-      <c r="H87" s="16">
-        <f t="shared" si="29"/>
         <v>0.28200000000000081</v>
       </c>
       <c r="I87" s="16">
@@ -20067,7 +20697,7 @@
         <v>60</v>
       </c>
       <c r="L87" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.93200000000000027</v>
       </c>
       <c r="M87" s="20">
@@ -20077,7 +20707,7 @@
         <v>333</v>
       </c>
       <c r="O87" s="12" t="str">
-        <f>VLOOKUP(N87,Q:T,4,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>1E+120</v>
       </c>
     </row>
@@ -20086,25 +20716,25 @@
         <v>334</v>
       </c>
       <c r="C88" s="16">
+        <f t="shared" si="35"/>
+        <v>2E+123</v>
+      </c>
+      <c r="D88" s="16" t="str">
+        <f t="shared" si="36"/>
+        <v>2000찰</v>
+      </c>
+      <c r="E88" s="16">
+        <v>20</v>
+      </c>
+      <c r="F88" s="16">
+        <f t="shared" si="29"/>
+        <v>32400000</v>
+      </c>
+      <c r="G88" s="16">
+        <v>2</v>
+      </c>
+      <c r="H88" s="16">
         <f t="shared" si="32"/>
-        <v>2E+123</v>
-      </c>
-      <c r="D88" s="16" t="str">
-        <f t="shared" si="33"/>
-        <v>2000찰</v>
-      </c>
-      <c r="E88" s="16">
-        <v>20</v>
-      </c>
-      <c r="F88" s="16">
-        <f t="shared" si="27"/>
-        <v>32400000</v>
-      </c>
-      <c r="G88" s="16">
-        <v>2</v>
-      </c>
-      <c r="H88" s="16">
-        <f t="shared" si="29"/>
         <v>0.28240000000000082</v>
       </c>
       <c r="I88" s="16">
@@ -20117,7 +20747,7 @@
         <v>60</v>
       </c>
       <c r="L88" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.93600000000000028</v>
       </c>
       <c r="M88" s="20">
@@ -20127,7 +20757,7 @@
         <v>333</v>
       </c>
       <c r="O88" s="12" t="str">
-        <f>VLOOKUP(N88,Q:T,4,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>1E+120</v>
       </c>
     </row>
@@ -20136,25 +20766,25 @@
         <v>335</v>
       </c>
       <c r="C89" s="16">
+        <f t="shared" si="35"/>
+        <v>4.9999999999999997E+123</v>
+      </c>
+      <c r="D89" s="16" t="str">
+        <f t="shared" si="36"/>
+        <v>5000찰</v>
+      </c>
+      <c r="E89" s="16">
+        <v>20</v>
+      </c>
+      <c r="F89" s="16">
+        <f t="shared" si="29"/>
+        <v>32500000</v>
+      </c>
+      <c r="G89" s="16">
+        <v>2</v>
+      </c>
+      <c r="H89" s="16">
         <f t="shared" si="32"/>
-        <v>4.9999999999999997E+123</v>
-      </c>
-      <c r="D89" s="16" t="str">
-        <f t="shared" si="33"/>
-        <v>5000찰</v>
-      </c>
-      <c r="E89" s="16">
-        <v>20</v>
-      </c>
-      <c r="F89" s="16">
-        <f t="shared" si="27"/>
-        <v>32500000</v>
-      </c>
-      <c r="G89" s="16">
-        <v>2</v>
-      </c>
-      <c r="H89" s="16">
-        <f t="shared" si="29"/>
         <v>0.28280000000000083</v>
       </c>
       <c r="I89" s="16">
@@ -20167,7 +20797,7 @@
         <v>60</v>
       </c>
       <c r="L89" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.94000000000000028</v>
       </c>
       <c r="M89" s="20">
@@ -20177,7 +20807,7 @@
         <v>333</v>
       </c>
       <c r="O89" s="12" t="str">
-        <f>VLOOKUP(N89,Q:T,4,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>1E+120</v>
       </c>
     </row>
@@ -20186,25 +20816,25 @@
         <v>336</v>
       </c>
       <c r="C90" s="16">
+        <f t="shared" si="35"/>
+        <v>9.9999999999999995E+123</v>
+      </c>
+      <c r="D90" s="16" t="str">
+        <f t="shared" si="36"/>
+        <v>1교</v>
+      </c>
+      <c r="E90" s="16">
+        <v>20</v>
+      </c>
+      <c r="F90" s="16">
+        <f t="shared" si="29"/>
+        <v>32600000</v>
+      </c>
+      <c r="G90" s="16">
+        <v>2</v>
+      </c>
+      <c r="H90" s="16">
         <f t="shared" si="32"/>
-        <v>9.9999999999999995E+123</v>
-      </c>
-      <c r="D90" s="16" t="str">
-        <f t="shared" si="33"/>
-        <v>1교</v>
-      </c>
-      <c r="E90" s="16">
-        <v>20</v>
-      </c>
-      <c r="F90" s="16">
-        <f t="shared" si="27"/>
-        <v>32600000</v>
-      </c>
-      <c r="G90" s="16">
-        <v>2</v>
-      </c>
-      <c r="H90" s="16">
-        <f t="shared" si="29"/>
         <v>0.28320000000000084</v>
       </c>
       <c r="I90" s="16">
@@ -20217,7 +20847,7 @@
         <v>60</v>
       </c>
       <c r="L90" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.94400000000000028</v>
       </c>
       <c r="M90" s="20">
@@ -20227,7 +20857,7 @@
         <v>334</v>
       </c>
       <c r="O90" s="12" t="str">
-        <f>VLOOKUP(N90,Q:T,4,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>1E+124</v>
       </c>
     </row>
@@ -20236,25 +20866,25 @@
         <v>337</v>
       </c>
       <c r="C91" s="16">
+        <f t="shared" si="35"/>
+        <v>1.9999999999999999E+124</v>
+      </c>
+      <c r="D91" s="16" t="str">
+        <f t="shared" si="36"/>
+        <v>2교</v>
+      </c>
+      <c r="E91" s="16">
+        <v>20</v>
+      </c>
+      <c r="F91" s="16">
+        <f t="shared" si="29"/>
+        <v>32700000</v>
+      </c>
+      <c r="G91" s="16">
+        <v>2</v>
+      </c>
+      <c r="H91" s="16">
         <f t="shared" si="32"/>
-        <v>1.9999999999999999E+124</v>
-      </c>
-      <c r="D91" s="16" t="str">
-        <f t="shared" si="33"/>
-        <v>2교</v>
-      </c>
-      <c r="E91" s="16">
-        <v>20</v>
-      </c>
-      <c r="F91" s="16">
-        <f t="shared" si="27"/>
-        <v>32700000</v>
-      </c>
-      <c r="G91" s="16">
-        <v>2</v>
-      </c>
-      <c r="H91" s="16">
-        <f t="shared" si="29"/>
         <v>0.28360000000000085</v>
       </c>
       <c r="I91" s="16">
@@ -20267,7 +20897,7 @@
         <v>60</v>
       </c>
       <c r="L91" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.94800000000000029</v>
       </c>
       <c r="M91" s="20">
@@ -20277,7 +20907,7 @@
         <v>334</v>
       </c>
       <c r="O91" s="12" t="str">
-        <f>VLOOKUP(N91,Q:T,4,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>1E+124</v>
       </c>
     </row>
@@ -20286,25 +20916,25 @@
         <v>338</v>
       </c>
       <c r="C92" s="16">
+        <f t="shared" si="35"/>
+        <v>4.9999999999999996E+124</v>
+      </c>
+      <c r="D92" s="16" t="str">
+        <f t="shared" si="36"/>
+        <v>5교</v>
+      </c>
+      <c r="E92" s="16">
+        <v>20</v>
+      </c>
+      <c r="F92" s="16">
+        <f t="shared" si="29"/>
+        <v>32800000</v>
+      </c>
+      <c r="G92" s="16">
+        <v>2</v>
+      </c>
+      <c r="H92" s="16">
         <f t="shared" si="32"/>
-        <v>4.9999999999999996E+124</v>
-      </c>
-      <c r="D92" s="16" t="str">
-        <f t="shared" si="33"/>
-        <v>5교</v>
-      </c>
-      <c r="E92" s="16">
-        <v>20</v>
-      </c>
-      <c r="F92" s="16">
-        <f t="shared" si="27"/>
-        <v>32800000</v>
-      </c>
-      <c r="G92" s="16">
-        <v>2</v>
-      </c>
-      <c r="H92" s="16">
-        <f t="shared" si="29"/>
         <v>0.28400000000000086</v>
       </c>
       <c r="I92" s="16">
@@ -20317,7 +20947,7 @@
         <v>60</v>
       </c>
       <c r="L92" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.95200000000000029</v>
       </c>
       <c r="M92" s="20">
@@ -20327,7 +20957,7 @@
         <v>334</v>
       </c>
       <c r="O92" s="12" t="str">
-        <f>VLOOKUP(N92,Q:T,4,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>1E+124</v>
       </c>
     </row>
@@ -20336,25 +20966,25 @@
         <v>339</v>
       </c>
       <c r="C93" s="16">
+        <f t="shared" si="35"/>
+        <v>9.9999999999999992E+124</v>
+      </c>
+      <c r="D93" s="16" t="str">
+        <f t="shared" si="36"/>
+        <v>10교</v>
+      </c>
+      <c r="E93" s="16">
+        <v>20</v>
+      </c>
+      <c r="F93" s="16">
+        <f t="shared" si="29"/>
+        <v>32900000</v>
+      </c>
+      <c r="G93" s="16">
+        <v>2</v>
+      </c>
+      <c r="H93" s="16">
         <f t="shared" si="32"/>
-        <v>9.9999999999999992E+124</v>
-      </c>
-      <c r="D93" s="16" t="str">
-        <f t="shared" si="33"/>
-        <v>10교</v>
-      </c>
-      <c r="E93" s="16">
-        <v>20</v>
-      </c>
-      <c r="F93" s="16">
-        <f t="shared" si="27"/>
-        <v>32900000</v>
-      </c>
-      <c r="G93" s="16">
-        <v>2</v>
-      </c>
-      <c r="H93" s="16">
-        <f t="shared" si="29"/>
         <v>0.28440000000000087</v>
       </c>
       <c r="I93" s="16">
@@ -20367,7 +20997,7 @@
         <v>60</v>
       </c>
       <c r="L93" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.95600000000000029</v>
       </c>
       <c r="M93" s="20">
@@ -20377,7 +21007,7 @@
         <v>334</v>
       </c>
       <c r="O93" s="12" t="str">
-        <f>VLOOKUP(N93,Q:T,4,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>1E+124</v>
       </c>
     </row>
@@ -20386,25 +21016,25 @@
         <v>340</v>
       </c>
       <c r="C94" s="16">
+        <f t="shared" si="35"/>
+        <v>1.9999999999999998E+125</v>
+      </c>
+      <c r="D94" s="16" t="str">
+        <f t="shared" si="36"/>
+        <v>20교</v>
+      </c>
+      <c r="E94" s="16">
+        <v>20</v>
+      </c>
+      <c r="F94" s="16">
+        <f t="shared" si="29"/>
+        <v>33000000</v>
+      </c>
+      <c r="G94" s="16">
+        <v>2</v>
+      </c>
+      <c r="H94" s="16">
         <f t="shared" si="32"/>
-        <v>1.9999999999999998E+125</v>
-      </c>
-      <c r="D94" s="16" t="str">
-        <f t="shared" si="33"/>
-        <v>20교</v>
-      </c>
-      <c r="E94" s="16">
-        <v>20</v>
-      </c>
-      <c r="F94" s="16">
-        <f t="shared" si="27"/>
-        <v>33000000</v>
-      </c>
-      <c r="G94" s="16">
-        <v>2</v>
-      </c>
-      <c r="H94" s="16">
-        <f t="shared" si="29"/>
         <v>0.28480000000000089</v>
       </c>
       <c r="I94" s="16">
@@ -20417,7 +21047,7 @@
         <v>60</v>
       </c>
       <c r="L94" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.9600000000000003</v>
       </c>
       <c r="M94" s="20">
@@ -20427,7 +21057,7 @@
         <v>334</v>
       </c>
       <c r="O94" s="12" t="str">
-        <f>VLOOKUP(N94,Q:T,4,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>1E+124</v>
       </c>
     </row>
@@ -20436,25 +21066,25 @@
         <v>341</v>
       </c>
       <c r="C95" s="16">
+        <f t="shared" si="35"/>
+        <v>4.9999999999999996E+125</v>
+      </c>
+      <c r="D95" s="16" t="str">
+        <f t="shared" si="36"/>
+        <v>50교</v>
+      </c>
+      <c r="E95" s="16">
+        <v>20</v>
+      </c>
+      <c r="F95" s="16">
+        <f t="shared" si="29"/>
+        <v>33100000</v>
+      </c>
+      <c r="G95" s="16">
+        <v>2</v>
+      </c>
+      <c r="H95" s="16">
         <f t="shared" si="32"/>
-        <v>4.9999999999999996E+125</v>
-      </c>
-      <c r="D95" s="16" t="str">
-        <f t="shared" si="33"/>
-        <v>50교</v>
-      </c>
-      <c r="E95" s="16">
-        <v>20</v>
-      </c>
-      <c r="F95" s="16">
-        <f t="shared" si="27"/>
-        <v>33100000</v>
-      </c>
-      <c r="G95" s="16">
-        <v>2</v>
-      </c>
-      <c r="H95" s="16">
-        <f t="shared" si="29"/>
         <v>0.2852000000000009</v>
       </c>
       <c r="I95" s="16">
@@ -20467,7 +21097,7 @@
         <v>60</v>
       </c>
       <c r="L95" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.9640000000000003</v>
       </c>
       <c r="M95" s="20">
@@ -20477,7 +21107,7 @@
         <v>334</v>
       </c>
       <c r="O95" s="12" t="str">
-        <f>VLOOKUP(N95,Q:T,4,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>1E+124</v>
       </c>
     </row>
@@ -20486,25 +21116,25 @@
         <v>342</v>
       </c>
       <c r="C96" s="16">
+        <f t="shared" si="35"/>
+        <v>9.9999999999999992E+125</v>
+      </c>
+      <c r="D96" s="16" t="str">
+        <f t="shared" si="36"/>
+        <v>100교</v>
+      </c>
+      <c r="E96" s="16">
+        <v>20</v>
+      </c>
+      <c r="F96" s="16">
+        <f t="shared" si="29"/>
+        <v>33200000</v>
+      </c>
+      <c r="G96" s="16">
+        <v>2</v>
+      </c>
+      <c r="H96" s="16">
         <f t="shared" si="32"/>
-        <v>9.9999999999999992E+125</v>
-      </c>
-      <c r="D96" s="16" t="str">
-        <f t="shared" si="33"/>
-        <v>100교</v>
-      </c>
-      <c r="E96" s="16">
-        <v>20</v>
-      </c>
-      <c r="F96" s="16">
-        <f t="shared" si="27"/>
-        <v>33200000</v>
-      </c>
-      <c r="G96" s="16">
-        <v>2</v>
-      </c>
-      <c r="H96" s="16">
-        <f t="shared" si="29"/>
         <v>0.28560000000000091</v>
       </c>
       <c r="I96" s="16">
@@ -20517,7 +21147,7 @@
         <v>60</v>
       </c>
       <c r="L96" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.9680000000000003</v>
       </c>
       <c r="M96" s="20">
@@ -20527,7 +21157,7 @@
         <v>334</v>
       </c>
       <c r="O96" s="12" t="str">
-        <f>VLOOKUP(N96,Q:T,4,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>1E+124</v>
       </c>
     </row>
@@ -20536,25 +21166,25 @@
         <v>343</v>
       </c>
       <c r="C97" s="16">
+        <f t="shared" si="35"/>
+        <v>1.4999999999999998E+126</v>
+      </c>
+      <c r="D97" s="16" t="str">
+        <f t="shared" si="36"/>
+        <v>150교</v>
+      </c>
+      <c r="E97" s="16">
+        <v>20</v>
+      </c>
+      <c r="F97" s="16">
+        <f t="shared" si="29"/>
+        <v>33300000</v>
+      </c>
+      <c r="G97" s="16">
+        <v>2</v>
+      </c>
+      <c r="H97" s="16">
         <f t="shared" si="32"/>
-        <v>1.4999999999999998E+126</v>
-      </c>
-      <c r="D97" s="16" t="str">
-        <f t="shared" si="33"/>
-        <v>150교</v>
-      </c>
-      <c r="E97" s="16">
-        <v>20</v>
-      </c>
-      <c r="F97" s="16">
-        <f t="shared" si="27"/>
-        <v>33300000</v>
-      </c>
-      <c r="G97" s="16">
-        <v>2</v>
-      </c>
-      <c r="H97" s="16">
-        <f t="shared" si="29"/>
         <v>0.28600000000000092</v>
       </c>
       <c r="I97" s="16">
@@ -20567,7 +21197,7 @@
         <v>60</v>
       </c>
       <c r="L97" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.97200000000000031</v>
       </c>
       <c r="M97" s="20">
@@ -20577,7 +21207,7 @@
         <v>334</v>
       </c>
       <c r="O97" s="12" t="str">
-        <f>VLOOKUP(N97,Q:T,4,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>1E+124</v>
       </c>
     </row>
@@ -20586,25 +21216,25 @@
         <v>344</v>
       </c>
       <c r="C98" s="16">
+        <f t="shared" si="35"/>
+        <v>1.9999999999999998E+126</v>
+      </c>
+      <c r="D98" s="16" t="str">
+        <f t="shared" si="36"/>
+        <v>200교</v>
+      </c>
+      <c r="E98" s="16">
+        <v>20</v>
+      </c>
+      <c r="F98" s="16">
+        <f t="shared" si="29"/>
+        <v>33400000</v>
+      </c>
+      <c r="G98" s="16">
+        <v>2</v>
+      </c>
+      <c r="H98" s="16">
         <f t="shared" si="32"/>
-        <v>1.9999999999999998E+126</v>
-      </c>
-      <c r="D98" s="16" t="str">
-        <f t="shared" si="33"/>
-        <v>200교</v>
-      </c>
-      <c r="E98" s="16">
-        <v>20</v>
-      </c>
-      <c r="F98" s="16">
-        <f t="shared" si="27"/>
-        <v>33400000</v>
-      </c>
-      <c r="G98" s="16">
-        <v>2</v>
-      </c>
-      <c r="H98" s="16">
-        <f t="shared" si="29"/>
         <v>0.28640000000000093</v>
       </c>
       <c r="I98" s="16">
@@ -20617,7 +21247,7 @@
         <v>60</v>
       </c>
       <c r="L98" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.97600000000000031</v>
       </c>
       <c r="M98" s="20">
@@ -20627,7 +21257,7 @@
         <v>334</v>
       </c>
       <c r="O98" s="12" t="str">
-        <f>VLOOKUP(N98,Q:T,4,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>1E+124</v>
       </c>
     </row>
@@ -20636,25 +21266,25 @@
         <v>345</v>
       </c>
       <c r="C99" s="16">
+        <f t="shared" si="35"/>
+        <v>2.9999999999999996E+126</v>
+      </c>
+      <c r="D99" s="16" t="str">
+        <f t="shared" si="36"/>
+        <v>300교</v>
+      </c>
+      <c r="E99" s="16">
+        <v>20</v>
+      </c>
+      <c r="F99" s="16">
+        <f t="shared" si="29"/>
+        <v>33500000</v>
+      </c>
+      <c r="G99" s="16">
+        <v>2</v>
+      </c>
+      <c r="H99" s="16">
         <f t="shared" si="32"/>
-        <v>2.9999999999999996E+126</v>
-      </c>
-      <c r="D99" s="16" t="str">
-        <f t="shared" si="33"/>
-        <v>300교</v>
-      </c>
-      <c r="E99" s="16">
-        <v>20</v>
-      </c>
-      <c r="F99" s="16">
-        <f t="shared" si="27"/>
-        <v>33500000</v>
-      </c>
-      <c r="G99" s="16">
-        <v>2</v>
-      </c>
-      <c r="H99" s="16">
-        <f t="shared" si="29"/>
         <v>0.28680000000000094</v>
       </c>
       <c r="I99" s="16">
@@ -20667,7 +21297,7 @@
         <v>60</v>
       </c>
       <c r="L99" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.98000000000000032</v>
       </c>
       <c r="M99" s="20">
@@ -20677,7 +21307,7 @@
         <v>334</v>
       </c>
       <c r="O99" s="12" t="str">
-        <f>VLOOKUP(N99,Q:T,4,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>1E+124</v>
       </c>
     </row>
@@ -20686,25 +21316,25 @@
         <v>346</v>
       </c>
       <c r="C100" s="16">
+        <f t="shared" si="35"/>
+        <v>4.9999999999999998E+126</v>
+      </c>
+      <c r="D100" s="16" t="str">
+        <f t="shared" si="36"/>
+        <v>500교</v>
+      </c>
+      <c r="E100" s="16">
+        <v>20</v>
+      </c>
+      <c r="F100" s="16">
+        <f t="shared" si="29"/>
+        <v>33600000</v>
+      </c>
+      <c r="G100" s="16">
+        <v>2</v>
+      </c>
+      <c r="H100" s="16">
         <f t="shared" si="32"/>
-        <v>4.9999999999999998E+126</v>
-      </c>
-      <c r="D100" s="16" t="str">
-        <f t="shared" si="33"/>
-        <v>500교</v>
-      </c>
-      <c r="E100" s="16">
-        <v>20</v>
-      </c>
-      <c r="F100" s="16">
-        <f t="shared" si="27"/>
-        <v>33600000</v>
-      </c>
-      <c r="G100" s="16">
-        <v>2</v>
-      </c>
-      <c r="H100" s="16">
-        <f t="shared" si="29"/>
         <v>0.28720000000000095</v>
       </c>
       <c r="I100" s="16">
@@ -20717,7 +21347,7 @@
         <v>60</v>
       </c>
       <c r="L100" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.98400000000000032</v>
       </c>
       <c r="M100" s="20">
@@ -20727,7 +21357,7 @@
         <v>334</v>
       </c>
       <c r="O100" s="12" t="str">
-        <f>VLOOKUP(N100,Q:T,4,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>1E+124</v>
       </c>
     </row>
@@ -20736,25 +21366,25 @@
         <v>347</v>
       </c>
       <c r="C101" s="16">
+        <f t="shared" si="35"/>
+        <v>7.9999999999999994E+126</v>
+      </c>
+      <c r="D101" s="16" t="str">
+        <f t="shared" si="36"/>
+        <v>800교</v>
+      </c>
+      <c r="E101" s="16">
+        <v>20</v>
+      </c>
+      <c r="F101" s="16">
+        <f t="shared" si="29"/>
+        <v>33700000</v>
+      </c>
+      <c r="G101" s="16">
+        <v>2</v>
+      </c>
+      <c r="H101" s="16">
         <f t="shared" si="32"/>
-        <v>7.9999999999999994E+126</v>
-      </c>
-      <c r="D101" s="16" t="str">
-        <f t="shared" si="33"/>
-        <v>800교</v>
-      </c>
-      <c r="E101" s="16">
-        <v>20</v>
-      </c>
-      <c r="F101" s="16">
-        <f t="shared" si="27"/>
-        <v>33700000</v>
-      </c>
-      <c r="G101" s="16">
-        <v>2</v>
-      </c>
-      <c r="H101" s="16">
-        <f t="shared" si="29"/>
         <v>0.28760000000000097</v>
       </c>
       <c r="I101" s="16">
@@ -20767,7 +21397,7 @@
         <v>60</v>
       </c>
       <c r="L101" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.98800000000000032</v>
       </c>
       <c r="M101" s="20">
@@ -20777,7 +21407,7 @@
         <v>334</v>
       </c>
       <c r="O101" s="12" t="str">
-        <f>VLOOKUP(N101,Q:T,4,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>1E+124</v>
       </c>
     </row>
@@ -20786,25 +21416,25 @@
         <v>348</v>
       </c>
       <c r="C102" s="16">
+        <f t="shared" si="35"/>
+        <v>9.9999999999999995E+126</v>
+      </c>
+      <c r="D102" s="16" t="str">
+        <f t="shared" si="36"/>
+        <v>1000교</v>
+      </c>
+      <c r="E102" s="16">
+        <v>20</v>
+      </c>
+      <c r="F102" s="16">
+        <f t="shared" si="29"/>
+        <v>33800000</v>
+      </c>
+      <c r="G102" s="16">
+        <v>2</v>
+      </c>
+      <c r="H102" s="16">
         <f t="shared" si="32"/>
-        <v>9.9999999999999995E+126</v>
-      </c>
-      <c r="D102" s="16" t="str">
-        <f t="shared" si="33"/>
-        <v>1000교</v>
-      </c>
-      <c r="E102" s="16">
-        <v>20</v>
-      </c>
-      <c r="F102" s="16">
-        <f t="shared" si="27"/>
-        <v>33800000</v>
-      </c>
-      <c r="G102" s="16">
-        <v>2</v>
-      </c>
-      <c r="H102" s="16">
-        <f t="shared" si="29"/>
         <v>0.28800000000000098</v>
       </c>
       <c r="I102" s="16">
@@ -20817,7 +21447,7 @@
         <v>60</v>
       </c>
       <c r="L102" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.99200000000000033</v>
       </c>
       <c r="M102" s="20">
@@ -20827,7 +21457,7 @@
         <v>334</v>
       </c>
       <c r="O102" s="12" t="str">
-        <f>VLOOKUP(N102,Q:T,4,FALSE)</f>
+        <f t="shared" si="31"/>
         <v>1E+124</v>
       </c>
     </row>
@@ -20836,25 +21466,25 @@
         <v>349</v>
       </c>
       <c r="C103" s="16">
+        <f t="shared" si="35"/>
+        <v>1.9999999999999999E+127</v>
+      </c>
+      <c r="D103" s="16" t="str">
+        <f t="shared" si="36"/>
+        <v>2000교</v>
+      </c>
+      <c r="E103" s="16">
+        <v>20</v>
+      </c>
+      <c r="F103" s="16">
+        <f t="shared" si="29"/>
+        <v>33900000</v>
+      </c>
+      <c r="G103" s="16">
+        <v>2</v>
+      </c>
+      <c r="H103" s="16">
         <f t="shared" si="32"/>
-        <v>1.9999999999999999E+127</v>
-      </c>
-      <c r="D103" s="16" t="str">
-        <f t="shared" si="33"/>
-        <v>2000교</v>
-      </c>
-      <c r="E103" s="16">
-        <v>20</v>
-      </c>
-      <c r="F103" s="16">
-        <f t="shared" si="27"/>
-        <v>33900000</v>
-      </c>
-      <c r="G103" s="16">
-        <v>2</v>
-      </c>
-      <c r="H103" s="16">
-        <f t="shared" si="29"/>
         <v>0.28840000000000099</v>
       </c>
       <c r="I103" s="16">
@@ -20867,7 +21497,7 @@
         <v>60</v>
       </c>
       <c r="L103" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.99600000000000033</v>
       </c>
       <c r="M103" s="20">
@@ -20877,7 +21507,7 @@
         <v>334</v>
       </c>
       <c r="O103" s="12" t="str">
-        <f>VLOOKUP(N103,Q:T,4,FALSE)</f>
+        <f t="shared" ref="O103:O134" si="37">VLOOKUP(N103,Q:T,4,FALSE)</f>
         <v>1E+124</v>
       </c>
     </row>
@@ -20886,25 +21516,25 @@
         <v>350</v>
       </c>
       <c r="C104" s="16">
+        <f t="shared" si="35"/>
+        <v>4.9999999999999994E+127</v>
+      </c>
+      <c r="D104" s="16" t="str">
+        <f t="shared" si="36"/>
+        <v>5000교</v>
+      </c>
+      <c r="E104" s="16">
+        <v>20</v>
+      </c>
+      <c r="F104" s="16">
+        <f t="shared" si="29"/>
+        <v>34000000</v>
+      </c>
+      <c r="G104" s="16">
+        <v>2</v>
+      </c>
+      <c r="H104" s="16">
         <f t="shared" si="32"/>
-        <v>4.9999999999999994E+127</v>
-      </c>
-      <c r="D104" s="16" t="str">
-        <f t="shared" si="33"/>
-        <v>5000교</v>
-      </c>
-      <c r="E104" s="16">
-        <v>20</v>
-      </c>
-      <c r="F104" s="16">
-        <f t="shared" si="27"/>
-        <v>34000000</v>
-      </c>
-      <c r="G104" s="16">
-        <v>2</v>
-      </c>
-      <c r="H104" s="16">
-        <f t="shared" si="29"/>
         <v>0.288800000000001</v>
       </c>
       <c r="I104" s="16">
@@ -20917,7 +21547,7 @@
         <v>60</v>
       </c>
       <c r="L104" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="M104" s="20">
@@ -20927,7 +21557,7 @@
         <v>334</v>
       </c>
       <c r="O104" s="12" t="str">
-        <f>VLOOKUP(N104,Q:T,4,FALSE)</f>
+        <f t="shared" si="37"/>
         <v>1E+124</v>
       </c>
     </row>
@@ -20936,25 +21566,25 @@
         <v>351</v>
       </c>
       <c r="C105" s="16">
-        <f t="shared" ref="C105:C119" si="34">M105*O105</f>
+        <f t="shared" ref="C105:C119" si="38">M105*O105</f>
         <v>1.0000000000000001E+128</v>
       </c>
       <c r="D105" s="16" t="str">
-        <f t="shared" ref="D105:D119" si="35">M105&amp;N105</f>
+        <f t="shared" ref="D105:D119" si="39">M105&amp;N105</f>
         <v>1위</v>
       </c>
       <c r="E105" s="16">
         <v>20</v>
       </c>
       <c r="F105" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>34100000</v>
       </c>
       <c r="G105" s="16">
         <v>2</v>
       </c>
       <c r="H105" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.28920000000000101</v>
       </c>
       <c r="I105" s="16">
@@ -20967,7 +21597,7 @@
         <v>60</v>
       </c>
       <c r="L105" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1.0040000000000002</v>
       </c>
       <c r="M105" s="20">
@@ -20977,7 +21607,7 @@
         <v>335</v>
       </c>
       <c r="O105" s="12" t="str">
-        <f>VLOOKUP(N105,Q:T,4,FALSE)</f>
+        <f t="shared" si="37"/>
         <v>1E+128</v>
       </c>
     </row>
@@ -20986,25 +21616,25 @@
         <v>352</v>
       </c>
       <c r="C106" s="16">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>2.0000000000000002E+128</v>
       </c>
       <c r="D106" s="16" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>2위</v>
       </c>
       <c r="E106" s="16">
         <v>20</v>
       </c>
       <c r="F106" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>34200000</v>
       </c>
       <c r="G106" s="16">
         <v>2</v>
       </c>
       <c r="H106" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.28960000000000102</v>
       </c>
       <c r="I106" s="16">
@@ -21017,7 +21647,7 @@
         <v>60</v>
       </c>
       <c r="L106" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1.0080000000000002</v>
       </c>
       <c r="M106" s="20">
@@ -21027,7 +21657,7 @@
         <v>335</v>
       </c>
       <c r="O106" s="12" t="str">
-        <f>VLOOKUP(N106,Q:T,4,FALSE)</f>
+        <f t="shared" si="37"/>
         <v>1E+128</v>
       </c>
     </row>
@@ -21036,25 +21666,25 @@
         <v>353</v>
       </c>
       <c r="C107" s="16">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>5E+128</v>
       </c>
       <c r="D107" s="16" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>5위</v>
       </c>
       <c r="E107" s="16">
         <v>20</v>
       </c>
       <c r="F107" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>34300000</v>
       </c>
       <c r="G107" s="16">
         <v>2</v>
       </c>
       <c r="H107" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.29000000000000103</v>
       </c>
       <c r="I107" s="16">
@@ -21067,7 +21697,7 @@
         <v>60</v>
       </c>
       <c r="L107" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1.0120000000000002</v>
       </c>
       <c r="M107" s="20">
@@ -21077,7 +21707,7 @@
         <v>335</v>
       </c>
       <c r="O107" s="12" t="str">
-        <f>VLOOKUP(N107,Q:T,4,FALSE)</f>
+        <f t="shared" si="37"/>
         <v>1E+128</v>
       </c>
     </row>
@@ -21086,25 +21716,25 @@
         <v>354</v>
       </c>
       <c r="C108" s="16">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>1E+129</v>
       </c>
       <c r="D108" s="16" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>10위</v>
       </c>
       <c r="E108" s="16">
         <v>20</v>
       </c>
       <c r="F108" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>34400000</v>
       </c>
       <c r="G108" s="16">
         <v>2</v>
       </c>
       <c r="H108" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.29040000000000105</v>
       </c>
       <c r="I108" s="16">
@@ -21117,7 +21747,7 @@
         <v>60</v>
       </c>
       <c r="L108" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1.0160000000000002</v>
       </c>
       <c r="M108" s="20">
@@ -21127,7 +21757,7 @@
         <v>335</v>
       </c>
       <c r="O108" s="12" t="str">
-        <f>VLOOKUP(N108,Q:T,4,FALSE)</f>
+        <f t="shared" si="37"/>
         <v>1E+128</v>
       </c>
     </row>
@@ -21136,25 +21766,25 @@
         <v>355</v>
       </c>
       <c r="C109" s="16">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>2E+129</v>
       </c>
       <c r="D109" s="16" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>20위</v>
       </c>
       <c r="E109" s="16">
         <v>20</v>
       </c>
       <c r="F109" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>34500000</v>
       </c>
       <c r="G109" s="16">
         <v>2</v>
       </c>
       <c r="H109" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.29080000000000106</v>
       </c>
       <c r="I109" s="16">
@@ -21167,7 +21797,7 @@
         <v>60</v>
       </c>
       <c r="L109" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1.0200000000000002</v>
       </c>
       <c r="M109" s="20">
@@ -21177,7 +21807,7 @@
         <v>335</v>
       </c>
       <c r="O109" s="12" t="str">
-        <f>VLOOKUP(N109,Q:T,4,FALSE)</f>
+        <f t="shared" si="37"/>
         <v>1E+128</v>
       </c>
     </row>
@@ -21186,25 +21816,25 @@
         <v>356</v>
       </c>
       <c r="C110" s="16">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>5.0000000000000003E+129</v>
       </c>
       <c r="D110" s="16" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>50위</v>
       </c>
       <c r="E110" s="16">
         <v>20</v>
       </c>
       <c r="F110" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>34600000</v>
       </c>
       <c r="G110" s="16">
         <v>2</v>
       </c>
       <c r="H110" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.29120000000000107</v>
       </c>
       <c r="I110" s="16">
@@ -21217,7 +21847,7 @@
         <v>60</v>
       </c>
       <c r="L110" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1.0240000000000002</v>
       </c>
       <c r="M110" s="20">
@@ -21227,7 +21857,7 @@
         <v>335</v>
       </c>
       <c r="O110" s="12" t="str">
-        <f>VLOOKUP(N110,Q:T,4,FALSE)</f>
+        <f t="shared" si="37"/>
         <v>1E+128</v>
       </c>
     </row>
@@ -21236,25 +21866,25 @@
         <v>357</v>
       </c>
       <c r="C111" s="16">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>1.0000000000000001E+130</v>
       </c>
       <c r="D111" s="16" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>100위</v>
       </c>
       <c r="E111" s="16">
         <v>20</v>
       </c>
       <c r="F111" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>34700000</v>
       </c>
       <c r="G111" s="16">
         <v>2</v>
       </c>
       <c r="H111" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.29160000000000108</v>
       </c>
       <c r="I111" s="16">
@@ -21267,7 +21897,7 @@
         <v>60</v>
       </c>
       <c r="L111" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1.0280000000000002</v>
       </c>
       <c r="M111" s="20">
@@ -21277,7 +21907,7 @@
         <v>335</v>
       </c>
       <c r="O111" s="12" t="str">
-        <f>VLOOKUP(N111,Q:T,4,FALSE)</f>
+        <f t="shared" si="37"/>
         <v>1E+128</v>
       </c>
     </row>
@@ -21286,25 +21916,25 @@
         <v>358</v>
       </c>
       <c r="C112" s="16">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>1.5000000000000002E+130</v>
       </c>
       <c r="D112" s="16" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>150위</v>
       </c>
       <c r="E112" s="16">
         <v>20</v>
       </c>
       <c r="F112" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>34800000</v>
       </c>
       <c r="G112" s="16">
         <v>2</v>
       </c>
       <c r="H112" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.29200000000000109</v>
       </c>
       <c r="I112" s="16">
@@ -21317,7 +21947,7 @@
         <v>60</v>
       </c>
       <c r="L112" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1.0320000000000003</v>
       </c>
       <c r="M112" s="20">
@@ -21327,7 +21957,7 @@
         <v>335</v>
       </c>
       <c r="O112" s="12" t="str">
-        <f>VLOOKUP(N112,Q:T,4,FALSE)</f>
+        <f t="shared" si="37"/>
         <v>1E+128</v>
       </c>
     </row>
@@ -21336,25 +21966,25 @@
         <v>359</v>
       </c>
       <c r="C113" s="16">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>2.0000000000000001E+130</v>
       </c>
       <c r="D113" s="16" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>200위</v>
       </c>
       <c r="E113" s="16">
         <v>20</v>
       </c>
       <c r="F113" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>34900000</v>
       </c>
       <c r="G113" s="16">
         <v>2</v>
       </c>
       <c r="H113" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.2924000000000011</v>
       </c>
       <c r="I113" s="16">
@@ -21367,7 +21997,7 @@
         <v>60</v>
       </c>
       <c r="L113" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1.0360000000000003</v>
       </c>
       <c r="M113" s="20">
@@ -21377,7 +22007,7 @@
         <v>335</v>
       </c>
       <c r="O113" s="12" t="str">
-        <f>VLOOKUP(N113,Q:T,4,FALSE)</f>
+        <f t="shared" si="37"/>
         <v>1E+128</v>
       </c>
     </row>
@@ -21386,25 +22016,25 @@
         <v>360</v>
       </c>
       <c r="C114" s="16">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>3.0000000000000004E+130</v>
       </c>
       <c r="D114" s="16" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>300위</v>
       </c>
       <c r="E114" s="16">
         <v>20</v>
       </c>
       <c r="F114" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>35000000</v>
       </c>
       <c r="G114" s="16">
         <v>2</v>
       </c>
       <c r="H114" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.29280000000000111</v>
       </c>
       <c r="I114" s="16">
@@ -21417,7 +22047,7 @@
         <v>60</v>
       </c>
       <c r="L114" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1.0400000000000003</v>
       </c>
       <c r="M114" s="20">
@@ -21427,7 +22057,7 @@
         <v>335</v>
       </c>
       <c r="O114" s="12" t="str">
-        <f>VLOOKUP(N114,Q:T,4,FALSE)</f>
+        <f t="shared" si="37"/>
         <v>1E+128</v>
       </c>
     </row>
@@ -21436,25 +22066,25 @@
         <v>361</v>
       </c>
       <c r="C115" s="16">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>5.0000000000000005E+130</v>
       </c>
       <c r="D115" s="16" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>500위</v>
       </c>
       <c r="E115" s="16">
         <v>20</v>
       </c>
       <c r="F115" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>35100000</v>
       </c>
       <c r="G115" s="16">
         <v>2</v>
       </c>
       <c r="H115" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.29320000000000113</v>
       </c>
       <c r="I115" s="16">
@@ -21467,7 +22097,7 @@
         <v>60</v>
       </c>
       <c r="L115" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1.0440000000000003</v>
       </c>
       <c r="M115" s="20">
@@ -21477,7 +22107,7 @@
         <v>335</v>
       </c>
       <c r="O115" s="12" t="str">
-        <f>VLOOKUP(N115,Q:T,4,FALSE)</f>
+        <f t="shared" si="37"/>
         <v>1E+128</v>
       </c>
     </row>
@@ -21486,25 +22116,25 @@
         <v>362</v>
       </c>
       <c r="C116" s="16">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>8.0000000000000005E+130</v>
       </c>
       <c r="D116" s="16" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>800위</v>
       </c>
       <c r="E116" s="16">
         <v>20</v>
       </c>
       <c r="F116" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>35200000</v>
       </c>
       <c r="G116" s="16">
         <v>2</v>
       </c>
       <c r="H116" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.29360000000000114</v>
       </c>
       <c r="I116" s="16">
@@ -21517,7 +22147,7 @@
         <v>60</v>
       </c>
       <c r="L116" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1.0480000000000003</v>
       </c>
       <c r="M116" s="20">
@@ -21527,7 +22157,7 @@
         <v>335</v>
       </c>
       <c r="O116" s="12" t="str">
-        <f>VLOOKUP(N116,Q:T,4,FALSE)</f>
+        <f t="shared" si="37"/>
         <v>1E+128</v>
       </c>
     </row>
@@ -21536,25 +22166,25 @@
         <v>363</v>
       </c>
       <c r="C117" s="16">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>1.0000000000000001E+131</v>
       </c>
       <c r="D117" s="16" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>1000위</v>
       </c>
       <c r="E117" s="16">
         <v>20</v>
       </c>
       <c r="F117" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>35300000</v>
       </c>
       <c r="G117" s="16">
         <v>2</v>
       </c>
       <c r="H117" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.29400000000000115</v>
       </c>
       <c r="I117" s="16">
@@ -21567,7 +22197,7 @@
         <v>60</v>
       </c>
       <c r="L117" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1.0520000000000003</v>
       </c>
       <c r="M117" s="20">
@@ -21577,7 +22207,7 @@
         <v>335</v>
       </c>
       <c r="O117" s="12" t="str">
-        <f>VLOOKUP(N117,Q:T,4,FALSE)</f>
+        <f t="shared" si="37"/>
         <v>1E+128</v>
       </c>
     </row>
@@ -21586,25 +22216,25 @@
         <v>364</v>
       </c>
       <c r="C118" s="16">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>2.0000000000000002E+131</v>
       </c>
       <c r="D118" s="16" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>2000위</v>
       </c>
       <c r="E118" s="16">
         <v>20</v>
       </c>
       <c r="F118" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>35400000</v>
       </c>
       <c r="G118" s="16">
         <v>2</v>
       </c>
       <c r="H118" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.29440000000000116</v>
       </c>
       <c r="I118" s="16">
@@ -21617,7 +22247,7 @@
         <v>60</v>
       </c>
       <c r="L118" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1.0560000000000003</v>
       </c>
       <c r="M118" s="20">
@@ -21627,7 +22257,7 @@
         <v>335</v>
       </c>
       <c r="O118" s="12" t="str">
-        <f>VLOOKUP(N118,Q:T,4,FALSE)</f>
+        <f t="shared" si="37"/>
         <v>1E+128</v>
       </c>
     </row>
@@ -21636,25 +22266,25 @@
         <v>365</v>
       </c>
       <c r="C119" s="16">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>5.0000000000000007E+131</v>
       </c>
       <c r="D119" s="16" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>5000위</v>
       </c>
       <c r="E119" s="16">
         <v>20</v>
       </c>
       <c r="F119" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>35500000</v>
       </c>
       <c r="G119" s="16">
         <v>2</v>
       </c>
       <c r="H119" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.29480000000000117</v>
       </c>
       <c r="I119" s="16">
@@ -21667,7 +22297,7 @@
         <v>60</v>
       </c>
       <c r="L119" s="16">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1.0600000000000003</v>
       </c>
       <c r="M119" s="20">
@@ -21677,7 +22307,7 @@
         <v>335</v>
       </c>
       <c r="O119" s="12" t="str">
-        <f>VLOOKUP(N119,Q:T,4,FALSE)</f>
+        <f t="shared" si="37"/>
         <v>1E+128</v>
       </c>
     </row>

--- a/Assets/06.Table/SusanoTable.xlsx
+++ b/Assets/06.Table/SusanoTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E60390-40ED-4BFE-8026-A00CAC6032EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05CF4606-29E0-43DE-BC2C-714615C62AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SusanoTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="341">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1342,10 +1342,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>b</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1359,6 +1355,10 @@
   </si>
   <si>
     <t>e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1884,11 +1884,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:K367"/>
+  <dimension ref="A1:K382"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A345" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B365" sqref="B365"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A368" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A381" sqref="A381"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15645,6 +15645,681 @@
         <v>1.0600000000000003</v>
       </c>
     </row>
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A368">
+        <v>366</v>
+      </c>
+      <c r="B368">
+        <f>VLOOKUP(A368,UnitChange!B:K,2,FALSE)</f>
+        <v>9.9999999999999999E+131</v>
+      </c>
+      <c r="C368" t="str">
+        <f>VLOOKUP(A368,UnitChange!B:K,3,FALSE)</f>
+        <v>1설</v>
+      </c>
+      <c r="D368">
+        <f>VLOOKUP(A368,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E368">
+        <f>VLOOKUP(A368,UnitChange!B:K,5,FALSE)</f>
+        <v>35600000</v>
+      </c>
+      <c r="F368">
+        <f>VLOOKUP(A368,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G368">
+        <f>VLOOKUP(A368,UnitChange!B:K,7,FALSE)</f>
+        <v>0.29520000000000118</v>
+      </c>
+      <c r="H368">
+        <f>VLOOKUP(A368,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I368">
+        <f>VLOOKUP(A368,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J368">
+        <f>VLOOKUP(A368,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K368" s="1">
+        <f>VLOOKUP(A368,UnitChange!B:L,11,FALSE)</f>
+        <v>1.0640000000000003</v>
+      </c>
+    </row>
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A369">
+        <v>367</v>
+      </c>
+      <c r="B369">
+        <f>VLOOKUP(A369,UnitChange!B:K,2,FALSE)</f>
+        <v>2E+132</v>
+      </c>
+      <c r="C369" t="str">
+        <f>VLOOKUP(A369,UnitChange!B:K,3,FALSE)</f>
+        <v>2설</v>
+      </c>
+      <c r="D369">
+        <f>VLOOKUP(A369,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E369">
+        <f>VLOOKUP(A369,UnitChange!B:K,5,FALSE)</f>
+        <v>35700000</v>
+      </c>
+      <c r="F369">
+        <f>VLOOKUP(A369,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G369">
+        <f>VLOOKUP(A369,UnitChange!B:K,7,FALSE)</f>
+        <v>0.2956000000000012</v>
+      </c>
+      <c r="H369">
+        <f>VLOOKUP(A369,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I369">
+        <f>VLOOKUP(A369,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J369">
+        <f>VLOOKUP(A369,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K369" s="1">
+        <f>VLOOKUP(A369,UnitChange!B:L,11,FALSE)</f>
+        <v>1.0680000000000003</v>
+      </c>
+    </row>
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A370">
+        <v>368</v>
+      </c>
+      <c r="B370">
+        <f>VLOOKUP(A370,UnitChange!B:K,2,FALSE)</f>
+        <v>5.0000000000000001E+132</v>
+      </c>
+      <c r="C370" t="str">
+        <f>VLOOKUP(A370,UnitChange!B:K,3,FALSE)</f>
+        <v>5설</v>
+      </c>
+      <c r="D370">
+        <f>VLOOKUP(A370,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E370">
+        <f>VLOOKUP(A370,UnitChange!B:K,5,FALSE)</f>
+        <v>35800000</v>
+      </c>
+      <c r="F370">
+        <f>VLOOKUP(A370,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G370">
+        <f>VLOOKUP(A370,UnitChange!B:K,7,FALSE)</f>
+        <v>0.29600000000000121</v>
+      </c>
+      <c r="H370">
+        <f>VLOOKUP(A370,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I370">
+        <f>VLOOKUP(A370,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J370">
+        <f>VLOOKUP(A370,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K370" s="1">
+        <f>VLOOKUP(A370,UnitChange!B:L,11,FALSE)</f>
+        <v>1.0720000000000003</v>
+      </c>
+    </row>
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A371">
+        <v>369</v>
+      </c>
+      <c r="B371">
+        <f>VLOOKUP(A371,UnitChange!B:K,2,FALSE)</f>
+        <v>1E+133</v>
+      </c>
+      <c r="C371" t="str">
+        <f>VLOOKUP(A371,UnitChange!B:K,3,FALSE)</f>
+        <v>10설</v>
+      </c>
+      <c r="D371">
+        <f>VLOOKUP(A371,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E371">
+        <f>VLOOKUP(A371,UnitChange!B:K,5,FALSE)</f>
+        <v>35900000</v>
+      </c>
+      <c r="F371">
+        <f>VLOOKUP(A371,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G371">
+        <f>VLOOKUP(A371,UnitChange!B:K,7,FALSE)</f>
+        <v>0.29640000000000122</v>
+      </c>
+      <c r="H371">
+        <f>VLOOKUP(A371,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I371">
+        <f>VLOOKUP(A371,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J371">
+        <f>VLOOKUP(A371,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K371" s="1">
+        <f>VLOOKUP(A371,UnitChange!B:L,11,FALSE)</f>
+        <v>1.0760000000000003</v>
+      </c>
+    </row>
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A372">
+        <v>370</v>
+      </c>
+      <c r="B372">
+        <f>VLOOKUP(A372,UnitChange!B:K,2,FALSE)</f>
+        <v>2E+133</v>
+      </c>
+      <c r="C372" t="str">
+        <f>VLOOKUP(A372,UnitChange!B:K,3,FALSE)</f>
+        <v>20설</v>
+      </c>
+      <c r="D372">
+        <f>VLOOKUP(A372,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E372">
+        <f>VLOOKUP(A372,UnitChange!B:K,5,FALSE)</f>
+        <v>36000000</v>
+      </c>
+      <c r="F372">
+        <f>VLOOKUP(A372,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G372">
+        <f>VLOOKUP(A372,UnitChange!B:K,7,FALSE)</f>
+        <v>0.29680000000000123</v>
+      </c>
+      <c r="H372">
+        <f>VLOOKUP(A372,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I372">
+        <f>VLOOKUP(A372,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J372">
+        <f>VLOOKUP(A372,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K372" s="1">
+        <f>VLOOKUP(A372,UnitChange!B:L,11,FALSE)</f>
+        <v>1.0800000000000003</v>
+      </c>
+    </row>
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A373">
+        <v>371</v>
+      </c>
+      <c r="B373">
+        <f>VLOOKUP(A373,UnitChange!B:K,2,FALSE)</f>
+        <v>4.9999999999999996E+133</v>
+      </c>
+      <c r="C373" t="str">
+        <f>VLOOKUP(A373,UnitChange!B:K,3,FALSE)</f>
+        <v>50설</v>
+      </c>
+      <c r="D373">
+        <f>VLOOKUP(A373,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E373">
+        <f>VLOOKUP(A373,UnitChange!B:K,5,FALSE)</f>
+        <v>36100000</v>
+      </c>
+      <c r="F373">
+        <f>VLOOKUP(A373,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G373">
+        <f>VLOOKUP(A373,UnitChange!B:K,7,FALSE)</f>
+        <v>0.29720000000000124</v>
+      </c>
+      <c r="H373">
+        <f>VLOOKUP(A373,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I373">
+        <f>VLOOKUP(A373,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J373">
+        <f>VLOOKUP(A373,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K373" s="1">
+        <f>VLOOKUP(A373,UnitChange!B:L,11,FALSE)</f>
+        <v>1.0840000000000003</v>
+      </c>
+    </row>
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A374">
+        <v>372</v>
+      </c>
+      <c r="B374">
+        <f>VLOOKUP(A374,UnitChange!B:K,2,FALSE)</f>
+        <v>9.9999999999999992E+133</v>
+      </c>
+      <c r="C374" t="str">
+        <f>VLOOKUP(A374,UnitChange!B:K,3,FALSE)</f>
+        <v>100설</v>
+      </c>
+      <c r="D374">
+        <f>VLOOKUP(A374,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E374">
+        <f>VLOOKUP(A374,UnitChange!B:K,5,FALSE)</f>
+        <v>36200000</v>
+      </c>
+      <c r="F374">
+        <f>VLOOKUP(A374,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G374">
+        <f>VLOOKUP(A374,UnitChange!B:K,7,FALSE)</f>
+        <v>0.29760000000000125</v>
+      </c>
+      <c r="H374">
+        <f>VLOOKUP(A374,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I374">
+        <f>VLOOKUP(A374,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J374">
+        <f>VLOOKUP(A374,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K374" s="1">
+        <f>VLOOKUP(A374,UnitChange!B:L,11,FALSE)</f>
+        <v>1.0880000000000003</v>
+      </c>
+    </row>
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A375">
+        <v>373</v>
+      </c>
+      <c r="B375">
+        <f>VLOOKUP(A375,UnitChange!B:K,2,FALSE)</f>
+        <v>1.5E+134</v>
+      </c>
+      <c r="C375" t="str">
+        <f>VLOOKUP(A375,UnitChange!B:K,3,FALSE)</f>
+        <v>150설</v>
+      </c>
+      <c r="D375">
+        <f>VLOOKUP(A375,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E375">
+        <f>VLOOKUP(A375,UnitChange!B:K,5,FALSE)</f>
+        <v>36300000</v>
+      </c>
+      <c r="F375">
+        <f>VLOOKUP(A375,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G375">
+        <f>VLOOKUP(A375,UnitChange!B:K,7,FALSE)</f>
+        <v>0.29800000000000126</v>
+      </c>
+      <c r="H375">
+        <f>VLOOKUP(A375,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I375">
+        <f>VLOOKUP(A375,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J375">
+        <f>VLOOKUP(A375,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K375" s="1">
+        <f>VLOOKUP(A375,UnitChange!B:L,11,FALSE)</f>
+        <v>1.0920000000000003</v>
+      </c>
+    </row>
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A376">
+        <v>374</v>
+      </c>
+      <c r="B376">
+        <f>VLOOKUP(A376,UnitChange!B:K,2,FALSE)</f>
+        <v>1.9999999999999998E+134</v>
+      </c>
+      <c r="C376" t="str">
+        <f>VLOOKUP(A376,UnitChange!B:K,3,FALSE)</f>
+        <v>200설</v>
+      </c>
+      <c r="D376">
+        <f>VLOOKUP(A376,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E376">
+        <f>VLOOKUP(A376,UnitChange!B:K,5,FALSE)</f>
+        <v>36400000</v>
+      </c>
+      <c r="F376">
+        <f>VLOOKUP(A376,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G376">
+        <f>VLOOKUP(A376,UnitChange!B:K,7,FALSE)</f>
+        <v>0.29840000000000128</v>
+      </c>
+      <c r="H376">
+        <f>VLOOKUP(A376,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I376">
+        <f>VLOOKUP(A376,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J376">
+        <f>VLOOKUP(A376,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K376" s="1">
+        <f>VLOOKUP(A376,UnitChange!B:L,11,FALSE)</f>
+        <v>1.0960000000000003</v>
+      </c>
+    </row>
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A377">
+        <v>375</v>
+      </c>
+      <c r="B377">
+        <f>VLOOKUP(A377,UnitChange!B:K,2,FALSE)</f>
+        <v>3E+134</v>
+      </c>
+      <c r="C377" t="str">
+        <f>VLOOKUP(A377,UnitChange!B:K,3,FALSE)</f>
+        <v>300설</v>
+      </c>
+      <c r="D377">
+        <f>VLOOKUP(A377,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E377">
+        <f>VLOOKUP(A377,UnitChange!B:K,5,FALSE)</f>
+        <v>36500000</v>
+      </c>
+      <c r="F377">
+        <f>VLOOKUP(A377,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G377">
+        <f>VLOOKUP(A377,UnitChange!B:K,7,FALSE)</f>
+        <v>0.29880000000000129</v>
+      </c>
+      <c r="H377">
+        <f>VLOOKUP(A377,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I377">
+        <f>VLOOKUP(A377,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J377">
+        <f>VLOOKUP(A377,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K377" s="1">
+        <f>VLOOKUP(A377,UnitChange!B:L,11,FALSE)</f>
+        <v>1.1000000000000003</v>
+      </c>
+    </row>
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A378">
+        <v>376</v>
+      </c>
+      <c r="B378">
+        <f>VLOOKUP(A378,UnitChange!B:K,2,FALSE)</f>
+        <v>4.9999999999999998E+134</v>
+      </c>
+      <c r="C378" t="str">
+        <f>VLOOKUP(A378,UnitChange!B:K,3,FALSE)</f>
+        <v>500설</v>
+      </c>
+      <c r="D378">
+        <f>VLOOKUP(A378,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E378">
+        <f>VLOOKUP(A378,UnitChange!B:K,5,FALSE)</f>
+        <v>36600000</v>
+      </c>
+      <c r="F378">
+        <f>VLOOKUP(A378,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G378">
+        <f>VLOOKUP(A378,UnitChange!B:K,7,FALSE)</f>
+        <v>0.2992000000000013</v>
+      </c>
+      <c r="H378">
+        <f>VLOOKUP(A378,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I378">
+        <f>VLOOKUP(A378,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J378">
+        <f>VLOOKUP(A378,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K378" s="1">
+        <f>VLOOKUP(A378,UnitChange!B:L,11,FALSE)</f>
+        <v>1.1040000000000003</v>
+      </c>
+    </row>
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A379">
+        <v>377</v>
+      </c>
+      <c r="B379">
+        <f>VLOOKUP(A379,UnitChange!B:K,2,FALSE)</f>
+        <v>7.9999999999999994E+134</v>
+      </c>
+      <c r="C379" t="str">
+        <f>VLOOKUP(A379,UnitChange!B:K,3,FALSE)</f>
+        <v>800설</v>
+      </c>
+      <c r="D379">
+        <f>VLOOKUP(A379,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E379">
+        <f>VLOOKUP(A379,UnitChange!B:K,5,FALSE)</f>
+        <v>36700000</v>
+      </c>
+      <c r="F379">
+        <f>VLOOKUP(A379,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G379">
+        <f>VLOOKUP(A379,UnitChange!B:K,7,FALSE)</f>
+        <v>0.29960000000000131</v>
+      </c>
+      <c r="H379">
+        <f>VLOOKUP(A379,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I379">
+        <f>VLOOKUP(A379,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J379">
+        <f>VLOOKUP(A379,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K379" s="1">
+        <f>VLOOKUP(A379,UnitChange!B:L,11,FALSE)</f>
+        <v>1.1080000000000003</v>
+      </c>
+    </row>
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A380">
+        <v>378</v>
+      </c>
+      <c r="B380">
+        <f>VLOOKUP(A380,UnitChange!B:K,2,FALSE)</f>
+        <v>9.9999999999999996E+134</v>
+      </c>
+      <c r="C380" t="str">
+        <f>VLOOKUP(A380,UnitChange!B:K,3,FALSE)</f>
+        <v>1000설</v>
+      </c>
+      <c r="D380">
+        <f>VLOOKUP(A380,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E380">
+        <f>VLOOKUP(A380,UnitChange!B:K,5,FALSE)</f>
+        <v>36800000</v>
+      </c>
+      <c r="F380">
+        <f>VLOOKUP(A380,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G380">
+        <f>VLOOKUP(A380,UnitChange!B:K,7,FALSE)</f>
+        <v>0.30000000000000132</v>
+      </c>
+      <c r="H380">
+        <f>VLOOKUP(A380,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I380">
+        <f>VLOOKUP(A380,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J380">
+        <f>VLOOKUP(A380,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K380" s="1">
+        <f>VLOOKUP(A380,UnitChange!B:L,11,FALSE)</f>
+        <v>1.1120000000000003</v>
+      </c>
+    </row>
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A381">
+        <v>379</v>
+      </c>
+      <c r="B381">
+        <f>VLOOKUP(A381,UnitChange!B:K,2,FALSE)</f>
+        <v>1.9999999999999999E+135</v>
+      </c>
+      <c r="C381" t="str">
+        <f>VLOOKUP(A381,UnitChange!B:K,3,FALSE)</f>
+        <v>2000설</v>
+      </c>
+      <c r="D381">
+        <f>VLOOKUP(A381,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E381">
+        <f>VLOOKUP(A381,UnitChange!B:K,5,FALSE)</f>
+        <v>36900000</v>
+      </c>
+      <c r="F381">
+        <f>VLOOKUP(A381,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G381">
+        <f>VLOOKUP(A381,UnitChange!B:K,7,FALSE)</f>
+        <v>0.30040000000000133</v>
+      </c>
+      <c r="H381">
+        <f>VLOOKUP(A381,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I381">
+        <f>VLOOKUP(A381,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J381">
+        <f>VLOOKUP(A381,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K381" s="1">
+        <f>VLOOKUP(A381,UnitChange!B:L,11,FALSE)</f>
+        <v>1.1160000000000003</v>
+      </c>
+    </row>
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A382">
+        <v>380</v>
+      </c>
+      <c r="B382">
+        <f>VLOOKUP(A382,UnitChange!B:K,2,FALSE)</f>
+        <v>4.9999999999999996E+135</v>
+      </c>
+      <c r="C382" t="str">
+        <f>VLOOKUP(A382,UnitChange!B:K,3,FALSE)</f>
+        <v>5000설</v>
+      </c>
+      <c r="D382">
+        <f>VLOOKUP(A382,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E382">
+        <f>VLOOKUP(A382,UnitChange!B:K,5,FALSE)</f>
+        <v>37000000</v>
+      </c>
+      <c r="F382">
+        <f>VLOOKUP(A382,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G382">
+        <f>VLOOKUP(A382,UnitChange!B:K,7,FALSE)</f>
+        <v>0.30080000000000134</v>
+      </c>
+      <c r="H382">
+        <f>VLOOKUP(A382,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I382">
+        <f>VLOOKUP(A382,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J382">
+        <f>VLOOKUP(A382,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K382" s="1">
+        <f>VLOOKUP(A382,UnitChange!B:L,11,FALSE)</f>
+        <v>1.1200000000000003</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15654,10 +16329,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626C1493-E0FD-4651-99C5-58D15BDAC6AC}">
-  <dimension ref="B1:AC119"/>
+  <dimension ref="B1:AC134"/>
   <sheetViews>
-    <sheetView topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="M119" sqref="M119"/>
+    <sheetView tabSelected="1" topLeftCell="I21" workbookViewId="0">
+      <selection activeCell="E120" sqref="E120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -17926,7 +18601,7 @@
         <v>1E+108</v>
       </c>
       <c r="Q38" s="12" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="R38" s="12">
         <v>132</v>
@@ -17999,7 +18674,7 @@
         <v>1E+108</v>
       </c>
       <c r="Q39" s="12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="R39" s="12">
         <v>136</v>
@@ -18072,7 +18747,7 @@
         <v>1E+108</v>
       </c>
       <c r="Q40" s="12" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="R40" s="12">
         <v>140</v>
@@ -18145,7 +18820,7 @@
         <v>1E+108</v>
       </c>
       <c r="Q41" s="12" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="R41" s="12">
         <v>144</v>
@@ -18218,7 +18893,7 @@
         <v>1E+108</v>
       </c>
       <c r="Q42" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="R42" s="12">
         <v>148</v>
@@ -19294,7 +19969,7 @@
         <v>20</v>
       </c>
       <c r="F60" s="16">
-        <f t="shared" ref="F60:F119" si="29">F59+100000</f>
+        <f t="shared" ref="F60:F123" si="29">F59+100000</f>
         <v>29600000</v>
       </c>
       <c r="G60" s="16">
@@ -19314,7 +19989,7 @@
         <v>60</v>
       </c>
       <c r="L60" s="16">
-        <f t="shared" ref="L60:L119" si="30">L59+0.004</f>
+        <f t="shared" ref="L60:L123" si="30">L59+0.004</f>
         <v>0.82400000000000018</v>
       </c>
       <c r="M60" s="20">
@@ -20034,7 +20709,7 @@
         <v>2</v>
       </c>
       <c r="H74" s="16">
-        <f t="shared" ref="H74:H119" si="32">IF(RIGHT(H73,2)="24",H73+0.0076,H73+0.0004)</f>
+        <f t="shared" ref="H74:H134" si="32">IF(RIGHT(H73,2)="24",H73+0.0076,H73+0.0004)</f>
         <v>0.27680000000000066</v>
       </c>
       <c r="I74" s="16">
@@ -21566,11 +22241,11 @@
         <v>351</v>
       </c>
       <c r="C105" s="16">
-        <f t="shared" ref="C105:C119" si="38">M105*O105</f>
+        <f t="shared" ref="C105:C120" si="38">M105*O105</f>
         <v>1.0000000000000001E+128</v>
       </c>
       <c r="D105" s="16" t="str">
-        <f t="shared" ref="D105:D119" si="39">M105&amp;N105</f>
+        <f t="shared" ref="D105:D120" si="39">M105&amp;N105</f>
         <v>1위</v>
       </c>
       <c r="E105" s="16">
@@ -22309,6 +22984,756 @@
       <c r="O119" s="12" t="str">
         <f t="shared" si="37"/>
         <v>1E+128</v>
+      </c>
+    </row>
+    <row r="120" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B120" s="21">
+        <v>366</v>
+      </c>
+      <c r="C120" s="16">
+        <f t="shared" ref="C120:C134" si="40">M120*O120</f>
+        <v>9.9999999999999999E+131</v>
+      </c>
+      <c r="D120" s="16" t="str">
+        <f t="shared" ref="D120:D134" si="41">M120&amp;N120</f>
+        <v>1설</v>
+      </c>
+      <c r="E120" s="16">
+        <v>20</v>
+      </c>
+      <c r="F120" s="16">
+        <f t="shared" si="29"/>
+        <v>35600000</v>
+      </c>
+      <c r="G120" s="16">
+        <v>2</v>
+      </c>
+      <c r="H120" s="16">
+        <f t="shared" si="32"/>
+        <v>0.29520000000000118</v>
+      </c>
+      <c r="I120" s="16">
+        <v>23</v>
+      </c>
+      <c r="J120" s="16">
+        <v>0</v>
+      </c>
+      <c r="K120" s="16">
+        <v>60</v>
+      </c>
+      <c r="L120" s="16">
+        <f t="shared" si="30"/>
+        <v>1.0640000000000003</v>
+      </c>
+      <c r="M120" s="20">
+        <v>1</v>
+      </c>
+      <c r="N120" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="O120" s="12" t="str">
+        <f t="shared" si="37"/>
+        <v>1E+132</v>
+      </c>
+    </row>
+    <row r="121" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B121" s="21">
+        <v>367</v>
+      </c>
+      <c r="C121" s="16">
+        <f t="shared" si="40"/>
+        <v>2E+132</v>
+      </c>
+      <c r="D121" s="16" t="str">
+        <f t="shared" si="41"/>
+        <v>2설</v>
+      </c>
+      <c r="E121" s="16">
+        <v>20</v>
+      </c>
+      <c r="F121" s="16">
+        <f t="shared" si="29"/>
+        <v>35700000</v>
+      </c>
+      <c r="G121" s="16">
+        <v>2</v>
+      </c>
+      <c r="H121" s="16">
+        <f t="shared" si="32"/>
+        <v>0.2956000000000012</v>
+      </c>
+      <c r="I121" s="16">
+        <v>23</v>
+      </c>
+      <c r="J121" s="16">
+        <v>0</v>
+      </c>
+      <c r="K121" s="16">
+        <v>60</v>
+      </c>
+      <c r="L121" s="16">
+        <f t="shared" si="30"/>
+        <v>1.0680000000000003</v>
+      </c>
+      <c r="M121" s="20">
+        <v>2</v>
+      </c>
+      <c r="N121" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="O121" s="12" t="str">
+        <f t="shared" si="37"/>
+        <v>1E+132</v>
+      </c>
+    </row>
+    <row r="122" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B122" s="21">
+        <v>368</v>
+      </c>
+      <c r="C122" s="16">
+        <f t="shared" si="40"/>
+        <v>5.0000000000000001E+132</v>
+      </c>
+      <c r="D122" s="16" t="str">
+        <f t="shared" si="41"/>
+        <v>5설</v>
+      </c>
+      <c r="E122" s="16">
+        <v>20</v>
+      </c>
+      <c r="F122" s="16">
+        <f t="shared" si="29"/>
+        <v>35800000</v>
+      </c>
+      <c r="G122" s="16">
+        <v>2</v>
+      </c>
+      <c r="H122" s="16">
+        <f t="shared" si="32"/>
+        <v>0.29600000000000121</v>
+      </c>
+      <c r="I122" s="16">
+        <v>23</v>
+      </c>
+      <c r="J122" s="16">
+        <v>0</v>
+      </c>
+      <c r="K122" s="16">
+        <v>60</v>
+      </c>
+      <c r="L122" s="16">
+        <f t="shared" si="30"/>
+        <v>1.0720000000000003</v>
+      </c>
+      <c r="M122" s="20">
+        <v>5</v>
+      </c>
+      <c r="N122" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="O122" s="12" t="str">
+        <f t="shared" si="37"/>
+        <v>1E+132</v>
+      </c>
+    </row>
+    <row r="123" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B123" s="21">
+        <v>369</v>
+      </c>
+      <c r="C123" s="16">
+        <f t="shared" si="40"/>
+        <v>1E+133</v>
+      </c>
+      <c r="D123" s="16" t="str">
+        <f t="shared" si="41"/>
+        <v>10설</v>
+      </c>
+      <c r="E123" s="16">
+        <v>20</v>
+      </c>
+      <c r="F123" s="16">
+        <f t="shared" si="29"/>
+        <v>35900000</v>
+      </c>
+      <c r="G123" s="16">
+        <v>2</v>
+      </c>
+      <c r="H123" s="16">
+        <f t="shared" si="32"/>
+        <v>0.29640000000000122</v>
+      </c>
+      <c r="I123" s="16">
+        <v>23</v>
+      </c>
+      <c r="J123" s="16">
+        <v>0</v>
+      </c>
+      <c r="K123" s="16">
+        <v>60</v>
+      </c>
+      <c r="L123" s="16">
+        <f t="shared" si="30"/>
+        <v>1.0760000000000003</v>
+      </c>
+      <c r="M123" s="20">
+        <v>10</v>
+      </c>
+      <c r="N123" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="O123" s="12" t="str">
+        <f t="shared" si="37"/>
+        <v>1E+132</v>
+      </c>
+    </row>
+    <row r="124" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B124" s="21">
+        <v>370</v>
+      </c>
+      <c r="C124" s="16">
+        <f t="shared" si="40"/>
+        <v>2E+133</v>
+      </c>
+      <c r="D124" s="16" t="str">
+        <f t="shared" si="41"/>
+        <v>20설</v>
+      </c>
+      <c r="E124" s="16">
+        <v>20</v>
+      </c>
+      <c r="F124" s="16">
+        <f t="shared" ref="F124:F134" si="42">F123+100000</f>
+        <v>36000000</v>
+      </c>
+      <c r="G124" s="16">
+        <v>2</v>
+      </c>
+      <c r="H124" s="16">
+        <f t="shared" si="32"/>
+        <v>0.29680000000000123</v>
+      </c>
+      <c r="I124" s="16">
+        <v>23</v>
+      </c>
+      <c r="J124" s="16">
+        <v>0</v>
+      </c>
+      <c r="K124" s="16">
+        <v>60</v>
+      </c>
+      <c r="L124" s="16">
+        <f t="shared" ref="L124:L134" si="43">L123+0.004</f>
+        <v>1.0800000000000003</v>
+      </c>
+      <c r="M124" s="20">
+        <v>20</v>
+      </c>
+      <c r="N124" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="O124" s="12" t="str">
+        <f t="shared" si="37"/>
+        <v>1E+132</v>
+      </c>
+    </row>
+    <row r="125" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B125" s="21">
+        <v>371</v>
+      </c>
+      <c r="C125" s="16">
+        <f t="shared" si="40"/>
+        <v>4.9999999999999996E+133</v>
+      </c>
+      <c r="D125" s="16" t="str">
+        <f t="shared" si="41"/>
+        <v>50설</v>
+      </c>
+      <c r="E125" s="16">
+        <v>20</v>
+      </c>
+      <c r="F125" s="16">
+        <f t="shared" si="42"/>
+        <v>36100000</v>
+      </c>
+      <c r="G125" s="16">
+        <v>2</v>
+      </c>
+      <c r="H125" s="16">
+        <f t="shared" si="32"/>
+        <v>0.29720000000000124</v>
+      </c>
+      <c r="I125" s="16">
+        <v>23</v>
+      </c>
+      <c r="J125" s="16">
+        <v>0</v>
+      </c>
+      <c r="K125" s="16">
+        <v>60</v>
+      </c>
+      <c r="L125" s="16">
+        <f t="shared" si="43"/>
+        <v>1.0840000000000003</v>
+      </c>
+      <c r="M125" s="20">
+        <v>50</v>
+      </c>
+      <c r="N125" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="O125" s="12" t="str">
+        <f t="shared" si="37"/>
+        <v>1E+132</v>
+      </c>
+    </row>
+    <row r="126" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B126" s="21">
+        <v>372</v>
+      </c>
+      <c r="C126" s="16">
+        <f t="shared" si="40"/>
+        <v>9.9999999999999992E+133</v>
+      </c>
+      <c r="D126" s="16" t="str">
+        <f t="shared" si="41"/>
+        <v>100설</v>
+      </c>
+      <c r="E126" s="16">
+        <v>20</v>
+      </c>
+      <c r="F126" s="16">
+        <f t="shared" si="42"/>
+        <v>36200000</v>
+      </c>
+      <c r="G126" s="16">
+        <v>2</v>
+      </c>
+      <c r="H126" s="16">
+        <f t="shared" si="32"/>
+        <v>0.29760000000000125</v>
+      </c>
+      <c r="I126" s="16">
+        <v>23</v>
+      </c>
+      <c r="J126" s="16">
+        <v>0</v>
+      </c>
+      <c r="K126" s="16">
+        <v>60</v>
+      </c>
+      <c r="L126" s="16">
+        <f t="shared" si="43"/>
+        <v>1.0880000000000003</v>
+      </c>
+      <c r="M126" s="20">
+        <v>100</v>
+      </c>
+      <c r="N126" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="O126" s="12" t="str">
+        <f t="shared" si="37"/>
+        <v>1E+132</v>
+      </c>
+    </row>
+    <row r="127" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B127" s="21">
+        <v>373</v>
+      </c>
+      <c r="C127" s="16">
+        <f t="shared" si="40"/>
+        <v>1.5E+134</v>
+      </c>
+      <c r="D127" s="16" t="str">
+        <f t="shared" si="41"/>
+        <v>150설</v>
+      </c>
+      <c r="E127" s="16">
+        <v>20</v>
+      </c>
+      <c r="F127" s="16">
+        <f t="shared" si="42"/>
+        <v>36300000</v>
+      </c>
+      <c r="G127" s="16">
+        <v>2</v>
+      </c>
+      <c r="H127" s="16">
+        <f t="shared" si="32"/>
+        <v>0.29800000000000126</v>
+      </c>
+      <c r="I127" s="16">
+        <v>23</v>
+      </c>
+      <c r="J127" s="16">
+        <v>0</v>
+      </c>
+      <c r="K127" s="16">
+        <v>60</v>
+      </c>
+      <c r="L127" s="16">
+        <f t="shared" si="43"/>
+        <v>1.0920000000000003</v>
+      </c>
+      <c r="M127" s="20">
+        <v>150</v>
+      </c>
+      <c r="N127" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="O127" s="12" t="str">
+        <f t="shared" si="37"/>
+        <v>1E+132</v>
+      </c>
+    </row>
+    <row r="128" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B128" s="21">
+        <v>374</v>
+      </c>
+      <c r="C128" s="16">
+        <f t="shared" si="40"/>
+        <v>1.9999999999999998E+134</v>
+      </c>
+      <c r="D128" s="16" t="str">
+        <f t="shared" si="41"/>
+        <v>200설</v>
+      </c>
+      <c r="E128" s="16">
+        <v>20</v>
+      </c>
+      <c r="F128" s="16">
+        <f t="shared" si="42"/>
+        <v>36400000</v>
+      </c>
+      <c r="G128" s="16">
+        <v>2</v>
+      </c>
+      <c r="H128" s="16">
+        <f t="shared" si="32"/>
+        <v>0.29840000000000128</v>
+      </c>
+      <c r="I128" s="16">
+        <v>23</v>
+      </c>
+      <c r="J128" s="16">
+        <v>0</v>
+      </c>
+      <c r="K128" s="16">
+        <v>60</v>
+      </c>
+      <c r="L128" s="16">
+        <f t="shared" si="43"/>
+        <v>1.0960000000000003</v>
+      </c>
+      <c r="M128" s="20">
+        <v>200</v>
+      </c>
+      <c r="N128" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="O128" s="12" t="str">
+        <f t="shared" si="37"/>
+        <v>1E+132</v>
+      </c>
+    </row>
+    <row r="129" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B129" s="21">
+        <v>375</v>
+      </c>
+      <c r="C129" s="16">
+        <f t="shared" si="40"/>
+        <v>3E+134</v>
+      </c>
+      <c r="D129" s="16" t="str">
+        <f t="shared" si="41"/>
+        <v>300설</v>
+      </c>
+      <c r="E129" s="16">
+        <v>20</v>
+      </c>
+      <c r="F129" s="16">
+        <f t="shared" si="42"/>
+        <v>36500000</v>
+      </c>
+      <c r="G129" s="16">
+        <v>2</v>
+      </c>
+      <c r="H129" s="16">
+        <f t="shared" si="32"/>
+        <v>0.29880000000000129</v>
+      </c>
+      <c r="I129" s="16">
+        <v>23</v>
+      </c>
+      <c r="J129" s="16">
+        <v>0</v>
+      </c>
+      <c r="K129" s="16">
+        <v>60</v>
+      </c>
+      <c r="L129" s="16">
+        <f t="shared" si="43"/>
+        <v>1.1000000000000003</v>
+      </c>
+      <c r="M129" s="20">
+        <v>300</v>
+      </c>
+      <c r="N129" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="O129" s="12" t="str">
+        <f t="shared" si="37"/>
+        <v>1E+132</v>
+      </c>
+    </row>
+    <row r="130" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B130" s="21">
+        <v>376</v>
+      </c>
+      <c r="C130" s="16">
+        <f t="shared" si="40"/>
+        <v>4.9999999999999998E+134</v>
+      </c>
+      <c r="D130" s="16" t="str">
+        <f t="shared" si="41"/>
+        <v>500설</v>
+      </c>
+      <c r="E130" s="16">
+        <v>20</v>
+      </c>
+      <c r="F130" s="16">
+        <f t="shared" si="42"/>
+        <v>36600000</v>
+      </c>
+      <c r="G130" s="16">
+        <v>2</v>
+      </c>
+      <c r="H130" s="16">
+        <f t="shared" si="32"/>
+        <v>0.2992000000000013</v>
+      </c>
+      <c r="I130" s="16">
+        <v>23</v>
+      </c>
+      <c r="J130" s="16">
+        <v>0</v>
+      </c>
+      <c r="K130" s="16">
+        <v>60</v>
+      </c>
+      <c r="L130" s="16">
+        <f t="shared" si="43"/>
+        <v>1.1040000000000003</v>
+      </c>
+      <c r="M130" s="20">
+        <v>500</v>
+      </c>
+      <c r="N130" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="O130" s="12" t="str">
+        <f t="shared" si="37"/>
+        <v>1E+132</v>
+      </c>
+    </row>
+    <row r="131" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B131" s="21">
+        <v>377</v>
+      </c>
+      <c r="C131" s="16">
+        <f t="shared" si="40"/>
+        <v>7.9999999999999994E+134</v>
+      </c>
+      <c r="D131" s="16" t="str">
+        <f t="shared" si="41"/>
+        <v>800설</v>
+      </c>
+      <c r="E131" s="16">
+        <v>20</v>
+      </c>
+      <c r="F131" s="16">
+        <f t="shared" si="42"/>
+        <v>36700000</v>
+      </c>
+      <c r="G131" s="16">
+        <v>2</v>
+      </c>
+      <c r="H131" s="16">
+        <f t="shared" si="32"/>
+        <v>0.29960000000000131</v>
+      </c>
+      <c r="I131" s="16">
+        <v>23</v>
+      </c>
+      <c r="J131" s="16">
+        <v>0</v>
+      </c>
+      <c r="K131" s="16">
+        <v>60</v>
+      </c>
+      <c r="L131" s="16">
+        <f t="shared" si="43"/>
+        <v>1.1080000000000003</v>
+      </c>
+      <c r="M131" s="20">
+        <v>800</v>
+      </c>
+      <c r="N131" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="O131" s="12" t="str">
+        <f t="shared" si="37"/>
+        <v>1E+132</v>
+      </c>
+    </row>
+    <row r="132" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B132" s="21">
+        <v>378</v>
+      </c>
+      <c r="C132" s="16">
+        <f t="shared" si="40"/>
+        <v>9.9999999999999996E+134</v>
+      </c>
+      <c r="D132" s="16" t="str">
+        <f t="shared" si="41"/>
+        <v>1000설</v>
+      </c>
+      <c r="E132" s="16">
+        <v>20</v>
+      </c>
+      <c r="F132" s="16">
+        <f t="shared" si="42"/>
+        <v>36800000</v>
+      </c>
+      <c r="G132" s="16">
+        <v>2</v>
+      </c>
+      <c r="H132" s="16">
+        <f t="shared" si="32"/>
+        <v>0.30000000000000132</v>
+      </c>
+      <c r="I132" s="16">
+        <v>23</v>
+      </c>
+      <c r="J132" s="16">
+        <v>0</v>
+      </c>
+      <c r="K132" s="16">
+        <v>60</v>
+      </c>
+      <c r="L132" s="16">
+        <f t="shared" si="43"/>
+        <v>1.1120000000000003</v>
+      </c>
+      <c r="M132" s="20">
+        <v>1000</v>
+      </c>
+      <c r="N132" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="O132" s="12" t="str">
+        <f t="shared" si="37"/>
+        <v>1E+132</v>
+      </c>
+    </row>
+    <row r="133" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B133" s="21">
+        <v>379</v>
+      </c>
+      <c r="C133" s="16">
+        <f t="shared" si="40"/>
+        <v>1.9999999999999999E+135</v>
+      </c>
+      <c r="D133" s="16" t="str">
+        <f t="shared" si="41"/>
+        <v>2000설</v>
+      </c>
+      <c r="E133" s="16">
+        <v>20</v>
+      </c>
+      <c r="F133" s="16">
+        <f t="shared" si="42"/>
+        <v>36900000</v>
+      </c>
+      <c r="G133" s="16">
+        <v>2</v>
+      </c>
+      <c r="H133" s="16">
+        <f t="shared" si="32"/>
+        <v>0.30040000000000133</v>
+      </c>
+      <c r="I133" s="16">
+        <v>23</v>
+      </c>
+      <c r="J133" s="16">
+        <v>0</v>
+      </c>
+      <c r="K133" s="16">
+        <v>60</v>
+      </c>
+      <c r="L133" s="16">
+        <f t="shared" si="43"/>
+        <v>1.1160000000000003</v>
+      </c>
+      <c r="M133" s="20">
+        <v>2000</v>
+      </c>
+      <c r="N133" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="O133" s="12" t="str">
+        <f t="shared" si="37"/>
+        <v>1E+132</v>
+      </c>
+    </row>
+    <row r="134" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B134" s="21">
+        <v>380</v>
+      </c>
+      <c r="C134" s="16">
+        <f t="shared" si="40"/>
+        <v>4.9999999999999996E+135</v>
+      </c>
+      <c r="D134" s="16" t="str">
+        <f t="shared" si="41"/>
+        <v>5000설</v>
+      </c>
+      <c r="E134" s="16">
+        <v>20</v>
+      </c>
+      <c r="F134" s="16">
+        <f t="shared" si="42"/>
+        <v>37000000</v>
+      </c>
+      <c r="G134" s="16">
+        <v>2</v>
+      </c>
+      <c r="H134" s="16">
+        <f t="shared" si="32"/>
+        <v>0.30080000000000134</v>
+      </c>
+      <c r="I134" s="16">
+        <v>23</v>
+      </c>
+      <c r="J134" s="16">
+        <v>0</v>
+      </c>
+      <c r="K134" s="16">
+        <v>60</v>
+      </c>
+      <c r="L134" s="16">
+        <f t="shared" si="43"/>
+        <v>1.1200000000000003</v>
+      </c>
+      <c r="M134" s="20">
+        <v>5000</v>
+      </c>
+      <c r="N134" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="O134" s="12" t="str">
+        <f t="shared" si="37"/>
+        <v>1E+132</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/SusanoTable.xlsx
+++ b/Assets/06.Table/SusanoTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05CF4606-29E0-43DE-BC2C-714615C62AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B579BC70-F82A-422E-AD51-58A5C1851018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SusanoTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="341">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1342,10 +1342,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>d</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1359,6 +1355,10 @@
   </si>
   <si>
     <t>설</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1884,11 +1884,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:K382"/>
+  <dimension ref="A1:K397"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A368" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A381" sqref="A381"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A376" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C383" sqref="C383"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -16320,6 +16320,681 @@
         <v>1.1200000000000003</v>
       </c>
     </row>
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A383">
+        <v>381</v>
+      </c>
+      <c r="B383">
+        <f>VLOOKUP(A383,UnitChange!B:K,2,FALSE)</f>
+        <v>1.0000000000000001E+136</v>
+      </c>
+      <c r="C383" t="str">
+        <f>VLOOKUP(A383,UnitChange!B:K,3,FALSE)</f>
+        <v>1적</v>
+      </c>
+      <c r="D383">
+        <f>VLOOKUP(A383,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E383">
+        <f>VLOOKUP(A383,UnitChange!B:K,5,FALSE)</f>
+        <v>37100000</v>
+      </c>
+      <c r="F383">
+        <f>VLOOKUP(A383,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G383">
+        <f>VLOOKUP(A383,UnitChange!B:K,7,FALSE)</f>
+        <v>0.30120000000000136</v>
+      </c>
+      <c r="H383">
+        <f>VLOOKUP(A383,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I383">
+        <f>VLOOKUP(A383,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J383">
+        <f>VLOOKUP(A383,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K383" s="1">
+        <f>VLOOKUP(A383,UnitChange!B:L,11,FALSE)</f>
+        <v>1.1240000000000003</v>
+      </c>
+    </row>
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A384">
+        <v>382</v>
+      </c>
+      <c r="B384">
+        <f>VLOOKUP(A384,UnitChange!B:K,2,FALSE)</f>
+        <v>2.0000000000000001E+136</v>
+      </c>
+      <c r="C384" t="str">
+        <f>VLOOKUP(A384,UnitChange!B:K,3,FALSE)</f>
+        <v>2적</v>
+      </c>
+      <c r="D384">
+        <f>VLOOKUP(A384,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E384">
+        <f>VLOOKUP(A384,UnitChange!B:K,5,FALSE)</f>
+        <v>37200000</v>
+      </c>
+      <c r="F384">
+        <f>VLOOKUP(A384,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G384">
+        <f>VLOOKUP(A384,UnitChange!B:K,7,FALSE)</f>
+        <v>0.30160000000000137</v>
+      </c>
+      <c r="H384">
+        <f>VLOOKUP(A384,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I384">
+        <f>VLOOKUP(A384,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J384">
+        <f>VLOOKUP(A384,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K384" s="1">
+        <f>VLOOKUP(A384,UnitChange!B:L,11,FALSE)</f>
+        <v>1.1280000000000003</v>
+      </c>
+    </row>
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A385">
+        <v>383</v>
+      </c>
+      <c r="B385">
+        <f>VLOOKUP(A385,UnitChange!B:K,2,FALSE)</f>
+        <v>5.0000000000000002E+136</v>
+      </c>
+      <c r="C385" t="str">
+        <f>VLOOKUP(A385,UnitChange!B:K,3,FALSE)</f>
+        <v>5적</v>
+      </c>
+      <c r="D385">
+        <f>VLOOKUP(A385,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E385">
+        <f>VLOOKUP(A385,UnitChange!B:K,5,FALSE)</f>
+        <v>37300000</v>
+      </c>
+      <c r="F385">
+        <f>VLOOKUP(A385,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G385">
+        <f>VLOOKUP(A385,UnitChange!B:K,7,FALSE)</f>
+        <v>0.30200000000000138</v>
+      </c>
+      <c r="H385">
+        <f>VLOOKUP(A385,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I385">
+        <f>VLOOKUP(A385,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J385">
+        <f>VLOOKUP(A385,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K385" s="1">
+        <f>VLOOKUP(A385,UnitChange!B:L,11,FALSE)</f>
+        <v>1.1320000000000003</v>
+      </c>
+    </row>
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A386">
+        <v>384</v>
+      </c>
+      <c r="B386">
+        <f>VLOOKUP(A386,UnitChange!B:K,2,FALSE)</f>
+        <v>1E+137</v>
+      </c>
+      <c r="C386" t="str">
+        <f>VLOOKUP(A386,UnitChange!B:K,3,FALSE)</f>
+        <v>10적</v>
+      </c>
+      <c r="D386">
+        <f>VLOOKUP(A386,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E386">
+        <f>VLOOKUP(A386,UnitChange!B:K,5,FALSE)</f>
+        <v>37400000</v>
+      </c>
+      <c r="F386">
+        <f>VLOOKUP(A386,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G386">
+        <f>VLOOKUP(A386,UnitChange!B:K,7,FALSE)</f>
+        <v>0.30240000000000139</v>
+      </c>
+      <c r="H386">
+        <f>VLOOKUP(A386,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I386">
+        <f>VLOOKUP(A386,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J386">
+        <f>VLOOKUP(A386,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K386" s="1">
+        <f>VLOOKUP(A386,UnitChange!B:L,11,FALSE)</f>
+        <v>1.1360000000000003</v>
+      </c>
+    </row>
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A387">
+        <v>385</v>
+      </c>
+      <c r="B387">
+        <f>VLOOKUP(A387,UnitChange!B:K,2,FALSE)</f>
+        <v>2.0000000000000001E+137</v>
+      </c>
+      <c r="C387" t="str">
+        <f>VLOOKUP(A387,UnitChange!B:K,3,FALSE)</f>
+        <v>20적</v>
+      </c>
+      <c r="D387">
+        <f>VLOOKUP(A387,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E387">
+        <f>VLOOKUP(A387,UnitChange!B:K,5,FALSE)</f>
+        <v>37500000</v>
+      </c>
+      <c r="F387">
+        <f>VLOOKUP(A387,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G387">
+        <f>VLOOKUP(A387,UnitChange!B:K,7,FALSE)</f>
+        <v>0.3028000000000014</v>
+      </c>
+      <c r="H387">
+        <f>VLOOKUP(A387,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I387">
+        <f>VLOOKUP(A387,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J387">
+        <f>VLOOKUP(A387,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K387" s="1">
+        <f>VLOOKUP(A387,UnitChange!B:L,11,FALSE)</f>
+        <v>1.1400000000000003</v>
+      </c>
+    </row>
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A388">
+        <v>386</v>
+      </c>
+      <c r="B388">
+        <f>VLOOKUP(A388,UnitChange!B:K,2,FALSE)</f>
+        <v>5.0000000000000002E+137</v>
+      </c>
+      <c r="C388" t="str">
+        <f>VLOOKUP(A388,UnitChange!B:K,3,FALSE)</f>
+        <v>50적</v>
+      </c>
+      <c r="D388">
+        <f>VLOOKUP(A388,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E388">
+        <f>VLOOKUP(A388,UnitChange!B:K,5,FALSE)</f>
+        <v>37600000</v>
+      </c>
+      <c r="F388">
+        <f>VLOOKUP(A388,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G388">
+        <f>VLOOKUP(A388,UnitChange!B:K,7,FALSE)</f>
+        <v>0.30320000000000141</v>
+      </c>
+      <c r="H388">
+        <f>VLOOKUP(A388,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I388">
+        <f>VLOOKUP(A388,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J388">
+        <f>VLOOKUP(A388,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K388" s="1">
+        <f>VLOOKUP(A388,UnitChange!B:L,11,FALSE)</f>
+        <v>1.1440000000000003</v>
+      </c>
+    </row>
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A389">
+        <v>387</v>
+      </c>
+      <c r="B389">
+        <f>VLOOKUP(A389,UnitChange!B:K,2,FALSE)</f>
+        <v>1E+138</v>
+      </c>
+      <c r="C389" t="str">
+        <f>VLOOKUP(A389,UnitChange!B:K,3,FALSE)</f>
+        <v>100적</v>
+      </c>
+      <c r="D389">
+        <f>VLOOKUP(A389,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E389">
+        <f>VLOOKUP(A389,UnitChange!B:K,5,FALSE)</f>
+        <v>37700000</v>
+      </c>
+      <c r="F389">
+        <f>VLOOKUP(A389,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G389">
+        <f>VLOOKUP(A389,UnitChange!B:K,7,FALSE)</f>
+        <v>0.30360000000000142</v>
+      </c>
+      <c r="H389">
+        <f>VLOOKUP(A389,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I389">
+        <f>VLOOKUP(A389,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J389">
+        <f>VLOOKUP(A389,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K389" s="1">
+        <f>VLOOKUP(A389,UnitChange!B:L,11,FALSE)</f>
+        <v>1.1480000000000004</v>
+      </c>
+    </row>
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A390">
+        <v>388</v>
+      </c>
+      <c r="B390">
+        <f>VLOOKUP(A390,UnitChange!B:K,2,FALSE)</f>
+        <v>1.5E+138</v>
+      </c>
+      <c r="C390" t="str">
+        <f>VLOOKUP(A390,UnitChange!B:K,3,FALSE)</f>
+        <v>150적</v>
+      </c>
+      <c r="D390">
+        <f>VLOOKUP(A390,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E390">
+        <f>VLOOKUP(A390,UnitChange!B:K,5,FALSE)</f>
+        <v>37800000</v>
+      </c>
+      <c r="F390">
+        <f>VLOOKUP(A390,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G390">
+        <f>VLOOKUP(A390,UnitChange!B:K,7,FALSE)</f>
+        <v>0.30400000000000144</v>
+      </c>
+      <c r="H390">
+        <f>VLOOKUP(A390,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I390">
+        <f>VLOOKUP(A390,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J390">
+        <f>VLOOKUP(A390,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K390" s="1">
+        <f>VLOOKUP(A390,UnitChange!B:L,11,FALSE)</f>
+        <v>1.1520000000000004</v>
+      </c>
+    </row>
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A391">
+        <v>389</v>
+      </c>
+      <c r="B391">
+        <f>VLOOKUP(A391,UnitChange!B:K,2,FALSE)</f>
+        <v>2.0000000000000001E+138</v>
+      </c>
+      <c r="C391" t="str">
+        <f>VLOOKUP(A391,UnitChange!B:K,3,FALSE)</f>
+        <v>200적</v>
+      </c>
+      <c r="D391">
+        <f>VLOOKUP(A391,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E391">
+        <f>VLOOKUP(A391,UnitChange!B:K,5,FALSE)</f>
+        <v>37900000</v>
+      </c>
+      <c r="F391">
+        <f>VLOOKUP(A391,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G391">
+        <f>VLOOKUP(A391,UnitChange!B:K,7,FALSE)</f>
+        <v>0.30440000000000145</v>
+      </c>
+      <c r="H391">
+        <f>VLOOKUP(A391,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I391">
+        <f>VLOOKUP(A391,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J391">
+        <f>VLOOKUP(A391,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K391" s="1">
+        <f>VLOOKUP(A391,UnitChange!B:L,11,FALSE)</f>
+        <v>1.1560000000000004</v>
+      </c>
+    </row>
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A392">
+        <v>390</v>
+      </c>
+      <c r="B392">
+        <f>VLOOKUP(A392,UnitChange!B:K,2,FALSE)</f>
+        <v>3.0000000000000001E+138</v>
+      </c>
+      <c r="C392" t="str">
+        <f>VLOOKUP(A392,UnitChange!B:K,3,FALSE)</f>
+        <v>300적</v>
+      </c>
+      <c r="D392">
+        <f>VLOOKUP(A392,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E392">
+        <f>VLOOKUP(A392,UnitChange!B:K,5,FALSE)</f>
+        <v>38000000</v>
+      </c>
+      <c r="F392">
+        <f>VLOOKUP(A392,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G392">
+        <f>VLOOKUP(A392,UnitChange!B:K,7,FALSE)</f>
+        <v>0.30480000000000146</v>
+      </c>
+      <c r="H392">
+        <f>VLOOKUP(A392,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I392">
+        <f>VLOOKUP(A392,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J392">
+        <f>VLOOKUP(A392,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K392" s="1">
+        <f>VLOOKUP(A392,UnitChange!B:L,11,FALSE)</f>
+        <v>1.1600000000000004</v>
+      </c>
+    </row>
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A393">
+        <v>391</v>
+      </c>
+      <c r="B393">
+        <f>VLOOKUP(A393,UnitChange!B:K,2,FALSE)</f>
+        <v>5.0000000000000002E+138</v>
+      </c>
+      <c r="C393" t="str">
+        <f>VLOOKUP(A393,UnitChange!B:K,3,FALSE)</f>
+        <v>500적</v>
+      </c>
+      <c r="D393">
+        <f>VLOOKUP(A393,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E393">
+        <f>VLOOKUP(A393,UnitChange!B:K,5,FALSE)</f>
+        <v>38100000</v>
+      </c>
+      <c r="F393">
+        <f>VLOOKUP(A393,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G393">
+        <f>VLOOKUP(A393,UnitChange!B:K,7,FALSE)</f>
+        <v>0.30520000000000147</v>
+      </c>
+      <c r="H393">
+        <f>VLOOKUP(A393,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I393">
+        <f>VLOOKUP(A393,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J393">
+        <f>VLOOKUP(A393,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K393" s="1">
+        <f>VLOOKUP(A393,UnitChange!B:L,11,FALSE)</f>
+        <v>1.1640000000000004</v>
+      </c>
+    </row>
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A394">
+        <v>392</v>
+      </c>
+      <c r="B394">
+        <f>VLOOKUP(A394,UnitChange!B:K,2,FALSE)</f>
+        <v>8.0000000000000003E+138</v>
+      </c>
+      <c r="C394" t="str">
+        <f>VLOOKUP(A394,UnitChange!B:K,3,FALSE)</f>
+        <v>800적</v>
+      </c>
+      <c r="D394">
+        <f>VLOOKUP(A394,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E394">
+        <f>VLOOKUP(A394,UnitChange!B:K,5,FALSE)</f>
+        <v>38200000</v>
+      </c>
+      <c r="F394">
+        <f>VLOOKUP(A394,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G394">
+        <f>VLOOKUP(A394,UnitChange!B:K,7,FALSE)</f>
+        <v>0.30560000000000148</v>
+      </c>
+      <c r="H394">
+        <f>VLOOKUP(A394,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I394">
+        <f>VLOOKUP(A394,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J394">
+        <f>VLOOKUP(A394,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K394" s="1">
+        <f>VLOOKUP(A394,UnitChange!B:L,11,FALSE)</f>
+        <v>1.1680000000000004</v>
+      </c>
+    </row>
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A395">
+        <v>393</v>
+      </c>
+      <c r="B395">
+        <f>VLOOKUP(A395,UnitChange!B:K,2,FALSE)</f>
+        <v>1E+139</v>
+      </c>
+      <c r="C395" t="str">
+        <f>VLOOKUP(A395,UnitChange!B:K,3,FALSE)</f>
+        <v>1000적</v>
+      </c>
+      <c r="D395">
+        <f>VLOOKUP(A395,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E395">
+        <f>VLOOKUP(A395,UnitChange!B:K,5,FALSE)</f>
+        <v>38300000</v>
+      </c>
+      <c r="F395">
+        <f>VLOOKUP(A395,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G395">
+        <f>VLOOKUP(A395,UnitChange!B:K,7,FALSE)</f>
+        <v>0.30600000000000149</v>
+      </c>
+      <c r="H395">
+        <f>VLOOKUP(A395,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I395">
+        <f>VLOOKUP(A395,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J395">
+        <f>VLOOKUP(A395,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K395" s="1">
+        <f>VLOOKUP(A395,UnitChange!B:L,11,FALSE)</f>
+        <v>1.1720000000000004</v>
+      </c>
+    </row>
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A396">
+        <v>394</v>
+      </c>
+      <c r="B396">
+        <f>VLOOKUP(A396,UnitChange!B:K,2,FALSE)</f>
+        <v>2.0000000000000001E+139</v>
+      </c>
+      <c r="C396" t="str">
+        <f>VLOOKUP(A396,UnitChange!B:K,3,FALSE)</f>
+        <v>2000적</v>
+      </c>
+      <c r="D396">
+        <f>VLOOKUP(A396,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E396">
+        <f>VLOOKUP(A396,UnitChange!B:K,5,FALSE)</f>
+        <v>38400000</v>
+      </c>
+      <c r="F396">
+        <f>VLOOKUP(A396,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G396">
+        <f>VLOOKUP(A396,UnitChange!B:K,7,FALSE)</f>
+        <v>0.3064000000000015</v>
+      </c>
+      <c r="H396">
+        <f>VLOOKUP(A396,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I396">
+        <f>VLOOKUP(A396,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J396">
+        <f>VLOOKUP(A396,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K396" s="1">
+        <f>VLOOKUP(A396,UnitChange!B:L,11,FALSE)</f>
+        <v>1.1760000000000004</v>
+      </c>
+    </row>
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A397">
+        <v>395</v>
+      </c>
+      <c r="B397">
+        <f>VLOOKUP(A397,UnitChange!B:K,2,FALSE)</f>
+        <v>5.0000000000000003E+139</v>
+      </c>
+      <c r="C397" t="str">
+        <f>VLOOKUP(A397,UnitChange!B:K,3,FALSE)</f>
+        <v>5000적</v>
+      </c>
+      <c r="D397">
+        <f>VLOOKUP(A397,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E397">
+        <f>VLOOKUP(A397,UnitChange!B:K,5,FALSE)</f>
+        <v>38500000</v>
+      </c>
+      <c r="F397">
+        <f>VLOOKUP(A397,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G397">
+        <f>VLOOKUP(A397,UnitChange!B:K,7,FALSE)</f>
+        <v>0.30680000000000152</v>
+      </c>
+      <c r="H397">
+        <f>VLOOKUP(A397,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I397">
+        <f>VLOOKUP(A397,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J397">
+        <f>VLOOKUP(A397,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K397" s="1">
+        <f>VLOOKUP(A397,UnitChange!B:L,11,FALSE)</f>
+        <v>1.1800000000000004</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16329,10 +17004,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626C1493-E0FD-4651-99C5-58D15BDAC6AC}">
-  <dimension ref="B1:AC134"/>
+  <dimension ref="B1:AC149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I21" workbookViewId="0">
-      <selection activeCell="E120" sqref="E120"/>
+    <sheetView topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="C136" sqref="C136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -18601,7 +19276,7 @@
         <v>1E+108</v>
       </c>
       <c r="Q38" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="R38" s="12">
         <v>132</v>
@@ -18674,7 +19349,7 @@
         <v>1E+108</v>
       </c>
       <c r="Q39" s="12" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="R39" s="12">
         <v>136</v>
@@ -18747,7 +19422,7 @@
         <v>1E+108</v>
       </c>
       <c r="Q40" s="12" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="R40" s="12">
         <v>140</v>
@@ -18820,7 +19495,7 @@
         <v>1E+108</v>
       </c>
       <c r="Q41" s="12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="R41" s="12">
         <v>144</v>
@@ -18893,7 +19568,7 @@
         <v>1E+108</v>
       </c>
       <c r="Q42" s="12" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="R42" s="12">
         <v>148</v>
@@ -20709,7 +21384,7 @@
         <v>2</v>
       </c>
       <c r="H74" s="16">
-        <f t="shared" ref="H74:H134" si="32">IF(RIGHT(H73,2)="24",H73+0.0076,H73+0.0004)</f>
+        <f t="shared" ref="H74:H137" si="32">IF(RIGHT(H73,2)="24",H73+0.0076,H73+0.0004)</f>
         <v>0.27680000000000066</v>
       </c>
       <c r="I74" s="16">
@@ -22182,7 +22857,7 @@
         <v>334</v>
       </c>
       <c r="O103" s="12" t="str">
-        <f t="shared" ref="O103:O134" si="37">VLOOKUP(N103,Q:T,4,FALSE)</f>
+        <f t="shared" ref="O103:O149" si="37">VLOOKUP(N103,Q:T,4,FALSE)</f>
         <v>1E+124</v>
       </c>
     </row>
@@ -22241,11 +22916,11 @@
         <v>351</v>
       </c>
       <c r="C105" s="16">
-        <f t="shared" ref="C105:C120" si="38">M105*O105</f>
+        <f t="shared" ref="C105:C119" si="38">M105*O105</f>
         <v>1.0000000000000001E+128</v>
       </c>
       <c r="D105" s="16" t="str">
-        <f t="shared" ref="D105:D120" si="39">M105&amp;N105</f>
+        <f t="shared" ref="D105:D119" si="39">M105&amp;N105</f>
         <v>1위</v>
       </c>
       <c r="E105" s="16">
@@ -23029,7 +23704,7 @@
         <v>1</v>
       </c>
       <c r="N120" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O120" s="12" t="str">
         <f t="shared" si="37"/>
@@ -23079,7 +23754,7 @@
         <v>2</v>
       </c>
       <c r="N121" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O121" s="12" t="str">
         <f t="shared" si="37"/>
@@ -23129,7 +23804,7 @@
         <v>5</v>
       </c>
       <c r="N122" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O122" s="12" t="str">
         <f t="shared" si="37"/>
@@ -23179,7 +23854,7 @@
         <v>10</v>
       </c>
       <c r="N123" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O123" s="12" t="str">
         <f t="shared" si="37"/>
@@ -23202,7 +23877,7 @@
         <v>20</v>
       </c>
       <c r="F124" s="16">
-        <f t="shared" ref="F124:F134" si="42">F123+100000</f>
+        <f t="shared" ref="F124:F149" si="42">F123+100000</f>
         <v>36000000</v>
       </c>
       <c r="G124" s="16">
@@ -23222,14 +23897,14 @@
         <v>60</v>
       </c>
       <c r="L124" s="16">
-        <f t="shared" ref="L124:L134" si="43">L123+0.004</f>
+        <f t="shared" ref="L124:L149" si="43">L123+0.004</f>
         <v>1.0800000000000003</v>
       </c>
       <c r="M124" s="20">
         <v>20</v>
       </c>
       <c r="N124" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O124" s="12" t="str">
         <f t="shared" si="37"/>
@@ -23279,7 +23954,7 @@
         <v>50</v>
       </c>
       <c r="N125" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O125" s="12" t="str">
         <f t="shared" si="37"/>
@@ -23329,7 +24004,7 @@
         <v>100</v>
       </c>
       <c r="N126" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O126" s="12" t="str">
         <f t="shared" si="37"/>
@@ -23379,7 +24054,7 @@
         <v>150</v>
       </c>
       <c r="N127" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O127" s="12" t="str">
         <f t="shared" si="37"/>
@@ -23429,7 +24104,7 @@
         <v>200</v>
       </c>
       <c r="N128" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O128" s="12" t="str">
         <f t="shared" si="37"/>
@@ -23479,7 +24154,7 @@
         <v>300</v>
       </c>
       <c r="N129" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O129" s="12" t="str">
         <f t="shared" si="37"/>
@@ -23529,7 +24204,7 @@
         <v>500</v>
       </c>
       <c r="N130" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O130" s="12" t="str">
         <f t="shared" si="37"/>
@@ -23579,7 +24254,7 @@
         <v>800</v>
       </c>
       <c r="N131" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O131" s="12" t="str">
         <f t="shared" si="37"/>
@@ -23629,7 +24304,7 @@
         <v>1000</v>
       </c>
       <c r="N132" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O132" s="12" t="str">
         <f t="shared" si="37"/>
@@ -23679,7 +24354,7 @@
         <v>2000</v>
       </c>
       <c r="N133" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O133" s="12" t="str">
         <f t="shared" si="37"/>
@@ -23729,11 +24404,761 @@
         <v>5000</v>
       </c>
       <c r="N134" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O134" s="12" t="str">
         <f t="shared" si="37"/>
         <v>1E+132</v>
+      </c>
+    </row>
+    <row r="135" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B135" s="21">
+        <v>381</v>
+      </c>
+      <c r="C135" s="16">
+        <f t="shared" ref="C135:C149" si="44">M135*O135</f>
+        <v>1.0000000000000001E+136</v>
+      </c>
+      <c r="D135" s="16" t="str">
+        <f t="shared" ref="D135:D149" si="45">M135&amp;N135</f>
+        <v>1적</v>
+      </c>
+      <c r="E135" s="16">
+        <v>20</v>
+      </c>
+      <c r="F135" s="16">
+        <f t="shared" si="42"/>
+        <v>37100000</v>
+      </c>
+      <c r="G135" s="16">
+        <v>2</v>
+      </c>
+      <c r="H135" s="16">
+        <f t="shared" si="32"/>
+        <v>0.30120000000000136</v>
+      </c>
+      <c r="I135" s="16">
+        <v>23</v>
+      </c>
+      <c r="J135" s="16">
+        <v>0</v>
+      </c>
+      <c r="K135" s="16">
+        <v>60</v>
+      </c>
+      <c r="L135" s="16">
+        <f t="shared" si="43"/>
+        <v>1.1240000000000003</v>
+      </c>
+      <c r="M135" s="20">
+        <v>1</v>
+      </c>
+      <c r="N135" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="O135" s="12" t="str">
+        <f t="shared" si="37"/>
+        <v>1E+136</v>
+      </c>
+    </row>
+    <row r="136" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B136" s="21">
+        <v>382</v>
+      </c>
+      <c r="C136" s="16">
+        <f t="shared" si="44"/>
+        <v>2.0000000000000001E+136</v>
+      </c>
+      <c r="D136" s="16" t="str">
+        <f t="shared" si="45"/>
+        <v>2적</v>
+      </c>
+      <c r="E136" s="16">
+        <v>20</v>
+      </c>
+      <c r="F136" s="16">
+        <f t="shared" si="42"/>
+        <v>37200000</v>
+      </c>
+      <c r="G136" s="16">
+        <v>2</v>
+      </c>
+      <c r="H136" s="16">
+        <f t="shared" si="32"/>
+        <v>0.30160000000000137</v>
+      </c>
+      <c r="I136" s="16">
+        <v>23</v>
+      </c>
+      <c r="J136" s="16">
+        <v>0</v>
+      </c>
+      <c r="K136" s="16">
+        <v>60</v>
+      </c>
+      <c r="L136" s="16">
+        <f t="shared" si="43"/>
+        <v>1.1280000000000003</v>
+      </c>
+      <c r="M136" s="20">
+        <v>2</v>
+      </c>
+      <c r="N136" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="O136" s="12" t="str">
+        <f t="shared" si="37"/>
+        <v>1E+136</v>
+      </c>
+    </row>
+    <row r="137" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B137" s="21">
+        <v>383</v>
+      </c>
+      <c r="C137" s="16">
+        <f t="shared" si="44"/>
+        <v>5.0000000000000002E+136</v>
+      </c>
+      <c r="D137" s="16" t="str">
+        <f t="shared" si="45"/>
+        <v>5적</v>
+      </c>
+      <c r="E137" s="16">
+        <v>20</v>
+      </c>
+      <c r="F137" s="16">
+        <f t="shared" si="42"/>
+        <v>37300000</v>
+      </c>
+      <c r="G137" s="16">
+        <v>2</v>
+      </c>
+      <c r="H137" s="16">
+        <f t="shared" si="32"/>
+        <v>0.30200000000000138</v>
+      </c>
+      <c r="I137" s="16">
+        <v>23</v>
+      </c>
+      <c r="J137" s="16">
+        <v>0</v>
+      </c>
+      <c r="K137" s="16">
+        <v>60</v>
+      </c>
+      <c r="L137" s="16">
+        <f t="shared" si="43"/>
+        <v>1.1320000000000003</v>
+      </c>
+      <c r="M137" s="20">
+        <v>5</v>
+      </c>
+      <c r="N137" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="O137" s="12" t="str">
+        <f t="shared" si="37"/>
+        <v>1E+136</v>
+      </c>
+    </row>
+    <row r="138" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B138" s="21">
+        <v>384</v>
+      </c>
+      <c r="C138" s="16">
+        <f t="shared" si="44"/>
+        <v>1E+137</v>
+      </c>
+      <c r="D138" s="16" t="str">
+        <f t="shared" si="45"/>
+        <v>10적</v>
+      </c>
+      <c r="E138" s="16">
+        <v>20</v>
+      </c>
+      <c r="F138" s="16">
+        <f t="shared" si="42"/>
+        <v>37400000</v>
+      </c>
+      <c r="G138" s="16">
+        <v>2</v>
+      </c>
+      <c r="H138" s="16">
+        <f t="shared" ref="H138:H149" si="46">IF(RIGHT(H137,2)="24",H137+0.0076,H137+0.0004)</f>
+        <v>0.30240000000000139</v>
+      </c>
+      <c r="I138" s="16">
+        <v>23</v>
+      </c>
+      <c r="J138" s="16">
+        <v>0</v>
+      </c>
+      <c r="K138" s="16">
+        <v>60</v>
+      </c>
+      <c r="L138" s="16">
+        <f t="shared" si="43"/>
+        <v>1.1360000000000003</v>
+      </c>
+      <c r="M138" s="20">
+        <v>10</v>
+      </c>
+      <c r="N138" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="O138" s="12" t="str">
+        <f t="shared" si="37"/>
+        <v>1E+136</v>
+      </c>
+    </row>
+    <row r="139" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B139" s="21">
+        <v>385</v>
+      </c>
+      <c r="C139" s="16">
+        <f t="shared" si="44"/>
+        <v>2.0000000000000001E+137</v>
+      </c>
+      <c r="D139" s="16" t="str">
+        <f t="shared" si="45"/>
+        <v>20적</v>
+      </c>
+      <c r="E139" s="16">
+        <v>20</v>
+      </c>
+      <c r="F139" s="16">
+        <f t="shared" si="42"/>
+        <v>37500000</v>
+      </c>
+      <c r="G139" s="16">
+        <v>2</v>
+      </c>
+      <c r="H139" s="16">
+        <f t="shared" si="46"/>
+        <v>0.3028000000000014</v>
+      </c>
+      <c r="I139" s="16">
+        <v>23</v>
+      </c>
+      <c r="J139" s="16">
+        <v>0</v>
+      </c>
+      <c r="K139" s="16">
+        <v>60</v>
+      </c>
+      <c r="L139" s="16">
+        <f t="shared" si="43"/>
+        <v>1.1400000000000003</v>
+      </c>
+      <c r="M139" s="20">
+        <v>20</v>
+      </c>
+      <c r="N139" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="O139" s="12" t="str">
+        <f t="shared" si="37"/>
+        <v>1E+136</v>
+      </c>
+    </row>
+    <row r="140" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B140" s="21">
+        <v>386</v>
+      </c>
+      <c r="C140" s="16">
+        <f t="shared" si="44"/>
+        <v>5.0000000000000002E+137</v>
+      </c>
+      <c r="D140" s="16" t="str">
+        <f t="shared" si="45"/>
+        <v>50적</v>
+      </c>
+      <c r="E140" s="16">
+        <v>20</v>
+      </c>
+      <c r="F140" s="16">
+        <f t="shared" si="42"/>
+        <v>37600000</v>
+      </c>
+      <c r="G140" s="16">
+        <v>2</v>
+      </c>
+      <c r="H140" s="16">
+        <f t="shared" si="46"/>
+        <v>0.30320000000000141</v>
+      </c>
+      <c r="I140" s="16">
+        <v>23</v>
+      </c>
+      <c r="J140" s="16">
+        <v>0</v>
+      </c>
+      <c r="K140" s="16">
+        <v>60</v>
+      </c>
+      <c r="L140" s="16">
+        <f t="shared" si="43"/>
+        <v>1.1440000000000003</v>
+      </c>
+      <c r="M140" s="20">
+        <v>50</v>
+      </c>
+      <c r="N140" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="O140" s="12" t="str">
+        <f t="shared" si="37"/>
+        <v>1E+136</v>
+      </c>
+    </row>
+    <row r="141" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B141" s="21">
+        <v>387</v>
+      </c>
+      <c r="C141" s="16">
+        <f t="shared" si="44"/>
+        <v>1E+138</v>
+      </c>
+      <c r="D141" s="16" t="str">
+        <f t="shared" si="45"/>
+        <v>100적</v>
+      </c>
+      <c r="E141" s="16">
+        <v>20</v>
+      </c>
+      <c r="F141" s="16">
+        <f t="shared" si="42"/>
+        <v>37700000</v>
+      </c>
+      <c r="G141" s="16">
+        <v>2</v>
+      </c>
+      <c r="H141" s="16">
+        <f t="shared" si="46"/>
+        <v>0.30360000000000142</v>
+      </c>
+      <c r="I141" s="16">
+        <v>23</v>
+      </c>
+      <c r="J141" s="16">
+        <v>0</v>
+      </c>
+      <c r="K141" s="16">
+        <v>60</v>
+      </c>
+      <c r="L141" s="16">
+        <f t="shared" si="43"/>
+        <v>1.1480000000000004</v>
+      </c>
+      <c r="M141" s="20">
+        <v>100</v>
+      </c>
+      <c r="N141" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="O141" s="12" t="str">
+        <f t="shared" si="37"/>
+        <v>1E+136</v>
+      </c>
+    </row>
+    <row r="142" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B142" s="21">
+        <v>388</v>
+      </c>
+      <c r="C142" s="16">
+        <f t="shared" si="44"/>
+        <v>1.5E+138</v>
+      </c>
+      <c r="D142" s="16" t="str">
+        <f t="shared" si="45"/>
+        <v>150적</v>
+      </c>
+      <c r="E142" s="16">
+        <v>20</v>
+      </c>
+      <c r="F142" s="16">
+        <f t="shared" si="42"/>
+        <v>37800000</v>
+      </c>
+      <c r="G142" s="16">
+        <v>2</v>
+      </c>
+      <c r="H142" s="16">
+        <f t="shared" si="46"/>
+        <v>0.30400000000000144</v>
+      </c>
+      <c r="I142" s="16">
+        <v>23</v>
+      </c>
+      <c r="J142" s="16">
+        <v>0</v>
+      </c>
+      <c r="K142" s="16">
+        <v>60</v>
+      </c>
+      <c r="L142" s="16">
+        <f t="shared" si="43"/>
+        <v>1.1520000000000004</v>
+      </c>
+      <c r="M142" s="20">
+        <v>150</v>
+      </c>
+      <c r="N142" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="O142" s="12" t="str">
+        <f t="shared" si="37"/>
+        <v>1E+136</v>
+      </c>
+    </row>
+    <row r="143" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B143" s="21">
+        <v>389</v>
+      </c>
+      <c r="C143" s="16">
+        <f t="shared" si="44"/>
+        <v>2.0000000000000001E+138</v>
+      </c>
+      <c r="D143" s="16" t="str">
+        <f t="shared" si="45"/>
+        <v>200적</v>
+      </c>
+      <c r="E143" s="16">
+        <v>20</v>
+      </c>
+      <c r="F143" s="16">
+        <f t="shared" si="42"/>
+        <v>37900000</v>
+      </c>
+      <c r="G143" s="16">
+        <v>2</v>
+      </c>
+      <c r="H143" s="16">
+        <f t="shared" si="46"/>
+        <v>0.30440000000000145</v>
+      </c>
+      <c r="I143" s="16">
+        <v>23</v>
+      </c>
+      <c r="J143" s="16">
+        <v>0</v>
+      </c>
+      <c r="K143" s="16">
+        <v>60</v>
+      </c>
+      <c r="L143" s="16">
+        <f t="shared" si="43"/>
+        <v>1.1560000000000004</v>
+      </c>
+      <c r="M143" s="20">
+        <v>200</v>
+      </c>
+      <c r="N143" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="O143" s="12" t="str">
+        <f t="shared" si="37"/>
+        <v>1E+136</v>
+      </c>
+    </row>
+    <row r="144" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B144" s="21">
+        <v>390</v>
+      </c>
+      <c r="C144" s="16">
+        <f t="shared" si="44"/>
+        <v>3.0000000000000001E+138</v>
+      </c>
+      <c r="D144" s="16" t="str">
+        <f t="shared" si="45"/>
+        <v>300적</v>
+      </c>
+      <c r="E144" s="16">
+        <v>20</v>
+      </c>
+      <c r="F144" s="16">
+        <f t="shared" si="42"/>
+        <v>38000000</v>
+      </c>
+      <c r="G144" s="16">
+        <v>2</v>
+      </c>
+      <c r="H144" s="16">
+        <f t="shared" si="46"/>
+        <v>0.30480000000000146</v>
+      </c>
+      <c r="I144" s="16">
+        <v>23</v>
+      </c>
+      <c r="J144" s="16">
+        <v>0</v>
+      </c>
+      <c r="K144" s="16">
+        <v>60</v>
+      </c>
+      <c r="L144" s="16">
+        <f t="shared" si="43"/>
+        <v>1.1600000000000004</v>
+      </c>
+      <c r="M144" s="20">
+        <v>300</v>
+      </c>
+      <c r="N144" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="O144" s="12" t="str">
+        <f t="shared" si="37"/>
+        <v>1E+136</v>
+      </c>
+    </row>
+    <row r="145" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B145" s="21">
+        <v>391</v>
+      </c>
+      <c r="C145" s="16">
+        <f t="shared" si="44"/>
+        <v>5.0000000000000002E+138</v>
+      </c>
+      <c r="D145" s="16" t="str">
+        <f t="shared" si="45"/>
+        <v>500적</v>
+      </c>
+      <c r="E145" s="16">
+        <v>20</v>
+      </c>
+      <c r="F145" s="16">
+        <f t="shared" si="42"/>
+        <v>38100000</v>
+      </c>
+      <c r="G145" s="16">
+        <v>2</v>
+      </c>
+      <c r="H145" s="16">
+        <f t="shared" si="46"/>
+        <v>0.30520000000000147</v>
+      </c>
+      <c r="I145" s="16">
+        <v>23</v>
+      </c>
+      <c r="J145" s="16">
+        <v>0</v>
+      </c>
+      <c r="K145" s="16">
+        <v>60</v>
+      </c>
+      <c r="L145" s="16">
+        <f t="shared" si="43"/>
+        <v>1.1640000000000004</v>
+      </c>
+      <c r="M145" s="20">
+        <v>500</v>
+      </c>
+      <c r="N145" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="O145" s="12" t="str">
+        <f t="shared" si="37"/>
+        <v>1E+136</v>
+      </c>
+    </row>
+    <row r="146" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B146" s="21">
+        <v>392</v>
+      </c>
+      <c r="C146" s="16">
+        <f t="shared" si="44"/>
+        <v>8.0000000000000003E+138</v>
+      </c>
+      <c r="D146" s="16" t="str">
+        <f t="shared" si="45"/>
+        <v>800적</v>
+      </c>
+      <c r="E146" s="16">
+        <v>20</v>
+      </c>
+      <c r="F146" s="16">
+        <f t="shared" si="42"/>
+        <v>38200000</v>
+      </c>
+      <c r="G146" s="16">
+        <v>2</v>
+      </c>
+      <c r="H146" s="16">
+        <f t="shared" si="46"/>
+        <v>0.30560000000000148</v>
+      </c>
+      <c r="I146" s="16">
+        <v>23</v>
+      </c>
+      <c r="J146" s="16">
+        <v>0</v>
+      </c>
+      <c r="K146" s="16">
+        <v>60</v>
+      </c>
+      <c r="L146" s="16">
+        <f t="shared" si="43"/>
+        <v>1.1680000000000004</v>
+      </c>
+      <c r="M146" s="20">
+        <v>800</v>
+      </c>
+      <c r="N146" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="O146" s="12" t="str">
+        <f t="shared" si="37"/>
+        <v>1E+136</v>
+      </c>
+    </row>
+    <row r="147" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B147" s="21">
+        <v>393</v>
+      </c>
+      <c r="C147" s="16">
+        <f t="shared" si="44"/>
+        <v>1E+139</v>
+      </c>
+      <c r="D147" s="16" t="str">
+        <f t="shared" si="45"/>
+        <v>1000적</v>
+      </c>
+      <c r="E147" s="16">
+        <v>20</v>
+      </c>
+      <c r="F147" s="16">
+        <f t="shared" si="42"/>
+        <v>38300000</v>
+      </c>
+      <c r="G147" s="16">
+        <v>2</v>
+      </c>
+      <c r="H147" s="16">
+        <f t="shared" si="46"/>
+        <v>0.30600000000000149</v>
+      </c>
+      <c r="I147" s="16">
+        <v>23</v>
+      </c>
+      <c r="J147" s="16">
+        <v>0</v>
+      </c>
+      <c r="K147" s="16">
+        <v>60</v>
+      </c>
+      <c r="L147" s="16">
+        <f t="shared" si="43"/>
+        <v>1.1720000000000004</v>
+      </c>
+      <c r="M147" s="20">
+        <v>1000</v>
+      </c>
+      <c r="N147" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="O147" s="12" t="str">
+        <f t="shared" si="37"/>
+        <v>1E+136</v>
+      </c>
+    </row>
+    <row r="148" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B148" s="21">
+        <v>394</v>
+      </c>
+      <c r="C148" s="16">
+        <f t="shared" si="44"/>
+        <v>2.0000000000000001E+139</v>
+      </c>
+      <c r="D148" s="16" t="str">
+        <f t="shared" si="45"/>
+        <v>2000적</v>
+      </c>
+      <c r="E148" s="16">
+        <v>20</v>
+      </c>
+      <c r="F148" s="16">
+        <f t="shared" si="42"/>
+        <v>38400000</v>
+      </c>
+      <c r="G148" s="16">
+        <v>2</v>
+      </c>
+      <c r="H148" s="16">
+        <f t="shared" si="46"/>
+        <v>0.3064000000000015</v>
+      </c>
+      <c r="I148" s="16">
+        <v>23</v>
+      </c>
+      <c r="J148" s="16">
+        <v>0</v>
+      </c>
+      <c r="K148" s="16">
+        <v>60</v>
+      </c>
+      <c r="L148" s="16">
+        <f t="shared" si="43"/>
+        <v>1.1760000000000004</v>
+      </c>
+      <c r="M148" s="20">
+        <v>2000</v>
+      </c>
+      <c r="N148" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="O148" s="12" t="str">
+        <f t="shared" si="37"/>
+        <v>1E+136</v>
+      </c>
+    </row>
+    <row r="149" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B149" s="21">
+        <v>395</v>
+      </c>
+      <c r="C149" s="16">
+        <f t="shared" si="44"/>
+        <v>5.0000000000000003E+139</v>
+      </c>
+      <c r="D149" s="16" t="str">
+        <f t="shared" si="45"/>
+        <v>5000적</v>
+      </c>
+      <c r="E149" s="16">
+        <v>20</v>
+      </c>
+      <c r="F149" s="16">
+        <f t="shared" si="42"/>
+        <v>38500000</v>
+      </c>
+      <c r="G149" s="16">
+        <v>2</v>
+      </c>
+      <c r="H149" s="16">
+        <f t="shared" si="46"/>
+        <v>0.30680000000000152</v>
+      </c>
+      <c r="I149" s="16">
+        <v>23</v>
+      </c>
+      <c r="J149" s="16">
+        <v>0</v>
+      </c>
+      <c r="K149" s="16">
+        <v>60</v>
+      </c>
+      <c r="L149" s="16">
+        <f t="shared" si="43"/>
+        <v>1.1800000000000004</v>
+      </c>
+      <c r="M149" s="20">
+        <v>5000</v>
+      </c>
+      <c r="N149" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="O149" s="12" t="str">
+        <f t="shared" si="37"/>
+        <v>1E+136</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/SusanoTable.xlsx
+++ b/Assets/06.Table/SusanoTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B579BC70-F82A-422E-AD51-58A5C1851018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5007EC77-3183-4600-A2D5-1E66F1057BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28770" yWindow="0" windowWidth="28830" windowHeight="15480" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SusanoTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="341">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1346,10 +1346,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>e</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1359,6 +1355,10 @@
   </si>
   <si>
     <t>적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1884,11 +1884,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:K397"/>
+  <dimension ref="A1:K412"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A376" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C383" sqref="C383"/>
+      <pane ySplit="1" topLeftCell="A385" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C398" sqref="C398"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -16995,6 +16995,681 @@
         <v>1.1800000000000004</v>
       </c>
     </row>
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A398">
+        <v>396</v>
+      </c>
+      <c r="B398">
+        <f>VLOOKUP(A398,UnitChange!B:K,2,FALSE)</f>
+        <v>1.0000000000000001E+140</v>
+      </c>
+      <c r="C398" t="str">
+        <f>VLOOKUP(A398,UnitChange!B:K,3,FALSE)</f>
+        <v>1고</v>
+      </c>
+      <c r="D398">
+        <f>VLOOKUP(A398,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E398">
+        <f>VLOOKUP(A398,UnitChange!B:K,5,FALSE)</f>
+        <v>38600000</v>
+      </c>
+      <c r="F398">
+        <f>VLOOKUP(A398,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G398">
+        <f>VLOOKUP(A398,UnitChange!B:K,7,FALSE)</f>
+        <v>0.30720000000000153</v>
+      </c>
+      <c r="H398">
+        <f>VLOOKUP(A398,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I398">
+        <f>VLOOKUP(A398,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J398">
+        <f>VLOOKUP(A398,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K398" s="1">
+        <f>VLOOKUP(A398,UnitChange!B:L,11,FALSE)</f>
+        <v>1.1840000000000004</v>
+      </c>
+    </row>
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A399">
+        <v>397</v>
+      </c>
+      <c r="B399">
+        <f>VLOOKUP(A399,UnitChange!B:K,2,FALSE)</f>
+        <v>2.0000000000000001E+140</v>
+      </c>
+      <c r="C399" t="str">
+        <f>VLOOKUP(A399,UnitChange!B:K,3,FALSE)</f>
+        <v>2고</v>
+      </c>
+      <c r="D399">
+        <f>VLOOKUP(A399,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E399">
+        <f>VLOOKUP(A399,UnitChange!B:K,5,FALSE)</f>
+        <v>38700000</v>
+      </c>
+      <c r="F399">
+        <f>VLOOKUP(A399,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G399">
+        <f>VLOOKUP(A399,UnitChange!B:K,7,FALSE)</f>
+        <v>0.30760000000000154</v>
+      </c>
+      <c r="H399">
+        <f>VLOOKUP(A399,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I399">
+        <f>VLOOKUP(A399,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J399">
+        <f>VLOOKUP(A399,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K399" s="1">
+        <f>VLOOKUP(A399,UnitChange!B:L,11,FALSE)</f>
+        <v>1.1880000000000004</v>
+      </c>
+    </row>
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A400">
+        <v>398</v>
+      </c>
+      <c r="B400">
+        <f>VLOOKUP(A400,UnitChange!B:K,2,FALSE)</f>
+        <v>5.0000000000000001E+140</v>
+      </c>
+      <c r="C400" t="str">
+        <f>VLOOKUP(A400,UnitChange!B:K,3,FALSE)</f>
+        <v>5고</v>
+      </c>
+      <c r="D400">
+        <f>VLOOKUP(A400,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E400">
+        <f>VLOOKUP(A400,UnitChange!B:K,5,FALSE)</f>
+        <v>38800000</v>
+      </c>
+      <c r="F400">
+        <f>VLOOKUP(A400,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G400">
+        <f>VLOOKUP(A400,UnitChange!B:K,7,FALSE)</f>
+        <v>0.30800000000000155</v>
+      </c>
+      <c r="H400">
+        <f>VLOOKUP(A400,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I400">
+        <f>VLOOKUP(A400,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J400">
+        <f>VLOOKUP(A400,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K400" s="1">
+        <f>VLOOKUP(A400,UnitChange!B:L,11,FALSE)</f>
+        <v>1.1920000000000004</v>
+      </c>
+    </row>
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A401">
+        <v>399</v>
+      </c>
+      <c r="B401">
+        <f>VLOOKUP(A401,UnitChange!B:K,2,FALSE)</f>
+        <v>1E+141</v>
+      </c>
+      <c r="C401" t="str">
+        <f>VLOOKUP(A401,UnitChange!B:K,3,FALSE)</f>
+        <v>10고</v>
+      </c>
+      <c r="D401">
+        <f>VLOOKUP(A401,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E401">
+        <f>VLOOKUP(A401,UnitChange!B:K,5,FALSE)</f>
+        <v>38900000</v>
+      </c>
+      <c r="F401">
+        <f>VLOOKUP(A401,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G401">
+        <f>VLOOKUP(A401,UnitChange!B:K,7,FALSE)</f>
+        <v>0.30840000000000156</v>
+      </c>
+      <c r="H401">
+        <f>VLOOKUP(A401,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I401">
+        <f>VLOOKUP(A401,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J401">
+        <f>VLOOKUP(A401,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K401" s="1">
+        <f>VLOOKUP(A401,UnitChange!B:L,11,FALSE)</f>
+        <v>1.1960000000000004</v>
+      </c>
+    </row>
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A402">
+        <v>400</v>
+      </c>
+      <c r="B402">
+        <f>VLOOKUP(A402,UnitChange!B:K,2,FALSE)</f>
+        <v>2E+141</v>
+      </c>
+      <c r="C402" t="str">
+        <f>VLOOKUP(A402,UnitChange!B:K,3,FALSE)</f>
+        <v>20고</v>
+      </c>
+      <c r="D402">
+        <f>VLOOKUP(A402,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E402">
+        <f>VLOOKUP(A402,UnitChange!B:K,5,FALSE)</f>
+        <v>39000000</v>
+      </c>
+      <c r="F402">
+        <f>VLOOKUP(A402,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G402">
+        <f>VLOOKUP(A402,UnitChange!B:K,7,FALSE)</f>
+        <v>0.30880000000000157</v>
+      </c>
+      <c r="H402">
+        <f>VLOOKUP(A402,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I402">
+        <f>VLOOKUP(A402,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J402">
+        <f>VLOOKUP(A402,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K402" s="1">
+        <f>VLOOKUP(A402,UnitChange!B:L,11,FALSE)</f>
+        <v>1.2000000000000004</v>
+      </c>
+    </row>
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A403">
+        <v>401</v>
+      </c>
+      <c r="B403">
+        <f>VLOOKUP(A403,UnitChange!B:K,2,FALSE)</f>
+        <v>5.0000000000000003E+141</v>
+      </c>
+      <c r="C403" t="str">
+        <f>VLOOKUP(A403,UnitChange!B:K,3,FALSE)</f>
+        <v>50고</v>
+      </c>
+      <c r="D403">
+        <f>VLOOKUP(A403,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E403">
+        <f>VLOOKUP(A403,UnitChange!B:K,5,FALSE)</f>
+        <v>39100000</v>
+      </c>
+      <c r="F403">
+        <f>VLOOKUP(A403,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G403">
+        <f>VLOOKUP(A403,UnitChange!B:K,7,FALSE)</f>
+        <v>0.30920000000000158</v>
+      </c>
+      <c r="H403">
+        <f>VLOOKUP(A403,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I403">
+        <f>VLOOKUP(A403,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J403">
+        <f>VLOOKUP(A403,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K403" s="1">
+        <f>VLOOKUP(A403,UnitChange!B:L,11,FALSE)</f>
+        <v>1.2040000000000004</v>
+      </c>
+    </row>
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A404">
+        <v>402</v>
+      </c>
+      <c r="B404">
+        <f>VLOOKUP(A404,UnitChange!B:K,2,FALSE)</f>
+        <v>1.0000000000000001E+142</v>
+      </c>
+      <c r="C404" t="str">
+        <f>VLOOKUP(A404,UnitChange!B:K,3,FALSE)</f>
+        <v>100고</v>
+      </c>
+      <c r="D404">
+        <f>VLOOKUP(A404,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E404">
+        <f>VLOOKUP(A404,UnitChange!B:K,5,FALSE)</f>
+        <v>39200000</v>
+      </c>
+      <c r="F404">
+        <f>VLOOKUP(A404,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G404">
+        <f>VLOOKUP(A404,UnitChange!B:K,7,FALSE)</f>
+        <v>0.3096000000000016</v>
+      </c>
+      <c r="H404">
+        <f>VLOOKUP(A404,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I404">
+        <f>VLOOKUP(A404,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J404">
+        <f>VLOOKUP(A404,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K404" s="1">
+        <f>VLOOKUP(A404,UnitChange!B:L,11,FALSE)</f>
+        <v>1.2080000000000004</v>
+      </c>
+    </row>
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A405">
+        <v>403</v>
+      </c>
+      <c r="B405">
+        <f>VLOOKUP(A405,UnitChange!B:K,2,FALSE)</f>
+        <v>1.5000000000000001E+142</v>
+      </c>
+      <c r="C405" t="str">
+        <f>VLOOKUP(A405,UnitChange!B:K,3,FALSE)</f>
+        <v>150고</v>
+      </c>
+      <c r="D405">
+        <f>VLOOKUP(A405,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E405">
+        <f>VLOOKUP(A405,UnitChange!B:K,5,FALSE)</f>
+        <v>39300000</v>
+      </c>
+      <c r="F405">
+        <f>VLOOKUP(A405,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G405">
+        <f>VLOOKUP(A405,UnitChange!B:K,7,FALSE)</f>
+        <v>0.31000000000000161</v>
+      </c>
+      <c r="H405">
+        <f>VLOOKUP(A405,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I405">
+        <f>VLOOKUP(A405,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J405">
+        <f>VLOOKUP(A405,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K405" s="1">
+        <f>VLOOKUP(A405,UnitChange!B:L,11,FALSE)</f>
+        <v>1.2120000000000004</v>
+      </c>
+    </row>
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A406">
+        <v>404</v>
+      </c>
+      <c r="B406">
+        <f>VLOOKUP(A406,UnitChange!B:K,2,FALSE)</f>
+        <v>2.0000000000000001E+142</v>
+      </c>
+      <c r="C406" t="str">
+        <f>VLOOKUP(A406,UnitChange!B:K,3,FALSE)</f>
+        <v>200고</v>
+      </c>
+      <c r="D406">
+        <f>VLOOKUP(A406,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E406">
+        <f>VLOOKUP(A406,UnitChange!B:K,5,FALSE)</f>
+        <v>39400000</v>
+      </c>
+      <c r="F406">
+        <f>VLOOKUP(A406,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G406">
+        <f>VLOOKUP(A406,UnitChange!B:K,7,FALSE)</f>
+        <v>0.31040000000000162</v>
+      </c>
+      <c r="H406">
+        <f>VLOOKUP(A406,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I406">
+        <f>VLOOKUP(A406,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J406">
+        <f>VLOOKUP(A406,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K406" s="1">
+        <f>VLOOKUP(A406,UnitChange!B:L,11,FALSE)</f>
+        <v>1.2160000000000004</v>
+      </c>
+    </row>
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A407">
+        <v>405</v>
+      </c>
+      <c r="B407">
+        <f>VLOOKUP(A407,UnitChange!B:K,2,FALSE)</f>
+        <v>3.0000000000000003E+142</v>
+      </c>
+      <c r="C407" t="str">
+        <f>VLOOKUP(A407,UnitChange!B:K,3,FALSE)</f>
+        <v>300고</v>
+      </c>
+      <c r="D407">
+        <f>VLOOKUP(A407,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E407">
+        <f>VLOOKUP(A407,UnitChange!B:K,5,FALSE)</f>
+        <v>39500000</v>
+      </c>
+      <c r="F407">
+        <f>VLOOKUP(A407,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G407">
+        <f>VLOOKUP(A407,UnitChange!B:K,7,FALSE)</f>
+        <v>0.31080000000000163</v>
+      </c>
+      <c r="H407">
+        <f>VLOOKUP(A407,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I407">
+        <f>VLOOKUP(A407,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J407">
+        <f>VLOOKUP(A407,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K407" s="1">
+        <f>VLOOKUP(A407,UnitChange!B:L,11,FALSE)</f>
+        <v>1.2200000000000004</v>
+      </c>
+    </row>
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A408">
+        <v>406</v>
+      </c>
+      <c r="B408">
+        <f>VLOOKUP(A408,UnitChange!B:K,2,FALSE)</f>
+        <v>5.0000000000000001E+142</v>
+      </c>
+      <c r="C408" t="str">
+        <f>VLOOKUP(A408,UnitChange!B:K,3,FALSE)</f>
+        <v>500고</v>
+      </c>
+      <c r="D408">
+        <f>VLOOKUP(A408,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E408">
+        <f>VLOOKUP(A408,UnitChange!B:K,5,FALSE)</f>
+        <v>39600000</v>
+      </c>
+      <c r="F408">
+        <f>VLOOKUP(A408,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G408">
+        <f>VLOOKUP(A408,UnitChange!B:K,7,FALSE)</f>
+        <v>0.31120000000000164</v>
+      </c>
+      <c r="H408">
+        <f>VLOOKUP(A408,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I408">
+        <f>VLOOKUP(A408,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J408">
+        <f>VLOOKUP(A408,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K408" s="1">
+        <f>VLOOKUP(A408,UnitChange!B:L,11,FALSE)</f>
+        <v>1.2240000000000004</v>
+      </c>
+    </row>
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A409">
+        <v>407</v>
+      </c>
+      <c r="B409">
+        <f>VLOOKUP(A409,UnitChange!B:K,2,FALSE)</f>
+        <v>8.0000000000000004E+142</v>
+      </c>
+      <c r="C409" t="str">
+        <f>VLOOKUP(A409,UnitChange!B:K,3,FALSE)</f>
+        <v>800고</v>
+      </c>
+      <c r="D409">
+        <f>VLOOKUP(A409,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E409">
+        <f>VLOOKUP(A409,UnitChange!B:K,5,FALSE)</f>
+        <v>39700000</v>
+      </c>
+      <c r="F409">
+        <f>VLOOKUP(A409,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G409">
+        <f>VLOOKUP(A409,UnitChange!B:K,7,FALSE)</f>
+        <v>0.31160000000000165</v>
+      </c>
+      <c r="H409">
+        <f>VLOOKUP(A409,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I409">
+        <f>VLOOKUP(A409,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J409">
+        <f>VLOOKUP(A409,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K409" s="1">
+        <f>VLOOKUP(A409,UnitChange!B:L,11,FALSE)</f>
+        <v>1.2280000000000004</v>
+      </c>
+    </row>
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A410">
+        <v>408</v>
+      </c>
+      <c r="B410">
+        <f>VLOOKUP(A410,UnitChange!B:K,2,FALSE)</f>
+        <v>1E+143</v>
+      </c>
+      <c r="C410" t="str">
+        <f>VLOOKUP(A410,UnitChange!B:K,3,FALSE)</f>
+        <v>1000고</v>
+      </c>
+      <c r="D410">
+        <f>VLOOKUP(A410,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E410">
+        <f>VLOOKUP(A410,UnitChange!B:K,5,FALSE)</f>
+        <v>39800000</v>
+      </c>
+      <c r="F410">
+        <f>VLOOKUP(A410,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G410">
+        <f>VLOOKUP(A410,UnitChange!B:K,7,FALSE)</f>
+        <v>0.31200000000000166</v>
+      </c>
+      <c r="H410">
+        <f>VLOOKUP(A410,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I410">
+        <f>VLOOKUP(A410,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J410">
+        <f>VLOOKUP(A410,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K410" s="1">
+        <f>VLOOKUP(A410,UnitChange!B:L,11,FALSE)</f>
+        <v>1.2320000000000004</v>
+      </c>
+    </row>
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A411">
+        <v>409</v>
+      </c>
+      <c r="B411">
+        <f>VLOOKUP(A411,UnitChange!B:K,2,FALSE)</f>
+        <v>2E+143</v>
+      </c>
+      <c r="C411" t="str">
+        <f>VLOOKUP(A411,UnitChange!B:K,3,FALSE)</f>
+        <v>2000고</v>
+      </c>
+      <c r="D411">
+        <f>VLOOKUP(A411,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E411">
+        <f>VLOOKUP(A411,UnitChange!B:K,5,FALSE)</f>
+        <v>39900000</v>
+      </c>
+      <c r="F411">
+        <f>VLOOKUP(A411,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G411">
+        <f>VLOOKUP(A411,UnitChange!B:K,7,FALSE)</f>
+        <v>0.31240000000000168</v>
+      </c>
+      <c r="H411">
+        <f>VLOOKUP(A411,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I411">
+        <f>VLOOKUP(A411,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J411">
+        <f>VLOOKUP(A411,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K411" s="1">
+        <f>VLOOKUP(A411,UnitChange!B:L,11,FALSE)</f>
+        <v>1.2360000000000004</v>
+      </c>
+    </row>
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A412">
+        <v>410</v>
+      </c>
+      <c r="B412">
+        <f>VLOOKUP(A412,UnitChange!B:K,2,FALSE)</f>
+        <v>5.0000000000000001E+143</v>
+      </c>
+      <c r="C412" t="str">
+        <f>VLOOKUP(A412,UnitChange!B:K,3,FALSE)</f>
+        <v>5000고</v>
+      </c>
+      <c r="D412">
+        <f>VLOOKUP(A412,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E412">
+        <f>VLOOKUP(A412,UnitChange!B:K,5,FALSE)</f>
+        <v>40000000</v>
+      </c>
+      <c r="F412">
+        <f>VLOOKUP(A412,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G412">
+        <f>VLOOKUP(A412,UnitChange!B:K,7,FALSE)</f>
+        <v>0.31280000000000169</v>
+      </c>
+      <c r="H412">
+        <f>VLOOKUP(A412,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I412">
+        <f>VLOOKUP(A412,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J412">
+        <f>VLOOKUP(A412,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K412" s="1">
+        <f>VLOOKUP(A412,UnitChange!B:L,11,FALSE)</f>
+        <v>1.2400000000000004</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17004,10 +17679,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626C1493-E0FD-4651-99C5-58D15BDAC6AC}">
-  <dimension ref="B1:AC149"/>
+  <dimension ref="B1:AC164"/>
   <sheetViews>
-    <sheetView topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="C136" sqref="C136"/>
+    <sheetView topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="G159" sqref="G159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -19276,7 +19951,7 @@
         <v>1E+108</v>
       </c>
       <c r="Q38" s="12" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="R38" s="12">
         <v>132</v>
@@ -19349,7 +20024,7 @@
         <v>1E+108</v>
       </c>
       <c r="Q39" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="R39" s="12">
         <v>136</v>
@@ -19422,7 +20097,7 @@
         <v>1E+108</v>
       </c>
       <c r="Q40" s="12" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="R40" s="12">
         <v>140</v>
@@ -19568,7 +20243,7 @@
         <v>1E+108</v>
       </c>
       <c r="Q42" s="12" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="R42" s="12">
         <v>148</v>
@@ -22857,7 +23532,7 @@
         <v>334</v>
       </c>
       <c r="O103" s="12" t="str">
-        <f t="shared" ref="O103:O149" si="37">VLOOKUP(N103,Q:T,4,FALSE)</f>
+        <f t="shared" ref="O103:O164" si="37">VLOOKUP(N103,Q:T,4,FALSE)</f>
         <v>1E+124</v>
       </c>
     </row>
@@ -23704,7 +24379,7 @@
         <v>1</v>
       </c>
       <c r="N120" s="19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O120" s="12" t="str">
         <f t="shared" si="37"/>
@@ -23754,7 +24429,7 @@
         <v>2</v>
       </c>
       <c r="N121" s="19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O121" s="12" t="str">
         <f t="shared" si="37"/>
@@ -23804,7 +24479,7 @@
         <v>5</v>
       </c>
       <c r="N122" s="19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O122" s="12" t="str">
         <f t="shared" si="37"/>
@@ -23854,7 +24529,7 @@
         <v>10</v>
       </c>
       <c r="N123" s="19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O123" s="12" t="str">
         <f t="shared" si="37"/>
@@ -23877,7 +24552,7 @@
         <v>20</v>
       </c>
       <c r="F124" s="16">
-        <f t="shared" ref="F124:F149" si="42">F123+100000</f>
+        <f t="shared" ref="F124:F177" si="42">F123+100000</f>
         <v>36000000</v>
       </c>
       <c r="G124" s="16">
@@ -23897,14 +24572,14 @@
         <v>60</v>
       </c>
       <c r="L124" s="16">
-        <f t="shared" ref="L124:L149" si="43">L123+0.004</f>
+        <f t="shared" ref="L124:L177" si="43">L123+0.004</f>
         <v>1.0800000000000003</v>
       </c>
       <c r="M124" s="20">
         <v>20</v>
       </c>
       <c r="N124" s="19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O124" s="12" t="str">
         <f t="shared" si="37"/>
@@ -23954,7 +24629,7 @@
         <v>50</v>
       </c>
       <c r="N125" s="19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O125" s="12" t="str">
         <f t="shared" si="37"/>
@@ -24004,7 +24679,7 @@
         <v>100</v>
       </c>
       <c r="N126" s="19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O126" s="12" t="str">
         <f t="shared" si="37"/>
@@ -24054,7 +24729,7 @@
         <v>150</v>
       </c>
       <c r="N127" s="19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O127" s="12" t="str">
         <f t="shared" si="37"/>
@@ -24104,7 +24779,7 @@
         <v>200</v>
       </c>
       <c r="N128" s="19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O128" s="12" t="str">
         <f t="shared" si="37"/>
@@ -24154,7 +24829,7 @@
         <v>300</v>
       </c>
       <c r="N129" s="19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O129" s="12" t="str">
         <f t="shared" si="37"/>
@@ -24204,7 +24879,7 @@
         <v>500</v>
       </c>
       <c r="N130" s="19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O130" s="12" t="str">
         <f t="shared" si="37"/>
@@ -24254,7 +24929,7 @@
         <v>800</v>
       </c>
       <c r="N131" s="19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O131" s="12" t="str">
         <f t="shared" si="37"/>
@@ -24304,7 +24979,7 @@
         <v>1000</v>
       </c>
       <c r="N132" s="19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O132" s="12" t="str">
         <f t="shared" si="37"/>
@@ -24354,7 +25029,7 @@
         <v>2000</v>
       </c>
       <c r="N133" s="19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O133" s="12" t="str">
         <f t="shared" si="37"/>
@@ -24404,7 +25079,7 @@
         <v>5000</v>
       </c>
       <c r="N134" s="19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O134" s="12" t="str">
         <f t="shared" si="37"/>
@@ -24454,7 +25129,7 @@
         <v>1</v>
       </c>
       <c r="N135" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O135" s="12" t="str">
         <f t="shared" si="37"/>
@@ -24504,7 +25179,7 @@
         <v>2</v>
       </c>
       <c r="N136" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O136" s="12" t="str">
         <f t="shared" si="37"/>
@@ -24554,7 +25229,7 @@
         <v>5</v>
       </c>
       <c r="N137" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O137" s="12" t="str">
         <f t="shared" si="37"/>
@@ -24584,7 +25259,7 @@
         <v>2</v>
       </c>
       <c r="H138" s="16">
-        <f t="shared" ref="H138:H149" si="46">IF(RIGHT(H137,2)="24",H137+0.0076,H137+0.0004)</f>
+        <f t="shared" ref="H138:H177" si="46">IF(RIGHT(H137,2)="24",H137+0.0076,H137+0.0004)</f>
         <v>0.30240000000000139</v>
       </c>
       <c r="I138" s="16">
@@ -24604,7 +25279,7 @@
         <v>10</v>
       </c>
       <c r="N138" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O138" s="12" t="str">
         <f t="shared" si="37"/>
@@ -24654,7 +25329,7 @@
         <v>20</v>
       </c>
       <c r="N139" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O139" s="12" t="str">
         <f t="shared" si="37"/>
@@ -24704,7 +25379,7 @@
         <v>50</v>
       </c>
       <c r="N140" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O140" s="12" t="str">
         <f t="shared" si="37"/>
@@ -24754,7 +25429,7 @@
         <v>100</v>
       </c>
       <c r="N141" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O141" s="12" t="str">
         <f t="shared" si="37"/>
@@ -24804,7 +25479,7 @@
         <v>150</v>
       </c>
       <c r="N142" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O142" s="12" t="str">
         <f t="shared" si="37"/>
@@ -24854,7 +25529,7 @@
         <v>200</v>
       </c>
       <c r="N143" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O143" s="12" t="str">
         <f t="shared" si="37"/>
@@ -24904,7 +25579,7 @@
         <v>300</v>
       </c>
       <c r="N144" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O144" s="12" t="str">
         <f t="shared" si="37"/>
@@ -24954,7 +25629,7 @@
         <v>500</v>
       </c>
       <c r="N145" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O145" s="12" t="str">
         <f t="shared" si="37"/>
@@ -25004,7 +25679,7 @@
         <v>800</v>
       </c>
       <c r="N146" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O146" s="12" t="str">
         <f t="shared" si="37"/>
@@ -25054,7 +25729,7 @@
         <v>1000</v>
       </c>
       <c r="N147" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O147" s="12" t="str">
         <f t="shared" si="37"/>
@@ -25104,7 +25779,7 @@
         <v>2000</v>
       </c>
       <c r="N148" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O148" s="12" t="str">
         <f t="shared" si="37"/>
@@ -25154,11 +25829,761 @@
         <v>5000</v>
       </c>
       <c r="N149" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O149" s="12" t="str">
         <f t="shared" si="37"/>
         <v>1E+136</v>
+      </c>
+    </row>
+    <row r="150" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B150" s="21">
+        <v>396</v>
+      </c>
+      <c r="C150" s="16">
+        <f>M150*O150</f>
+        <v>1.0000000000000001E+140</v>
+      </c>
+      <c r="D150" s="16" t="str">
+        <f t="shared" ref="D150:D164" si="47">M150&amp;N150</f>
+        <v>1고</v>
+      </c>
+      <c r="E150" s="16">
+        <v>20</v>
+      </c>
+      <c r="F150" s="16">
+        <f t="shared" si="42"/>
+        <v>38600000</v>
+      </c>
+      <c r="G150" s="16">
+        <v>2</v>
+      </c>
+      <c r="H150" s="16">
+        <f t="shared" si="46"/>
+        <v>0.30720000000000153</v>
+      </c>
+      <c r="I150" s="16">
+        <v>23</v>
+      </c>
+      <c r="J150" s="16">
+        <v>0</v>
+      </c>
+      <c r="K150" s="16">
+        <v>60</v>
+      </c>
+      <c r="L150" s="16">
+        <f t="shared" si="43"/>
+        <v>1.1840000000000004</v>
+      </c>
+      <c r="M150" s="20">
+        <v>1</v>
+      </c>
+      <c r="N150" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="O150" s="12" t="str">
+        <f t="shared" si="37"/>
+        <v>1E+140</v>
+      </c>
+    </row>
+    <row r="151" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B151" s="21">
+        <v>397</v>
+      </c>
+      <c r="C151" s="16">
+        <f t="shared" ref="C150:C164" si="48">M151*O151</f>
+        <v>2.0000000000000001E+140</v>
+      </c>
+      <c r="D151" s="16" t="str">
+        <f t="shared" si="47"/>
+        <v>2고</v>
+      </c>
+      <c r="E151" s="16">
+        <v>20</v>
+      </c>
+      <c r="F151" s="16">
+        <f t="shared" si="42"/>
+        <v>38700000</v>
+      </c>
+      <c r="G151" s="16">
+        <v>2</v>
+      </c>
+      <c r="H151" s="16">
+        <f t="shared" si="46"/>
+        <v>0.30760000000000154</v>
+      </c>
+      <c r="I151" s="16">
+        <v>23</v>
+      </c>
+      <c r="J151" s="16">
+        <v>0</v>
+      </c>
+      <c r="K151" s="16">
+        <v>60</v>
+      </c>
+      <c r="L151" s="16">
+        <f t="shared" si="43"/>
+        <v>1.1880000000000004</v>
+      </c>
+      <c r="M151" s="20">
+        <v>2</v>
+      </c>
+      <c r="N151" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="O151" s="12" t="str">
+        <f t="shared" si="37"/>
+        <v>1E+140</v>
+      </c>
+    </row>
+    <row r="152" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B152" s="21">
+        <v>398</v>
+      </c>
+      <c r="C152" s="16">
+        <f t="shared" si="48"/>
+        <v>5.0000000000000001E+140</v>
+      </c>
+      <c r="D152" s="16" t="str">
+        <f t="shared" si="47"/>
+        <v>5고</v>
+      </c>
+      <c r="E152" s="16">
+        <v>20</v>
+      </c>
+      <c r="F152" s="16">
+        <f t="shared" si="42"/>
+        <v>38800000</v>
+      </c>
+      <c r="G152" s="16">
+        <v>2</v>
+      </c>
+      <c r="H152" s="16">
+        <f t="shared" si="46"/>
+        <v>0.30800000000000155</v>
+      </c>
+      <c r="I152" s="16">
+        <v>23</v>
+      </c>
+      <c r="J152" s="16">
+        <v>0</v>
+      </c>
+      <c r="K152" s="16">
+        <v>60</v>
+      </c>
+      <c r="L152" s="16">
+        <f t="shared" si="43"/>
+        <v>1.1920000000000004</v>
+      </c>
+      <c r="M152" s="20">
+        <v>5</v>
+      </c>
+      <c r="N152" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="O152" s="12" t="str">
+        <f t="shared" si="37"/>
+        <v>1E+140</v>
+      </c>
+    </row>
+    <row r="153" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B153" s="21">
+        <v>399</v>
+      </c>
+      <c r="C153" s="16">
+        <f t="shared" si="48"/>
+        <v>1E+141</v>
+      </c>
+      <c r="D153" s="16" t="str">
+        <f t="shared" si="47"/>
+        <v>10고</v>
+      </c>
+      <c r="E153" s="16">
+        <v>20</v>
+      </c>
+      <c r="F153" s="16">
+        <f t="shared" si="42"/>
+        <v>38900000</v>
+      </c>
+      <c r="G153" s="16">
+        <v>2</v>
+      </c>
+      <c r="H153" s="16">
+        <f t="shared" si="46"/>
+        <v>0.30840000000000156</v>
+      </c>
+      <c r="I153" s="16">
+        <v>23</v>
+      </c>
+      <c r="J153" s="16">
+        <v>0</v>
+      </c>
+      <c r="K153" s="16">
+        <v>60</v>
+      </c>
+      <c r="L153" s="16">
+        <f t="shared" si="43"/>
+        <v>1.1960000000000004</v>
+      </c>
+      <c r="M153" s="20">
+        <v>10</v>
+      </c>
+      <c r="N153" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="O153" s="12" t="str">
+        <f t="shared" si="37"/>
+        <v>1E+140</v>
+      </c>
+    </row>
+    <row r="154" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B154" s="21">
+        <v>400</v>
+      </c>
+      <c r="C154" s="16">
+        <f t="shared" si="48"/>
+        <v>2E+141</v>
+      </c>
+      <c r="D154" s="16" t="str">
+        <f t="shared" si="47"/>
+        <v>20고</v>
+      </c>
+      <c r="E154" s="16">
+        <v>20</v>
+      </c>
+      <c r="F154" s="16">
+        <f t="shared" si="42"/>
+        <v>39000000</v>
+      </c>
+      <c r="G154" s="16">
+        <v>2</v>
+      </c>
+      <c r="H154" s="16">
+        <f t="shared" si="46"/>
+        <v>0.30880000000000157</v>
+      </c>
+      <c r="I154" s="16">
+        <v>23</v>
+      </c>
+      <c r="J154" s="16">
+        <v>0</v>
+      </c>
+      <c r="K154" s="16">
+        <v>60</v>
+      </c>
+      <c r="L154" s="16">
+        <f t="shared" si="43"/>
+        <v>1.2000000000000004</v>
+      </c>
+      <c r="M154" s="20">
+        <v>20</v>
+      </c>
+      <c r="N154" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="O154" s="12" t="str">
+        <f t="shared" si="37"/>
+        <v>1E+140</v>
+      </c>
+    </row>
+    <row r="155" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B155" s="21">
+        <v>401</v>
+      </c>
+      <c r="C155" s="16">
+        <f t="shared" si="48"/>
+        <v>5.0000000000000003E+141</v>
+      </c>
+      <c r="D155" s="16" t="str">
+        <f t="shared" si="47"/>
+        <v>50고</v>
+      </c>
+      <c r="E155" s="16">
+        <v>20</v>
+      </c>
+      <c r="F155" s="16">
+        <f t="shared" si="42"/>
+        <v>39100000</v>
+      </c>
+      <c r="G155" s="16">
+        <v>2</v>
+      </c>
+      <c r="H155" s="16">
+        <f t="shared" si="46"/>
+        <v>0.30920000000000158</v>
+      </c>
+      <c r="I155" s="16">
+        <v>23</v>
+      </c>
+      <c r="J155" s="16">
+        <v>0</v>
+      </c>
+      <c r="K155" s="16">
+        <v>60</v>
+      </c>
+      <c r="L155" s="16">
+        <f t="shared" si="43"/>
+        <v>1.2040000000000004</v>
+      </c>
+      <c r="M155" s="20">
+        <v>50</v>
+      </c>
+      <c r="N155" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="O155" s="12" t="str">
+        <f t="shared" si="37"/>
+        <v>1E+140</v>
+      </c>
+    </row>
+    <row r="156" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B156" s="21">
+        <v>402</v>
+      </c>
+      <c r="C156" s="16">
+        <f t="shared" si="48"/>
+        <v>1.0000000000000001E+142</v>
+      </c>
+      <c r="D156" s="16" t="str">
+        <f t="shared" si="47"/>
+        <v>100고</v>
+      </c>
+      <c r="E156" s="16">
+        <v>20</v>
+      </c>
+      <c r="F156" s="16">
+        <f t="shared" si="42"/>
+        <v>39200000</v>
+      </c>
+      <c r="G156" s="16">
+        <v>2</v>
+      </c>
+      <c r="H156" s="16">
+        <f t="shared" si="46"/>
+        <v>0.3096000000000016</v>
+      </c>
+      <c r="I156" s="16">
+        <v>23</v>
+      </c>
+      <c r="J156" s="16">
+        <v>0</v>
+      </c>
+      <c r="K156" s="16">
+        <v>60</v>
+      </c>
+      <c r="L156" s="16">
+        <f t="shared" si="43"/>
+        <v>1.2080000000000004</v>
+      </c>
+      <c r="M156" s="20">
+        <v>100</v>
+      </c>
+      <c r="N156" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="O156" s="12" t="str">
+        <f t="shared" si="37"/>
+        <v>1E+140</v>
+      </c>
+    </row>
+    <row r="157" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B157" s="21">
+        <v>403</v>
+      </c>
+      <c r="C157" s="16">
+        <f t="shared" si="48"/>
+        <v>1.5000000000000001E+142</v>
+      </c>
+      <c r="D157" s="16" t="str">
+        <f t="shared" si="47"/>
+        <v>150고</v>
+      </c>
+      <c r="E157" s="16">
+        <v>20</v>
+      </c>
+      <c r="F157" s="16">
+        <f t="shared" si="42"/>
+        <v>39300000</v>
+      </c>
+      <c r="G157" s="16">
+        <v>2</v>
+      </c>
+      <c r="H157" s="16">
+        <f t="shared" si="46"/>
+        <v>0.31000000000000161</v>
+      </c>
+      <c r="I157" s="16">
+        <v>23</v>
+      </c>
+      <c r="J157" s="16">
+        <v>0</v>
+      </c>
+      <c r="K157" s="16">
+        <v>60</v>
+      </c>
+      <c r="L157" s="16">
+        <f t="shared" si="43"/>
+        <v>1.2120000000000004</v>
+      </c>
+      <c r="M157" s="20">
+        <v>150</v>
+      </c>
+      <c r="N157" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="O157" s="12" t="str">
+        <f t="shared" si="37"/>
+        <v>1E+140</v>
+      </c>
+    </row>
+    <row r="158" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B158" s="21">
+        <v>404</v>
+      </c>
+      <c r="C158" s="16">
+        <f t="shared" si="48"/>
+        <v>2.0000000000000001E+142</v>
+      </c>
+      <c r="D158" s="16" t="str">
+        <f t="shared" si="47"/>
+        <v>200고</v>
+      </c>
+      <c r="E158" s="16">
+        <v>20</v>
+      </c>
+      <c r="F158" s="16">
+        <f t="shared" si="42"/>
+        <v>39400000</v>
+      </c>
+      <c r="G158" s="16">
+        <v>2</v>
+      </c>
+      <c r="H158" s="16">
+        <f t="shared" si="46"/>
+        <v>0.31040000000000162</v>
+      </c>
+      <c r="I158" s="16">
+        <v>23</v>
+      </c>
+      <c r="J158" s="16">
+        <v>0</v>
+      </c>
+      <c r="K158" s="16">
+        <v>60</v>
+      </c>
+      <c r="L158" s="16">
+        <f t="shared" si="43"/>
+        <v>1.2160000000000004</v>
+      </c>
+      <c r="M158" s="20">
+        <v>200</v>
+      </c>
+      <c r="N158" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="O158" s="12" t="str">
+        <f t="shared" si="37"/>
+        <v>1E+140</v>
+      </c>
+    </row>
+    <row r="159" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B159" s="21">
+        <v>405</v>
+      </c>
+      <c r="C159" s="16">
+        <f t="shared" si="48"/>
+        <v>3.0000000000000003E+142</v>
+      </c>
+      <c r="D159" s="16" t="str">
+        <f t="shared" si="47"/>
+        <v>300고</v>
+      </c>
+      <c r="E159" s="16">
+        <v>20</v>
+      </c>
+      <c r="F159" s="16">
+        <f t="shared" si="42"/>
+        <v>39500000</v>
+      </c>
+      <c r="G159" s="16">
+        <v>2</v>
+      </c>
+      <c r="H159" s="16">
+        <f t="shared" si="46"/>
+        <v>0.31080000000000163</v>
+      </c>
+      <c r="I159" s="16">
+        <v>23</v>
+      </c>
+      <c r="J159" s="16">
+        <v>0</v>
+      </c>
+      <c r="K159" s="16">
+        <v>60</v>
+      </c>
+      <c r="L159" s="16">
+        <f t="shared" si="43"/>
+        <v>1.2200000000000004</v>
+      </c>
+      <c r="M159" s="20">
+        <v>300</v>
+      </c>
+      <c r="N159" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="O159" s="12" t="str">
+        <f t="shared" si="37"/>
+        <v>1E+140</v>
+      </c>
+    </row>
+    <row r="160" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B160" s="21">
+        <v>406</v>
+      </c>
+      <c r="C160" s="16">
+        <f t="shared" si="48"/>
+        <v>5.0000000000000001E+142</v>
+      </c>
+      <c r="D160" s="16" t="str">
+        <f t="shared" si="47"/>
+        <v>500고</v>
+      </c>
+      <c r="E160" s="16">
+        <v>20</v>
+      </c>
+      <c r="F160" s="16">
+        <f t="shared" si="42"/>
+        <v>39600000</v>
+      </c>
+      <c r="G160" s="16">
+        <v>2</v>
+      </c>
+      <c r="H160" s="16">
+        <f t="shared" si="46"/>
+        <v>0.31120000000000164</v>
+      </c>
+      <c r="I160" s="16">
+        <v>23</v>
+      </c>
+      <c r="J160" s="16">
+        <v>0</v>
+      </c>
+      <c r="K160" s="16">
+        <v>60</v>
+      </c>
+      <c r="L160" s="16">
+        <f t="shared" si="43"/>
+        <v>1.2240000000000004</v>
+      </c>
+      <c r="M160" s="20">
+        <v>500</v>
+      </c>
+      <c r="N160" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="O160" s="12" t="str">
+        <f t="shared" si="37"/>
+        <v>1E+140</v>
+      </c>
+    </row>
+    <row r="161" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B161" s="21">
+        <v>407</v>
+      </c>
+      <c r="C161" s="16">
+        <f t="shared" si="48"/>
+        <v>8.0000000000000004E+142</v>
+      </c>
+      <c r="D161" s="16" t="str">
+        <f t="shared" si="47"/>
+        <v>800고</v>
+      </c>
+      <c r="E161" s="16">
+        <v>20</v>
+      </c>
+      <c r="F161" s="16">
+        <f t="shared" si="42"/>
+        <v>39700000</v>
+      </c>
+      <c r="G161" s="16">
+        <v>2</v>
+      </c>
+      <c r="H161" s="16">
+        <f t="shared" si="46"/>
+        <v>0.31160000000000165</v>
+      </c>
+      <c r="I161" s="16">
+        <v>23</v>
+      </c>
+      <c r="J161" s="16">
+        <v>0</v>
+      </c>
+      <c r="K161" s="16">
+        <v>60</v>
+      </c>
+      <c r="L161" s="16">
+        <f t="shared" si="43"/>
+        <v>1.2280000000000004</v>
+      </c>
+      <c r="M161" s="20">
+        <v>800</v>
+      </c>
+      <c r="N161" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="O161" s="12" t="str">
+        <f t="shared" si="37"/>
+        <v>1E+140</v>
+      </c>
+    </row>
+    <row r="162" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B162" s="21">
+        <v>408</v>
+      </c>
+      <c r="C162" s="16">
+        <f t="shared" si="48"/>
+        <v>1E+143</v>
+      </c>
+      <c r="D162" s="16" t="str">
+        <f t="shared" si="47"/>
+        <v>1000고</v>
+      </c>
+      <c r="E162" s="16">
+        <v>20</v>
+      </c>
+      <c r="F162" s="16">
+        <f t="shared" si="42"/>
+        <v>39800000</v>
+      </c>
+      <c r="G162" s="16">
+        <v>2</v>
+      </c>
+      <c r="H162" s="16">
+        <f t="shared" si="46"/>
+        <v>0.31200000000000166</v>
+      </c>
+      <c r="I162" s="16">
+        <v>23</v>
+      </c>
+      <c r="J162" s="16">
+        <v>0</v>
+      </c>
+      <c r="K162" s="16">
+        <v>60</v>
+      </c>
+      <c r="L162" s="16">
+        <f t="shared" si="43"/>
+        <v>1.2320000000000004</v>
+      </c>
+      <c r="M162" s="20">
+        <v>1000</v>
+      </c>
+      <c r="N162" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="O162" s="12" t="str">
+        <f t="shared" si="37"/>
+        <v>1E+140</v>
+      </c>
+    </row>
+    <row r="163" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B163" s="21">
+        <v>409</v>
+      </c>
+      <c r="C163" s="16">
+        <f t="shared" si="48"/>
+        <v>2E+143</v>
+      </c>
+      <c r="D163" s="16" t="str">
+        <f t="shared" si="47"/>
+        <v>2000고</v>
+      </c>
+      <c r="E163" s="16">
+        <v>20</v>
+      </c>
+      <c r="F163" s="16">
+        <f t="shared" si="42"/>
+        <v>39900000</v>
+      </c>
+      <c r="G163" s="16">
+        <v>2</v>
+      </c>
+      <c r="H163" s="16">
+        <f t="shared" si="46"/>
+        <v>0.31240000000000168</v>
+      </c>
+      <c r="I163" s="16">
+        <v>23</v>
+      </c>
+      <c r="J163" s="16">
+        <v>0</v>
+      </c>
+      <c r="K163" s="16">
+        <v>60</v>
+      </c>
+      <c r="L163" s="16">
+        <f t="shared" si="43"/>
+        <v>1.2360000000000004</v>
+      </c>
+      <c r="M163" s="20">
+        <v>2000</v>
+      </c>
+      <c r="N163" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="O163" s="12" t="str">
+        <f t="shared" si="37"/>
+        <v>1E+140</v>
+      </c>
+    </row>
+    <row r="164" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B164" s="21">
+        <v>410</v>
+      </c>
+      <c r="C164" s="16">
+        <f t="shared" si="48"/>
+        <v>5.0000000000000001E+143</v>
+      </c>
+      <c r="D164" s="16" t="str">
+        <f t="shared" si="47"/>
+        <v>5000고</v>
+      </c>
+      <c r="E164" s="16">
+        <v>20</v>
+      </c>
+      <c r="F164" s="16">
+        <f t="shared" si="42"/>
+        <v>40000000</v>
+      </c>
+      <c r="G164" s="16">
+        <v>2</v>
+      </c>
+      <c r="H164" s="16">
+        <f t="shared" si="46"/>
+        <v>0.31280000000000169</v>
+      </c>
+      <c r="I164" s="16">
+        <v>23</v>
+      </c>
+      <c r="J164" s="16">
+        <v>0</v>
+      </c>
+      <c r="K164" s="16">
+        <v>60</v>
+      </c>
+      <c r="L164" s="16">
+        <f t="shared" si="43"/>
+        <v>1.2400000000000004</v>
+      </c>
+      <c r="M164" s="20">
+        <v>5000</v>
+      </c>
+      <c r="N164" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="O164" s="12" t="str">
+        <f t="shared" si="37"/>
+        <v>1E+140</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/SusanoTable.xlsx
+++ b/Assets/06.Table/SusanoTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5007EC77-3183-4600-A2D5-1E66F1057BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7058FAF3-57A0-485E-8313-5A12C7482541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28770" yWindow="0" windowWidth="28830" windowHeight="15480" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="15" yWindow="15" windowWidth="28770" windowHeight="15450" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SusanoTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="341">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1342,10 +1342,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>e</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1359,6 +1355,10 @@
   </si>
   <si>
     <t>고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1884,11 +1884,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:K412"/>
+  <dimension ref="A1:K427"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A385" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C398" sqref="C398"/>
+      <pane ySplit="1" topLeftCell="A405" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B420" sqref="B420"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -17670,6 +17670,681 @@
         <v>1.2400000000000004</v>
       </c>
     </row>
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A413">
+        <v>411</v>
+      </c>
+      <c r="B413">
+        <f>VLOOKUP(A413,UnitChange!B:K,2,FALSE)</f>
+        <v>1E+144</v>
+      </c>
+      <c r="C413" t="str">
+        <f>VLOOKUP(A413,UnitChange!B:K,3,FALSE)</f>
+        <v>1화</v>
+      </c>
+      <c r="D413">
+        <f>VLOOKUP(A413,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E413">
+        <f>VLOOKUP(A413,UnitChange!B:K,5,FALSE)</f>
+        <v>40100000</v>
+      </c>
+      <c r="F413">
+        <f>VLOOKUP(A413,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G413">
+        <f>VLOOKUP(A413,UnitChange!B:K,7,FALSE)</f>
+        <v>0.3132000000000017</v>
+      </c>
+      <c r="H413">
+        <f>VLOOKUP(A413,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I413">
+        <f>VLOOKUP(A413,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J413">
+        <f>VLOOKUP(A413,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K413" s="1">
+        <f>VLOOKUP(A413,UnitChange!B:L,11,FALSE)</f>
+        <v>1.2440000000000004</v>
+      </c>
+    </row>
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A414">
+        <v>412</v>
+      </c>
+      <c r="B414">
+        <f>VLOOKUP(A414,UnitChange!B:K,2,FALSE)</f>
+        <v>2E+144</v>
+      </c>
+      <c r="C414" t="str">
+        <f>VLOOKUP(A414,UnitChange!B:K,3,FALSE)</f>
+        <v>2화</v>
+      </c>
+      <c r="D414">
+        <f>VLOOKUP(A414,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E414">
+        <f>VLOOKUP(A414,UnitChange!B:K,5,FALSE)</f>
+        <v>40200000</v>
+      </c>
+      <c r="F414">
+        <f>VLOOKUP(A414,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G414">
+        <f>VLOOKUP(A414,UnitChange!B:K,7,FALSE)</f>
+        <v>0.31360000000000171</v>
+      </c>
+      <c r="H414">
+        <f>VLOOKUP(A414,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I414">
+        <f>VLOOKUP(A414,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J414">
+        <f>VLOOKUP(A414,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K414" s="1">
+        <f>VLOOKUP(A414,UnitChange!B:L,11,FALSE)</f>
+        <v>1.2480000000000004</v>
+      </c>
+    </row>
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A415">
+        <v>413</v>
+      </c>
+      <c r="B415">
+        <f>VLOOKUP(A415,UnitChange!B:K,2,FALSE)</f>
+        <v>4.9999999999999999E+144</v>
+      </c>
+      <c r="C415" t="str">
+        <f>VLOOKUP(A415,UnitChange!B:K,3,FALSE)</f>
+        <v>5화</v>
+      </c>
+      <c r="D415">
+        <f>VLOOKUP(A415,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E415">
+        <f>VLOOKUP(A415,UnitChange!B:K,5,FALSE)</f>
+        <v>40300000</v>
+      </c>
+      <c r="F415">
+        <f>VLOOKUP(A415,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G415">
+        <f>VLOOKUP(A415,UnitChange!B:K,7,FALSE)</f>
+        <v>0.31400000000000172</v>
+      </c>
+      <c r="H415">
+        <f>VLOOKUP(A415,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I415">
+        <f>VLOOKUP(A415,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J415">
+        <f>VLOOKUP(A415,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K415" s="1">
+        <f>VLOOKUP(A415,UnitChange!B:L,11,FALSE)</f>
+        <v>1.2520000000000004</v>
+      </c>
+    </row>
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A416">
+        <v>414</v>
+      </c>
+      <c r="B416">
+        <f>VLOOKUP(A416,UnitChange!B:K,2,FALSE)</f>
+        <v>9.9999999999999999E+144</v>
+      </c>
+      <c r="C416" t="str">
+        <f>VLOOKUP(A416,UnitChange!B:K,3,FALSE)</f>
+        <v>10화</v>
+      </c>
+      <c r="D416">
+        <f>VLOOKUP(A416,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E416">
+        <f>VLOOKUP(A416,UnitChange!B:K,5,FALSE)</f>
+        <v>40400000</v>
+      </c>
+      <c r="F416">
+        <f>VLOOKUP(A416,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G416">
+        <f>VLOOKUP(A416,UnitChange!B:K,7,FALSE)</f>
+        <v>0.31440000000000173</v>
+      </c>
+      <c r="H416">
+        <f>VLOOKUP(A416,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I416">
+        <f>VLOOKUP(A416,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J416">
+        <f>VLOOKUP(A416,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K416" s="1">
+        <f>VLOOKUP(A416,UnitChange!B:L,11,FALSE)</f>
+        <v>1.2560000000000004</v>
+      </c>
+    </row>
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A417">
+        <v>415</v>
+      </c>
+      <c r="B417">
+        <f>VLOOKUP(A417,UnitChange!B:K,2,FALSE)</f>
+        <v>2E+145</v>
+      </c>
+      <c r="C417" t="str">
+        <f>VLOOKUP(A417,UnitChange!B:K,3,FALSE)</f>
+        <v>20화</v>
+      </c>
+      <c r="D417">
+        <f>VLOOKUP(A417,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E417">
+        <f>VLOOKUP(A417,UnitChange!B:K,5,FALSE)</f>
+        <v>40500000</v>
+      </c>
+      <c r="F417">
+        <f>VLOOKUP(A417,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G417">
+        <f>VLOOKUP(A417,UnitChange!B:K,7,FALSE)</f>
+        <v>0.31480000000000175</v>
+      </c>
+      <c r="H417">
+        <f>VLOOKUP(A417,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I417">
+        <f>VLOOKUP(A417,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J417">
+        <f>VLOOKUP(A417,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K417" s="1">
+        <f>VLOOKUP(A417,UnitChange!B:L,11,FALSE)</f>
+        <v>1.2600000000000005</v>
+      </c>
+    </row>
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A418">
+        <v>416</v>
+      </c>
+      <c r="B418">
+        <f>VLOOKUP(A418,UnitChange!B:K,2,FALSE)</f>
+        <v>4.9999999999999997E+145</v>
+      </c>
+      <c r="C418" t="str">
+        <f>VLOOKUP(A418,UnitChange!B:K,3,FALSE)</f>
+        <v>50화</v>
+      </c>
+      <c r="D418">
+        <f>VLOOKUP(A418,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E418">
+        <f>VLOOKUP(A418,UnitChange!B:K,5,FALSE)</f>
+        <v>40600000</v>
+      </c>
+      <c r="F418">
+        <f>VLOOKUP(A418,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G418">
+        <f>VLOOKUP(A418,UnitChange!B:K,7,FALSE)</f>
+        <v>0.31520000000000176</v>
+      </c>
+      <c r="H418">
+        <f>VLOOKUP(A418,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I418">
+        <f>VLOOKUP(A418,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J418">
+        <f>VLOOKUP(A418,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K418" s="1">
+        <f>VLOOKUP(A418,UnitChange!B:L,11,FALSE)</f>
+        <v>1.2640000000000005</v>
+      </c>
+    </row>
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A419">
+        <v>417</v>
+      </c>
+      <c r="B419">
+        <f>VLOOKUP(A419,UnitChange!B:K,2,FALSE)</f>
+        <v>9.9999999999999993E+145</v>
+      </c>
+      <c r="C419" t="str">
+        <f>VLOOKUP(A419,UnitChange!B:K,3,FALSE)</f>
+        <v>100화</v>
+      </c>
+      <c r="D419">
+        <f>VLOOKUP(A419,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E419">
+        <f>VLOOKUP(A419,UnitChange!B:K,5,FALSE)</f>
+        <v>40700000</v>
+      </c>
+      <c r="F419">
+        <f>VLOOKUP(A419,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G419">
+        <f>VLOOKUP(A419,UnitChange!B:K,7,FALSE)</f>
+        <v>0.31560000000000177</v>
+      </c>
+      <c r="H419">
+        <f>VLOOKUP(A419,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I419">
+        <f>VLOOKUP(A419,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J419">
+        <f>VLOOKUP(A419,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K419" s="1">
+        <f>VLOOKUP(A419,UnitChange!B:L,11,FALSE)</f>
+        <v>1.2680000000000005</v>
+      </c>
+    </row>
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A420">
+        <v>418</v>
+      </c>
+      <c r="B420">
+        <f>VLOOKUP(A420,UnitChange!B:K,2,FALSE)</f>
+        <v>1.5E+146</v>
+      </c>
+      <c r="C420" t="str">
+        <f>VLOOKUP(A420,UnitChange!B:K,3,FALSE)</f>
+        <v>150화</v>
+      </c>
+      <c r="D420">
+        <f>VLOOKUP(A420,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E420">
+        <f>VLOOKUP(A420,UnitChange!B:K,5,FALSE)</f>
+        <v>40800000</v>
+      </c>
+      <c r="F420">
+        <f>VLOOKUP(A420,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G420">
+        <f>VLOOKUP(A420,UnitChange!B:K,7,FALSE)</f>
+        <v>0.31600000000000178</v>
+      </c>
+      <c r="H420">
+        <f>VLOOKUP(A420,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I420">
+        <f>VLOOKUP(A420,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J420">
+        <f>VLOOKUP(A420,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K420" s="1">
+        <f>VLOOKUP(A420,UnitChange!B:L,11,FALSE)</f>
+        <v>1.2720000000000005</v>
+      </c>
+    </row>
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A421">
+        <v>419</v>
+      </c>
+      <c r="B421">
+        <f>VLOOKUP(A421,UnitChange!B:K,2,FALSE)</f>
+        <v>1.9999999999999999E+146</v>
+      </c>
+      <c r="C421" t="str">
+        <f>VLOOKUP(A421,UnitChange!B:K,3,FALSE)</f>
+        <v>200화</v>
+      </c>
+      <c r="D421">
+        <f>VLOOKUP(A421,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E421">
+        <f>VLOOKUP(A421,UnitChange!B:K,5,FALSE)</f>
+        <v>40900000</v>
+      </c>
+      <c r="F421">
+        <f>VLOOKUP(A421,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G421">
+        <f>VLOOKUP(A421,UnitChange!B:K,7,FALSE)</f>
+        <v>0.31640000000000179</v>
+      </c>
+      <c r="H421">
+        <f>VLOOKUP(A421,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I421">
+        <f>VLOOKUP(A421,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J421">
+        <f>VLOOKUP(A421,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K421" s="1">
+        <f>VLOOKUP(A421,UnitChange!B:L,11,FALSE)</f>
+        <v>1.2760000000000005</v>
+      </c>
+    </row>
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A422">
+        <v>420</v>
+      </c>
+      <c r="B422">
+        <f>VLOOKUP(A422,UnitChange!B:K,2,FALSE)</f>
+        <v>3E+146</v>
+      </c>
+      <c r="C422" t="str">
+        <f>VLOOKUP(A422,UnitChange!B:K,3,FALSE)</f>
+        <v>300화</v>
+      </c>
+      <c r="D422">
+        <f>VLOOKUP(A422,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E422">
+        <f>VLOOKUP(A422,UnitChange!B:K,5,FALSE)</f>
+        <v>41000000</v>
+      </c>
+      <c r="F422">
+        <f>VLOOKUP(A422,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G422">
+        <f>VLOOKUP(A422,UnitChange!B:K,7,FALSE)</f>
+        <v>0.3168000000000018</v>
+      </c>
+      <c r="H422">
+        <f>VLOOKUP(A422,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I422">
+        <f>VLOOKUP(A422,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J422">
+        <f>VLOOKUP(A422,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K422" s="1">
+        <f>VLOOKUP(A422,UnitChange!B:L,11,FALSE)</f>
+        <v>1.2800000000000005</v>
+      </c>
+    </row>
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A423">
+        <v>421</v>
+      </c>
+      <c r="B423">
+        <f>VLOOKUP(A423,UnitChange!B:K,2,FALSE)</f>
+        <v>4.9999999999999999E+146</v>
+      </c>
+      <c r="C423" t="str">
+        <f>VLOOKUP(A423,UnitChange!B:K,3,FALSE)</f>
+        <v>500화</v>
+      </c>
+      <c r="D423">
+        <f>VLOOKUP(A423,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E423">
+        <f>VLOOKUP(A423,UnitChange!B:K,5,FALSE)</f>
+        <v>41100000</v>
+      </c>
+      <c r="F423">
+        <f>VLOOKUP(A423,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G423">
+        <f>VLOOKUP(A423,UnitChange!B:K,7,FALSE)</f>
+        <v>0.31720000000000181</v>
+      </c>
+      <c r="H423">
+        <f>VLOOKUP(A423,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I423">
+        <f>VLOOKUP(A423,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J423">
+        <f>VLOOKUP(A423,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K423" s="1">
+        <f>VLOOKUP(A423,UnitChange!B:L,11,FALSE)</f>
+        <v>1.2840000000000005</v>
+      </c>
+    </row>
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A424">
+        <v>422</v>
+      </c>
+      <c r="B424">
+        <f>VLOOKUP(A424,UnitChange!B:K,2,FALSE)</f>
+        <v>7.9999999999999995E+146</v>
+      </c>
+      <c r="C424" t="str">
+        <f>VLOOKUP(A424,UnitChange!B:K,3,FALSE)</f>
+        <v>800화</v>
+      </c>
+      <c r="D424">
+        <f>VLOOKUP(A424,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E424">
+        <f>VLOOKUP(A424,UnitChange!B:K,5,FALSE)</f>
+        <v>41200000</v>
+      </c>
+      <c r="F424">
+        <f>VLOOKUP(A424,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G424">
+        <f>VLOOKUP(A424,UnitChange!B:K,7,FALSE)</f>
+        <v>0.31760000000000183</v>
+      </c>
+      <c r="H424">
+        <f>VLOOKUP(A424,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I424">
+        <f>VLOOKUP(A424,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J424">
+        <f>VLOOKUP(A424,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K424" s="1">
+        <f>VLOOKUP(A424,UnitChange!B:L,11,FALSE)</f>
+        <v>1.2880000000000005</v>
+      </c>
+    </row>
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A425">
+        <v>423</v>
+      </c>
+      <c r="B425">
+        <f>VLOOKUP(A425,UnitChange!B:K,2,FALSE)</f>
+        <v>9.9999999999999998E+146</v>
+      </c>
+      <c r="C425" t="str">
+        <f>VLOOKUP(A425,UnitChange!B:K,3,FALSE)</f>
+        <v>1000화</v>
+      </c>
+      <c r="D425">
+        <f>VLOOKUP(A425,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E425">
+        <f>VLOOKUP(A425,UnitChange!B:K,5,FALSE)</f>
+        <v>41300000</v>
+      </c>
+      <c r="F425">
+        <f>VLOOKUP(A425,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G425">
+        <f>VLOOKUP(A425,UnitChange!B:K,7,FALSE)</f>
+        <v>0.31800000000000184</v>
+      </c>
+      <c r="H425">
+        <f>VLOOKUP(A425,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I425">
+        <f>VLOOKUP(A425,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J425">
+        <f>VLOOKUP(A425,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K425" s="1">
+        <f>VLOOKUP(A425,UnitChange!B:L,11,FALSE)</f>
+        <v>1.2920000000000005</v>
+      </c>
+    </row>
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A426">
+        <v>424</v>
+      </c>
+      <c r="B426">
+        <f>VLOOKUP(A426,UnitChange!B:K,2,FALSE)</f>
+        <v>2E+147</v>
+      </c>
+      <c r="C426" t="str">
+        <f>VLOOKUP(A426,UnitChange!B:K,3,FALSE)</f>
+        <v>2000화</v>
+      </c>
+      <c r="D426">
+        <f>VLOOKUP(A426,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E426">
+        <f>VLOOKUP(A426,UnitChange!B:K,5,FALSE)</f>
+        <v>41400000</v>
+      </c>
+      <c r="F426">
+        <f>VLOOKUP(A426,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G426">
+        <f>VLOOKUP(A426,UnitChange!B:K,7,FALSE)</f>
+        <v>0.31840000000000185</v>
+      </c>
+      <c r="H426">
+        <f>VLOOKUP(A426,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I426">
+        <f>VLOOKUP(A426,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J426">
+        <f>VLOOKUP(A426,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K426" s="1">
+        <f>VLOOKUP(A426,UnitChange!B:L,11,FALSE)</f>
+        <v>1.2960000000000005</v>
+      </c>
+    </row>
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A427">
+        <v>425</v>
+      </c>
+      <c r="B427">
+        <f>VLOOKUP(A427,UnitChange!B:K,2,FALSE)</f>
+        <v>5.0000000000000002E+147</v>
+      </c>
+      <c r="C427" t="str">
+        <f>VLOOKUP(A427,UnitChange!B:K,3,FALSE)</f>
+        <v>5000화</v>
+      </c>
+      <c r="D427">
+        <f>VLOOKUP(A427,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E427">
+        <f>VLOOKUP(A427,UnitChange!B:K,5,FALSE)</f>
+        <v>41500000</v>
+      </c>
+      <c r="F427">
+        <f>VLOOKUP(A427,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G427">
+        <f>VLOOKUP(A427,UnitChange!B:K,7,FALSE)</f>
+        <v>0.31880000000000186</v>
+      </c>
+      <c r="H427">
+        <f>VLOOKUP(A427,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I427">
+        <f>VLOOKUP(A427,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J427">
+        <f>VLOOKUP(A427,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K427" s="1">
+        <f>VLOOKUP(A427,UnitChange!B:L,11,FALSE)</f>
+        <v>1.3000000000000005</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17679,10 +18354,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626C1493-E0FD-4651-99C5-58D15BDAC6AC}">
-  <dimension ref="B1:AC164"/>
+  <dimension ref="B1:AC179"/>
   <sheetViews>
-    <sheetView topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="G159" sqref="G159"/>
+    <sheetView topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="B173" sqref="B173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -19951,7 +20626,7 @@
         <v>1E+108</v>
       </c>
       <c r="Q38" s="12" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="R38" s="12">
         <v>132</v>
@@ -20024,7 +20699,7 @@
         <v>1E+108</v>
       </c>
       <c r="Q39" s="12" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="R39" s="12">
         <v>136</v>
@@ -20097,7 +20772,7 @@
         <v>1E+108</v>
       </c>
       <c r="Q40" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="R40" s="12">
         <v>140</v>
@@ -20170,7 +20845,7 @@
         <v>1E+108</v>
       </c>
       <c r="Q41" s="12" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="R41" s="12">
         <v>144</v>
@@ -20243,7 +20918,7 @@
         <v>1E+108</v>
       </c>
       <c r="Q42" s="12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="R42" s="12">
         <v>148</v>
@@ -23532,7 +24207,7 @@
         <v>334</v>
       </c>
       <c r="O103" s="12" t="str">
-        <f t="shared" ref="O103:O164" si="37">VLOOKUP(N103,Q:T,4,FALSE)</f>
+        <f t="shared" ref="O103:O166" si="37">VLOOKUP(N103,Q:T,4,FALSE)</f>
         <v>1E+124</v>
       </c>
     </row>
@@ -24379,7 +25054,7 @@
         <v>1</v>
       </c>
       <c r="N120" s="19" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O120" s="12" t="str">
         <f t="shared" si="37"/>
@@ -24429,7 +25104,7 @@
         <v>2</v>
       </c>
       <c r="N121" s="19" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O121" s="12" t="str">
         <f t="shared" si="37"/>
@@ -24479,7 +25154,7 @@
         <v>5</v>
       </c>
       <c r="N122" s="19" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O122" s="12" t="str">
         <f t="shared" si="37"/>
@@ -24529,7 +25204,7 @@
         <v>10</v>
       </c>
       <c r="N123" s="19" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O123" s="12" t="str">
         <f t="shared" si="37"/>
@@ -24552,7 +25227,7 @@
         <v>20</v>
       </c>
       <c r="F124" s="16">
-        <f t="shared" ref="F124:F177" si="42">F123+100000</f>
+        <f t="shared" ref="F124:F159" si="42">F123+100000</f>
         <v>36000000</v>
       </c>
       <c r="G124" s="16">
@@ -24572,14 +25247,14 @@
         <v>60</v>
       </c>
       <c r="L124" s="16">
-        <f t="shared" ref="L124:L177" si="43">L123+0.004</f>
+        <f t="shared" ref="L124:L159" si="43">L123+0.004</f>
         <v>1.0800000000000003</v>
       </c>
       <c r="M124" s="20">
         <v>20</v>
       </c>
       <c r="N124" s="19" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O124" s="12" t="str">
         <f t="shared" si="37"/>
@@ -24629,7 +25304,7 @@
         <v>50</v>
       </c>
       <c r="N125" s="19" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O125" s="12" t="str">
         <f t="shared" si="37"/>
@@ -24679,7 +25354,7 @@
         <v>100</v>
       </c>
       <c r="N126" s="19" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O126" s="12" t="str">
         <f t="shared" si="37"/>
@@ -24729,7 +25404,7 @@
         <v>150</v>
       </c>
       <c r="N127" s="19" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O127" s="12" t="str">
         <f t="shared" si="37"/>
@@ -24779,7 +25454,7 @@
         <v>200</v>
       </c>
       <c r="N128" s="19" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O128" s="12" t="str">
         <f t="shared" si="37"/>
@@ -24829,7 +25504,7 @@
         <v>300</v>
       </c>
       <c r="N129" s="19" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O129" s="12" t="str">
         <f t="shared" si="37"/>
@@ -24879,7 +25554,7 @@
         <v>500</v>
       </c>
       <c r="N130" s="19" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O130" s="12" t="str">
         <f t="shared" si="37"/>
@@ -24929,7 +25604,7 @@
         <v>800</v>
       </c>
       <c r="N131" s="19" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O131" s="12" t="str">
         <f t="shared" si="37"/>
@@ -24979,7 +25654,7 @@
         <v>1000</v>
       </c>
       <c r="N132" s="19" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O132" s="12" t="str">
         <f t="shared" si="37"/>
@@ -25029,7 +25704,7 @@
         <v>2000</v>
       </c>
       <c r="N133" s="19" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O133" s="12" t="str">
         <f t="shared" si="37"/>
@@ -25079,7 +25754,7 @@
         <v>5000</v>
       </c>
       <c r="N134" s="19" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O134" s="12" t="str">
         <f t="shared" si="37"/>
@@ -25129,7 +25804,7 @@
         <v>1</v>
       </c>
       <c r="N135" s="19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O135" s="12" t="str">
         <f t="shared" si="37"/>
@@ -25179,7 +25854,7 @@
         <v>2</v>
       </c>
       <c r="N136" s="19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O136" s="12" t="str">
         <f t="shared" si="37"/>
@@ -25229,7 +25904,7 @@
         <v>5</v>
       </c>
       <c r="N137" s="19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O137" s="12" t="str">
         <f t="shared" si="37"/>
@@ -25259,7 +25934,7 @@
         <v>2</v>
       </c>
       <c r="H138" s="16">
-        <f t="shared" ref="H138:H177" si="46">IF(RIGHT(H137,2)="24",H137+0.0076,H137+0.0004)</f>
+        <f t="shared" ref="H138:H159" si="46">IF(RIGHT(H137,2)="24",H137+0.0076,H137+0.0004)</f>
         <v>0.30240000000000139</v>
       </c>
       <c r="I138" s="16">
@@ -25279,7 +25954,7 @@
         <v>10</v>
       </c>
       <c r="N138" s="19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O138" s="12" t="str">
         <f t="shared" si="37"/>
@@ -25329,7 +26004,7 @@
         <v>20</v>
       </c>
       <c r="N139" s="19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O139" s="12" t="str">
         <f t="shared" si="37"/>
@@ -25379,7 +26054,7 @@
         <v>50</v>
       </c>
       <c r="N140" s="19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O140" s="12" t="str">
         <f t="shared" si="37"/>
@@ -25429,7 +26104,7 @@
         <v>100</v>
       </c>
       <c r="N141" s="19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O141" s="12" t="str">
         <f t="shared" si="37"/>
@@ -25479,7 +26154,7 @@
         <v>150</v>
       </c>
       <c r="N142" s="19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O142" s="12" t="str">
         <f t="shared" si="37"/>
@@ -25529,7 +26204,7 @@
         <v>200</v>
       </c>
       <c r="N143" s="19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O143" s="12" t="str">
         <f t="shared" si="37"/>
@@ -25579,7 +26254,7 @@
         <v>300</v>
       </c>
       <c r="N144" s="19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O144" s="12" t="str">
         <f t="shared" si="37"/>
@@ -25629,7 +26304,7 @@
         <v>500</v>
       </c>
       <c r="N145" s="19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O145" s="12" t="str">
         <f t="shared" si="37"/>
@@ -25679,7 +26354,7 @@
         <v>800</v>
       </c>
       <c r="N146" s="19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O146" s="12" t="str">
         <f t="shared" si="37"/>
@@ -25729,7 +26404,7 @@
         <v>1000</v>
       </c>
       <c r="N147" s="19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O147" s="12" t="str">
         <f t="shared" si="37"/>
@@ -25779,7 +26454,7 @@
         <v>2000</v>
       </c>
       <c r="N148" s="19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O148" s="12" t="str">
         <f t="shared" si="37"/>
@@ -25829,7 +26504,7 @@
         <v>5000</v>
       </c>
       <c r="N149" s="19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O149" s="12" t="str">
         <f t="shared" si="37"/>
@@ -25845,7 +26520,7 @@
         <v>1.0000000000000001E+140</v>
       </c>
       <c r="D150" s="16" t="str">
-        <f t="shared" ref="D150:D164" si="47">M150&amp;N150</f>
+        <f t="shared" ref="D150:D165" si="47">M150&amp;N150</f>
         <v>1고</v>
       </c>
       <c r="E150" s="16">
@@ -25879,7 +26554,7 @@
         <v>1</v>
       </c>
       <c r="N150" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O150" s="12" t="str">
         <f t="shared" si="37"/>
@@ -25891,7 +26566,7 @@
         <v>397</v>
       </c>
       <c r="C151" s="16">
-        <f t="shared" ref="C150:C164" si="48">M151*O151</f>
+        <f t="shared" ref="C151:C165" si="48">M151*O151</f>
         <v>2.0000000000000001E+140</v>
       </c>
       <c r="D151" s="16" t="str">
@@ -25929,7 +26604,7 @@
         <v>2</v>
       </c>
       <c r="N151" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O151" s="12" t="str">
         <f t="shared" si="37"/>
@@ -25979,7 +26654,7 @@
         <v>5</v>
       </c>
       <c r="N152" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O152" s="12" t="str">
         <f t="shared" si="37"/>
@@ -26029,7 +26704,7 @@
         <v>10</v>
       </c>
       <c r="N153" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O153" s="12" t="str">
         <f t="shared" si="37"/>
@@ -26079,7 +26754,7 @@
         <v>20</v>
       </c>
       <c r="N154" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O154" s="12" t="str">
         <f t="shared" si="37"/>
@@ -26129,7 +26804,7 @@
         <v>50</v>
       </c>
       <c r="N155" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O155" s="12" t="str">
         <f t="shared" si="37"/>
@@ -26179,7 +26854,7 @@
         <v>100</v>
       </c>
       <c r="N156" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O156" s="12" t="str">
         <f t="shared" si="37"/>
@@ -26229,7 +26904,7 @@
         <v>150</v>
       </c>
       <c r="N157" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O157" s="12" t="str">
         <f t="shared" si="37"/>
@@ -26279,7 +26954,7 @@
         <v>200</v>
       </c>
       <c r="N158" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O158" s="12" t="str">
         <f t="shared" si="37"/>
@@ -26329,7 +27004,7 @@
         <v>300</v>
       </c>
       <c r="N159" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O159" s="12" t="str">
         <f t="shared" si="37"/>
@@ -26341,25 +27016,25 @@
         <v>406</v>
       </c>
       <c r="C160" s="16">
-        <f t="shared" si="48"/>
+        <f>M160*O160</f>
         <v>5.0000000000000001E+142</v>
       </c>
       <c r="D160" s="16" t="str">
-        <f t="shared" si="47"/>
+        <f>M160&amp;N160</f>
         <v>500고</v>
       </c>
       <c r="E160" s="16">
         <v>20</v>
       </c>
       <c r="F160" s="16">
-        <f t="shared" si="42"/>
+        <f>F159+100000</f>
         <v>39600000</v>
       </c>
       <c r="G160" s="16">
         <v>2</v>
       </c>
       <c r="H160" s="16">
-        <f t="shared" si="46"/>
+        <f>IF(RIGHT(H159,2)="24",H159+0.0076,H159+0.0004)</f>
         <v>0.31120000000000164</v>
       </c>
       <c r="I160" s="16">
@@ -26372,14 +27047,14 @@
         <v>60</v>
       </c>
       <c r="L160" s="16">
-        <f t="shared" si="43"/>
+        <f>L159+0.004</f>
         <v>1.2240000000000004</v>
       </c>
       <c r="M160" s="20">
         <v>500</v>
       </c>
       <c r="N160" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O160" s="12" t="str">
         <f t="shared" si="37"/>
@@ -26391,25 +27066,25 @@
         <v>407</v>
       </c>
       <c r="C161" s="16">
-        <f t="shared" si="48"/>
+        <f>M161*O161</f>
         <v>8.0000000000000004E+142</v>
       </c>
       <c r="D161" s="16" t="str">
-        <f t="shared" si="47"/>
+        <f>M161&amp;N161</f>
         <v>800고</v>
       </c>
       <c r="E161" s="16">
         <v>20</v>
       </c>
       <c r="F161" s="16">
-        <f t="shared" si="42"/>
+        <f>F160+100000</f>
         <v>39700000</v>
       </c>
       <c r="G161" s="16">
         <v>2</v>
       </c>
       <c r="H161" s="16">
-        <f t="shared" si="46"/>
+        <f>IF(RIGHT(H160,2)="24",H160+0.0076,H160+0.0004)</f>
         <v>0.31160000000000165</v>
       </c>
       <c r="I161" s="16">
@@ -26422,14 +27097,14 @@
         <v>60</v>
       </c>
       <c r="L161" s="16">
-        <f t="shared" si="43"/>
+        <f>L160+0.004</f>
         <v>1.2280000000000004</v>
       </c>
       <c r="M161" s="20">
         <v>800</v>
       </c>
       <c r="N161" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O161" s="12" t="str">
         <f t="shared" si="37"/>
@@ -26441,25 +27116,25 @@
         <v>408</v>
       </c>
       <c r="C162" s="16">
-        <f t="shared" si="48"/>
+        <f>M162*O162</f>
         <v>1E+143</v>
       </c>
       <c r="D162" s="16" t="str">
-        <f t="shared" si="47"/>
+        <f>M162&amp;N162</f>
         <v>1000고</v>
       </c>
       <c r="E162" s="16">
         <v>20</v>
       </c>
       <c r="F162" s="16">
-        <f t="shared" si="42"/>
+        <f>F161+100000</f>
         <v>39800000</v>
       </c>
       <c r="G162" s="16">
         <v>2</v>
       </c>
       <c r="H162" s="16">
-        <f t="shared" si="46"/>
+        <f>IF(RIGHT(H161,2)="24",H161+0.0076,H161+0.0004)</f>
         <v>0.31200000000000166</v>
       </c>
       <c r="I162" s="16">
@@ -26472,14 +27147,14 @@
         <v>60</v>
       </c>
       <c r="L162" s="16">
-        <f t="shared" si="43"/>
+        <f>L161+0.004</f>
         <v>1.2320000000000004</v>
       </c>
       <c r="M162" s="20">
         <v>1000</v>
       </c>
       <c r="N162" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O162" s="12" t="str">
         <f t="shared" si="37"/>
@@ -26491,25 +27166,25 @@
         <v>409</v>
       </c>
       <c r="C163" s="16">
-        <f t="shared" si="48"/>
+        <f>M163*O163</f>
         <v>2E+143</v>
       </c>
       <c r="D163" s="16" t="str">
-        <f t="shared" si="47"/>
+        <f>M163&amp;N163</f>
         <v>2000고</v>
       </c>
       <c r="E163" s="16">
         <v>20</v>
       </c>
       <c r="F163" s="16">
-        <f t="shared" si="42"/>
+        <f>F162+100000</f>
         <v>39900000</v>
       </c>
       <c r="G163" s="16">
         <v>2</v>
       </c>
       <c r="H163" s="16">
-        <f t="shared" si="46"/>
+        <f>IF(RIGHT(H162,2)="24",H162+0.0076,H162+0.0004)</f>
         <v>0.31240000000000168</v>
       </c>
       <c r="I163" s="16">
@@ -26522,14 +27197,14 @@
         <v>60</v>
       </c>
       <c r="L163" s="16">
-        <f t="shared" si="43"/>
+        <f>L162+0.004</f>
         <v>1.2360000000000004</v>
       </c>
       <c r="M163" s="20">
         <v>2000</v>
       </c>
       <c r="N163" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O163" s="12" t="str">
         <f t="shared" si="37"/>
@@ -26541,25 +27216,25 @@
         <v>410</v>
       </c>
       <c r="C164" s="16">
-        <f t="shared" si="48"/>
+        <f>M164*O164</f>
         <v>5.0000000000000001E+143</v>
       </c>
       <c r="D164" s="16" t="str">
-        <f t="shared" si="47"/>
+        <f>M164&amp;N164</f>
         <v>5000고</v>
       </c>
       <c r="E164" s="16">
         <v>20</v>
       </c>
       <c r="F164" s="16">
-        <f t="shared" si="42"/>
+        <f>F163+100000</f>
         <v>40000000</v>
       </c>
       <c r="G164" s="16">
         <v>2</v>
       </c>
       <c r="H164" s="16">
-        <f t="shared" si="46"/>
+        <f>IF(RIGHT(H163,2)="24",H163+0.0076,H163+0.0004)</f>
         <v>0.31280000000000169</v>
       </c>
       <c r="I164" s="16">
@@ -26572,18 +27247,768 @@
         <v>60</v>
       </c>
       <c r="L164" s="16">
-        <f t="shared" si="43"/>
+        <f>L163+0.004</f>
         <v>1.2400000000000004</v>
       </c>
       <c r="M164" s="20">
         <v>5000</v>
       </c>
       <c r="N164" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O164" s="12" t="str">
         <f t="shared" si="37"/>
         <v>1E+140</v>
+      </c>
+    </row>
+    <row r="165" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B165" s="21">
+        <v>411</v>
+      </c>
+      <c r="C165" s="16">
+        <f t="shared" ref="C165:C179" si="49">M165*O165</f>
+        <v>1E+144</v>
+      </c>
+      <c r="D165" s="16" t="str">
+        <f t="shared" ref="D165:D179" si="50">M165&amp;N165</f>
+        <v>1화</v>
+      </c>
+      <c r="E165" s="16">
+        <v>20</v>
+      </c>
+      <c r="F165" s="16">
+        <f t="shared" ref="F165:F179" si="51">F164+100000</f>
+        <v>40100000</v>
+      </c>
+      <c r="G165" s="16">
+        <v>2</v>
+      </c>
+      <c r="H165" s="16">
+        <f t="shared" ref="H165:H179" si="52">IF(RIGHT(H164,2)="24",H164+0.0076,H164+0.0004)</f>
+        <v>0.3132000000000017</v>
+      </c>
+      <c r="I165" s="16">
+        <v>23</v>
+      </c>
+      <c r="J165" s="16">
+        <v>0</v>
+      </c>
+      <c r="K165" s="16">
+        <v>60</v>
+      </c>
+      <c r="L165" s="16">
+        <f t="shared" ref="L165:L179" si="53">L164+0.004</f>
+        <v>1.2440000000000004</v>
+      </c>
+      <c r="M165" s="20">
+        <v>1</v>
+      </c>
+      <c r="N165" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="O165" s="12" t="str">
+        <f t="shared" si="37"/>
+        <v>1E+144</v>
+      </c>
+    </row>
+    <row r="166" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B166" s="21">
+        <v>412</v>
+      </c>
+      <c r="C166" s="16">
+        <f t="shared" si="49"/>
+        <v>2E+144</v>
+      </c>
+      <c r="D166" s="16" t="str">
+        <f t="shared" si="50"/>
+        <v>2화</v>
+      </c>
+      <c r="E166" s="16">
+        <v>20</v>
+      </c>
+      <c r="F166" s="16">
+        <f t="shared" si="51"/>
+        <v>40200000</v>
+      </c>
+      <c r="G166" s="16">
+        <v>2</v>
+      </c>
+      <c r="H166" s="16">
+        <f t="shared" si="52"/>
+        <v>0.31360000000000171</v>
+      </c>
+      <c r="I166" s="16">
+        <v>23</v>
+      </c>
+      <c r="J166" s="16">
+        <v>0</v>
+      </c>
+      <c r="K166" s="16">
+        <v>60</v>
+      </c>
+      <c r="L166" s="16">
+        <f t="shared" si="53"/>
+        <v>1.2480000000000004</v>
+      </c>
+      <c r="M166" s="20">
+        <v>2</v>
+      </c>
+      <c r="N166" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="O166" s="12" t="str">
+        <f t="shared" si="37"/>
+        <v>1E+144</v>
+      </c>
+    </row>
+    <row r="167" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B167" s="21">
+        <v>413</v>
+      </c>
+      <c r="C167" s="16">
+        <f t="shared" si="49"/>
+        <v>4.9999999999999999E+144</v>
+      </c>
+      <c r="D167" s="16" t="str">
+        <f t="shared" si="50"/>
+        <v>5화</v>
+      </c>
+      <c r="E167" s="16">
+        <v>20</v>
+      </c>
+      <c r="F167" s="16">
+        <f t="shared" si="51"/>
+        <v>40300000</v>
+      </c>
+      <c r="G167" s="16">
+        <v>2</v>
+      </c>
+      <c r="H167" s="16">
+        <f t="shared" si="52"/>
+        <v>0.31400000000000172</v>
+      </c>
+      <c r="I167" s="16">
+        <v>23</v>
+      </c>
+      <c r="J167" s="16">
+        <v>0</v>
+      </c>
+      <c r="K167" s="16">
+        <v>60</v>
+      </c>
+      <c r="L167" s="16">
+        <f t="shared" si="53"/>
+        <v>1.2520000000000004</v>
+      </c>
+      <c r="M167" s="20">
+        <v>5</v>
+      </c>
+      <c r="N167" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="O167" s="12" t="str">
+        <f t="shared" ref="O167:O179" si="54">VLOOKUP(N167,Q:T,4,FALSE)</f>
+        <v>1E+144</v>
+      </c>
+    </row>
+    <row r="168" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B168" s="21">
+        <v>414</v>
+      </c>
+      <c r="C168" s="16">
+        <f t="shared" si="49"/>
+        <v>9.9999999999999999E+144</v>
+      </c>
+      <c r="D168" s="16" t="str">
+        <f t="shared" si="50"/>
+        <v>10화</v>
+      </c>
+      <c r="E168" s="16">
+        <v>20</v>
+      </c>
+      <c r="F168" s="16">
+        <f t="shared" si="51"/>
+        <v>40400000</v>
+      </c>
+      <c r="G168" s="16">
+        <v>2</v>
+      </c>
+      <c r="H168" s="16">
+        <f t="shared" si="52"/>
+        <v>0.31440000000000173</v>
+      </c>
+      <c r="I168" s="16">
+        <v>23</v>
+      </c>
+      <c r="J168" s="16">
+        <v>0</v>
+      </c>
+      <c r="K168" s="16">
+        <v>60</v>
+      </c>
+      <c r="L168" s="16">
+        <f t="shared" si="53"/>
+        <v>1.2560000000000004</v>
+      </c>
+      <c r="M168" s="20">
+        <v>10</v>
+      </c>
+      <c r="N168" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="O168" s="12" t="str">
+        <f t="shared" si="54"/>
+        <v>1E+144</v>
+      </c>
+    </row>
+    <row r="169" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B169" s="21">
+        <v>415</v>
+      </c>
+      <c r="C169" s="16">
+        <f t="shared" si="49"/>
+        <v>2E+145</v>
+      </c>
+      <c r="D169" s="16" t="str">
+        <f t="shared" si="50"/>
+        <v>20화</v>
+      </c>
+      <c r="E169" s="16">
+        <v>20</v>
+      </c>
+      <c r="F169" s="16">
+        <f t="shared" si="51"/>
+        <v>40500000</v>
+      </c>
+      <c r="G169" s="16">
+        <v>2</v>
+      </c>
+      <c r="H169" s="16">
+        <f t="shared" si="52"/>
+        <v>0.31480000000000175</v>
+      </c>
+      <c r="I169" s="16">
+        <v>23</v>
+      </c>
+      <c r="J169" s="16">
+        <v>0</v>
+      </c>
+      <c r="K169" s="16">
+        <v>60</v>
+      </c>
+      <c r="L169" s="16">
+        <f t="shared" si="53"/>
+        <v>1.2600000000000005</v>
+      </c>
+      <c r="M169" s="20">
+        <v>20</v>
+      </c>
+      <c r="N169" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="O169" s="12" t="str">
+        <f t="shared" si="54"/>
+        <v>1E+144</v>
+      </c>
+    </row>
+    <row r="170" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B170" s="21">
+        <v>416</v>
+      </c>
+      <c r="C170" s="16">
+        <f t="shared" si="49"/>
+        <v>4.9999999999999997E+145</v>
+      </c>
+      <c r="D170" s="16" t="str">
+        <f t="shared" si="50"/>
+        <v>50화</v>
+      </c>
+      <c r="E170" s="16">
+        <v>20</v>
+      </c>
+      <c r="F170" s="16">
+        <f t="shared" si="51"/>
+        <v>40600000</v>
+      </c>
+      <c r="G170" s="16">
+        <v>2</v>
+      </c>
+      <c r="H170" s="16">
+        <f t="shared" si="52"/>
+        <v>0.31520000000000176</v>
+      </c>
+      <c r="I170" s="16">
+        <v>23</v>
+      </c>
+      <c r="J170" s="16">
+        <v>0</v>
+      </c>
+      <c r="K170" s="16">
+        <v>60</v>
+      </c>
+      <c r="L170" s="16">
+        <f t="shared" si="53"/>
+        <v>1.2640000000000005</v>
+      </c>
+      <c r="M170" s="20">
+        <v>50</v>
+      </c>
+      <c r="N170" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="O170" s="12" t="str">
+        <f t="shared" si="54"/>
+        <v>1E+144</v>
+      </c>
+    </row>
+    <row r="171" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B171" s="21">
+        <v>417</v>
+      </c>
+      <c r="C171" s="16">
+        <f t="shared" si="49"/>
+        <v>9.9999999999999993E+145</v>
+      </c>
+      <c r="D171" s="16" t="str">
+        <f t="shared" si="50"/>
+        <v>100화</v>
+      </c>
+      <c r="E171" s="16">
+        <v>20</v>
+      </c>
+      <c r="F171" s="16">
+        <f t="shared" si="51"/>
+        <v>40700000</v>
+      </c>
+      <c r="G171" s="16">
+        <v>2</v>
+      </c>
+      <c r="H171" s="16">
+        <f t="shared" si="52"/>
+        <v>0.31560000000000177</v>
+      </c>
+      <c r="I171" s="16">
+        <v>23</v>
+      </c>
+      <c r="J171" s="16">
+        <v>0</v>
+      </c>
+      <c r="K171" s="16">
+        <v>60</v>
+      </c>
+      <c r="L171" s="16">
+        <f t="shared" si="53"/>
+        <v>1.2680000000000005</v>
+      </c>
+      <c r="M171" s="20">
+        <v>100</v>
+      </c>
+      <c r="N171" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="O171" s="12" t="str">
+        <f t="shared" si="54"/>
+        <v>1E+144</v>
+      </c>
+    </row>
+    <row r="172" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B172" s="21">
+        <v>418</v>
+      </c>
+      <c r="C172" s="16">
+        <f t="shared" si="49"/>
+        <v>1.5E+146</v>
+      </c>
+      <c r="D172" s="16" t="str">
+        <f t="shared" si="50"/>
+        <v>150화</v>
+      </c>
+      <c r="E172" s="16">
+        <v>20</v>
+      </c>
+      <c r="F172" s="16">
+        <f t="shared" si="51"/>
+        <v>40800000</v>
+      </c>
+      <c r="G172" s="16">
+        <v>2</v>
+      </c>
+      <c r="H172" s="16">
+        <f t="shared" si="52"/>
+        <v>0.31600000000000178</v>
+      </c>
+      <c r="I172" s="16">
+        <v>23</v>
+      </c>
+      <c r="J172" s="16">
+        <v>0</v>
+      </c>
+      <c r="K172" s="16">
+        <v>60</v>
+      </c>
+      <c r="L172" s="16">
+        <f t="shared" si="53"/>
+        <v>1.2720000000000005</v>
+      </c>
+      <c r="M172" s="20">
+        <v>150</v>
+      </c>
+      <c r="N172" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="O172" s="12" t="str">
+        <f t="shared" si="54"/>
+        <v>1E+144</v>
+      </c>
+    </row>
+    <row r="173" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B173" s="21">
+        <v>419</v>
+      </c>
+      <c r="C173" s="16">
+        <f t="shared" si="49"/>
+        <v>1.9999999999999999E+146</v>
+      </c>
+      <c r="D173" s="16" t="str">
+        <f t="shared" si="50"/>
+        <v>200화</v>
+      </c>
+      <c r="E173" s="16">
+        <v>20</v>
+      </c>
+      <c r="F173" s="16">
+        <f t="shared" si="51"/>
+        <v>40900000</v>
+      </c>
+      <c r="G173" s="16">
+        <v>2</v>
+      </c>
+      <c r="H173" s="16">
+        <f t="shared" si="52"/>
+        <v>0.31640000000000179</v>
+      </c>
+      <c r="I173" s="16">
+        <v>23</v>
+      </c>
+      <c r="J173" s="16">
+        <v>0</v>
+      </c>
+      <c r="K173" s="16">
+        <v>60</v>
+      </c>
+      <c r="L173" s="16">
+        <f t="shared" si="53"/>
+        <v>1.2760000000000005</v>
+      </c>
+      <c r="M173" s="20">
+        <v>200</v>
+      </c>
+      <c r="N173" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="O173" s="12" t="str">
+        <f t="shared" si="54"/>
+        <v>1E+144</v>
+      </c>
+    </row>
+    <row r="174" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B174" s="21">
+        <v>420</v>
+      </c>
+      <c r="C174" s="16">
+        <f t="shared" si="49"/>
+        <v>3E+146</v>
+      </c>
+      <c r="D174" s="16" t="str">
+        <f t="shared" si="50"/>
+        <v>300화</v>
+      </c>
+      <c r="E174" s="16">
+        <v>20</v>
+      </c>
+      <c r="F174" s="16">
+        <f t="shared" si="51"/>
+        <v>41000000</v>
+      </c>
+      <c r="G174" s="16">
+        <v>2</v>
+      </c>
+      <c r="H174" s="16">
+        <f t="shared" si="52"/>
+        <v>0.3168000000000018</v>
+      </c>
+      <c r="I174" s="16">
+        <v>23</v>
+      </c>
+      <c r="J174" s="16">
+        <v>0</v>
+      </c>
+      <c r="K174" s="16">
+        <v>60</v>
+      </c>
+      <c r="L174" s="16">
+        <f t="shared" si="53"/>
+        <v>1.2800000000000005</v>
+      </c>
+      <c r="M174" s="20">
+        <v>300</v>
+      </c>
+      <c r="N174" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="O174" s="12" t="str">
+        <f t="shared" si="54"/>
+        <v>1E+144</v>
+      </c>
+    </row>
+    <row r="175" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B175" s="21">
+        <v>421</v>
+      </c>
+      <c r="C175" s="16">
+        <f t="shared" si="49"/>
+        <v>4.9999999999999999E+146</v>
+      </c>
+      <c r="D175" s="16" t="str">
+        <f t="shared" si="50"/>
+        <v>500화</v>
+      </c>
+      <c r="E175" s="16">
+        <v>20</v>
+      </c>
+      <c r="F175" s="16">
+        <f t="shared" si="51"/>
+        <v>41100000</v>
+      </c>
+      <c r="G175" s="16">
+        <v>2</v>
+      </c>
+      <c r="H175" s="16">
+        <f t="shared" si="52"/>
+        <v>0.31720000000000181</v>
+      </c>
+      <c r="I175" s="16">
+        <v>23</v>
+      </c>
+      <c r="J175" s="16">
+        <v>0</v>
+      </c>
+      <c r="K175" s="16">
+        <v>60</v>
+      </c>
+      <c r="L175" s="16">
+        <f t="shared" si="53"/>
+        <v>1.2840000000000005</v>
+      </c>
+      <c r="M175" s="20">
+        <v>500</v>
+      </c>
+      <c r="N175" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="O175" s="12" t="str">
+        <f t="shared" si="54"/>
+        <v>1E+144</v>
+      </c>
+    </row>
+    <row r="176" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B176" s="21">
+        <v>422</v>
+      </c>
+      <c r="C176" s="16">
+        <f t="shared" si="49"/>
+        <v>7.9999999999999995E+146</v>
+      </c>
+      <c r="D176" s="16" t="str">
+        <f t="shared" si="50"/>
+        <v>800화</v>
+      </c>
+      <c r="E176" s="16">
+        <v>20</v>
+      </c>
+      <c r="F176" s="16">
+        <f t="shared" si="51"/>
+        <v>41200000</v>
+      </c>
+      <c r="G176" s="16">
+        <v>2</v>
+      </c>
+      <c r="H176" s="16">
+        <f t="shared" si="52"/>
+        <v>0.31760000000000183</v>
+      </c>
+      <c r="I176" s="16">
+        <v>23</v>
+      </c>
+      <c r="J176" s="16">
+        <v>0</v>
+      </c>
+      <c r="K176" s="16">
+        <v>60</v>
+      </c>
+      <c r="L176" s="16">
+        <f t="shared" si="53"/>
+        <v>1.2880000000000005</v>
+      </c>
+      <c r="M176" s="20">
+        <v>800</v>
+      </c>
+      <c r="N176" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="O176" s="12" t="str">
+        <f t="shared" si="54"/>
+        <v>1E+144</v>
+      </c>
+    </row>
+    <row r="177" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B177" s="21">
+        <v>423</v>
+      </c>
+      <c r="C177" s="16">
+        <f t="shared" si="49"/>
+        <v>9.9999999999999998E+146</v>
+      </c>
+      <c r="D177" s="16" t="str">
+        <f t="shared" si="50"/>
+        <v>1000화</v>
+      </c>
+      <c r="E177" s="16">
+        <v>20</v>
+      </c>
+      <c r="F177" s="16">
+        <f t="shared" si="51"/>
+        <v>41300000</v>
+      </c>
+      <c r="G177" s="16">
+        <v>2</v>
+      </c>
+      <c r="H177" s="16">
+        <f t="shared" si="52"/>
+        <v>0.31800000000000184</v>
+      </c>
+      <c r="I177" s="16">
+        <v>23</v>
+      </c>
+      <c r="J177" s="16">
+        <v>0</v>
+      </c>
+      <c r="K177" s="16">
+        <v>60</v>
+      </c>
+      <c r="L177" s="16">
+        <f t="shared" si="53"/>
+        <v>1.2920000000000005</v>
+      </c>
+      <c r="M177" s="20">
+        <v>1000</v>
+      </c>
+      <c r="N177" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="O177" s="12" t="str">
+        <f t="shared" si="54"/>
+        <v>1E+144</v>
+      </c>
+    </row>
+    <row r="178" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B178" s="21">
+        <v>424</v>
+      </c>
+      <c r="C178" s="16">
+        <f t="shared" si="49"/>
+        <v>2E+147</v>
+      </c>
+      <c r="D178" s="16" t="str">
+        <f t="shared" si="50"/>
+        <v>2000화</v>
+      </c>
+      <c r="E178" s="16">
+        <v>20</v>
+      </c>
+      <c r="F178" s="16">
+        <f t="shared" si="51"/>
+        <v>41400000</v>
+      </c>
+      <c r="G178" s="16">
+        <v>2</v>
+      </c>
+      <c r="H178" s="16">
+        <f t="shared" si="52"/>
+        <v>0.31840000000000185</v>
+      </c>
+      <c r="I178" s="16">
+        <v>23</v>
+      </c>
+      <c r="J178" s="16">
+        <v>0</v>
+      </c>
+      <c r="K178" s="16">
+        <v>60</v>
+      </c>
+      <c r="L178" s="16">
+        <f t="shared" si="53"/>
+        <v>1.2960000000000005</v>
+      </c>
+      <c r="M178" s="20">
+        <v>2000</v>
+      </c>
+      <c r="N178" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="O178" s="12" t="str">
+        <f t="shared" si="54"/>
+        <v>1E+144</v>
+      </c>
+    </row>
+    <row r="179" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B179" s="21">
+        <v>425</v>
+      </c>
+      <c r="C179" s="16">
+        <f t="shared" si="49"/>
+        <v>5.0000000000000002E+147</v>
+      </c>
+      <c r="D179" s="16" t="str">
+        <f t="shared" si="50"/>
+        <v>5000화</v>
+      </c>
+      <c r="E179" s="16">
+        <v>20</v>
+      </c>
+      <c r="F179" s="16">
+        <f t="shared" si="51"/>
+        <v>41500000</v>
+      </c>
+      <c r="G179" s="16">
+        <v>2</v>
+      </c>
+      <c r="H179" s="16">
+        <f t="shared" si="52"/>
+        <v>0.31880000000000186</v>
+      </c>
+      <c r="I179" s="16">
+        <v>23</v>
+      </c>
+      <c r="J179" s="16">
+        <v>0</v>
+      </c>
+      <c r="K179" s="16">
+        <v>60</v>
+      </c>
+      <c r="L179" s="16">
+        <f t="shared" si="53"/>
+        <v>1.3000000000000005</v>
+      </c>
+      <c r="M179" s="20">
+        <v>5000</v>
+      </c>
+      <c r="N179" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="O179" s="12" t="str">
+        <f t="shared" si="54"/>
+        <v>1E+144</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/SusanoTable.xlsx
+++ b/Assets/06.Table/SusanoTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7058FAF3-57A0-485E-8313-5A12C7482541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D63DA3D-A72C-47DF-BB99-27F7D0E9F24A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="15" windowWidth="28770" windowHeight="15450" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SusanoTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="343">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1342,10 +1342,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>설</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1359,6 +1355,18 @@
   </si>
   <si>
     <t>화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1884,11 +1892,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:K427"/>
+  <dimension ref="A1:K442"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A405" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B420" sqref="B420"/>
+      <pane ySplit="1" topLeftCell="A430" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B443" sqref="B443"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -18345,6 +18353,681 @@
         <v>1.3000000000000005</v>
       </c>
     </row>
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A428">
+        <v>426</v>
+      </c>
+      <c r="B428">
+        <f>VLOOKUP(A428,UnitChange!B:K,2,FALSE)</f>
+        <v>1E+148</v>
+      </c>
+      <c r="C428" t="str">
+        <f>VLOOKUP(A428,UnitChange!B:K,3,FALSE)</f>
+        <v>1명</v>
+      </c>
+      <c r="D428">
+        <f>VLOOKUP(A428,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E428">
+        <f>VLOOKUP(A428,UnitChange!B:K,5,FALSE)</f>
+        <v>41600000</v>
+      </c>
+      <c r="F428">
+        <f>VLOOKUP(A428,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G428">
+        <f>VLOOKUP(A428,UnitChange!B:K,7,FALSE)</f>
+        <v>0.31920000000000187</v>
+      </c>
+      <c r="H428">
+        <f>VLOOKUP(A428,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I428">
+        <f>VLOOKUP(A428,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J428">
+        <f>VLOOKUP(A428,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K428" s="1">
+        <f>VLOOKUP(A428,UnitChange!B:L,11,FALSE)</f>
+        <v>1.3040000000000005</v>
+      </c>
+    </row>
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A429">
+        <v>427</v>
+      </c>
+      <c r="B429">
+        <f>VLOOKUP(A429,UnitChange!B:K,2,FALSE)</f>
+        <v>2.0000000000000001E+148</v>
+      </c>
+      <c r="C429" t="str">
+        <f>VLOOKUP(A429,UnitChange!B:K,3,FALSE)</f>
+        <v>2명</v>
+      </c>
+      <c r="D429">
+        <f>VLOOKUP(A429,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E429">
+        <f>VLOOKUP(A429,UnitChange!B:K,5,FALSE)</f>
+        <v>41700000</v>
+      </c>
+      <c r="F429">
+        <f>VLOOKUP(A429,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G429">
+        <f>VLOOKUP(A429,UnitChange!B:K,7,FALSE)</f>
+        <v>0.31960000000000188</v>
+      </c>
+      <c r="H429">
+        <f>VLOOKUP(A429,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I429">
+        <f>VLOOKUP(A429,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J429">
+        <f>VLOOKUP(A429,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K429" s="1">
+        <f>VLOOKUP(A429,UnitChange!B:L,11,FALSE)</f>
+        <v>1.3080000000000005</v>
+      </c>
+    </row>
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A430">
+        <v>428</v>
+      </c>
+      <c r="B430">
+        <f>VLOOKUP(A430,UnitChange!B:K,2,FALSE)</f>
+        <v>5.0000000000000002E+148</v>
+      </c>
+      <c r="C430" t="str">
+        <f>VLOOKUP(A430,UnitChange!B:K,3,FALSE)</f>
+        <v>5명</v>
+      </c>
+      <c r="D430">
+        <f>VLOOKUP(A430,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E430">
+        <f>VLOOKUP(A430,UnitChange!B:K,5,FALSE)</f>
+        <v>41800000</v>
+      </c>
+      <c r="F430">
+        <f>VLOOKUP(A430,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G430">
+        <f>VLOOKUP(A430,UnitChange!B:K,7,FALSE)</f>
+        <v>0.32000000000000189</v>
+      </c>
+      <c r="H430">
+        <f>VLOOKUP(A430,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I430">
+        <f>VLOOKUP(A430,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J430">
+        <f>VLOOKUP(A430,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K430" s="1">
+        <f>VLOOKUP(A430,UnitChange!B:L,11,FALSE)</f>
+        <v>1.3120000000000005</v>
+      </c>
+    </row>
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A431">
+        <v>429</v>
+      </c>
+      <c r="B431">
+        <f>VLOOKUP(A431,UnitChange!B:K,2,FALSE)</f>
+        <v>1E+149</v>
+      </c>
+      <c r="C431" t="str">
+        <f>VLOOKUP(A431,UnitChange!B:K,3,FALSE)</f>
+        <v>10명</v>
+      </c>
+      <c r="D431">
+        <f>VLOOKUP(A431,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E431">
+        <f>VLOOKUP(A431,UnitChange!B:K,5,FALSE)</f>
+        <v>41900000</v>
+      </c>
+      <c r="F431">
+        <f>VLOOKUP(A431,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G431">
+        <f>VLOOKUP(A431,UnitChange!B:K,7,FALSE)</f>
+        <v>0.32040000000000191</v>
+      </c>
+      <c r="H431">
+        <f>VLOOKUP(A431,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I431">
+        <f>VLOOKUP(A431,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J431">
+        <f>VLOOKUP(A431,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K431" s="1">
+        <f>VLOOKUP(A431,UnitChange!B:L,11,FALSE)</f>
+        <v>1.3160000000000005</v>
+      </c>
+    </row>
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A432">
+        <v>430</v>
+      </c>
+      <c r="B432">
+        <f>VLOOKUP(A432,UnitChange!B:K,2,FALSE)</f>
+        <v>2.0000000000000001E+149</v>
+      </c>
+      <c r="C432" t="str">
+        <f>VLOOKUP(A432,UnitChange!B:K,3,FALSE)</f>
+        <v>20명</v>
+      </c>
+      <c r="D432">
+        <f>VLOOKUP(A432,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E432">
+        <f>VLOOKUP(A432,UnitChange!B:K,5,FALSE)</f>
+        <v>42000000</v>
+      </c>
+      <c r="F432">
+        <f>VLOOKUP(A432,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G432">
+        <f>VLOOKUP(A432,UnitChange!B:K,7,FALSE)</f>
+        <v>0.32080000000000192</v>
+      </c>
+      <c r="H432">
+        <f>VLOOKUP(A432,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I432">
+        <f>VLOOKUP(A432,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J432">
+        <f>VLOOKUP(A432,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K432" s="1">
+        <f>VLOOKUP(A432,UnitChange!B:L,11,FALSE)</f>
+        <v>1.3200000000000005</v>
+      </c>
+    </row>
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A433">
+        <v>431</v>
+      </c>
+      <c r="B433">
+        <f>VLOOKUP(A433,UnitChange!B:K,2,FALSE)</f>
+        <v>4.9999999999999999E+149</v>
+      </c>
+      <c r="C433" t="str">
+        <f>VLOOKUP(A433,UnitChange!B:K,3,FALSE)</f>
+        <v>50명</v>
+      </c>
+      <c r="D433">
+        <f>VLOOKUP(A433,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E433">
+        <f>VLOOKUP(A433,UnitChange!B:K,5,FALSE)</f>
+        <v>42100000</v>
+      </c>
+      <c r="F433">
+        <f>VLOOKUP(A433,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G433">
+        <f>VLOOKUP(A433,UnitChange!B:K,7,FALSE)</f>
+        <v>0.32120000000000193</v>
+      </c>
+      <c r="H433">
+        <f>VLOOKUP(A433,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I433">
+        <f>VLOOKUP(A433,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J433">
+        <f>VLOOKUP(A433,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K433" s="1">
+        <f>VLOOKUP(A433,UnitChange!B:L,11,FALSE)</f>
+        <v>1.3240000000000005</v>
+      </c>
+    </row>
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A434">
+        <v>432</v>
+      </c>
+      <c r="B434">
+        <f>VLOOKUP(A434,UnitChange!B:K,2,FALSE)</f>
+        <v>9.9999999999999998E+149</v>
+      </c>
+      <c r="C434" t="str">
+        <f>VLOOKUP(A434,UnitChange!B:K,3,FALSE)</f>
+        <v>100명</v>
+      </c>
+      <c r="D434">
+        <f>VLOOKUP(A434,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E434">
+        <f>VLOOKUP(A434,UnitChange!B:K,5,FALSE)</f>
+        <v>42200000</v>
+      </c>
+      <c r="F434">
+        <f>VLOOKUP(A434,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G434">
+        <f>VLOOKUP(A434,UnitChange!B:K,7,FALSE)</f>
+        <v>0.32160000000000194</v>
+      </c>
+      <c r="H434">
+        <f>VLOOKUP(A434,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I434">
+        <f>VLOOKUP(A434,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J434">
+        <f>VLOOKUP(A434,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K434" s="1">
+        <f>VLOOKUP(A434,UnitChange!B:L,11,FALSE)</f>
+        <v>1.3280000000000005</v>
+      </c>
+    </row>
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A435">
+        <v>433</v>
+      </c>
+      <c r="B435">
+        <f>VLOOKUP(A435,UnitChange!B:K,2,FALSE)</f>
+        <v>1.5000000000000001E+150</v>
+      </c>
+      <c r="C435" t="str">
+        <f>VLOOKUP(A435,UnitChange!B:K,3,FALSE)</f>
+        <v>150명</v>
+      </c>
+      <c r="D435">
+        <f>VLOOKUP(A435,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E435">
+        <f>VLOOKUP(A435,UnitChange!B:K,5,FALSE)</f>
+        <v>42300000</v>
+      </c>
+      <c r="F435">
+        <f>VLOOKUP(A435,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G435">
+        <f>VLOOKUP(A435,UnitChange!B:K,7,FALSE)</f>
+        <v>0.32200000000000195</v>
+      </c>
+      <c r="H435">
+        <f>VLOOKUP(A435,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I435">
+        <f>VLOOKUP(A435,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J435">
+        <f>VLOOKUP(A435,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K435" s="1">
+        <f>VLOOKUP(A435,UnitChange!B:L,11,FALSE)</f>
+        <v>1.3320000000000005</v>
+      </c>
+    </row>
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A436">
+        <v>434</v>
+      </c>
+      <c r="B436">
+        <f>VLOOKUP(A436,UnitChange!B:K,2,FALSE)</f>
+        <v>2E+150</v>
+      </c>
+      <c r="C436" t="str">
+        <f>VLOOKUP(A436,UnitChange!B:K,3,FALSE)</f>
+        <v>200명</v>
+      </c>
+      <c r="D436">
+        <f>VLOOKUP(A436,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E436">
+        <f>VLOOKUP(A436,UnitChange!B:K,5,FALSE)</f>
+        <v>42400000</v>
+      </c>
+      <c r="F436">
+        <f>VLOOKUP(A436,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G436">
+        <f>VLOOKUP(A436,UnitChange!B:K,7,FALSE)</f>
+        <v>0.32240000000000196</v>
+      </c>
+      <c r="H436">
+        <f>VLOOKUP(A436,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I436">
+        <f>VLOOKUP(A436,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J436">
+        <f>VLOOKUP(A436,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K436" s="1">
+        <f>VLOOKUP(A436,UnitChange!B:L,11,FALSE)</f>
+        <v>1.3360000000000005</v>
+      </c>
+    </row>
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A437">
+        <v>435</v>
+      </c>
+      <c r="B437">
+        <f>VLOOKUP(A437,UnitChange!B:K,2,FALSE)</f>
+        <v>3.0000000000000001E+150</v>
+      </c>
+      <c r="C437" t="str">
+        <f>VLOOKUP(A437,UnitChange!B:K,3,FALSE)</f>
+        <v>300명</v>
+      </c>
+      <c r="D437">
+        <f>VLOOKUP(A437,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E437">
+        <f>VLOOKUP(A437,UnitChange!B:K,5,FALSE)</f>
+        <v>42500000</v>
+      </c>
+      <c r="F437">
+        <f>VLOOKUP(A437,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G437">
+        <f>VLOOKUP(A437,UnitChange!B:K,7,FALSE)</f>
+        <v>0.32280000000000197</v>
+      </c>
+      <c r="H437">
+        <f>VLOOKUP(A437,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I437">
+        <f>VLOOKUP(A437,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J437">
+        <f>VLOOKUP(A437,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K437" s="1">
+        <f>VLOOKUP(A437,UnitChange!B:L,11,FALSE)</f>
+        <v>1.3400000000000005</v>
+      </c>
+    </row>
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A438">
+        <v>436</v>
+      </c>
+      <c r="B438">
+        <f>VLOOKUP(A438,UnitChange!B:K,2,FALSE)</f>
+        <v>5.0000000000000001E+150</v>
+      </c>
+      <c r="C438" t="str">
+        <f>VLOOKUP(A438,UnitChange!B:K,3,FALSE)</f>
+        <v>500명</v>
+      </c>
+      <c r="D438">
+        <f>VLOOKUP(A438,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E438">
+        <f>VLOOKUP(A438,UnitChange!B:K,5,FALSE)</f>
+        <v>42600000</v>
+      </c>
+      <c r="F438">
+        <f>VLOOKUP(A438,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G438">
+        <f>VLOOKUP(A438,UnitChange!B:K,7,FALSE)</f>
+        <v>0.32320000000000199</v>
+      </c>
+      <c r="H438">
+        <f>VLOOKUP(A438,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I438">
+        <f>VLOOKUP(A438,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J438">
+        <f>VLOOKUP(A438,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K438" s="1">
+        <f>VLOOKUP(A438,UnitChange!B:L,11,FALSE)</f>
+        <v>1.3440000000000005</v>
+      </c>
+    </row>
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A439">
+        <v>437</v>
+      </c>
+      <c r="B439">
+        <f>VLOOKUP(A439,UnitChange!B:K,2,FALSE)</f>
+        <v>7.9999999999999998E+150</v>
+      </c>
+      <c r="C439" t="str">
+        <f>VLOOKUP(A439,UnitChange!B:K,3,FALSE)</f>
+        <v>800명</v>
+      </c>
+      <c r="D439">
+        <f>VLOOKUP(A439,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E439">
+        <f>VLOOKUP(A439,UnitChange!B:K,5,FALSE)</f>
+        <v>42700000</v>
+      </c>
+      <c r="F439">
+        <f>VLOOKUP(A439,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G439">
+        <f>VLOOKUP(A439,UnitChange!B:K,7,FALSE)</f>
+        <v>0.323600000000002</v>
+      </c>
+      <c r="H439">
+        <f>VLOOKUP(A439,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I439">
+        <f>VLOOKUP(A439,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J439">
+        <f>VLOOKUP(A439,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K439" s="1">
+        <f>VLOOKUP(A439,UnitChange!B:L,11,FALSE)</f>
+        <v>1.3480000000000005</v>
+      </c>
+    </row>
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A440">
+        <v>438</v>
+      </c>
+      <c r="B440">
+        <f>VLOOKUP(A440,UnitChange!B:K,2,FALSE)</f>
+        <v>1E+151</v>
+      </c>
+      <c r="C440" t="str">
+        <f>VLOOKUP(A440,UnitChange!B:K,3,FALSE)</f>
+        <v>1000명</v>
+      </c>
+      <c r="D440">
+        <f>VLOOKUP(A440,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E440">
+        <f>VLOOKUP(A440,UnitChange!B:K,5,FALSE)</f>
+        <v>42800000</v>
+      </c>
+      <c r="F440">
+        <f>VLOOKUP(A440,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G440">
+        <f>VLOOKUP(A440,UnitChange!B:K,7,FALSE)</f>
+        <v>0.32400000000000201</v>
+      </c>
+      <c r="H440">
+        <f>VLOOKUP(A440,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I440">
+        <f>VLOOKUP(A440,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J440">
+        <f>VLOOKUP(A440,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K440" s="1">
+        <f>VLOOKUP(A440,UnitChange!B:L,11,FALSE)</f>
+        <v>1.3520000000000005</v>
+      </c>
+    </row>
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A441">
+        <v>439</v>
+      </c>
+      <c r="B441">
+        <f>VLOOKUP(A441,UnitChange!B:K,2,FALSE)</f>
+        <v>2E+151</v>
+      </c>
+      <c r="C441" t="str">
+        <f>VLOOKUP(A441,UnitChange!B:K,3,FALSE)</f>
+        <v>2000명</v>
+      </c>
+      <c r="D441">
+        <f>VLOOKUP(A441,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E441">
+        <f>VLOOKUP(A441,UnitChange!B:K,5,FALSE)</f>
+        <v>42900000</v>
+      </c>
+      <c r="F441">
+        <f>VLOOKUP(A441,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G441">
+        <f>VLOOKUP(A441,UnitChange!B:K,7,FALSE)</f>
+        <v>0.32440000000000202</v>
+      </c>
+      <c r="H441">
+        <f>VLOOKUP(A441,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I441">
+        <f>VLOOKUP(A441,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J441">
+        <f>VLOOKUP(A441,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K441" s="1">
+        <f>VLOOKUP(A441,UnitChange!B:L,11,FALSE)</f>
+        <v>1.3560000000000005</v>
+      </c>
+    </row>
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A442">
+        <v>440</v>
+      </c>
+      <c r="B442">
+        <f>VLOOKUP(A442,UnitChange!B:K,2,FALSE)</f>
+        <v>5.0000000000000002E+151</v>
+      </c>
+      <c r="C442" t="str">
+        <f>VLOOKUP(A442,UnitChange!B:K,3,FALSE)</f>
+        <v>5000명</v>
+      </c>
+      <c r="D442">
+        <f>VLOOKUP(A442,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E442">
+        <f>VLOOKUP(A442,UnitChange!B:K,5,FALSE)</f>
+        <v>43000000</v>
+      </c>
+      <c r="F442">
+        <f>VLOOKUP(A442,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G442">
+        <f>VLOOKUP(A442,UnitChange!B:K,7,FALSE)</f>
+        <v>0.32480000000000203</v>
+      </c>
+      <c r="H442">
+        <f>VLOOKUP(A442,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I442">
+        <f>VLOOKUP(A442,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J442">
+        <f>VLOOKUP(A442,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K442" s="1">
+        <f>VLOOKUP(A442,UnitChange!B:L,11,FALSE)</f>
+        <v>1.3600000000000005</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18354,10 +19037,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626C1493-E0FD-4651-99C5-58D15BDAC6AC}">
-  <dimension ref="B1:AC179"/>
+  <dimension ref="B1:AC194"/>
   <sheetViews>
-    <sheetView topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="B173" sqref="B173"/>
+    <sheetView topLeftCell="A167" workbookViewId="0">
+      <selection activeCell="K182" sqref="K182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -20626,7 +21309,7 @@
         <v>1E+108</v>
       </c>
       <c r="Q38" s="12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="R38" s="12">
         <v>132</v>
@@ -20699,7 +21382,7 @@
         <v>1E+108</v>
       </c>
       <c r="Q39" s="12" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="R39" s="12">
         <v>136</v>
@@ -20772,7 +21455,7 @@
         <v>1E+108</v>
       </c>
       <c r="Q40" s="12" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="R40" s="12">
         <v>140</v>
@@ -20845,7 +21528,7 @@
         <v>1E+108</v>
       </c>
       <c r="Q41" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="R41" s="12">
         <v>144</v>
@@ -20918,7 +21601,7 @@
         <v>1E+108</v>
       </c>
       <c r="Q42" s="12" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="R42" s="12">
         <v>148</v>
@@ -20990,8 +21673,20 @@
         <f t="shared" si="20"/>
         <v>1E+108</v>
       </c>
-      <c r="S43" s="8"/>
-      <c r="T43" s="8"/>
+      <c r="Q43" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="R43" s="12">
+        <v>152</v>
+      </c>
+      <c r="S43" s="13">
+        <f t="shared" ref="S43:S44" si="25">POWER(10,R43)</f>
+        <v>1E+152</v>
+      </c>
+      <c r="T43" s="13" t="str">
+        <f t="shared" ref="T43:T44" si="26">RIGHT(S43,R43)</f>
+        <v>1E+152</v>
+      </c>
       <c r="U43" s="8"/>
       <c r="V43" s="8"/>
       <c r="W43" s="8"/>
@@ -21051,8 +21746,20 @@
         <f t="shared" si="20"/>
         <v>1E+108</v>
       </c>
-      <c r="S44" s="8"/>
-      <c r="T44" s="8"/>
+      <c r="Q44" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="R44" s="12">
+        <v>156</v>
+      </c>
+      <c r="S44" s="13">
+        <f t="shared" si="25"/>
+        <v>9.9999999999999998E+155</v>
+      </c>
+      <c r="T44" s="13" t="str">
+        <f t="shared" si="26"/>
+        <v>1E+156</v>
+      </c>
       <c r="U44" s="8"/>
       <c r="V44" s="8"/>
       <c r="W44" s="8"/>
@@ -21068,11 +21775,11 @@
         <v>291</v>
       </c>
       <c r="C45" s="16">
-        <f t="shared" ref="C45:C59" si="25">M45*O45</f>
+        <f t="shared" ref="C45:C59" si="27">M45*O45</f>
         <v>9.9999999999999993E+111</v>
       </c>
       <c r="D45" s="16" t="str">
-        <f t="shared" ref="D45:D59" si="26">M45&amp;N45</f>
+        <f t="shared" ref="D45:D59" si="28">M45&amp;N45</f>
         <v>1살</v>
       </c>
       <c r="E45" s="16">
@@ -21129,11 +21836,11 @@
         <v>292</v>
       </c>
       <c r="C46" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.9999999999999999E+112</v>
       </c>
       <c r="D46" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>2살</v>
       </c>
       <c r="E46" s="16">
@@ -21190,11 +21897,11 @@
         <v>293</v>
       </c>
       <c r="C47" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>5.0000000000000001E+112</v>
       </c>
       <c r="D47" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>5살</v>
       </c>
       <c r="E47" s="16">
@@ -21251,11 +21958,11 @@
         <v>294</v>
       </c>
       <c r="C48" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1E+113</v>
       </c>
       <c r="D48" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>10살</v>
       </c>
       <c r="E48" s="16">
@@ -21312,11 +22019,11 @@
         <v>295</v>
       </c>
       <c r="C49" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>2E+113</v>
       </c>
       <c r="D49" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>20살</v>
       </c>
       <c r="E49" s="16">
@@ -21373,11 +22080,11 @@
         <v>296</v>
       </c>
       <c r="C50" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>4.9999999999999994E+113</v>
       </c>
       <c r="D50" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>50살</v>
       </c>
       <c r="E50" s="16">
@@ -21434,11 +22141,11 @@
         <v>297</v>
       </c>
       <c r="C51" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>9.9999999999999988E+113</v>
       </c>
       <c r="D51" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>100살</v>
       </c>
       <c r="E51" s="16">
@@ -21495,11 +22202,11 @@
         <v>298</v>
       </c>
       <c r="C52" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.5E+114</v>
       </c>
       <c r="D52" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>150살</v>
       </c>
       <c r="E52" s="16">
@@ -21556,11 +22263,11 @@
         <v>299</v>
       </c>
       <c r="C53" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1.9999999999999998E+114</v>
       </c>
       <c r="D53" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>200살</v>
       </c>
       <c r="E53" s="16">
@@ -21617,11 +22324,11 @@
         <v>300</v>
       </c>
       <c r="C54" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>3E+114</v>
       </c>
       <c r="D54" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>300살</v>
       </c>
       <c r="E54" s="16">
@@ -21678,11 +22385,11 @@
         <v>301</v>
       </c>
       <c r="C55" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>5.0000000000000001E+114</v>
       </c>
       <c r="D55" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>500살</v>
       </c>
       <c r="E55" s="16">
@@ -21739,11 +22446,11 @@
         <v>302</v>
       </c>
       <c r="C56" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>7.999999999999999E+114</v>
       </c>
       <c r="D56" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>800살</v>
       </c>
       <c r="E56" s="16">
@@ -21800,11 +22507,11 @@
         <v>303</v>
       </c>
       <c r="C57" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1E+115</v>
       </c>
       <c r="D57" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1000살</v>
       </c>
       <c r="E57" s="16">
@@ -21861,11 +22568,11 @@
         <v>304</v>
       </c>
       <c r="C58" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>2E+115</v>
       </c>
       <c r="D58" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>2000살</v>
       </c>
       <c r="E58" s="16">
@@ -21922,11 +22629,11 @@
         <v>305</v>
       </c>
       <c r="C59" s="16">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>5.0000000000000001E+115</v>
       </c>
       <c r="D59" s="16" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>5000살</v>
       </c>
       <c r="E59" s="16">
@@ -21983,18 +22690,18 @@
         <v>306</v>
       </c>
       <c r="C60" s="16">
-        <f t="shared" ref="C60:C74" si="27">M60*O60</f>
+        <f t="shared" ref="C60:C74" si="29">M60*O60</f>
         <v>1E+116</v>
       </c>
       <c r="D60" s="16" t="str">
-        <f t="shared" ref="D60:D74" si="28">M60&amp;N60</f>
+        <f t="shared" ref="D60:D74" si="30">M60&amp;N60</f>
         <v>1섬</v>
       </c>
       <c r="E60" s="16">
         <v>20</v>
       </c>
       <c r="F60" s="16">
-        <f t="shared" ref="F60:F123" si="29">F59+100000</f>
+        <f t="shared" ref="F60:F123" si="31">F59+100000</f>
         <v>29600000</v>
       </c>
       <c r="G60" s="16">
@@ -22014,7 +22721,7 @@
         <v>60</v>
       </c>
       <c r="L60" s="16">
-        <f t="shared" ref="L60:L123" si="30">L59+0.004</f>
+        <f t="shared" ref="L60:L123" si="32">L59+0.004</f>
         <v>0.82400000000000018</v>
       </c>
       <c r="M60" s="20">
@@ -22044,18 +22751,18 @@
         <v>307</v>
       </c>
       <c r="C61" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2E+116</v>
       </c>
       <c r="D61" s="16" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>2섬</v>
       </c>
       <c r="E61" s="16">
         <v>20</v>
       </c>
       <c r="F61" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>29700000</v>
       </c>
       <c r="G61" s="16">
@@ -22075,7 +22782,7 @@
         <v>60</v>
       </c>
       <c r="L61" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.82800000000000018</v>
       </c>
       <c r="M61" s="20">
@@ -22105,18 +22812,18 @@
         <v>308</v>
       </c>
       <c r="C62" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5.0000000000000003E+116</v>
       </c>
       <c r="D62" s="16" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>5섬</v>
       </c>
       <c r="E62" s="16">
         <v>20</v>
       </c>
       <c r="F62" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>29800000</v>
       </c>
       <c r="G62" s="16">
@@ -22136,7 +22843,7 @@
         <v>60</v>
       </c>
       <c r="L62" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.83200000000000018</v>
       </c>
       <c r="M62" s="20">
@@ -22166,18 +22873,18 @@
         <v>309</v>
       </c>
       <c r="C63" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1.0000000000000001E+117</v>
       </c>
       <c r="D63" s="16" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>10섬</v>
       </c>
       <c r="E63" s="16">
         <v>20</v>
       </c>
       <c r="F63" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>29900000</v>
       </c>
       <c r="G63" s="16">
@@ -22197,7 +22904,7 @@
         <v>60</v>
       </c>
       <c r="L63" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.83600000000000019</v>
       </c>
       <c r="M63" s="20">
@@ -22216,18 +22923,18 @@
         <v>310</v>
       </c>
       <c r="C64" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2.0000000000000001E+117</v>
       </c>
       <c r="D64" s="16" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>20섬</v>
       </c>
       <c r="E64" s="16">
         <v>20</v>
       </c>
       <c r="F64" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>30000000</v>
       </c>
       <c r="G64" s="16">
@@ -22247,7 +22954,7 @@
         <v>60</v>
       </c>
       <c r="L64" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.84000000000000019</v>
       </c>
       <c r="M64" s="20">
@@ -22266,18 +22973,18 @@
         <v>311</v>
       </c>
       <c r="C65" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>4.9999999999999998E+117</v>
       </c>
       <c r="D65" s="16" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>50섬</v>
       </c>
       <c r="E65" s="16">
         <v>20</v>
       </c>
       <c r="F65" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>30100000</v>
       </c>
       <c r="G65" s="16">
@@ -22297,7 +23004,7 @@
         <v>60</v>
       </c>
       <c r="L65" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.84400000000000019</v>
       </c>
       <c r="M65" s="20">
@@ -22316,18 +23023,18 @@
         <v>312</v>
       </c>
       <c r="C66" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>9.9999999999999997E+117</v>
       </c>
       <c r="D66" s="16" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>100섬</v>
       </c>
       <c r="E66" s="16">
         <v>20</v>
       </c>
       <c r="F66" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>30200000</v>
       </c>
       <c r="G66" s="16">
@@ -22347,7 +23054,7 @@
         <v>60</v>
       </c>
       <c r="L66" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.8480000000000002</v>
       </c>
       <c r="M66" s="20">
@@ -22366,18 +23073,18 @@
         <v>313</v>
       </c>
       <c r="C67" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1.5E+118</v>
       </c>
       <c r="D67" s="16" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>150섬</v>
       </c>
       <c r="E67" s="16">
         <v>20</v>
       </c>
       <c r="F67" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>30300000</v>
       </c>
       <c r="G67" s="16">
@@ -22397,7 +23104,7 @@
         <v>60</v>
       </c>
       <c r="L67" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.8520000000000002</v>
       </c>
       <c r="M67" s="20">
@@ -22416,18 +23123,18 @@
         <v>314</v>
       </c>
       <c r="C68" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1.9999999999999999E+118</v>
       </c>
       <c r="D68" s="16" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>200섬</v>
       </c>
       <c r="E68" s="16">
         <v>20</v>
       </c>
       <c r="F68" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>30400000</v>
       </c>
       <c r="G68" s="16">
@@ -22447,7 +23154,7 @@
         <v>60</v>
       </c>
       <c r="L68" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.85600000000000021</v>
       </c>
       <c r="M68" s="20">
@@ -22466,18 +23173,18 @@
         <v>315</v>
       </c>
       <c r="C69" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>3E+118</v>
       </c>
       <c r="D69" s="16" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>300섬</v>
       </c>
       <c r="E69" s="16">
         <v>20</v>
       </c>
       <c r="F69" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>30500000</v>
       </c>
       <c r="G69" s="16">
@@ -22497,7 +23204,7 @@
         <v>60</v>
       </c>
       <c r="L69" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.86000000000000021</v>
       </c>
       <c r="M69" s="20">
@@ -22516,18 +23223,18 @@
         <v>316</v>
       </c>
       <c r="C70" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>4.9999999999999997E+118</v>
       </c>
       <c r="D70" s="16" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>500섬</v>
       </c>
       <c r="E70" s="16">
         <v>20</v>
       </c>
       <c r="F70" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>30600000</v>
       </c>
       <c r="G70" s="16">
@@ -22547,7 +23254,7 @@
         <v>60</v>
       </c>
       <c r="L70" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.86400000000000021</v>
       </c>
       <c r="M70" s="20">
@@ -22566,18 +23273,18 @@
         <v>317</v>
       </c>
       <c r="C71" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>7.9999999999999997E+118</v>
       </c>
       <c r="D71" s="16" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>800섬</v>
       </c>
       <c r="E71" s="16">
         <v>20</v>
       </c>
       <c r="F71" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>30700000</v>
       </c>
       <c r="G71" s="16">
@@ -22597,7 +23304,7 @@
         <v>60</v>
       </c>
       <c r="L71" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.86800000000000022</v>
       </c>
       <c r="M71" s="20">
@@ -22607,7 +23314,7 @@
         <v>332</v>
       </c>
       <c r="O71" s="12" t="str">
-        <f t="shared" ref="O71:O102" si="31">VLOOKUP(N71,Q:T,4,FALSE)</f>
+        <f t="shared" ref="O71:O102" si="33">VLOOKUP(N71,Q:T,4,FALSE)</f>
         <v>1E+116</v>
       </c>
     </row>
@@ -22616,18 +23323,18 @@
         <v>318</v>
       </c>
       <c r="C72" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>9.9999999999999994E+118</v>
       </c>
       <c r="D72" s="16" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1000섬</v>
       </c>
       <c r="E72" s="16">
         <v>20</v>
       </c>
       <c r="F72" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>30800000</v>
       </c>
       <c r="G72" s="16">
@@ -22647,7 +23354,7 @@
         <v>60</v>
       </c>
       <c r="L72" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.87200000000000022</v>
       </c>
       <c r="M72" s="20">
@@ -22657,7 +23364,7 @@
         <v>332</v>
       </c>
       <c r="O72" s="12" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+116</v>
       </c>
     </row>
@@ -22666,18 +23373,18 @@
         <v>319</v>
       </c>
       <c r="C73" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1.9999999999999999E+119</v>
       </c>
       <c r="D73" s="16" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>2000섬</v>
       </c>
       <c r="E73" s="16">
         <v>20</v>
       </c>
       <c r="F73" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>30900000</v>
       </c>
       <c r="G73" s="16">
@@ -22697,7 +23404,7 @@
         <v>60</v>
       </c>
       <c r="L73" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.87600000000000022</v>
       </c>
       <c r="M73" s="20">
@@ -22707,7 +23414,7 @@
         <v>332</v>
       </c>
       <c r="O73" s="12" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+116</v>
       </c>
     </row>
@@ -22716,25 +23423,25 @@
         <v>320</v>
       </c>
       <c r="C74" s="16">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>4.9999999999999999E+119</v>
       </c>
       <c r="D74" s="16" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>5000섬</v>
       </c>
       <c r="E74" s="16">
         <v>20</v>
       </c>
       <c r="F74" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>31000000</v>
       </c>
       <c r="G74" s="16">
         <v>2</v>
       </c>
       <c r="H74" s="16">
-        <f t="shared" ref="H74:H137" si="32">IF(RIGHT(H73,2)="24",H73+0.0076,H73+0.0004)</f>
+        <f t="shared" ref="H74:H137" si="34">IF(RIGHT(H73,2)="24",H73+0.0076,H73+0.0004)</f>
         <v>0.27680000000000066</v>
       </c>
       <c r="I74" s="16">
@@ -22747,7 +23454,7 @@
         <v>60</v>
       </c>
       <c r="L74" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.88000000000000023</v>
       </c>
       <c r="M74" s="20">
@@ -22757,7 +23464,7 @@
         <v>332</v>
       </c>
       <c r="O74" s="12" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+116</v>
       </c>
     </row>
@@ -22766,18 +23473,18 @@
         <v>321</v>
       </c>
       <c r="C75" s="16">
-        <f t="shared" ref="C75:C79" si="33">M75*O75</f>
+        <f t="shared" ref="C75:C79" si="35">M75*O75</f>
         <v>9.9999999999999998E+119</v>
       </c>
       <c r="D75" s="16" t="str">
-        <f t="shared" ref="D75:D79" si="34">M75&amp;N75</f>
+        <f t="shared" ref="D75:D79" si="36">M75&amp;N75</f>
         <v>1찰</v>
       </c>
       <c r="E75" s="16">
         <v>20</v>
       </c>
       <c r="F75" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>31100000</v>
       </c>
       <c r="G75" s="16">
@@ -22797,7 +23504,7 @@
         <v>60</v>
       </c>
       <c r="L75" s="16">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.88400000000000023</v>
       </c>
       <c r="M75" s="20">
@@ -22807,7 +23514,7 @@
         <v>333</v>
       </c>
       <c r="O75" s="12" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+120</v>
       </c>
     </row>
@@ -22816,38 +23523,38 @@
         <v>322</v>
       </c>
       <c r="C76" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>2E+120</v>
       </c>
       <c r="D76" s="16" t="str">
+        <f t="shared" si="36"/>
+        <v>2찰</v>
+      </c>
+      <c r="E76" s="16">
+        <v>20</v>
+      </c>
+      <c r="F76" s="16">
+        <f t="shared" si="31"/>
+        <v>31200000</v>
+      </c>
+      <c r="G76" s="16">
+        <v>2</v>
+      </c>
+      <c r="H76" s="16">
         <f t="shared" si="34"/>
-        <v>2찰</v>
-      </c>
-      <c r="E76" s="16">
-        <v>20</v>
-      </c>
-      <c r="F76" s="16">
-        <f t="shared" si="29"/>
-        <v>31200000</v>
-      </c>
-      <c r="G76" s="16">
-        <v>2</v>
-      </c>
-      <c r="H76" s="16">
+        <v>0.27760000000000068</v>
+      </c>
+      <c r="I76" s="16">
+        <v>23</v>
+      </c>
+      <c r="J76" s="16">
+        <v>0</v>
+      </c>
+      <c r="K76" s="16">
+        <v>60</v>
+      </c>
+      <c r="L76" s="16">
         <f t="shared" si="32"/>
-        <v>0.27760000000000068</v>
-      </c>
-      <c r="I76" s="16">
-        <v>23</v>
-      </c>
-      <c r="J76" s="16">
-        <v>0</v>
-      </c>
-      <c r="K76" s="16">
-        <v>60</v>
-      </c>
-      <c r="L76" s="16">
-        <f t="shared" si="30"/>
         <v>0.88800000000000023</v>
       </c>
       <c r="M76" s="20">
@@ -22857,7 +23564,7 @@
         <v>333</v>
       </c>
       <c r="O76" s="12" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+120</v>
       </c>
     </row>
@@ -22866,38 +23573,38 @@
         <v>323</v>
       </c>
       <c r="C77" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>4.9999999999999996E+120</v>
       </c>
       <c r="D77" s="16" t="str">
+        <f t="shared" si="36"/>
+        <v>5찰</v>
+      </c>
+      <c r="E77" s="16">
+        <v>20</v>
+      </c>
+      <c r="F77" s="16">
+        <f t="shared" si="31"/>
+        <v>31300000</v>
+      </c>
+      <c r="G77" s="16">
+        <v>2</v>
+      </c>
+      <c r="H77" s="16">
         <f t="shared" si="34"/>
-        <v>5찰</v>
-      </c>
-      <c r="E77" s="16">
-        <v>20</v>
-      </c>
-      <c r="F77" s="16">
-        <f t="shared" si="29"/>
-        <v>31300000</v>
-      </c>
-      <c r="G77" s="16">
-        <v>2</v>
-      </c>
-      <c r="H77" s="16">
+        <v>0.27800000000000069</v>
+      </c>
+      <c r="I77" s="16">
+        <v>23</v>
+      </c>
+      <c r="J77" s="16">
+        <v>0</v>
+      </c>
+      <c r="K77" s="16">
+        <v>60</v>
+      </c>
+      <c r="L77" s="16">
         <f t="shared" si="32"/>
-        <v>0.27800000000000069</v>
-      </c>
-      <c r="I77" s="16">
-        <v>23</v>
-      </c>
-      <c r="J77" s="16">
-        <v>0</v>
-      </c>
-      <c r="K77" s="16">
-        <v>60</v>
-      </c>
-      <c r="L77" s="16">
-        <f t="shared" si="30"/>
         <v>0.89200000000000024</v>
       </c>
       <c r="M77" s="20">
@@ -22907,7 +23614,7 @@
         <v>333</v>
       </c>
       <c r="O77" s="12" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+120</v>
       </c>
     </row>
@@ -22916,38 +23623,38 @@
         <v>324</v>
       </c>
       <c r="C78" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>9.9999999999999992E+120</v>
       </c>
       <c r="D78" s="16" t="str">
+        <f t="shared" si="36"/>
+        <v>10찰</v>
+      </c>
+      <c r="E78" s="16">
+        <v>20</v>
+      </c>
+      <c r="F78" s="16">
+        <f t="shared" si="31"/>
+        <v>31400000</v>
+      </c>
+      <c r="G78" s="16">
+        <v>2</v>
+      </c>
+      <c r="H78" s="16">
         <f t="shared" si="34"/>
-        <v>10찰</v>
-      </c>
-      <c r="E78" s="16">
-        <v>20</v>
-      </c>
-      <c r="F78" s="16">
-        <f t="shared" si="29"/>
-        <v>31400000</v>
-      </c>
-      <c r="G78" s="16">
-        <v>2</v>
-      </c>
-      <c r="H78" s="16">
+        <v>0.2784000000000007</v>
+      </c>
+      <c r="I78" s="16">
+        <v>23</v>
+      </c>
+      <c r="J78" s="16">
+        <v>0</v>
+      </c>
+      <c r="K78" s="16">
+        <v>60</v>
+      </c>
+      <c r="L78" s="16">
         <f t="shared" si="32"/>
-        <v>0.2784000000000007</v>
-      </c>
-      <c r="I78" s="16">
-        <v>23</v>
-      </c>
-      <c r="J78" s="16">
-        <v>0</v>
-      </c>
-      <c r="K78" s="16">
-        <v>60</v>
-      </c>
-      <c r="L78" s="16">
-        <f t="shared" si="30"/>
         <v>0.89600000000000024</v>
       </c>
       <c r="M78" s="20">
@@ -22957,7 +23664,7 @@
         <v>333</v>
       </c>
       <c r="O78" s="12" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+120</v>
       </c>
     </row>
@@ -22966,38 +23673,38 @@
         <v>325</v>
       </c>
       <c r="C79" s="16">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>1.9999999999999998E+121</v>
       </c>
       <c r="D79" s="16" t="str">
+        <f t="shared" si="36"/>
+        <v>20찰</v>
+      </c>
+      <c r="E79" s="16">
+        <v>20</v>
+      </c>
+      <c r="F79" s="16">
+        <f t="shared" si="31"/>
+        <v>31500000</v>
+      </c>
+      <c r="G79" s="16">
+        <v>2</v>
+      </c>
+      <c r="H79" s="16">
         <f t="shared" si="34"/>
-        <v>20찰</v>
-      </c>
-      <c r="E79" s="16">
-        <v>20</v>
-      </c>
-      <c r="F79" s="16">
-        <f t="shared" si="29"/>
-        <v>31500000</v>
-      </c>
-      <c r="G79" s="16">
-        <v>2</v>
-      </c>
-      <c r="H79" s="16">
+        <v>0.27880000000000071</v>
+      </c>
+      <c r="I79" s="16">
+        <v>23</v>
+      </c>
+      <c r="J79" s="16">
+        <v>0</v>
+      </c>
+      <c r="K79" s="16">
+        <v>60</v>
+      </c>
+      <c r="L79" s="16">
         <f t="shared" si="32"/>
-        <v>0.27880000000000071</v>
-      </c>
-      <c r="I79" s="16">
-        <v>23</v>
-      </c>
-      <c r="J79" s="16">
-        <v>0</v>
-      </c>
-      <c r="K79" s="16">
-        <v>60</v>
-      </c>
-      <c r="L79" s="16">
-        <f t="shared" si="30"/>
         <v>0.90000000000000024</v>
       </c>
       <c r="M79" s="20">
@@ -23007,7 +23714,7 @@
         <v>333</v>
       </c>
       <c r="O79" s="12" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+120</v>
       </c>
     </row>
@@ -23016,38 +23723,38 @@
         <v>326</v>
       </c>
       <c r="C80" s="16">
-        <f t="shared" ref="C80:C104" si="35">M80*O80</f>
+        <f t="shared" ref="C80:C104" si="37">M80*O80</f>
         <v>5.0000000000000001E+121</v>
       </c>
       <c r="D80" s="16" t="str">
-        <f t="shared" ref="D80:D104" si="36">M80&amp;N80</f>
+        <f t="shared" ref="D80:D104" si="38">M80&amp;N80</f>
         <v>50찰</v>
       </c>
       <c r="E80" s="16">
         <v>20</v>
       </c>
       <c r="F80" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>31600000</v>
       </c>
       <c r="G80" s="16">
         <v>2</v>
       </c>
       <c r="H80" s="16">
+        <f t="shared" si="34"/>
+        <v>0.27920000000000073</v>
+      </c>
+      <c r="I80" s="16">
+        <v>23</v>
+      </c>
+      <c r="J80" s="16">
+        <v>0</v>
+      </c>
+      <c r="K80" s="16">
+        <v>60</v>
+      </c>
+      <c r="L80" s="16">
         <f t="shared" si="32"/>
-        <v>0.27920000000000073</v>
-      </c>
-      <c r="I80" s="16">
-        <v>23</v>
-      </c>
-      <c r="J80" s="16">
-        <v>0</v>
-      </c>
-      <c r="K80" s="16">
-        <v>60</v>
-      </c>
-      <c r="L80" s="16">
-        <f t="shared" si="30"/>
         <v>0.90400000000000025</v>
       </c>
       <c r="M80" s="20">
@@ -23057,7 +23764,7 @@
         <v>333</v>
       </c>
       <c r="O80" s="12" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+120</v>
       </c>
     </row>
@@ -23066,38 +23773,38 @@
         <v>327</v>
       </c>
       <c r="C81" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1E+122</v>
       </c>
       <c r="D81" s="16" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>100찰</v>
       </c>
       <c r="E81" s="16">
         <v>20</v>
       </c>
       <c r="F81" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>31700000</v>
       </c>
       <c r="G81" s="16">
         <v>2</v>
       </c>
       <c r="H81" s="16">
+        <f t="shared" si="34"/>
+        <v>0.27960000000000074</v>
+      </c>
+      <c r="I81" s="16">
+        <v>23</v>
+      </c>
+      <c r="J81" s="16">
+        <v>0</v>
+      </c>
+      <c r="K81" s="16">
+        <v>60</v>
+      </c>
+      <c r="L81" s="16">
         <f t="shared" si="32"/>
-        <v>0.27960000000000074</v>
-      </c>
-      <c r="I81" s="16">
-        <v>23</v>
-      </c>
-      <c r="J81" s="16">
-        <v>0</v>
-      </c>
-      <c r="K81" s="16">
-        <v>60</v>
-      </c>
-      <c r="L81" s="16">
-        <f t="shared" si="30"/>
         <v>0.90800000000000025</v>
       </c>
       <c r="M81" s="20">
@@ -23107,7 +23814,7 @@
         <v>333</v>
       </c>
       <c r="O81" s="12" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+120</v>
       </c>
     </row>
@@ -23116,38 +23823,38 @@
         <v>328</v>
       </c>
       <c r="C82" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1.4999999999999999E+122</v>
       </c>
       <c r="D82" s="16" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>150찰</v>
       </c>
       <c r="E82" s="16">
         <v>20</v>
       </c>
       <c r="F82" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>31800000</v>
       </c>
       <c r="G82" s="16">
         <v>2</v>
       </c>
       <c r="H82" s="16">
+        <f t="shared" si="34"/>
+        <v>0.28000000000000075</v>
+      </c>
+      <c r="I82" s="16">
+        <v>23</v>
+      </c>
+      <c r="J82" s="16">
+        <v>0</v>
+      </c>
+      <c r="K82" s="16">
+        <v>60</v>
+      </c>
+      <c r="L82" s="16">
         <f t="shared" si="32"/>
-        <v>0.28000000000000075</v>
-      </c>
-      <c r="I82" s="16">
-        <v>23</v>
-      </c>
-      <c r="J82" s="16">
-        <v>0</v>
-      </c>
-      <c r="K82" s="16">
-        <v>60</v>
-      </c>
-      <c r="L82" s="16">
-        <f t="shared" si="30"/>
         <v>0.91200000000000025</v>
       </c>
       <c r="M82" s="20">
@@ -23157,7 +23864,7 @@
         <v>333</v>
       </c>
       <c r="O82" s="12" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+120</v>
       </c>
     </row>
@@ -23166,38 +23873,38 @@
         <v>329</v>
       </c>
       <c r="C83" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>2E+122</v>
       </c>
       <c r="D83" s="16" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>200찰</v>
       </c>
       <c r="E83" s="16">
         <v>20</v>
       </c>
       <c r="F83" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>31900000</v>
       </c>
       <c r="G83" s="16">
         <v>2</v>
       </c>
       <c r="H83" s="16">
+        <f t="shared" si="34"/>
+        <v>0.28040000000000076</v>
+      </c>
+      <c r="I83" s="16">
+        <v>23</v>
+      </c>
+      <c r="J83" s="16">
+        <v>0</v>
+      </c>
+      <c r="K83" s="16">
+        <v>60</v>
+      </c>
+      <c r="L83" s="16">
         <f t="shared" si="32"/>
-        <v>0.28040000000000076</v>
-      </c>
-      <c r="I83" s="16">
-        <v>23</v>
-      </c>
-      <c r="J83" s="16">
-        <v>0</v>
-      </c>
-      <c r="K83" s="16">
-        <v>60</v>
-      </c>
-      <c r="L83" s="16">
-        <f t="shared" si="30"/>
         <v>0.91600000000000026</v>
       </c>
       <c r="M83" s="20">
@@ -23207,7 +23914,7 @@
         <v>333</v>
       </c>
       <c r="O83" s="12" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+120</v>
       </c>
     </row>
@@ -23216,38 +23923,38 @@
         <v>330</v>
       </c>
       <c r="C84" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>2.9999999999999999E+122</v>
       </c>
       <c r="D84" s="16" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>300찰</v>
       </c>
       <c r="E84" s="16">
         <v>20</v>
       </c>
       <c r="F84" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>32000000</v>
       </c>
       <c r="G84" s="16">
         <v>2</v>
       </c>
       <c r="H84" s="16">
+        <f t="shared" si="34"/>
+        <v>0.28080000000000077</v>
+      </c>
+      <c r="I84" s="16">
+        <v>23</v>
+      </c>
+      <c r="J84" s="16">
+        <v>0</v>
+      </c>
+      <c r="K84" s="16">
+        <v>60</v>
+      </c>
+      <c r="L84" s="16">
         <f t="shared" si="32"/>
-        <v>0.28080000000000077</v>
-      </c>
-      <c r="I84" s="16">
-        <v>23</v>
-      </c>
-      <c r="J84" s="16">
-        <v>0</v>
-      </c>
-      <c r="K84" s="16">
-        <v>60</v>
-      </c>
-      <c r="L84" s="16">
-        <f t="shared" si="30"/>
         <v>0.92000000000000026</v>
       </c>
       <c r="M84" s="20">
@@ -23257,7 +23964,7 @@
         <v>333</v>
       </c>
       <c r="O84" s="12" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+120</v>
       </c>
     </row>
@@ -23266,38 +23973,38 @@
         <v>331</v>
       </c>
       <c r="C85" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>4.9999999999999999E+122</v>
       </c>
       <c r="D85" s="16" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>500찰</v>
       </c>
       <c r="E85" s="16">
         <v>20</v>
       </c>
       <c r="F85" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>32100000</v>
       </c>
       <c r="G85" s="16">
         <v>2</v>
       </c>
       <c r="H85" s="16">
+        <f t="shared" si="34"/>
+        <v>0.28120000000000078</v>
+      </c>
+      <c r="I85" s="16">
+        <v>23</v>
+      </c>
+      <c r="J85" s="16">
+        <v>0</v>
+      </c>
+      <c r="K85" s="16">
+        <v>60</v>
+      </c>
+      <c r="L85" s="16">
         <f t="shared" si="32"/>
-        <v>0.28120000000000078</v>
-      </c>
-      <c r="I85" s="16">
-        <v>23</v>
-      </c>
-      <c r="J85" s="16">
-        <v>0</v>
-      </c>
-      <c r="K85" s="16">
-        <v>60</v>
-      </c>
-      <c r="L85" s="16">
-        <f t="shared" si="30"/>
         <v>0.92400000000000027</v>
       </c>
       <c r="M85" s="20">
@@ -23307,7 +24014,7 @@
         <v>333</v>
       </c>
       <c r="O85" s="12" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+120</v>
       </c>
     </row>
@@ -23316,38 +24023,38 @@
         <v>332</v>
       </c>
       <c r="C86" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>8.0000000000000001E+122</v>
       </c>
       <c r="D86" s="16" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>800찰</v>
       </c>
       <c r="E86" s="16">
         <v>20</v>
       </c>
       <c r="F86" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>32200000</v>
       </c>
       <c r="G86" s="16">
         <v>2</v>
       </c>
       <c r="H86" s="16">
+        <f t="shared" si="34"/>
+        <v>0.28160000000000079</v>
+      </c>
+      <c r="I86" s="16">
+        <v>23</v>
+      </c>
+      <c r="J86" s="16">
+        <v>0</v>
+      </c>
+      <c r="K86" s="16">
+        <v>60</v>
+      </c>
+      <c r="L86" s="16">
         <f t="shared" si="32"/>
-        <v>0.28160000000000079</v>
-      </c>
-      <c r="I86" s="16">
-        <v>23</v>
-      </c>
-      <c r="J86" s="16">
-        <v>0</v>
-      </c>
-      <c r="K86" s="16">
-        <v>60</v>
-      </c>
-      <c r="L86" s="16">
-        <f t="shared" si="30"/>
         <v>0.92800000000000027</v>
       </c>
       <c r="M86" s="20">
@@ -23357,7 +24064,7 @@
         <v>333</v>
       </c>
       <c r="O86" s="12" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+120</v>
       </c>
     </row>
@@ -23366,38 +24073,38 @@
         <v>333</v>
       </c>
       <c r="C87" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>9.9999999999999998E+122</v>
       </c>
       <c r="D87" s="16" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1000찰</v>
       </c>
       <c r="E87" s="16">
         <v>20</v>
       </c>
       <c r="F87" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>32300000</v>
       </c>
       <c r="G87" s="16">
         <v>2</v>
       </c>
       <c r="H87" s="16">
+        <f t="shared" si="34"/>
+        <v>0.28200000000000081</v>
+      </c>
+      <c r="I87" s="16">
+        <v>23</v>
+      </c>
+      <c r="J87" s="16">
+        <v>0</v>
+      </c>
+      <c r="K87" s="16">
+        <v>60</v>
+      </c>
+      <c r="L87" s="16">
         <f t="shared" si="32"/>
-        <v>0.28200000000000081</v>
-      </c>
-      <c r="I87" s="16">
-        <v>23</v>
-      </c>
-      <c r="J87" s="16">
-        <v>0</v>
-      </c>
-      <c r="K87" s="16">
-        <v>60</v>
-      </c>
-      <c r="L87" s="16">
-        <f t="shared" si="30"/>
         <v>0.93200000000000027</v>
       </c>
       <c r="M87" s="20">
@@ -23407,7 +24114,7 @@
         <v>333</v>
       </c>
       <c r="O87" s="12" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+120</v>
       </c>
     </row>
@@ -23416,38 +24123,38 @@
         <v>334</v>
       </c>
       <c r="C88" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>2E+123</v>
       </c>
       <c r="D88" s="16" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>2000찰</v>
       </c>
       <c r="E88" s="16">
         <v>20</v>
       </c>
       <c r="F88" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>32400000</v>
       </c>
       <c r="G88" s="16">
         <v>2</v>
       </c>
       <c r="H88" s="16">
+        <f t="shared" si="34"/>
+        <v>0.28240000000000082</v>
+      </c>
+      <c r="I88" s="16">
+        <v>23</v>
+      </c>
+      <c r="J88" s="16">
+        <v>0</v>
+      </c>
+      <c r="K88" s="16">
+        <v>60</v>
+      </c>
+      <c r="L88" s="16">
         <f t="shared" si="32"/>
-        <v>0.28240000000000082</v>
-      </c>
-      <c r="I88" s="16">
-        <v>23</v>
-      </c>
-      <c r="J88" s="16">
-        <v>0</v>
-      </c>
-      <c r="K88" s="16">
-        <v>60</v>
-      </c>
-      <c r="L88" s="16">
-        <f t="shared" si="30"/>
         <v>0.93600000000000028</v>
       </c>
       <c r="M88" s="20">
@@ -23457,7 +24164,7 @@
         <v>333</v>
       </c>
       <c r="O88" s="12" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+120</v>
       </c>
     </row>
@@ -23466,38 +24173,38 @@
         <v>335</v>
       </c>
       <c r="C89" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>4.9999999999999997E+123</v>
       </c>
       <c r="D89" s="16" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>5000찰</v>
       </c>
       <c r="E89" s="16">
         <v>20</v>
       </c>
       <c r="F89" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>32500000</v>
       </c>
       <c r="G89" s="16">
         <v>2</v>
       </c>
       <c r="H89" s="16">
+        <f t="shared" si="34"/>
+        <v>0.28280000000000083</v>
+      </c>
+      <c r="I89" s="16">
+        <v>23</v>
+      </c>
+      <c r="J89" s="16">
+        <v>0</v>
+      </c>
+      <c r="K89" s="16">
+        <v>60</v>
+      </c>
+      <c r="L89" s="16">
         <f t="shared" si="32"/>
-        <v>0.28280000000000083</v>
-      </c>
-      <c r="I89" s="16">
-        <v>23</v>
-      </c>
-      <c r="J89" s="16">
-        <v>0</v>
-      </c>
-      <c r="K89" s="16">
-        <v>60</v>
-      </c>
-      <c r="L89" s="16">
-        <f t="shared" si="30"/>
         <v>0.94000000000000028</v>
       </c>
       <c r="M89" s="20">
@@ -23507,7 +24214,7 @@
         <v>333</v>
       </c>
       <c r="O89" s="12" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+120</v>
       </c>
     </row>
@@ -23516,38 +24223,38 @@
         <v>336</v>
       </c>
       <c r="C90" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>9.9999999999999995E+123</v>
       </c>
       <c r="D90" s="16" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1교</v>
       </c>
       <c r="E90" s="16">
         <v>20</v>
       </c>
       <c r="F90" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>32600000</v>
       </c>
       <c r="G90" s="16">
         <v>2</v>
       </c>
       <c r="H90" s="16">
+        <f t="shared" si="34"/>
+        <v>0.28320000000000084</v>
+      </c>
+      <c r="I90" s="16">
+        <v>23</v>
+      </c>
+      <c r="J90" s="16">
+        <v>0</v>
+      </c>
+      <c r="K90" s="16">
+        <v>60</v>
+      </c>
+      <c r="L90" s="16">
         <f t="shared" si="32"/>
-        <v>0.28320000000000084</v>
-      </c>
-      <c r="I90" s="16">
-        <v>23</v>
-      </c>
-      <c r="J90" s="16">
-        <v>0</v>
-      </c>
-      <c r="K90" s="16">
-        <v>60</v>
-      </c>
-      <c r="L90" s="16">
-        <f t="shared" si="30"/>
         <v>0.94400000000000028</v>
       </c>
       <c r="M90" s="20">
@@ -23557,7 +24264,7 @@
         <v>334</v>
       </c>
       <c r="O90" s="12" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+124</v>
       </c>
     </row>
@@ -23566,38 +24273,38 @@
         <v>337</v>
       </c>
       <c r="C91" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1.9999999999999999E+124</v>
       </c>
       <c r="D91" s="16" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>2교</v>
       </c>
       <c r="E91" s="16">
         <v>20</v>
       </c>
       <c r="F91" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>32700000</v>
       </c>
       <c r="G91" s="16">
         <v>2</v>
       </c>
       <c r="H91" s="16">
+        <f t="shared" si="34"/>
+        <v>0.28360000000000085</v>
+      </c>
+      <c r="I91" s="16">
+        <v>23</v>
+      </c>
+      <c r="J91" s="16">
+        <v>0</v>
+      </c>
+      <c r="K91" s="16">
+        <v>60</v>
+      </c>
+      <c r="L91" s="16">
         <f t="shared" si="32"/>
-        <v>0.28360000000000085</v>
-      </c>
-      <c r="I91" s="16">
-        <v>23</v>
-      </c>
-      <c r="J91" s="16">
-        <v>0</v>
-      </c>
-      <c r="K91" s="16">
-        <v>60</v>
-      </c>
-      <c r="L91" s="16">
-        <f t="shared" si="30"/>
         <v>0.94800000000000029</v>
       </c>
       <c r="M91" s="20">
@@ -23607,7 +24314,7 @@
         <v>334</v>
       </c>
       <c r="O91" s="12" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+124</v>
       </c>
     </row>
@@ -23616,38 +24323,38 @@
         <v>338</v>
       </c>
       <c r="C92" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>4.9999999999999996E+124</v>
       </c>
       <c r="D92" s="16" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>5교</v>
       </c>
       <c r="E92" s="16">
         <v>20</v>
       </c>
       <c r="F92" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>32800000</v>
       </c>
       <c r="G92" s="16">
         <v>2</v>
       </c>
       <c r="H92" s="16">
+        <f t="shared" si="34"/>
+        <v>0.28400000000000086</v>
+      </c>
+      <c r="I92" s="16">
+        <v>23</v>
+      </c>
+      <c r="J92" s="16">
+        <v>0</v>
+      </c>
+      <c r="K92" s="16">
+        <v>60</v>
+      </c>
+      <c r="L92" s="16">
         <f t="shared" si="32"/>
-        <v>0.28400000000000086</v>
-      </c>
-      <c r="I92" s="16">
-        <v>23</v>
-      </c>
-      <c r="J92" s="16">
-        <v>0</v>
-      </c>
-      <c r="K92" s="16">
-        <v>60</v>
-      </c>
-      <c r="L92" s="16">
-        <f t="shared" si="30"/>
         <v>0.95200000000000029</v>
       </c>
       <c r="M92" s="20">
@@ -23657,7 +24364,7 @@
         <v>334</v>
       </c>
       <c r="O92" s="12" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+124</v>
       </c>
     </row>
@@ -23666,38 +24373,38 @@
         <v>339</v>
       </c>
       <c r="C93" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>9.9999999999999992E+124</v>
       </c>
       <c r="D93" s="16" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>10교</v>
       </c>
       <c r="E93" s="16">
         <v>20</v>
       </c>
       <c r="F93" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>32900000</v>
       </c>
       <c r="G93" s="16">
         <v>2</v>
       </c>
       <c r="H93" s="16">
+        <f t="shared" si="34"/>
+        <v>0.28440000000000087</v>
+      </c>
+      <c r="I93" s="16">
+        <v>23</v>
+      </c>
+      <c r="J93" s="16">
+        <v>0</v>
+      </c>
+      <c r="K93" s="16">
+        <v>60</v>
+      </c>
+      <c r="L93" s="16">
         <f t="shared" si="32"/>
-        <v>0.28440000000000087</v>
-      </c>
-      <c r="I93" s="16">
-        <v>23</v>
-      </c>
-      <c r="J93" s="16">
-        <v>0</v>
-      </c>
-      <c r="K93" s="16">
-        <v>60</v>
-      </c>
-      <c r="L93" s="16">
-        <f t="shared" si="30"/>
         <v>0.95600000000000029</v>
       </c>
       <c r="M93" s="20">
@@ -23707,7 +24414,7 @@
         <v>334</v>
       </c>
       <c r="O93" s="12" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+124</v>
       </c>
     </row>
@@ -23716,38 +24423,38 @@
         <v>340</v>
       </c>
       <c r="C94" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1.9999999999999998E+125</v>
       </c>
       <c r="D94" s="16" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>20교</v>
       </c>
       <c r="E94" s="16">
         <v>20</v>
       </c>
       <c r="F94" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>33000000</v>
       </c>
       <c r="G94" s="16">
         <v>2</v>
       </c>
       <c r="H94" s="16">
+        <f t="shared" si="34"/>
+        <v>0.28480000000000089</v>
+      </c>
+      <c r="I94" s="16">
+        <v>23</v>
+      </c>
+      <c r="J94" s="16">
+        <v>0</v>
+      </c>
+      <c r="K94" s="16">
+        <v>60</v>
+      </c>
+      <c r="L94" s="16">
         <f t="shared" si="32"/>
-        <v>0.28480000000000089</v>
-      </c>
-      <c r="I94" s="16">
-        <v>23</v>
-      </c>
-      <c r="J94" s="16">
-        <v>0</v>
-      </c>
-      <c r="K94" s="16">
-        <v>60</v>
-      </c>
-      <c r="L94" s="16">
-        <f t="shared" si="30"/>
         <v>0.9600000000000003</v>
       </c>
       <c r="M94" s="20">
@@ -23757,7 +24464,7 @@
         <v>334</v>
       </c>
       <c r="O94" s="12" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+124</v>
       </c>
     </row>
@@ -23766,38 +24473,38 @@
         <v>341</v>
       </c>
       <c r="C95" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>4.9999999999999996E+125</v>
       </c>
       <c r="D95" s="16" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>50교</v>
       </c>
       <c r="E95" s="16">
         <v>20</v>
       </c>
       <c r="F95" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>33100000</v>
       </c>
       <c r="G95" s="16">
         <v>2</v>
       </c>
       <c r="H95" s="16">
+        <f t="shared" si="34"/>
+        <v>0.2852000000000009</v>
+      </c>
+      <c r="I95" s="16">
+        <v>23</v>
+      </c>
+      <c r="J95" s="16">
+        <v>0</v>
+      </c>
+      <c r="K95" s="16">
+        <v>60</v>
+      </c>
+      <c r="L95" s="16">
         <f t="shared" si="32"/>
-        <v>0.2852000000000009</v>
-      </c>
-      <c r="I95" s="16">
-        <v>23</v>
-      </c>
-      <c r="J95" s="16">
-        <v>0</v>
-      </c>
-      <c r="K95" s="16">
-        <v>60</v>
-      </c>
-      <c r="L95" s="16">
-        <f t="shared" si="30"/>
         <v>0.9640000000000003</v>
       </c>
       <c r="M95" s="20">
@@ -23807,7 +24514,7 @@
         <v>334</v>
       </c>
       <c r="O95" s="12" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+124</v>
       </c>
     </row>
@@ -23816,38 +24523,38 @@
         <v>342</v>
       </c>
       <c r="C96" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>9.9999999999999992E+125</v>
       </c>
       <c r="D96" s="16" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>100교</v>
       </c>
       <c r="E96" s="16">
         <v>20</v>
       </c>
       <c r="F96" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>33200000</v>
       </c>
       <c r="G96" s="16">
         <v>2</v>
       </c>
       <c r="H96" s="16">
+        <f t="shared" si="34"/>
+        <v>0.28560000000000091</v>
+      </c>
+      <c r="I96" s="16">
+        <v>23</v>
+      </c>
+      <c r="J96" s="16">
+        <v>0</v>
+      </c>
+      <c r="K96" s="16">
+        <v>60</v>
+      </c>
+      <c r="L96" s="16">
         <f t="shared" si="32"/>
-        <v>0.28560000000000091</v>
-      </c>
-      <c r="I96" s="16">
-        <v>23</v>
-      </c>
-      <c r="J96" s="16">
-        <v>0</v>
-      </c>
-      <c r="K96" s="16">
-        <v>60</v>
-      </c>
-      <c r="L96" s="16">
-        <f t="shared" si="30"/>
         <v>0.9680000000000003</v>
       </c>
       <c r="M96" s="20">
@@ -23857,7 +24564,7 @@
         <v>334</v>
       </c>
       <c r="O96" s="12" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+124</v>
       </c>
     </row>
@@ -23866,38 +24573,38 @@
         <v>343</v>
       </c>
       <c r="C97" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1.4999999999999998E+126</v>
       </c>
       <c r="D97" s="16" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>150교</v>
       </c>
       <c r="E97" s="16">
         <v>20</v>
       </c>
       <c r="F97" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>33300000</v>
       </c>
       <c r="G97" s="16">
         <v>2</v>
       </c>
       <c r="H97" s="16">
+        <f t="shared" si="34"/>
+        <v>0.28600000000000092</v>
+      </c>
+      <c r="I97" s="16">
+        <v>23</v>
+      </c>
+      <c r="J97" s="16">
+        <v>0</v>
+      </c>
+      <c r="K97" s="16">
+        <v>60</v>
+      </c>
+      <c r="L97" s="16">
         <f t="shared" si="32"/>
-        <v>0.28600000000000092</v>
-      </c>
-      <c r="I97" s="16">
-        <v>23</v>
-      </c>
-      <c r="J97" s="16">
-        <v>0</v>
-      </c>
-      <c r="K97" s="16">
-        <v>60</v>
-      </c>
-      <c r="L97" s="16">
-        <f t="shared" si="30"/>
         <v>0.97200000000000031</v>
       </c>
       <c r="M97" s="20">
@@ -23907,7 +24614,7 @@
         <v>334</v>
       </c>
       <c r="O97" s="12" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+124</v>
       </c>
     </row>
@@ -23916,38 +24623,38 @@
         <v>344</v>
       </c>
       <c r="C98" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1.9999999999999998E+126</v>
       </c>
       <c r="D98" s="16" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>200교</v>
       </c>
       <c r="E98" s="16">
         <v>20</v>
       </c>
       <c r="F98" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>33400000</v>
       </c>
       <c r="G98" s="16">
         <v>2</v>
       </c>
       <c r="H98" s="16">
+        <f t="shared" si="34"/>
+        <v>0.28640000000000093</v>
+      </c>
+      <c r="I98" s="16">
+        <v>23</v>
+      </c>
+      <c r="J98" s="16">
+        <v>0</v>
+      </c>
+      <c r="K98" s="16">
+        <v>60</v>
+      </c>
+      <c r="L98" s="16">
         <f t="shared" si="32"/>
-        <v>0.28640000000000093</v>
-      </c>
-      <c r="I98" s="16">
-        <v>23</v>
-      </c>
-      <c r="J98" s="16">
-        <v>0</v>
-      </c>
-      <c r="K98" s="16">
-        <v>60</v>
-      </c>
-      <c r="L98" s="16">
-        <f t="shared" si="30"/>
         <v>0.97600000000000031</v>
       </c>
       <c r="M98" s="20">
@@ -23957,7 +24664,7 @@
         <v>334</v>
       </c>
       <c r="O98" s="12" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+124</v>
       </c>
     </row>
@@ -23966,38 +24673,38 @@
         <v>345</v>
       </c>
       <c r="C99" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>2.9999999999999996E+126</v>
       </c>
       <c r="D99" s="16" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>300교</v>
       </c>
       <c r="E99" s="16">
         <v>20</v>
       </c>
       <c r="F99" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>33500000</v>
       </c>
       <c r="G99" s="16">
         <v>2</v>
       </c>
       <c r="H99" s="16">
+        <f t="shared" si="34"/>
+        <v>0.28680000000000094</v>
+      </c>
+      <c r="I99" s="16">
+        <v>23</v>
+      </c>
+      <c r="J99" s="16">
+        <v>0</v>
+      </c>
+      <c r="K99" s="16">
+        <v>60</v>
+      </c>
+      <c r="L99" s="16">
         <f t="shared" si="32"/>
-        <v>0.28680000000000094</v>
-      </c>
-      <c r="I99" s="16">
-        <v>23</v>
-      </c>
-      <c r="J99" s="16">
-        <v>0</v>
-      </c>
-      <c r="K99" s="16">
-        <v>60</v>
-      </c>
-      <c r="L99" s="16">
-        <f t="shared" si="30"/>
         <v>0.98000000000000032</v>
       </c>
       <c r="M99" s="20">
@@ -24007,7 +24714,7 @@
         <v>334</v>
       </c>
       <c r="O99" s="12" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+124</v>
       </c>
     </row>
@@ -24016,38 +24723,38 @@
         <v>346</v>
       </c>
       <c r="C100" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>4.9999999999999998E+126</v>
       </c>
       <c r="D100" s="16" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>500교</v>
       </c>
       <c r="E100" s="16">
         <v>20</v>
       </c>
       <c r="F100" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>33600000</v>
       </c>
       <c r="G100" s="16">
         <v>2</v>
       </c>
       <c r="H100" s="16">
+        <f t="shared" si="34"/>
+        <v>0.28720000000000095</v>
+      </c>
+      <c r="I100" s="16">
+        <v>23</v>
+      </c>
+      <c r="J100" s="16">
+        <v>0</v>
+      </c>
+      <c r="K100" s="16">
+        <v>60</v>
+      </c>
+      <c r="L100" s="16">
         <f t="shared" si="32"/>
-        <v>0.28720000000000095</v>
-      </c>
-      <c r="I100" s="16">
-        <v>23</v>
-      </c>
-      <c r="J100" s="16">
-        <v>0</v>
-      </c>
-      <c r="K100" s="16">
-        <v>60</v>
-      </c>
-      <c r="L100" s="16">
-        <f t="shared" si="30"/>
         <v>0.98400000000000032</v>
       </c>
       <c r="M100" s="20">
@@ -24057,7 +24764,7 @@
         <v>334</v>
       </c>
       <c r="O100" s="12" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+124</v>
       </c>
     </row>
@@ -24066,38 +24773,38 @@
         <v>347</v>
       </c>
       <c r="C101" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>7.9999999999999994E+126</v>
       </c>
       <c r="D101" s="16" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>800교</v>
       </c>
       <c r="E101" s="16">
         <v>20</v>
       </c>
       <c r="F101" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>33700000</v>
       </c>
       <c r="G101" s="16">
         <v>2</v>
       </c>
       <c r="H101" s="16">
+        <f t="shared" si="34"/>
+        <v>0.28760000000000097</v>
+      </c>
+      <c r="I101" s="16">
+        <v>23</v>
+      </c>
+      <c r="J101" s="16">
+        <v>0</v>
+      </c>
+      <c r="K101" s="16">
+        <v>60</v>
+      </c>
+      <c r="L101" s="16">
         <f t="shared" si="32"/>
-        <v>0.28760000000000097</v>
-      </c>
-      <c r="I101" s="16">
-        <v>23</v>
-      </c>
-      <c r="J101" s="16">
-        <v>0</v>
-      </c>
-      <c r="K101" s="16">
-        <v>60</v>
-      </c>
-      <c r="L101" s="16">
-        <f t="shared" si="30"/>
         <v>0.98800000000000032</v>
       </c>
       <c r="M101" s="20">
@@ -24107,7 +24814,7 @@
         <v>334</v>
       </c>
       <c r="O101" s="12" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+124</v>
       </c>
     </row>
@@ -24116,38 +24823,38 @@
         <v>348</v>
       </c>
       <c r="C102" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>9.9999999999999995E+126</v>
       </c>
       <c r="D102" s="16" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>1000교</v>
       </c>
       <c r="E102" s="16">
         <v>20</v>
       </c>
       <c r="F102" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>33800000</v>
       </c>
       <c r="G102" s="16">
         <v>2</v>
       </c>
       <c r="H102" s="16">
+        <f t="shared" si="34"/>
+        <v>0.28800000000000098</v>
+      </c>
+      <c r="I102" s="16">
+        <v>23</v>
+      </c>
+      <c r="J102" s="16">
+        <v>0</v>
+      </c>
+      <c r="K102" s="16">
+        <v>60</v>
+      </c>
+      <c r="L102" s="16">
         <f t="shared" si="32"/>
-        <v>0.28800000000000098</v>
-      </c>
-      <c r="I102" s="16">
-        <v>23</v>
-      </c>
-      <c r="J102" s="16">
-        <v>0</v>
-      </c>
-      <c r="K102" s="16">
-        <v>60</v>
-      </c>
-      <c r="L102" s="16">
-        <f t="shared" si="30"/>
         <v>0.99200000000000033</v>
       </c>
       <c r="M102" s="20">
@@ -24157,7 +24864,7 @@
         <v>334</v>
       </c>
       <c r="O102" s="12" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1E+124</v>
       </c>
     </row>
@@ -24166,38 +24873,38 @@
         <v>349</v>
       </c>
       <c r="C103" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>1.9999999999999999E+127</v>
       </c>
       <c r="D103" s="16" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>2000교</v>
       </c>
       <c r="E103" s="16">
         <v>20</v>
       </c>
       <c r="F103" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>33900000</v>
       </c>
       <c r="G103" s="16">
         <v>2</v>
       </c>
       <c r="H103" s="16">
+        <f t="shared" si="34"/>
+        <v>0.28840000000000099</v>
+      </c>
+      <c r="I103" s="16">
+        <v>23</v>
+      </c>
+      <c r="J103" s="16">
+        <v>0</v>
+      </c>
+      <c r="K103" s="16">
+        <v>60</v>
+      </c>
+      <c r="L103" s="16">
         <f t="shared" si="32"/>
-        <v>0.28840000000000099</v>
-      </c>
-      <c r="I103" s="16">
-        <v>23</v>
-      </c>
-      <c r="J103" s="16">
-        <v>0</v>
-      </c>
-      <c r="K103" s="16">
-        <v>60</v>
-      </c>
-      <c r="L103" s="16">
-        <f t="shared" si="30"/>
         <v>0.99600000000000033</v>
       </c>
       <c r="M103" s="20">
@@ -24207,7 +24914,7 @@
         <v>334</v>
       </c>
       <c r="O103" s="12" t="str">
-        <f t="shared" ref="O103:O166" si="37">VLOOKUP(N103,Q:T,4,FALSE)</f>
+        <f t="shared" ref="O103:O166" si="39">VLOOKUP(N103,Q:T,4,FALSE)</f>
         <v>1E+124</v>
       </c>
     </row>
@@ -24216,38 +24923,38 @@
         <v>350</v>
       </c>
       <c r="C104" s="16">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>4.9999999999999994E+127</v>
       </c>
       <c r="D104" s="16" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>5000교</v>
       </c>
       <c r="E104" s="16">
         <v>20</v>
       </c>
       <c r="F104" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>34000000</v>
       </c>
       <c r="G104" s="16">
         <v>2</v>
       </c>
       <c r="H104" s="16">
+        <f t="shared" si="34"/>
+        <v>0.288800000000001</v>
+      </c>
+      <c r="I104" s="16">
+        <v>23</v>
+      </c>
+      <c r="J104" s="16">
+        <v>0</v>
+      </c>
+      <c r="K104" s="16">
+        <v>60</v>
+      </c>
+      <c r="L104" s="16">
         <f t="shared" si="32"/>
-        <v>0.288800000000001</v>
-      </c>
-      <c r="I104" s="16">
-        <v>23</v>
-      </c>
-      <c r="J104" s="16">
-        <v>0</v>
-      </c>
-      <c r="K104" s="16">
-        <v>60</v>
-      </c>
-      <c r="L104" s="16">
-        <f t="shared" si="30"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="M104" s="20">
@@ -24257,7 +24964,7 @@
         <v>334</v>
       </c>
       <c r="O104" s="12" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+124</v>
       </c>
     </row>
@@ -24266,38 +24973,38 @@
         <v>351</v>
       </c>
       <c r="C105" s="16">
-        <f t="shared" ref="C105:C119" si="38">M105*O105</f>
+        <f t="shared" ref="C105:C119" si="40">M105*O105</f>
         <v>1.0000000000000001E+128</v>
       </c>
       <c r="D105" s="16" t="str">
-        <f t="shared" ref="D105:D119" si="39">M105&amp;N105</f>
+        <f t="shared" ref="D105:D119" si="41">M105&amp;N105</f>
         <v>1위</v>
       </c>
       <c r="E105" s="16">
         <v>20</v>
       </c>
       <c r="F105" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>34100000</v>
       </c>
       <c r="G105" s="16">
         <v>2</v>
       </c>
       <c r="H105" s="16">
+        <f t="shared" si="34"/>
+        <v>0.28920000000000101</v>
+      </c>
+      <c r="I105" s="16">
+        <v>23</v>
+      </c>
+      <c r="J105" s="16">
+        <v>0</v>
+      </c>
+      <c r="K105" s="16">
+        <v>60</v>
+      </c>
+      <c r="L105" s="16">
         <f t="shared" si="32"/>
-        <v>0.28920000000000101</v>
-      </c>
-      <c r="I105" s="16">
-        <v>23</v>
-      </c>
-      <c r="J105" s="16">
-        <v>0</v>
-      </c>
-      <c r="K105" s="16">
-        <v>60</v>
-      </c>
-      <c r="L105" s="16">
-        <f t="shared" si="30"/>
         <v>1.0040000000000002</v>
       </c>
       <c r="M105" s="20">
@@ -24307,7 +25014,7 @@
         <v>335</v>
       </c>
       <c r="O105" s="12" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+128</v>
       </c>
     </row>
@@ -24316,38 +25023,38 @@
         <v>352</v>
       </c>
       <c r="C106" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>2.0000000000000002E+128</v>
       </c>
       <c r="D106" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>2위</v>
       </c>
       <c r="E106" s="16">
         <v>20</v>
       </c>
       <c r="F106" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>34200000</v>
       </c>
       <c r="G106" s="16">
         <v>2</v>
       </c>
       <c r="H106" s="16">
+        <f t="shared" si="34"/>
+        <v>0.28960000000000102</v>
+      </c>
+      <c r="I106" s="16">
+        <v>23</v>
+      </c>
+      <c r="J106" s="16">
+        <v>0</v>
+      </c>
+      <c r="K106" s="16">
+        <v>60</v>
+      </c>
+      <c r="L106" s="16">
         <f t="shared" si="32"/>
-        <v>0.28960000000000102</v>
-      </c>
-      <c r="I106" s="16">
-        <v>23</v>
-      </c>
-      <c r="J106" s="16">
-        <v>0</v>
-      </c>
-      <c r="K106" s="16">
-        <v>60</v>
-      </c>
-      <c r="L106" s="16">
-        <f t="shared" si="30"/>
         <v>1.0080000000000002</v>
       </c>
       <c r="M106" s="20">
@@ -24357,7 +25064,7 @@
         <v>335</v>
       </c>
       <c r="O106" s="12" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+128</v>
       </c>
     </row>
@@ -24366,38 +25073,38 @@
         <v>353</v>
       </c>
       <c r="C107" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>5E+128</v>
       </c>
       <c r="D107" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>5위</v>
       </c>
       <c r="E107" s="16">
         <v>20</v>
       </c>
       <c r="F107" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>34300000</v>
       </c>
       <c r="G107" s="16">
         <v>2</v>
       </c>
       <c r="H107" s="16">
+        <f t="shared" si="34"/>
+        <v>0.29000000000000103</v>
+      </c>
+      <c r="I107" s="16">
+        <v>23</v>
+      </c>
+      <c r="J107" s="16">
+        <v>0</v>
+      </c>
+      <c r="K107" s="16">
+        <v>60</v>
+      </c>
+      <c r="L107" s="16">
         <f t="shared" si="32"/>
-        <v>0.29000000000000103</v>
-      </c>
-      <c r="I107" s="16">
-        <v>23</v>
-      </c>
-      <c r="J107" s="16">
-        <v>0</v>
-      </c>
-      <c r="K107" s="16">
-        <v>60</v>
-      </c>
-      <c r="L107" s="16">
-        <f t="shared" si="30"/>
         <v>1.0120000000000002</v>
       </c>
       <c r="M107" s="20">
@@ -24407,7 +25114,7 @@
         <v>335</v>
       </c>
       <c r="O107" s="12" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+128</v>
       </c>
     </row>
@@ -24416,38 +25123,38 @@
         <v>354</v>
       </c>
       <c r="C108" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1E+129</v>
       </c>
       <c r="D108" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>10위</v>
       </c>
       <c r="E108" s="16">
         <v>20</v>
       </c>
       <c r="F108" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>34400000</v>
       </c>
       <c r="G108" s="16">
         <v>2</v>
       </c>
       <c r="H108" s="16">
+        <f t="shared" si="34"/>
+        <v>0.29040000000000105</v>
+      </c>
+      <c r="I108" s="16">
+        <v>23</v>
+      </c>
+      <c r="J108" s="16">
+        <v>0</v>
+      </c>
+      <c r="K108" s="16">
+        <v>60</v>
+      </c>
+      <c r="L108" s="16">
         <f t="shared" si="32"/>
-        <v>0.29040000000000105</v>
-      </c>
-      <c r="I108" s="16">
-        <v>23</v>
-      </c>
-      <c r="J108" s="16">
-        <v>0</v>
-      </c>
-      <c r="K108" s="16">
-        <v>60</v>
-      </c>
-      <c r="L108" s="16">
-        <f t="shared" si="30"/>
         <v>1.0160000000000002</v>
       </c>
       <c r="M108" s="20">
@@ -24457,7 +25164,7 @@
         <v>335</v>
       </c>
       <c r="O108" s="12" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+128</v>
       </c>
     </row>
@@ -24466,38 +25173,38 @@
         <v>355</v>
       </c>
       <c r="C109" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>2E+129</v>
       </c>
       <c r="D109" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>20위</v>
       </c>
       <c r="E109" s="16">
         <v>20</v>
       </c>
       <c r="F109" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>34500000</v>
       </c>
       <c r="G109" s="16">
         <v>2</v>
       </c>
       <c r="H109" s="16">
+        <f t="shared" si="34"/>
+        <v>0.29080000000000106</v>
+      </c>
+      <c r="I109" s="16">
+        <v>23</v>
+      </c>
+      <c r="J109" s="16">
+        <v>0</v>
+      </c>
+      <c r="K109" s="16">
+        <v>60</v>
+      </c>
+      <c r="L109" s="16">
         <f t="shared" si="32"/>
-        <v>0.29080000000000106</v>
-      </c>
-      <c r="I109" s="16">
-        <v>23</v>
-      </c>
-      <c r="J109" s="16">
-        <v>0</v>
-      </c>
-      <c r="K109" s="16">
-        <v>60</v>
-      </c>
-      <c r="L109" s="16">
-        <f t="shared" si="30"/>
         <v>1.0200000000000002</v>
       </c>
       <c r="M109" s="20">
@@ -24507,7 +25214,7 @@
         <v>335</v>
       </c>
       <c r="O109" s="12" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+128</v>
       </c>
     </row>
@@ -24516,38 +25223,38 @@
         <v>356</v>
       </c>
       <c r="C110" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>5.0000000000000003E+129</v>
       </c>
       <c r="D110" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>50위</v>
       </c>
       <c r="E110" s="16">
         <v>20</v>
       </c>
       <c r="F110" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>34600000</v>
       </c>
       <c r="G110" s="16">
         <v>2</v>
       </c>
       <c r="H110" s="16">
+        <f t="shared" si="34"/>
+        <v>0.29120000000000107</v>
+      </c>
+      <c r="I110" s="16">
+        <v>23</v>
+      </c>
+      <c r="J110" s="16">
+        <v>0</v>
+      </c>
+      <c r="K110" s="16">
+        <v>60</v>
+      </c>
+      <c r="L110" s="16">
         <f t="shared" si="32"/>
-        <v>0.29120000000000107</v>
-      </c>
-      <c r="I110" s="16">
-        <v>23</v>
-      </c>
-      <c r="J110" s="16">
-        <v>0</v>
-      </c>
-      <c r="K110" s="16">
-        <v>60</v>
-      </c>
-      <c r="L110" s="16">
-        <f t="shared" si="30"/>
         <v>1.0240000000000002</v>
       </c>
       <c r="M110" s="20">
@@ -24557,7 +25264,7 @@
         <v>335</v>
       </c>
       <c r="O110" s="12" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+128</v>
       </c>
     </row>
@@ -24566,38 +25273,38 @@
         <v>357</v>
       </c>
       <c r="C111" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1.0000000000000001E+130</v>
       </c>
       <c r="D111" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>100위</v>
       </c>
       <c r="E111" s="16">
         <v>20</v>
       </c>
       <c r="F111" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>34700000</v>
       </c>
       <c r="G111" s="16">
         <v>2</v>
       </c>
       <c r="H111" s="16">
+        <f t="shared" si="34"/>
+        <v>0.29160000000000108</v>
+      </c>
+      <c r="I111" s="16">
+        <v>23</v>
+      </c>
+      <c r="J111" s="16">
+        <v>0</v>
+      </c>
+      <c r="K111" s="16">
+        <v>60</v>
+      </c>
+      <c r="L111" s="16">
         <f t="shared" si="32"/>
-        <v>0.29160000000000108</v>
-      </c>
-      <c r="I111" s="16">
-        <v>23</v>
-      </c>
-      <c r="J111" s="16">
-        <v>0</v>
-      </c>
-      <c r="K111" s="16">
-        <v>60</v>
-      </c>
-      <c r="L111" s="16">
-        <f t="shared" si="30"/>
         <v>1.0280000000000002</v>
       </c>
       <c r="M111" s="20">
@@ -24607,7 +25314,7 @@
         <v>335</v>
       </c>
       <c r="O111" s="12" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+128</v>
       </c>
     </row>
@@ -24616,38 +25323,38 @@
         <v>358</v>
       </c>
       <c r="C112" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1.5000000000000002E+130</v>
       </c>
       <c r="D112" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>150위</v>
       </c>
       <c r="E112" s="16">
         <v>20</v>
       </c>
       <c r="F112" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>34800000</v>
       </c>
       <c r="G112" s="16">
         <v>2</v>
       </c>
       <c r="H112" s="16">
+        <f t="shared" si="34"/>
+        <v>0.29200000000000109</v>
+      </c>
+      <c r="I112" s="16">
+        <v>23</v>
+      </c>
+      <c r="J112" s="16">
+        <v>0</v>
+      </c>
+      <c r="K112" s="16">
+        <v>60</v>
+      </c>
+      <c r="L112" s="16">
         <f t="shared" si="32"/>
-        <v>0.29200000000000109</v>
-      </c>
-      <c r="I112" s="16">
-        <v>23</v>
-      </c>
-      <c r="J112" s="16">
-        <v>0</v>
-      </c>
-      <c r="K112" s="16">
-        <v>60</v>
-      </c>
-      <c r="L112" s="16">
-        <f t="shared" si="30"/>
         <v>1.0320000000000003</v>
       </c>
       <c r="M112" s="20">
@@ -24657,7 +25364,7 @@
         <v>335</v>
       </c>
       <c r="O112" s="12" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+128</v>
       </c>
     </row>
@@ -24666,38 +25373,38 @@
         <v>359</v>
       </c>
       <c r="C113" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>2.0000000000000001E+130</v>
       </c>
       <c r="D113" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>200위</v>
       </c>
       <c r="E113" s="16">
         <v>20</v>
       </c>
       <c r="F113" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>34900000</v>
       </c>
       <c r="G113" s="16">
         <v>2</v>
       </c>
       <c r="H113" s="16">
+        <f t="shared" si="34"/>
+        <v>0.2924000000000011</v>
+      </c>
+      <c r="I113" s="16">
+        <v>23</v>
+      </c>
+      <c r="J113" s="16">
+        <v>0</v>
+      </c>
+      <c r="K113" s="16">
+        <v>60</v>
+      </c>
+      <c r="L113" s="16">
         <f t="shared" si="32"/>
-        <v>0.2924000000000011</v>
-      </c>
-      <c r="I113" s="16">
-        <v>23</v>
-      </c>
-      <c r="J113" s="16">
-        <v>0</v>
-      </c>
-      <c r="K113" s="16">
-        <v>60</v>
-      </c>
-      <c r="L113" s="16">
-        <f t="shared" si="30"/>
         <v>1.0360000000000003</v>
       </c>
       <c r="M113" s="20">
@@ -24707,7 +25414,7 @@
         <v>335</v>
       </c>
       <c r="O113" s="12" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+128</v>
       </c>
     </row>
@@ -24716,38 +25423,38 @@
         <v>360</v>
       </c>
       <c r="C114" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>3.0000000000000004E+130</v>
       </c>
       <c r="D114" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>300위</v>
       </c>
       <c r="E114" s="16">
         <v>20</v>
       </c>
       <c r="F114" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>35000000</v>
       </c>
       <c r="G114" s="16">
         <v>2</v>
       </c>
       <c r="H114" s="16">
+        <f t="shared" si="34"/>
+        <v>0.29280000000000111</v>
+      </c>
+      <c r="I114" s="16">
+        <v>23</v>
+      </c>
+      <c r="J114" s="16">
+        <v>0</v>
+      </c>
+      <c r="K114" s="16">
+        <v>60</v>
+      </c>
+      <c r="L114" s="16">
         <f t="shared" si="32"/>
-        <v>0.29280000000000111</v>
-      </c>
-      <c r="I114" s="16">
-        <v>23</v>
-      </c>
-      <c r="J114" s="16">
-        <v>0</v>
-      </c>
-      <c r="K114" s="16">
-        <v>60</v>
-      </c>
-      <c r="L114" s="16">
-        <f t="shared" si="30"/>
         <v>1.0400000000000003</v>
       </c>
       <c r="M114" s="20">
@@ -24757,7 +25464,7 @@
         <v>335</v>
       </c>
       <c r="O114" s="12" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+128</v>
       </c>
     </row>
@@ -24766,38 +25473,38 @@
         <v>361</v>
       </c>
       <c r="C115" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>5.0000000000000005E+130</v>
       </c>
       <c r="D115" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>500위</v>
       </c>
       <c r="E115" s="16">
         <v>20</v>
       </c>
       <c r="F115" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>35100000</v>
       </c>
       <c r="G115" s="16">
         <v>2</v>
       </c>
       <c r="H115" s="16">
+        <f t="shared" si="34"/>
+        <v>0.29320000000000113</v>
+      </c>
+      <c r="I115" s="16">
+        <v>23</v>
+      </c>
+      <c r="J115" s="16">
+        <v>0</v>
+      </c>
+      <c r="K115" s="16">
+        <v>60</v>
+      </c>
+      <c r="L115" s="16">
         <f t="shared" si="32"/>
-        <v>0.29320000000000113</v>
-      </c>
-      <c r="I115" s="16">
-        <v>23</v>
-      </c>
-      <c r="J115" s="16">
-        <v>0</v>
-      </c>
-      <c r="K115" s="16">
-        <v>60</v>
-      </c>
-      <c r="L115" s="16">
-        <f t="shared" si="30"/>
         <v>1.0440000000000003</v>
       </c>
       <c r="M115" s="20">
@@ -24807,7 +25514,7 @@
         <v>335</v>
       </c>
       <c r="O115" s="12" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+128</v>
       </c>
     </row>
@@ -24816,38 +25523,38 @@
         <v>362</v>
       </c>
       <c r="C116" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>8.0000000000000005E+130</v>
       </c>
       <c r="D116" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>800위</v>
       </c>
       <c r="E116" s="16">
         <v>20</v>
       </c>
       <c r="F116" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>35200000</v>
       </c>
       <c r="G116" s="16">
         <v>2</v>
       </c>
       <c r="H116" s="16">
+        <f t="shared" si="34"/>
+        <v>0.29360000000000114</v>
+      </c>
+      <c r="I116" s="16">
+        <v>23</v>
+      </c>
+      <c r="J116" s="16">
+        <v>0</v>
+      </c>
+      <c r="K116" s="16">
+        <v>60</v>
+      </c>
+      <c r="L116" s="16">
         <f t="shared" si="32"/>
-        <v>0.29360000000000114</v>
-      </c>
-      <c r="I116" s="16">
-        <v>23</v>
-      </c>
-      <c r="J116" s="16">
-        <v>0</v>
-      </c>
-      <c r="K116" s="16">
-        <v>60</v>
-      </c>
-      <c r="L116" s="16">
-        <f t="shared" si="30"/>
         <v>1.0480000000000003</v>
       </c>
       <c r="M116" s="20">
@@ -24857,7 +25564,7 @@
         <v>335</v>
       </c>
       <c r="O116" s="12" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+128</v>
       </c>
     </row>
@@ -24866,38 +25573,38 @@
         <v>363</v>
       </c>
       <c r="C117" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1.0000000000000001E+131</v>
       </c>
       <c r="D117" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1000위</v>
       </c>
       <c r="E117" s="16">
         <v>20</v>
       </c>
       <c r="F117" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>35300000</v>
       </c>
       <c r="G117" s="16">
         <v>2</v>
       </c>
       <c r="H117" s="16">
+        <f t="shared" si="34"/>
+        <v>0.29400000000000115</v>
+      </c>
+      <c r="I117" s="16">
+        <v>23</v>
+      </c>
+      <c r="J117" s="16">
+        <v>0</v>
+      </c>
+      <c r="K117" s="16">
+        <v>60</v>
+      </c>
+      <c r="L117" s="16">
         <f t="shared" si="32"/>
-        <v>0.29400000000000115</v>
-      </c>
-      <c r="I117" s="16">
-        <v>23</v>
-      </c>
-      <c r="J117" s="16">
-        <v>0</v>
-      </c>
-      <c r="K117" s="16">
-        <v>60</v>
-      </c>
-      <c r="L117" s="16">
-        <f t="shared" si="30"/>
         <v>1.0520000000000003</v>
       </c>
       <c r="M117" s="20">
@@ -24907,7 +25614,7 @@
         <v>335</v>
       </c>
       <c r="O117" s="12" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+128</v>
       </c>
     </row>
@@ -24916,38 +25623,38 @@
         <v>364</v>
       </c>
       <c r="C118" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>2.0000000000000002E+131</v>
       </c>
       <c r="D118" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>2000위</v>
       </c>
       <c r="E118" s="16">
         <v>20</v>
       </c>
       <c r="F118" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>35400000</v>
       </c>
       <c r="G118" s="16">
         <v>2</v>
       </c>
       <c r="H118" s="16">
+        <f t="shared" si="34"/>
+        <v>0.29440000000000116</v>
+      </c>
+      <c r="I118" s="16">
+        <v>23</v>
+      </c>
+      <c r="J118" s="16">
+        <v>0</v>
+      </c>
+      <c r="K118" s="16">
+        <v>60</v>
+      </c>
+      <c r="L118" s="16">
         <f t="shared" si="32"/>
-        <v>0.29440000000000116</v>
-      </c>
-      <c r="I118" s="16">
-        <v>23</v>
-      </c>
-      <c r="J118" s="16">
-        <v>0</v>
-      </c>
-      <c r="K118" s="16">
-        <v>60</v>
-      </c>
-      <c r="L118" s="16">
-        <f t="shared" si="30"/>
         <v>1.0560000000000003</v>
       </c>
       <c r="M118" s="20">
@@ -24957,7 +25664,7 @@
         <v>335</v>
       </c>
       <c r="O118" s="12" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+128</v>
       </c>
     </row>
@@ -24966,38 +25673,38 @@
         <v>365</v>
       </c>
       <c r="C119" s="16">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>5.0000000000000007E+131</v>
       </c>
       <c r="D119" s="16" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>5000위</v>
       </c>
       <c r="E119" s="16">
         <v>20</v>
       </c>
       <c r="F119" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>35500000</v>
       </c>
       <c r="G119" s="16">
         <v>2</v>
       </c>
       <c r="H119" s="16">
+        <f t="shared" si="34"/>
+        <v>0.29480000000000117</v>
+      </c>
+      <c r="I119" s="16">
+        <v>23</v>
+      </c>
+      <c r="J119" s="16">
+        <v>0</v>
+      </c>
+      <c r="K119" s="16">
+        <v>60</v>
+      </c>
+      <c r="L119" s="16">
         <f t="shared" si="32"/>
-        <v>0.29480000000000117</v>
-      </c>
-      <c r="I119" s="16">
-        <v>23</v>
-      </c>
-      <c r="J119" s="16">
-        <v>0</v>
-      </c>
-      <c r="K119" s="16">
-        <v>60</v>
-      </c>
-      <c r="L119" s="16">
-        <f t="shared" si="30"/>
         <v>1.0600000000000003</v>
       </c>
       <c r="M119" s="20">
@@ -25007,7 +25714,7 @@
         <v>335</v>
       </c>
       <c r="O119" s="12" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+128</v>
       </c>
     </row>
@@ -25016,48 +25723,48 @@
         <v>366</v>
       </c>
       <c r="C120" s="16">
-        <f t="shared" ref="C120:C134" si="40">M120*O120</f>
+        <f t="shared" ref="C120:C134" si="42">M120*O120</f>
         <v>9.9999999999999999E+131</v>
       </c>
       <c r="D120" s="16" t="str">
-        <f t="shared" ref="D120:D134" si="41">M120&amp;N120</f>
+        <f t="shared" ref="D120:D134" si="43">M120&amp;N120</f>
         <v>1설</v>
       </c>
       <c r="E120" s="16">
         <v>20</v>
       </c>
       <c r="F120" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>35600000</v>
       </c>
       <c r="G120" s="16">
         <v>2</v>
       </c>
       <c r="H120" s="16">
+        <f t="shared" si="34"/>
+        <v>0.29520000000000118</v>
+      </c>
+      <c r="I120" s="16">
+        <v>23</v>
+      </c>
+      <c r="J120" s="16">
+        <v>0</v>
+      </c>
+      <c r="K120" s="16">
+        <v>60</v>
+      </c>
+      <c r="L120" s="16">
         <f t="shared" si="32"/>
-        <v>0.29520000000000118</v>
-      </c>
-      <c r="I120" s="16">
-        <v>23</v>
-      </c>
-      <c r="J120" s="16">
-        <v>0</v>
-      </c>
-      <c r="K120" s="16">
-        <v>60</v>
-      </c>
-      <c r="L120" s="16">
-        <f t="shared" si="30"/>
         <v>1.0640000000000003</v>
       </c>
       <c r="M120" s="20">
         <v>1</v>
       </c>
       <c r="N120" s="19" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O120" s="12" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+132</v>
       </c>
     </row>
@@ -25066,48 +25773,48 @@
         <v>367</v>
       </c>
       <c r="C121" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>2E+132</v>
       </c>
       <c r="D121" s="16" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>2설</v>
       </c>
       <c r="E121" s="16">
         <v>20</v>
       </c>
       <c r="F121" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>35700000</v>
       </c>
       <c r="G121" s="16">
         <v>2</v>
       </c>
       <c r="H121" s="16">
+        <f t="shared" si="34"/>
+        <v>0.2956000000000012</v>
+      </c>
+      <c r="I121" s="16">
+        <v>23</v>
+      </c>
+      <c r="J121" s="16">
+        <v>0</v>
+      </c>
+      <c r="K121" s="16">
+        <v>60</v>
+      </c>
+      <c r="L121" s="16">
         <f t="shared" si="32"/>
-        <v>0.2956000000000012</v>
-      </c>
-      <c r="I121" s="16">
-        <v>23</v>
-      </c>
-      <c r="J121" s="16">
-        <v>0</v>
-      </c>
-      <c r="K121" s="16">
-        <v>60</v>
-      </c>
-      <c r="L121" s="16">
-        <f t="shared" si="30"/>
         <v>1.0680000000000003</v>
       </c>
       <c r="M121" s="20">
         <v>2</v>
       </c>
       <c r="N121" s="19" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O121" s="12" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+132</v>
       </c>
     </row>
@@ -25116,48 +25823,48 @@
         <v>368</v>
       </c>
       <c r="C122" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>5.0000000000000001E+132</v>
       </c>
       <c r="D122" s="16" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>5설</v>
       </c>
       <c r="E122" s="16">
         <v>20</v>
       </c>
       <c r="F122" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>35800000</v>
       </c>
       <c r="G122" s="16">
         <v>2</v>
       </c>
       <c r="H122" s="16">
+        <f t="shared" si="34"/>
+        <v>0.29600000000000121</v>
+      </c>
+      <c r="I122" s="16">
+        <v>23</v>
+      </c>
+      <c r="J122" s="16">
+        <v>0</v>
+      </c>
+      <c r="K122" s="16">
+        <v>60</v>
+      </c>
+      <c r="L122" s="16">
         <f t="shared" si="32"/>
-        <v>0.29600000000000121</v>
-      </c>
-      <c r="I122" s="16">
-        <v>23</v>
-      </c>
-      <c r="J122" s="16">
-        <v>0</v>
-      </c>
-      <c r="K122" s="16">
-        <v>60</v>
-      </c>
-      <c r="L122" s="16">
-        <f t="shared" si="30"/>
         <v>1.0720000000000003</v>
       </c>
       <c r="M122" s="20">
         <v>5</v>
       </c>
       <c r="N122" s="19" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O122" s="12" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+132</v>
       </c>
     </row>
@@ -25166,48 +25873,48 @@
         <v>369</v>
       </c>
       <c r="C123" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1E+133</v>
       </c>
       <c r="D123" s="16" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>10설</v>
       </c>
       <c r="E123" s="16">
         <v>20</v>
       </c>
       <c r="F123" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>35900000</v>
       </c>
       <c r="G123" s="16">
         <v>2</v>
       </c>
       <c r="H123" s="16">
+        <f t="shared" si="34"/>
+        <v>0.29640000000000122</v>
+      </c>
+      <c r="I123" s="16">
+        <v>23</v>
+      </c>
+      <c r="J123" s="16">
+        <v>0</v>
+      </c>
+      <c r="K123" s="16">
+        <v>60</v>
+      </c>
+      <c r="L123" s="16">
         <f t="shared" si="32"/>
-        <v>0.29640000000000122</v>
-      </c>
-      <c r="I123" s="16">
-        <v>23</v>
-      </c>
-      <c r="J123" s="16">
-        <v>0</v>
-      </c>
-      <c r="K123" s="16">
-        <v>60</v>
-      </c>
-      <c r="L123" s="16">
-        <f t="shared" si="30"/>
         <v>1.0760000000000003</v>
       </c>
       <c r="M123" s="20">
         <v>10</v>
       </c>
       <c r="N123" s="19" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O123" s="12" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+132</v>
       </c>
     </row>
@@ -25216,25 +25923,25 @@
         <v>370</v>
       </c>
       <c r="C124" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>2E+133</v>
       </c>
       <c r="D124" s="16" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>20설</v>
       </c>
       <c r="E124" s="16">
         <v>20</v>
       </c>
       <c r="F124" s="16">
-        <f t="shared" ref="F124:F159" si="42">F123+100000</f>
+        <f t="shared" ref="F124:F159" si="44">F123+100000</f>
         <v>36000000</v>
       </c>
       <c r="G124" s="16">
         <v>2</v>
       </c>
       <c r="H124" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.29680000000000123</v>
       </c>
       <c r="I124" s="16">
@@ -25247,17 +25954,17 @@
         <v>60</v>
       </c>
       <c r="L124" s="16">
-        <f t="shared" ref="L124:L159" si="43">L123+0.004</f>
+        <f t="shared" ref="L124:L159" si="45">L123+0.004</f>
         <v>1.0800000000000003</v>
       </c>
       <c r="M124" s="20">
         <v>20</v>
       </c>
       <c r="N124" s="19" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O124" s="12" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+132</v>
       </c>
     </row>
@@ -25266,25 +25973,25 @@
         <v>371</v>
       </c>
       <c r="C125" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>4.9999999999999996E+133</v>
       </c>
       <c r="D125" s="16" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>50설</v>
       </c>
       <c r="E125" s="16">
         <v>20</v>
       </c>
       <c r="F125" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>36100000</v>
       </c>
       <c r="G125" s="16">
         <v>2</v>
       </c>
       <c r="H125" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.29720000000000124</v>
       </c>
       <c r="I125" s="16">
@@ -25297,17 +26004,17 @@
         <v>60</v>
       </c>
       <c r="L125" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1.0840000000000003</v>
       </c>
       <c r="M125" s="20">
         <v>50</v>
       </c>
       <c r="N125" s="19" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O125" s="12" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+132</v>
       </c>
     </row>
@@ -25316,25 +26023,25 @@
         <v>372</v>
       </c>
       <c r="C126" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>9.9999999999999992E+133</v>
       </c>
       <c r="D126" s="16" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>100설</v>
       </c>
       <c r="E126" s="16">
         <v>20</v>
       </c>
       <c r="F126" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>36200000</v>
       </c>
       <c r="G126" s="16">
         <v>2</v>
       </c>
       <c r="H126" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.29760000000000125</v>
       </c>
       <c r="I126" s="16">
@@ -25347,17 +26054,17 @@
         <v>60</v>
       </c>
       <c r="L126" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1.0880000000000003</v>
       </c>
       <c r="M126" s="20">
         <v>100</v>
       </c>
       <c r="N126" s="19" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O126" s="12" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+132</v>
       </c>
     </row>
@@ -25366,25 +26073,25 @@
         <v>373</v>
       </c>
       <c r="C127" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1.5E+134</v>
       </c>
       <c r="D127" s="16" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>150설</v>
       </c>
       <c r="E127" s="16">
         <v>20</v>
       </c>
       <c r="F127" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>36300000</v>
       </c>
       <c r="G127" s="16">
         <v>2</v>
       </c>
       <c r="H127" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.29800000000000126</v>
       </c>
       <c r="I127" s="16">
@@ -25397,17 +26104,17 @@
         <v>60</v>
       </c>
       <c r="L127" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1.0920000000000003</v>
       </c>
       <c r="M127" s="20">
         <v>150</v>
       </c>
       <c r="N127" s="19" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O127" s="12" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+132</v>
       </c>
     </row>
@@ -25416,25 +26123,25 @@
         <v>374</v>
       </c>
       <c r="C128" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1.9999999999999998E+134</v>
       </c>
       <c r="D128" s="16" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>200설</v>
       </c>
       <c r="E128" s="16">
         <v>20</v>
       </c>
       <c r="F128" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>36400000</v>
       </c>
       <c r="G128" s="16">
         <v>2</v>
       </c>
       <c r="H128" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.29840000000000128</v>
       </c>
       <c r="I128" s="16">
@@ -25447,17 +26154,17 @@
         <v>60</v>
       </c>
       <c r="L128" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1.0960000000000003</v>
       </c>
       <c r="M128" s="20">
         <v>200</v>
       </c>
       <c r="N128" s="19" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O128" s="12" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+132</v>
       </c>
     </row>
@@ -25466,25 +26173,25 @@
         <v>375</v>
       </c>
       <c r="C129" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>3E+134</v>
       </c>
       <c r="D129" s="16" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>300설</v>
       </c>
       <c r="E129" s="16">
         <v>20</v>
       </c>
       <c r="F129" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>36500000</v>
       </c>
       <c r="G129" s="16">
         <v>2</v>
       </c>
       <c r="H129" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.29880000000000129</v>
       </c>
       <c r="I129" s="16">
@@ -25497,17 +26204,17 @@
         <v>60</v>
       </c>
       <c r="L129" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1.1000000000000003</v>
       </c>
       <c r="M129" s="20">
         <v>300</v>
       </c>
       <c r="N129" s="19" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O129" s="12" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+132</v>
       </c>
     </row>
@@ -25516,25 +26223,25 @@
         <v>376</v>
       </c>
       <c r="C130" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>4.9999999999999998E+134</v>
       </c>
       <c r="D130" s="16" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>500설</v>
       </c>
       <c r="E130" s="16">
         <v>20</v>
       </c>
       <c r="F130" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>36600000</v>
       </c>
       <c r="G130" s="16">
         <v>2</v>
       </c>
       <c r="H130" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.2992000000000013</v>
       </c>
       <c r="I130" s="16">
@@ -25547,17 +26254,17 @@
         <v>60</v>
       </c>
       <c r="L130" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1.1040000000000003</v>
       </c>
       <c r="M130" s="20">
         <v>500</v>
       </c>
       <c r="N130" s="19" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O130" s="12" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+132</v>
       </c>
     </row>
@@ -25566,25 +26273,25 @@
         <v>377</v>
       </c>
       <c r="C131" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>7.9999999999999994E+134</v>
       </c>
       <c r="D131" s="16" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>800설</v>
       </c>
       <c r="E131" s="16">
         <v>20</v>
       </c>
       <c r="F131" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>36700000</v>
       </c>
       <c r="G131" s="16">
         <v>2</v>
       </c>
       <c r="H131" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.29960000000000131</v>
       </c>
       <c r="I131" s="16">
@@ -25597,17 +26304,17 @@
         <v>60</v>
       </c>
       <c r="L131" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1.1080000000000003</v>
       </c>
       <c r="M131" s="20">
         <v>800</v>
       </c>
       <c r="N131" s="19" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O131" s="12" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+132</v>
       </c>
     </row>
@@ -25616,25 +26323,25 @@
         <v>378</v>
       </c>
       <c r="C132" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>9.9999999999999996E+134</v>
       </c>
       <c r="D132" s="16" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>1000설</v>
       </c>
       <c r="E132" s="16">
         <v>20</v>
       </c>
       <c r="F132" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>36800000</v>
       </c>
       <c r="G132" s="16">
         <v>2</v>
       </c>
       <c r="H132" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.30000000000000132</v>
       </c>
       <c r="I132" s="16">
@@ -25647,17 +26354,17 @@
         <v>60</v>
       </c>
       <c r="L132" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1.1120000000000003</v>
       </c>
       <c r="M132" s="20">
         <v>1000</v>
       </c>
       <c r="N132" s="19" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O132" s="12" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+132</v>
       </c>
     </row>
@@ -25666,25 +26373,25 @@
         <v>379</v>
       </c>
       <c r="C133" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1.9999999999999999E+135</v>
       </c>
       <c r="D133" s="16" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>2000설</v>
       </c>
       <c r="E133" s="16">
         <v>20</v>
       </c>
       <c r="F133" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>36900000</v>
       </c>
       <c r="G133" s="16">
         <v>2</v>
       </c>
       <c r="H133" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.30040000000000133</v>
       </c>
       <c r="I133" s="16">
@@ -25697,17 +26404,17 @@
         <v>60</v>
       </c>
       <c r="L133" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1.1160000000000003</v>
       </c>
       <c r="M133" s="20">
         <v>2000</v>
       </c>
       <c r="N133" s="19" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O133" s="12" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+132</v>
       </c>
     </row>
@@ -25716,25 +26423,25 @@
         <v>380</v>
       </c>
       <c r="C134" s="16">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>4.9999999999999996E+135</v>
       </c>
       <c r="D134" s="16" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>5000설</v>
       </c>
       <c r="E134" s="16">
         <v>20</v>
       </c>
       <c r="F134" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>37000000</v>
       </c>
       <c r="G134" s="16">
         <v>2</v>
       </c>
       <c r="H134" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.30080000000000134</v>
       </c>
       <c r="I134" s="16">
@@ -25747,17 +26454,17 @@
         <v>60</v>
       </c>
       <c r="L134" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1.1200000000000003</v>
       </c>
       <c r="M134" s="20">
         <v>5000</v>
       </c>
       <c r="N134" s="19" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O134" s="12" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+132</v>
       </c>
     </row>
@@ -25766,25 +26473,25 @@
         <v>381</v>
       </c>
       <c r="C135" s="16">
-        <f t="shared" ref="C135:C149" si="44">M135*O135</f>
+        <f t="shared" ref="C135:C149" si="46">M135*O135</f>
         <v>1.0000000000000001E+136</v>
       </c>
       <c r="D135" s="16" t="str">
-        <f t="shared" ref="D135:D149" si="45">M135&amp;N135</f>
+        <f t="shared" ref="D135:D149" si="47">M135&amp;N135</f>
         <v>1적</v>
       </c>
       <c r="E135" s="16">
         <v>20</v>
       </c>
       <c r="F135" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>37100000</v>
       </c>
       <c r="G135" s="16">
         <v>2</v>
       </c>
       <c r="H135" s="16">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.30120000000000136</v>
       </c>
       <c r="I135" s="16">
@@ -25797,17 +26504,17 @@
         <v>60</v>
       </c>
       <c r="L135" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1.1240000000000003</v>
       </c>
       <c r="M135" s="20">
         <v>1</v>
       </c>
       <c r="N135" s="19" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O135" s="12" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+136</v>
       </c>
     </row>
@@ -25816,48 +26523,48 @@
         <v>382</v>
       </c>
       <c r="C136" s="16">
+        <f t="shared" si="46"/>
+        <v>2.0000000000000001E+136</v>
+      </c>
+      <c r="D136" s="16" t="str">
+        <f t="shared" si="47"/>
+        <v>2적</v>
+      </c>
+      <c r="E136" s="16">
+        <v>20</v>
+      </c>
+      <c r="F136" s="16">
         <f t="shared" si="44"/>
-        <v>2.0000000000000001E+136</v>
-      </c>
-      <c r="D136" s="16" t="str">
+        <v>37200000</v>
+      </c>
+      <c r="G136" s="16">
+        <v>2</v>
+      </c>
+      <c r="H136" s="16">
+        <f t="shared" si="34"/>
+        <v>0.30160000000000137</v>
+      </c>
+      <c r="I136" s="16">
+        <v>23</v>
+      </c>
+      <c r="J136" s="16">
+        <v>0</v>
+      </c>
+      <c r="K136" s="16">
+        <v>60</v>
+      </c>
+      <c r="L136" s="16">
         <f t="shared" si="45"/>
-        <v>2적</v>
-      </c>
-      <c r="E136" s="16">
-        <v>20</v>
-      </c>
-      <c r="F136" s="16">
-        <f t="shared" si="42"/>
-        <v>37200000</v>
-      </c>
-      <c r="G136" s="16">
-        <v>2</v>
-      </c>
-      <c r="H136" s="16">
-        <f t="shared" si="32"/>
-        <v>0.30160000000000137</v>
-      </c>
-      <c r="I136" s="16">
-        <v>23</v>
-      </c>
-      <c r="J136" s="16">
-        <v>0</v>
-      </c>
-      <c r="K136" s="16">
-        <v>60</v>
-      </c>
-      <c r="L136" s="16">
-        <f t="shared" si="43"/>
         <v>1.1280000000000003</v>
       </c>
       <c r="M136" s="20">
         <v>2</v>
       </c>
       <c r="N136" s="19" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O136" s="12" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+136</v>
       </c>
     </row>
@@ -25866,48 +26573,48 @@
         <v>383</v>
       </c>
       <c r="C137" s="16">
+        <f t="shared" si="46"/>
+        <v>5.0000000000000002E+136</v>
+      </c>
+      <c r="D137" s="16" t="str">
+        <f t="shared" si="47"/>
+        <v>5적</v>
+      </c>
+      <c r="E137" s="16">
+        <v>20</v>
+      </c>
+      <c r="F137" s="16">
         <f t="shared" si="44"/>
-        <v>5.0000000000000002E+136</v>
-      </c>
-      <c r="D137" s="16" t="str">
+        <v>37300000</v>
+      </c>
+      <c r="G137" s="16">
+        <v>2</v>
+      </c>
+      <c r="H137" s="16">
+        <f t="shared" si="34"/>
+        <v>0.30200000000000138</v>
+      </c>
+      <c r="I137" s="16">
+        <v>23</v>
+      </c>
+      <c r="J137" s="16">
+        <v>0</v>
+      </c>
+      <c r="K137" s="16">
+        <v>60</v>
+      </c>
+      <c r="L137" s="16">
         <f t="shared" si="45"/>
-        <v>5적</v>
-      </c>
-      <c r="E137" s="16">
-        <v>20</v>
-      </c>
-      <c r="F137" s="16">
-        <f t="shared" si="42"/>
-        <v>37300000</v>
-      </c>
-      <c r="G137" s="16">
-        <v>2</v>
-      </c>
-      <c r="H137" s="16">
-        <f t="shared" si="32"/>
-        <v>0.30200000000000138</v>
-      </c>
-      <c r="I137" s="16">
-        <v>23</v>
-      </c>
-      <c r="J137" s="16">
-        <v>0</v>
-      </c>
-      <c r="K137" s="16">
-        <v>60</v>
-      </c>
-      <c r="L137" s="16">
-        <f t="shared" si="43"/>
         <v>1.1320000000000003</v>
       </c>
       <c r="M137" s="20">
         <v>5</v>
       </c>
       <c r="N137" s="19" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O137" s="12" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+136</v>
       </c>
     </row>
@@ -25916,48 +26623,48 @@
         <v>384</v>
       </c>
       <c r="C138" s="16">
+        <f t="shared" si="46"/>
+        <v>1E+137</v>
+      </c>
+      <c r="D138" s="16" t="str">
+        <f t="shared" si="47"/>
+        <v>10적</v>
+      </c>
+      <c r="E138" s="16">
+        <v>20</v>
+      </c>
+      <c r="F138" s="16">
         <f t="shared" si="44"/>
-        <v>1E+137</v>
-      </c>
-      <c r="D138" s="16" t="str">
+        <v>37400000</v>
+      </c>
+      <c r="G138" s="16">
+        <v>2</v>
+      </c>
+      <c r="H138" s="16">
+        <f t="shared" ref="H138:H159" si="48">IF(RIGHT(H137,2)="24",H137+0.0076,H137+0.0004)</f>
+        <v>0.30240000000000139</v>
+      </c>
+      <c r="I138" s="16">
+        <v>23</v>
+      </c>
+      <c r="J138" s="16">
+        <v>0</v>
+      </c>
+      <c r="K138" s="16">
+        <v>60</v>
+      </c>
+      <c r="L138" s="16">
         <f t="shared" si="45"/>
-        <v>10적</v>
-      </c>
-      <c r="E138" s="16">
-        <v>20</v>
-      </c>
-      <c r="F138" s="16">
-        <f t="shared" si="42"/>
-        <v>37400000</v>
-      </c>
-      <c r="G138" s="16">
-        <v>2</v>
-      </c>
-      <c r="H138" s="16">
-        <f t="shared" ref="H138:H159" si="46">IF(RIGHT(H137,2)="24",H137+0.0076,H137+0.0004)</f>
-        <v>0.30240000000000139</v>
-      </c>
-      <c r="I138" s="16">
-        <v>23</v>
-      </c>
-      <c r="J138" s="16">
-        <v>0</v>
-      </c>
-      <c r="K138" s="16">
-        <v>60</v>
-      </c>
-      <c r="L138" s="16">
-        <f t="shared" si="43"/>
         <v>1.1360000000000003</v>
       </c>
       <c r="M138" s="20">
         <v>10</v>
       </c>
       <c r="N138" s="19" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O138" s="12" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+136</v>
       </c>
     </row>
@@ -25966,48 +26673,48 @@
         <v>385</v>
       </c>
       <c r="C139" s="16">
+        <f t="shared" si="46"/>
+        <v>2.0000000000000001E+137</v>
+      </c>
+      <c r="D139" s="16" t="str">
+        <f t="shared" si="47"/>
+        <v>20적</v>
+      </c>
+      <c r="E139" s="16">
+        <v>20</v>
+      </c>
+      <c r="F139" s="16">
         <f t="shared" si="44"/>
-        <v>2.0000000000000001E+137</v>
-      </c>
-      <c r="D139" s="16" t="str">
+        <v>37500000</v>
+      </c>
+      <c r="G139" s="16">
+        <v>2</v>
+      </c>
+      <c r="H139" s="16">
+        <f t="shared" si="48"/>
+        <v>0.3028000000000014</v>
+      </c>
+      <c r="I139" s="16">
+        <v>23</v>
+      </c>
+      <c r="J139" s="16">
+        <v>0</v>
+      </c>
+      <c r="K139" s="16">
+        <v>60</v>
+      </c>
+      <c r="L139" s="16">
         <f t="shared" si="45"/>
-        <v>20적</v>
-      </c>
-      <c r="E139" s="16">
-        <v>20</v>
-      </c>
-      <c r="F139" s="16">
-        <f t="shared" si="42"/>
-        <v>37500000</v>
-      </c>
-      <c r="G139" s="16">
-        <v>2</v>
-      </c>
-      <c r="H139" s="16">
-        <f t="shared" si="46"/>
-        <v>0.3028000000000014</v>
-      </c>
-      <c r="I139" s="16">
-        <v>23</v>
-      </c>
-      <c r="J139" s="16">
-        <v>0</v>
-      </c>
-      <c r="K139" s="16">
-        <v>60</v>
-      </c>
-      <c r="L139" s="16">
-        <f t="shared" si="43"/>
         <v>1.1400000000000003</v>
       </c>
       <c r="M139" s="20">
         <v>20</v>
       </c>
       <c r="N139" s="19" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O139" s="12" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+136</v>
       </c>
     </row>
@@ -26016,48 +26723,48 @@
         <v>386</v>
       </c>
       <c r="C140" s="16">
+        <f t="shared" si="46"/>
+        <v>5.0000000000000002E+137</v>
+      </c>
+      <c r="D140" s="16" t="str">
+        <f t="shared" si="47"/>
+        <v>50적</v>
+      </c>
+      <c r="E140" s="16">
+        <v>20</v>
+      </c>
+      <c r="F140" s="16">
         <f t="shared" si="44"/>
-        <v>5.0000000000000002E+137</v>
-      </c>
-      <c r="D140" s="16" t="str">
+        <v>37600000</v>
+      </c>
+      <c r="G140" s="16">
+        <v>2</v>
+      </c>
+      <c r="H140" s="16">
+        <f t="shared" si="48"/>
+        <v>0.30320000000000141</v>
+      </c>
+      <c r="I140" s="16">
+        <v>23</v>
+      </c>
+      <c r="J140" s="16">
+        <v>0</v>
+      </c>
+      <c r="K140" s="16">
+        <v>60</v>
+      </c>
+      <c r="L140" s="16">
         <f t="shared" si="45"/>
-        <v>50적</v>
-      </c>
-      <c r="E140" s="16">
-        <v>20</v>
-      </c>
-      <c r="F140" s="16">
-        <f t="shared" si="42"/>
-        <v>37600000</v>
-      </c>
-      <c r="G140" s="16">
-        <v>2</v>
-      </c>
-      <c r="H140" s="16">
-        <f t="shared" si="46"/>
-        <v>0.30320000000000141</v>
-      </c>
-      <c r="I140" s="16">
-        <v>23</v>
-      </c>
-      <c r="J140" s="16">
-        <v>0</v>
-      </c>
-      <c r="K140" s="16">
-        <v>60</v>
-      </c>
-      <c r="L140" s="16">
-        <f t="shared" si="43"/>
         <v>1.1440000000000003</v>
       </c>
       <c r="M140" s="20">
         <v>50</v>
       </c>
       <c r="N140" s="19" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O140" s="12" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+136</v>
       </c>
     </row>
@@ -26066,48 +26773,48 @@
         <v>387</v>
       </c>
       <c r="C141" s="16">
+        <f t="shared" si="46"/>
+        <v>1E+138</v>
+      </c>
+      <c r="D141" s="16" t="str">
+        <f t="shared" si="47"/>
+        <v>100적</v>
+      </c>
+      <c r="E141" s="16">
+        <v>20</v>
+      </c>
+      <c r="F141" s="16">
         <f t="shared" si="44"/>
-        <v>1E+138</v>
-      </c>
-      <c r="D141" s="16" t="str">
+        <v>37700000</v>
+      </c>
+      <c r="G141" s="16">
+        <v>2</v>
+      </c>
+      <c r="H141" s="16">
+        <f t="shared" si="48"/>
+        <v>0.30360000000000142</v>
+      </c>
+      <c r="I141" s="16">
+        <v>23</v>
+      </c>
+      <c r="J141" s="16">
+        <v>0</v>
+      </c>
+      <c r="K141" s="16">
+        <v>60</v>
+      </c>
+      <c r="L141" s="16">
         <f t="shared" si="45"/>
-        <v>100적</v>
-      </c>
-      <c r="E141" s="16">
-        <v>20</v>
-      </c>
-      <c r="F141" s="16">
-        <f t="shared" si="42"/>
-        <v>37700000</v>
-      </c>
-      <c r="G141" s="16">
-        <v>2</v>
-      </c>
-      <c r="H141" s="16">
-        <f t="shared" si="46"/>
-        <v>0.30360000000000142</v>
-      </c>
-      <c r="I141" s="16">
-        <v>23</v>
-      </c>
-      <c r="J141" s="16">
-        <v>0</v>
-      </c>
-      <c r="K141" s="16">
-        <v>60</v>
-      </c>
-      <c r="L141" s="16">
-        <f t="shared" si="43"/>
         <v>1.1480000000000004</v>
       </c>
       <c r="M141" s="20">
         <v>100</v>
       </c>
       <c r="N141" s="19" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O141" s="12" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+136</v>
       </c>
     </row>
@@ -26116,48 +26823,48 @@
         <v>388</v>
       </c>
       <c r="C142" s="16">
+        <f t="shared" si="46"/>
+        <v>1.5E+138</v>
+      </c>
+      <c r="D142" s="16" t="str">
+        <f t="shared" si="47"/>
+        <v>150적</v>
+      </c>
+      <c r="E142" s="16">
+        <v>20</v>
+      </c>
+      <c r="F142" s="16">
         <f t="shared" si="44"/>
-        <v>1.5E+138</v>
-      </c>
-      <c r="D142" s="16" t="str">
+        <v>37800000</v>
+      </c>
+      <c r="G142" s="16">
+        <v>2</v>
+      </c>
+      <c r="H142" s="16">
+        <f t="shared" si="48"/>
+        <v>0.30400000000000144</v>
+      </c>
+      <c r="I142" s="16">
+        <v>23</v>
+      </c>
+      <c r="J142" s="16">
+        <v>0</v>
+      </c>
+      <c r="K142" s="16">
+        <v>60</v>
+      </c>
+      <c r="L142" s="16">
         <f t="shared" si="45"/>
-        <v>150적</v>
-      </c>
-      <c r="E142" s="16">
-        <v>20</v>
-      </c>
-      <c r="F142" s="16">
-        <f t="shared" si="42"/>
-        <v>37800000</v>
-      </c>
-      <c r="G142" s="16">
-        <v>2</v>
-      </c>
-      <c r="H142" s="16">
-        <f t="shared" si="46"/>
-        <v>0.30400000000000144</v>
-      </c>
-      <c r="I142" s="16">
-        <v>23</v>
-      </c>
-      <c r="J142" s="16">
-        <v>0</v>
-      </c>
-      <c r="K142" s="16">
-        <v>60</v>
-      </c>
-      <c r="L142" s="16">
-        <f t="shared" si="43"/>
         <v>1.1520000000000004</v>
       </c>
       <c r="M142" s="20">
         <v>150</v>
       </c>
       <c r="N142" s="19" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O142" s="12" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+136</v>
       </c>
     </row>
@@ -26166,48 +26873,48 @@
         <v>389</v>
       </c>
       <c r="C143" s="16">
+        <f t="shared" si="46"/>
+        <v>2.0000000000000001E+138</v>
+      </c>
+      <c r="D143" s="16" t="str">
+        <f t="shared" si="47"/>
+        <v>200적</v>
+      </c>
+      <c r="E143" s="16">
+        <v>20</v>
+      </c>
+      <c r="F143" s="16">
         <f t="shared" si="44"/>
-        <v>2.0000000000000001E+138</v>
-      </c>
-      <c r="D143" s="16" t="str">
+        <v>37900000</v>
+      </c>
+      <c r="G143" s="16">
+        <v>2</v>
+      </c>
+      <c r="H143" s="16">
+        <f t="shared" si="48"/>
+        <v>0.30440000000000145</v>
+      </c>
+      <c r="I143" s="16">
+        <v>23</v>
+      </c>
+      <c r="J143" s="16">
+        <v>0</v>
+      </c>
+      <c r="K143" s="16">
+        <v>60</v>
+      </c>
+      <c r="L143" s="16">
         <f t="shared" si="45"/>
-        <v>200적</v>
-      </c>
-      <c r="E143" s="16">
-        <v>20</v>
-      </c>
-      <c r="F143" s="16">
-        <f t="shared" si="42"/>
-        <v>37900000</v>
-      </c>
-      <c r="G143" s="16">
-        <v>2</v>
-      </c>
-      <c r="H143" s="16">
-        <f t="shared" si="46"/>
-        <v>0.30440000000000145</v>
-      </c>
-      <c r="I143" s="16">
-        <v>23</v>
-      </c>
-      <c r="J143" s="16">
-        <v>0</v>
-      </c>
-      <c r="K143" s="16">
-        <v>60</v>
-      </c>
-      <c r="L143" s="16">
-        <f t="shared" si="43"/>
         <v>1.1560000000000004</v>
       </c>
       <c r="M143" s="20">
         <v>200</v>
       </c>
       <c r="N143" s="19" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O143" s="12" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+136</v>
       </c>
     </row>
@@ -26216,48 +26923,48 @@
         <v>390</v>
       </c>
       <c r="C144" s="16">
+        <f t="shared" si="46"/>
+        <v>3.0000000000000001E+138</v>
+      </c>
+      <c r="D144" s="16" t="str">
+        <f t="shared" si="47"/>
+        <v>300적</v>
+      </c>
+      <c r="E144" s="16">
+        <v>20</v>
+      </c>
+      <c r="F144" s="16">
         <f t="shared" si="44"/>
-        <v>3.0000000000000001E+138</v>
-      </c>
-      <c r="D144" s="16" t="str">
+        <v>38000000</v>
+      </c>
+      <c r="G144" s="16">
+        <v>2</v>
+      </c>
+      <c r="H144" s="16">
+        <f t="shared" si="48"/>
+        <v>0.30480000000000146</v>
+      </c>
+      <c r="I144" s="16">
+        <v>23</v>
+      </c>
+      <c r="J144" s="16">
+        <v>0</v>
+      </c>
+      <c r="K144" s="16">
+        <v>60</v>
+      </c>
+      <c r="L144" s="16">
         <f t="shared" si="45"/>
-        <v>300적</v>
-      </c>
-      <c r="E144" s="16">
-        <v>20</v>
-      </c>
-      <c r="F144" s="16">
-        <f t="shared" si="42"/>
-        <v>38000000</v>
-      </c>
-      <c r="G144" s="16">
-        <v>2</v>
-      </c>
-      <c r="H144" s="16">
-        <f t="shared" si="46"/>
-        <v>0.30480000000000146</v>
-      </c>
-      <c r="I144" s="16">
-        <v>23</v>
-      </c>
-      <c r="J144" s="16">
-        <v>0</v>
-      </c>
-      <c r="K144" s="16">
-        <v>60</v>
-      </c>
-      <c r="L144" s="16">
-        <f t="shared" si="43"/>
         <v>1.1600000000000004</v>
       </c>
       <c r="M144" s="20">
         <v>300</v>
       </c>
       <c r="N144" s="19" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O144" s="12" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+136</v>
       </c>
     </row>
@@ -26266,48 +26973,48 @@
         <v>391</v>
       </c>
       <c r="C145" s="16">
+        <f t="shared" si="46"/>
+        <v>5.0000000000000002E+138</v>
+      </c>
+      <c r="D145" s="16" t="str">
+        <f t="shared" si="47"/>
+        <v>500적</v>
+      </c>
+      <c r="E145" s="16">
+        <v>20</v>
+      </c>
+      <c r="F145" s="16">
         <f t="shared" si="44"/>
-        <v>5.0000000000000002E+138</v>
-      </c>
-      <c r="D145" s="16" t="str">
+        <v>38100000</v>
+      </c>
+      <c r="G145" s="16">
+        <v>2</v>
+      </c>
+      <c r="H145" s="16">
+        <f t="shared" si="48"/>
+        <v>0.30520000000000147</v>
+      </c>
+      <c r="I145" s="16">
+        <v>23</v>
+      </c>
+      <c r="J145" s="16">
+        <v>0</v>
+      </c>
+      <c r="K145" s="16">
+        <v>60</v>
+      </c>
+      <c r="L145" s="16">
         <f t="shared" si="45"/>
-        <v>500적</v>
-      </c>
-      <c r="E145" s="16">
-        <v>20</v>
-      </c>
-      <c r="F145" s="16">
-        <f t="shared" si="42"/>
-        <v>38100000</v>
-      </c>
-      <c r="G145" s="16">
-        <v>2</v>
-      </c>
-      <c r="H145" s="16">
-        <f t="shared" si="46"/>
-        <v>0.30520000000000147</v>
-      </c>
-      <c r="I145" s="16">
-        <v>23</v>
-      </c>
-      <c r="J145" s="16">
-        <v>0</v>
-      </c>
-      <c r="K145" s="16">
-        <v>60</v>
-      </c>
-      <c r="L145" s="16">
-        <f t="shared" si="43"/>
         <v>1.1640000000000004</v>
       </c>
       <c r="M145" s="20">
         <v>500</v>
       </c>
       <c r="N145" s="19" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O145" s="12" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+136</v>
       </c>
     </row>
@@ -26316,48 +27023,48 @@
         <v>392</v>
       </c>
       <c r="C146" s="16">
+        <f t="shared" si="46"/>
+        <v>8.0000000000000003E+138</v>
+      </c>
+      <c r="D146" s="16" t="str">
+        <f t="shared" si="47"/>
+        <v>800적</v>
+      </c>
+      <c r="E146" s="16">
+        <v>20</v>
+      </c>
+      <c r="F146" s="16">
         <f t="shared" si="44"/>
-        <v>8.0000000000000003E+138</v>
-      </c>
-      <c r="D146" s="16" t="str">
+        <v>38200000</v>
+      </c>
+      <c r="G146" s="16">
+        <v>2</v>
+      </c>
+      <c r="H146" s="16">
+        <f t="shared" si="48"/>
+        <v>0.30560000000000148</v>
+      </c>
+      <c r="I146" s="16">
+        <v>23</v>
+      </c>
+      <c r="J146" s="16">
+        <v>0</v>
+      </c>
+      <c r="K146" s="16">
+        <v>60</v>
+      </c>
+      <c r="L146" s="16">
         <f t="shared" si="45"/>
-        <v>800적</v>
-      </c>
-      <c r="E146" s="16">
-        <v>20</v>
-      </c>
-      <c r="F146" s="16">
-        <f t="shared" si="42"/>
-        <v>38200000</v>
-      </c>
-      <c r="G146" s="16">
-        <v>2</v>
-      </c>
-      <c r="H146" s="16">
-        <f t="shared" si="46"/>
-        <v>0.30560000000000148</v>
-      </c>
-      <c r="I146" s="16">
-        <v>23</v>
-      </c>
-      <c r="J146" s="16">
-        <v>0</v>
-      </c>
-      <c r="K146" s="16">
-        <v>60</v>
-      </c>
-      <c r="L146" s="16">
-        <f t="shared" si="43"/>
         <v>1.1680000000000004</v>
       </c>
       <c r="M146" s="20">
         <v>800</v>
       </c>
       <c r="N146" s="19" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O146" s="12" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+136</v>
       </c>
     </row>
@@ -26366,48 +27073,48 @@
         <v>393</v>
       </c>
       <c r="C147" s="16">
+        <f t="shared" si="46"/>
+        <v>1E+139</v>
+      </c>
+      <c r="D147" s="16" t="str">
+        <f t="shared" si="47"/>
+        <v>1000적</v>
+      </c>
+      <c r="E147" s="16">
+        <v>20</v>
+      </c>
+      <c r="F147" s="16">
         <f t="shared" si="44"/>
-        <v>1E+139</v>
-      </c>
-      <c r="D147" s="16" t="str">
+        <v>38300000</v>
+      </c>
+      <c r="G147" s="16">
+        <v>2</v>
+      </c>
+      <c r="H147" s="16">
+        <f t="shared" si="48"/>
+        <v>0.30600000000000149</v>
+      </c>
+      <c r="I147" s="16">
+        <v>23</v>
+      </c>
+      <c r="J147" s="16">
+        <v>0</v>
+      </c>
+      <c r="K147" s="16">
+        <v>60</v>
+      </c>
+      <c r="L147" s="16">
         <f t="shared" si="45"/>
-        <v>1000적</v>
-      </c>
-      <c r="E147" s="16">
-        <v>20</v>
-      </c>
-      <c r="F147" s="16">
-        <f t="shared" si="42"/>
-        <v>38300000</v>
-      </c>
-      <c r="G147" s="16">
-        <v>2</v>
-      </c>
-      <c r="H147" s="16">
-        <f t="shared" si="46"/>
-        <v>0.30600000000000149</v>
-      </c>
-      <c r="I147" s="16">
-        <v>23</v>
-      </c>
-      <c r="J147" s="16">
-        <v>0</v>
-      </c>
-      <c r="K147" s="16">
-        <v>60</v>
-      </c>
-      <c r="L147" s="16">
-        <f t="shared" si="43"/>
         <v>1.1720000000000004</v>
       </c>
       <c r="M147" s="20">
         <v>1000</v>
       </c>
       <c r="N147" s="19" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O147" s="12" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+136</v>
       </c>
     </row>
@@ -26416,48 +27123,48 @@
         <v>394</v>
       </c>
       <c r="C148" s="16">
+        <f t="shared" si="46"/>
+        <v>2.0000000000000001E+139</v>
+      </c>
+      <c r="D148" s="16" t="str">
+        <f t="shared" si="47"/>
+        <v>2000적</v>
+      </c>
+      <c r="E148" s="16">
+        <v>20</v>
+      </c>
+      <c r="F148" s="16">
         <f t="shared" si="44"/>
-        <v>2.0000000000000001E+139</v>
-      </c>
-      <c r="D148" s="16" t="str">
+        <v>38400000</v>
+      </c>
+      <c r="G148" s="16">
+        <v>2</v>
+      </c>
+      <c r="H148" s="16">
+        <f t="shared" si="48"/>
+        <v>0.3064000000000015</v>
+      </c>
+      <c r="I148" s="16">
+        <v>23</v>
+      </c>
+      <c r="J148" s="16">
+        <v>0</v>
+      </c>
+      <c r="K148" s="16">
+        <v>60</v>
+      </c>
+      <c r="L148" s="16">
         <f t="shared" si="45"/>
-        <v>2000적</v>
-      </c>
-      <c r="E148" s="16">
-        <v>20</v>
-      </c>
-      <c r="F148" s="16">
-        <f t="shared" si="42"/>
-        <v>38400000</v>
-      </c>
-      <c r="G148" s="16">
-        <v>2</v>
-      </c>
-      <c r="H148" s="16">
-        <f t="shared" si="46"/>
-        <v>0.3064000000000015</v>
-      </c>
-      <c r="I148" s="16">
-        <v>23</v>
-      </c>
-      <c r="J148" s="16">
-        <v>0</v>
-      </c>
-      <c r="K148" s="16">
-        <v>60</v>
-      </c>
-      <c r="L148" s="16">
-        <f t="shared" si="43"/>
         <v>1.1760000000000004</v>
       </c>
       <c r="M148" s="20">
         <v>2000</v>
       </c>
       <c r="N148" s="19" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O148" s="12" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+136</v>
       </c>
     </row>
@@ -26466,48 +27173,48 @@
         <v>395</v>
       </c>
       <c r="C149" s="16">
+        <f t="shared" si="46"/>
+        <v>5.0000000000000003E+139</v>
+      </c>
+      <c r="D149" s="16" t="str">
+        <f t="shared" si="47"/>
+        <v>5000적</v>
+      </c>
+      <c r="E149" s="16">
+        <v>20</v>
+      </c>
+      <c r="F149" s="16">
         <f t="shared" si="44"/>
-        <v>5.0000000000000003E+139</v>
-      </c>
-      <c r="D149" s="16" t="str">
+        <v>38500000</v>
+      </c>
+      <c r="G149" s="16">
+        <v>2</v>
+      </c>
+      <c r="H149" s="16">
+        <f t="shared" si="48"/>
+        <v>0.30680000000000152</v>
+      </c>
+      <c r="I149" s="16">
+        <v>23</v>
+      </c>
+      <c r="J149" s="16">
+        <v>0</v>
+      </c>
+      <c r="K149" s="16">
+        <v>60</v>
+      </c>
+      <c r="L149" s="16">
         <f t="shared" si="45"/>
-        <v>5000적</v>
-      </c>
-      <c r="E149" s="16">
-        <v>20</v>
-      </c>
-      <c r="F149" s="16">
-        <f t="shared" si="42"/>
-        <v>38500000</v>
-      </c>
-      <c r="G149" s="16">
-        <v>2</v>
-      </c>
-      <c r="H149" s="16">
-        <f t="shared" si="46"/>
-        <v>0.30680000000000152</v>
-      </c>
-      <c r="I149" s="16">
-        <v>23</v>
-      </c>
-      <c r="J149" s="16">
-        <v>0</v>
-      </c>
-      <c r="K149" s="16">
-        <v>60</v>
-      </c>
-      <c r="L149" s="16">
-        <f t="shared" si="43"/>
         <v>1.1800000000000004</v>
       </c>
       <c r="M149" s="20">
         <v>5000</v>
       </c>
       <c r="N149" s="19" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O149" s="12" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+136</v>
       </c>
     </row>
@@ -26520,21 +27227,21 @@
         <v>1.0000000000000001E+140</v>
       </c>
       <c r="D150" s="16" t="str">
-        <f t="shared" ref="D150:D165" si="47">M150&amp;N150</f>
+        <f t="shared" ref="D150:D159" si="49">M150&amp;N150</f>
         <v>1고</v>
       </c>
       <c r="E150" s="16">
         <v>20</v>
       </c>
       <c r="F150" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>38600000</v>
       </c>
       <c r="G150" s="16">
         <v>2</v>
       </c>
       <c r="H150" s="16">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0.30720000000000153</v>
       </c>
       <c r="I150" s="16">
@@ -26547,17 +27254,17 @@
         <v>60</v>
       </c>
       <c r="L150" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1.1840000000000004</v>
       </c>
       <c r="M150" s="20">
         <v>1</v>
       </c>
       <c r="N150" s="19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O150" s="12" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+140</v>
       </c>
     </row>
@@ -26566,25 +27273,25 @@
         <v>397</v>
       </c>
       <c r="C151" s="16">
-        <f t="shared" ref="C151:C165" si="48">M151*O151</f>
+        <f t="shared" ref="C151:C159" si="50">M151*O151</f>
         <v>2.0000000000000001E+140</v>
       </c>
       <c r="D151" s="16" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>2고</v>
       </c>
       <c r="E151" s="16">
         <v>20</v>
       </c>
       <c r="F151" s="16">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>38700000</v>
       </c>
       <c r="G151" s="16">
         <v>2</v>
       </c>
       <c r="H151" s="16">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0.30760000000000154</v>
       </c>
       <c r="I151" s="16">
@@ -26597,17 +27304,17 @@
         <v>60</v>
       </c>
       <c r="L151" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1.1880000000000004</v>
       </c>
       <c r="M151" s="20">
         <v>2</v>
       </c>
       <c r="N151" s="19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O151" s="12" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+140</v>
       </c>
     </row>
@@ -26616,25 +27323,25 @@
         <v>398</v>
       </c>
       <c r="C152" s="16">
+        <f t="shared" si="50"/>
+        <v>5.0000000000000001E+140</v>
+      </c>
+      <c r="D152" s="16" t="str">
+        <f t="shared" si="49"/>
+        <v>5고</v>
+      </c>
+      <c r="E152" s="16">
+        <v>20</v>
+      </c>
+      <c r="F152" s="16">
+        <f t="shared" si="44"/>
+        <v>38800000</v>
+      </c>
+      <c r="G152" s="16">
+        <v>2</v>
+      </c>
+      <c r="H152" s="16">
         <f t="shared" si="48"/>
-        <v>5.0000000000000001E+140</v>
-      </c>
-      <c r="D152" s="16" t="str">
-        <f t="shared" si="47"/>
-        <v>5고</v>
-      </c>
-      <c r="E152" s="16">
-        <v>20</v>
-      </c>
-      <c r="F152" s="16">
-        <f t="shared" si="42"/>
-        <v>38800000</v>
-      </c>
-      <c r="G152" s="16">
-        <v>2</v>
-      </c>
-      <c r="H152" s="16">
-        <f t="shared" si="46"/>
         <v>0.30800000000000155</v>
       </c>
       <c r="I152" s="16">
@@ -26647,17 +27354,17 @@
         <v>60</v>
       </c>
       <c r="L152" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1.1920000000000004</v>
       </c>
       <c r="M152" s="20">
         <v>5</v>
       </c>
       <c r="N152" s="19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O152" s="12" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+140</v>
       </c>
     </row>
@@ -26666,25 +27373,25 @@
         <v>399</v>
       </c>
       <c r="C153" s="16">
+        <f t="shared" si="50"/>
+        <v>1E+141</v>
+      </c>
+      <c r="D153" s="16" t="str">
+        <f t="shared" si="49"/>
+        <v>10고</v>
+      </c>
+      <c r="E153" s="16">
+        <v>20</v>
+      </c>
+      <c r="F153" s="16">
+        <f t="shared" si="44"/>
+        <v>38900000</v>
+      </c>
+      <c r="G153" s="16">
+        <v>2</v>
+      </c>
+      <c r="H153" s="16">
         <f t="shared" si="48"/>
-        <v>1E+141</v>
-      </c>
-      <c r="D153" s="16" t="str">
-        <f t="shared" si="47"/>
-        <v>10고</v>
-      </c>
-      <c r="E153" s="16">
-        <v>20</v>
-      </c>
-      <c r="F153" s="16">
-        <f t="shared" si="42"/>
-        <v>38900000</v>
-      </c>
-      <c r="G153" s="16">
-        <v>2</v>
-      </c>
-      <c r="H153" s="16">
-        <f t="shared" si="46"/>
         <v>0.30840000000000156</v>
       </c>
       <c r="I153" s="16">
@@ -26697,17 +27404,17 @@
         <v>60</v>
       </c>
       <c r="L153" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1.1960000000000004</v>
       </c>
       <c r="M153" s="20">
         <v>10</v>
       </c>
       <c r="N153" s="19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O153" s="12" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+140</v>
       </c>
     </row>
@@ -26716,25 +27423,25 @@
         <v>400</v>
       </c>
       <c r="C154" s="16">
+        <f t="shared" si="50"/>
+        <v>2E+141</v>
+      </c>
+      <c r="D154" s="16" t="str">
+        <f t="shared" si="49"/>
+        <v>20고</v>
+      </c>
+      <c r="E154" s="16">
+        <v>20</v>
+      </c>
+      <c r="F154" s="16">
+        <f t="shared" si="44"/>
+        <v>39000000</v>
+      </c>
+      <c r="G154" s="16">
+        <v>2</v>
+      </c>
+      <c r="H154" s="16">
         <f t="shared" si="48"/>
-        <v>2E+141</v>
-      </c>
-      <c r="D154" s="16" t="str">
-        <f t="shared" si="47"/>
-        <v>20고</v>
-      </c>
-      <c r="E154" s="16">
-        <v>20</v>
-      </c>
-      <c r="F154" s="16">
-        <f t="shared" si="42"/>
-        <v>39000000</v>
-      </c>
-      <c r="G154" s="16">
-        <v>2</v>
-      </c>
-      <c r="H154" s="16">
-        <f t="shared" si="46"/>
         <v>0.30880000000000157</v>
       </c>
       <c r="I154" s="16">
@@ -26747,17 +27454,17 @@
         <v>60</v>
       </c>
       <c r="L154" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1.2000000000000004</v>
       </c>
       <c r="M154" s="20">
         <v>20</v>
       </c>
       <c r="N154" s="19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O154" s="12" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+140</v>
       </c>
     </row>
@@ -26766,25 +27473,25 @@
         <v>401</v>
       </c>
       <c r="C155" s="16">
+        <f t="shared" si="50"/>
+        <v>5.0000000000000003E+141</v>
+      </c>
+      <c r="D155" s="16" t="str">
+        <f t="shared" si="49"/>
+        <v>50고</v>
+      </c>
+      <c r="E155" s="16">
+        <v>20</v>
+      </c>
+      <c r="F155" s="16">
+        <f t="shared" si="44"/>
+        <v>39100000</v>
+      </c>
+      <c r="G155" s="16">
+        <v>2</v>
+      </c>
+      <c r="H155" s="16">
         <f t="shared" si="48"/>
-        <v>5.0000000000000003E+141</v>
-      </c>
-      <c r="D155" s="16" t="str">
-        <f t="shared" si="47"/>
-        <v>50고</v>
-      </c>
-      <c r="E155" s="16">
-        <v>20</v>
-      </c>
-      <c r="F155" s="16">
-        <f t="shared" si="42"/>
-        <v>39100000</v>
-      </c>
-      <c r="G155" s="16">
-        <v>2</v>
-      </c>
-      <c r="H155" s="16">
-        <f t="shared" si="46"/>
         <v>0.30920000000000158</v>
       </c>
       <c r="I155" s="16">
@@ -26797,17 +27504,17 @@
         <v>60</v>
       </c>
       <c r="L155" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1.2040000000000004</v>
       </c>
       <c r="M155" s="20">
         <v>50</v>
       </c>
       <c r="N155" s="19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O155" s="12" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+140</v>
       </c>
     </row>
@@ -26816,25 +27523,25 @@
         <v>402</v>
       </c>
       <c r="C156" s="16">
+        <f t="shared" si="50"/>
+        <v>1.0000000000000001E+142</v>
+      </c>
+      <c r="D156" s="16" t="str">
+        <f t="shared" si="49"/>
+        <v>100고</v>
+      </c>
+      <c r="E156" s="16">
+        <v>20</v>
+      </c>
+      <c r="F156" s="16">
+        <f t="shared" si="44"/>
+        <v>39200000</v>
+      </c>
+      <c r="G156" s="16">
+        <v>2</v>
+      </c>
+      <c r="H156" s="16">
         <f t="shared" si="48"/>
-        <v>1.0000000000000001E+142</v>
-      </c>
-      <c r="D156" s="16" t="str">
-        <f t="shared" si="47"/>
-        <v>100고</v>
-      </c>
-      <c r="E156" s="16">
-        <v>20</v>
-      </c>
-      <c r="F156" s="16">
-        <f t="shared" si="42"/>
-        <v>39200000</v>
-      </c>
-      <c r="G156" s="16">
-        <v>2</v>
-      </c>
-      <c r="H156" s="16">
-        <f t="shared" si="46"/>
         <v>0.3096000000000016</v>
       </c>
       <c r="I156" s="16">
@@ -26847,17 +27554,17 @@
         <v>60</v>
       </c>
       <c r="L156" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1.2080000000000004</v>
       </c>
       <c r="M156" s="20">
         <v>100</v>
       </c>
       <c r="N156" s="19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O156" s="12" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+140</v>
       </c>
     </row>
@@ -26866,25 +27573,25 @@
         <v>403</v>
       </c>
       <c r="C157" s="16">
+        <f t="shared" si="50"/>
+        <v>1.5000000000000001E+142</v>
+      </c>
+      <c r="D157" s="16" t="str">
+        <f t="shared" si="49"/>
+        <v>150고</v>
+      </c>
+      <c r="E157" s="16">
+        <v>20</v>
+      </c>
+      <c r="F157" s="16">
+        <f t="shared" si="44"/>
+        <v>39300000</v>
+      </c>
+      <c r="G157" s="16">
+        <v>2</v>
+      </c>
+      <c r="H157" s="16">
         <f t="shared" si="48"/>
-        <v>1.5000000000000001E+142</v>
-      </c>
-      <c r="D157" s="16" t="str">
-        <f t="shared" si="47"/>
-        <v>150고</v>
-      </c>
-      <c r="E157" s="16">
-        <v>20</v>
-      </c>
-      <c r="F157" s="16">
-        <f t="shared" si="42"/>
-        <v>39300000</v>
-      </c>
-      <c r="G157" s="16">
-        <v>2</v>
-      </c>
-      <c r="H157" s="16">
-        <f t="shared" si="46"/>
         <v>0.31000000000000161</v>
       </c>
       <c r="I157" s="16">
@@ -26897,17 +27604,17 @@
         <v>60</v>
       </c>
       <c r="L157" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1.2120000000000004</v>
       </c>
       <c r="M157" s="20">
         <v>150</v>
       </c>
       <c r="N157" s="19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O157" s="12" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+140</v>
       </c>
     </row>
@@ -26916,25 +27623,25 @@
         <v>404</v>
       </c>
       <c r="C158" s="16">
+        <f t="shared" si="50"/>
+        <v>2.0000000000000001E+142</v>
+      </c>
+      <c r="D158" s="16" t="str">
+        <f t="shared" si="49"/>
+        <v>200고</v>
+      </c>
+      <c r="E158" s="16">
+        <v>20</v>
+      </c>
+      <c r="F158" s="16">
+        <f t="shared" si="44"/>
+        <v>39400000</v>
+      </c>
+      <c r="G158" s="16">
+        <v>2</v>
+      </c>
+      <c r="H158" s="16">
         <f t="shared" si="48"/>
-        <v>2.0000000000000001E+142</v>
-      </c>
-      <c r="D158" s="16" t="str">
-        <f t="shared" si="47"/>
-        <v>200고</v>
-      </c>
-      <c r="E158" s="16">
-        <v>20</v>
-      </c>
-      <c r="F158" s="16">
-        <f t="shared" si="42"/>
-        <v>39400000</v>
-      </c>
-      <c r="G158" s="16">
-        <v>2</v>
-      </c>
-      <c r="H158" s="16">
-        <f t="shared" si="46"/>
         <v>0.31040000000000162</v>
       </c>
       <c r="I158" s="16">
@@ -26947,17 +27654,17 @@
         <v>60</v>
       </c>
       <c r="L158" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1.2160000000000004</v>
       </c>
       <c r="M158" s="20">
         <v>200</v>
       </c>
       <c r="N158" s="19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O158" s="12" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+140</v>
       </c>
     </row>
@@ -26966,25 +27673,25 @@
         <v>405</v>
       </c>
       <c r="C159" s="16">
+        <f t="shared" si="50"/>
+        <v>3.0000000000000003E+142</v>
+      </c>
+      <c r="D159" s="16" t="str">
+        <f t="shared" si="49"/>
+        <v>300고</v>
+      </c>
+      <c r="E159" s="16">
+        <v>20</v>
+      </c>
+      <c r="F159" s="16">
+        <f t="shared" si="44"/>
+        <v>39500000</v>
+      </c>
+      <c r="G159" s="16">
+        <v>2</v>
+      </c>
+      <c r="H159" s="16">
         <f t="shared" si="48"/>
-        <v>3.0000000000000003E+142</v>
-      </c>
-      <c r="D159" s="16" t="str">
-        <f t="shared" si="47"/>
-        <v>300고</v>
-      </c>
-      <c r="E159" s="16">
-        <v>20</v>
-      </c>
-      <c r="F159" s="16">
-        <f t="shared" si="42"/>
-        <v>39500000</v>
-      </c>
-      <c r="G159" s="16">
-        <v>2</v>
-      </c>
-      <c r="H159" s="16">
-        <f t="shared" si="46"/>
         <v>0.31080000000000163</v>
       </c>
       <c r="I159" s="16">
@@ -26997,17 +27704,17 @@
         <v>60</v>
       </c>
       <c r="L159" s="16">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>1.2200000000000004</v>
       </c>
       <c r="M159" s="20">
         <v>300</v>
       </c>
       <c r="N159" s="19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O159" s="12" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+140</v>
       </c>
     </row>
@@ -27054,10 +27761,10 @@
         <v>500</v>
       </c>
       <c r="N160" s="19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O160" s="12" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+140</v>
       </c>
     </row>
@@ -27104,10 +27811,10 @@
         <v>800</v>
       </c>
       <c r="N161" s="19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O161" s="12" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+140</v>
       </c>
     </row>
@@ -27154,10 +27861,10 @@
         <v>1000</v>
       </c>
       <c r="N162" s="19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O162" s="12" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+140</v>
       </c>
     </row>
@@ -27204,10 +27911,10 @@
         <v>2000</v>
       </c>
       <c r="N163" s="19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O163" s="12" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+140</v>
       </c>
     </row>
@@ -27254,10 +27961,10 @@
         <v>5000</v>
       </c>
       <c r="N164" s="19" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O164" s="12" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+140</v>
       </c>
     </row>
@@ -27266,25 +27973,25 @@
         <v>411</v>
       </c>
       <c r="C165" s="16">
-        <f t="shared" ref="C165:C179" si="49">M165*O165</f>
+        <f t="shared" ref="C165:C179" si="51">M165*O165</f>
         <v>1E+144</v>
       </c>
       <c r="D165" s="16" t="str">
-        <f t="shared" ref="D165:D179" si="50">M165&amp;N165</f>
+        <f t="shared" ref="D165:D179" si="52">M165&amp;N165</f>
         <v>1화</v>
       </c>
       <c r="E165" s="16">
         <v>20</v>
       </c>
       <c r="F165" s="16">
-        <f t="shared" ref="F165:F179" si="51">F164+100000</f>
+        <f t="shared" ref="F165:F194" si="53">F164+100000</f>
         <v>40100000</v>
       </c>
       <c r="G165" s="16">
         <v>2</v>
       </c>
       <c r="H165" s="16">
-        <f t="shared" ref="H165:H179" si="52">IF(RIGHT(H164,2)="24",H164+0.0076,H164+0.0004)</f>
+        <f t="shared" ref="H165:H194" si="54">IF(RIGHT(H164,2)="24",H164+0.0076,H164+0.0004)</f>
         <v>0.3132000000000017</v>
       </c>
       <c r="I165" s="16">
@@ -27297,17 +28004,17 @@
         <v>60</v>
       </c>
       <c r="L165" s="16">
-        <f t="shared" ref="L165:L179" si="53">L164+0.004</f>
+        <f t="shared" ref="L165:L194" si="55">L164+0.004</f>
         <v>1.2440000000000004</v>
       </c>
       <c r="M165" s="20">
         <v>1</v>
       </c>
       <c r="N165" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O165" s="12" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+144</v>
       </c>
     </row>
@@ -27316,25 +28023,25 @@
         <v>412</v>
       </c>
       <c r="C166" s="16">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>2E+144</v>
       </c>
       <c r="D166" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>2화</v>
       </c>
       <c r="E166" s="16">
         <v>20</v>
       </c>
       <c r="F166" s="16">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>40200000</v>
       </c>
       <c r="G166" s="16">
         <v>2</v>
       </c>
       <c r="H166" s="16">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0.31360000000000171</v>
       </c>
       <c r="I166" s="16">
@@ -27347,17 +28054,17 @@
         <v>60</v>
       </c>
       <c r="L166" s="16">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1.2480000000000004</v>
       </c>
       <c r="M166" s="20">
         <v>2</v>
       </c>
       <c r="N166" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O166" s="12" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1E+144</v>
       </c>
     </row>
@@ -27366,25 +28073,25 @@
         <v>413</v>
       </c>
       <c r="C167" s="16">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>4.9999999999999999E+144</v>
       </c>
       <c r="D167" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>5화</v>
       </c>
       <c r="E167" s="16">
         <v>20</v>
       </c>
       <c r="F167" s="16">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>40300000</v>
       </c>
       <c r="G167" s="16">
         <v>2</v>
       </c>
       <c r="H167" s="16">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0.31400000000000172</v>
       </c>
       <c r="I167" s="16">
@@ -27397,17 +28104,17 @@
         <v>60</v>
       </c>
       <c r="L167" s="16">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1.2520000000000004</v>
       </c>
       <c r="M167" s="20">
         <v>5</v>
       </c>
       <c r="N167" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O167" s="12" t="str">
-        <f t="shared" ref="O167:O179" si="54">VLOOKUP(N167,Q:T,4,FALSE)</f>
+        <f t="shared" ref="O167:O194" si="56">VLOOKUP(N167,Q:T,4,FALSE)</f>
         <v>1E+144</v>
       </c>
     </row>
@@ -27416,25 +28123,25 @@
         <v>414</v>
       </c>
       <c r="C168" s="16">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>9.9999999999999999E+144</v>
       </c>
       <c r="D168" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>10화</v>
       </c>
       <c r="E168" s="16">
         <v>20</v>
       </c>
       <c r="F168" s="16">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>40400000</v>
       </c>
       <c r="G168" s="16">
         <v>2</v>
       </c>
       <c r="H168" s="16">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0.31440000000000173</v>
       </c>
       <c r="I168" s="16">
@@ -27447,17 +28154,17 @@
         <v>60</v>
       </c>
       <c r="L168" s="16">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1.2560000000000004</v>
       </c>
       <c r="M168" s="20">
         <v>10</v>
       </c>
       <c r="N168" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O168" s="12" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1E+144</v>
       </c>
     </row>
@@ -27466,25 +28173,25 @@
         <v>415</v>
       </c>
       <c r="C169" s="16">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>2E+145</v>
       </c>
       <c r="D169" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>20화</v>
       </c>
       <c r="E169" s="16">
         <v>20</v>
       </c>
       <c r="F169" s="16">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>40500000</v>
       </c>
       <c r="G169" s="16">
         <v>2</v>
       </c>
       <c r="H169" s="16">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0.31480000000000175</v>
       </c>
       <c r="I169" s="16">
@@ -27497,17 +28204,17 @@
         <v>60</v>
       </c>
       <c r="L169" s="16">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1.2600000000000005</v>
       </c>
       <c r="M169" s="20">
         <v>20</v>
       </c>
       <c r="N169" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O169" s="12" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1E+144</v>
       </c>
     </row>
@@ -27516,25 +28223,25 @@
         <v>416</v>
       </c>
       <c r="C170" s="16">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>4.9999999999999997E+145</v>
       </c>
       <c r="D170" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>50화</v>
       </c>
       <c r="E170" s="16">
         <v>20</v>
       </c>
       <c r="F170" s="16">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>40600000</v>
       </c>
       <c r="G170" s="16">
         <v>2</v>
       </c>
       <c r="H170" s="16">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0.31520000000000176</v>
       </c>
       <c r="I170" s="16">
@@ -27547,17 +28254,17 @@
         <v>60</v>
       </c>
       <c r="L170" s="16">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1.2640000000000005</v>
       </c>
       <c r="M170" s="20">
         <v>50</v>
       </c>
       <c r="N170" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O170" s="12" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1E+144</v>
       </c>
     </row>
@@ -27566,25 +28273,25 @@
         <v>417</v>
       </c>
       <c r="C171" s="16">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>9.9999999999999993E+145</v>
       </c>
       <c r="D171" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>100화</v>
       </c>
       <c r="E171" s="16">
         <v>20</v>
       </c>
       <c r="F171" s="16">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>40700000</v>
       </c>
       <c r="G171" s="16">
         <v>2</v>
       </c>
       <c r="H171" s="16">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0.31560000000000177</v>
       </c>
       <c r="I171" s="16">
@@ -27597,17 +28304,17 @@
         <v>60</v>
       </c>
       <c r="L171" s="16">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1.2680000000000005</v>
       </c>
       <c r="M171" s="20">
         <v>100</v>
       </c>
       <c r="N171" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O171" s="12" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1E+144</v>
       </c>
     </row>
@@ -27616,25 +28323,25 @@
         <v>418</v>
       </c>
       <c r="C172" s="16">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1.5E+146</v>
       </c>
       <c r="D172" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>150화</v>
       </c>
       <c r="E172" s="16">
         <v>20</v>
       </c>
       <c r="F172" s="16">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>40800000</v>
       </c>
       <c r="G172" s="16">
         <v>2</v>
       </c>
       <c r="H172" s="16">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0.31600000000000178</v>
       </c>
       <c r="I172" s="16">
@@ -27647,17 +28354,17 @@
         <v>60</v>
       </c>
       <c r="L172" s="16">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1.2720000000000005</v>
       </c>
       <c r="M172" s="20">
         <v>150</v>
       </c>
       <c r="N172" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O172" s="12" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1E+144</v>
       </c>
     </row>
@@ -27666,25 +28373,25 @@
         <v>419</v>
       </c>
       <c r="C173" s="16">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1.9999999999999999E+146</v>
       </c>
       <c r="D173" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>200화</v>
       </c>
       <c r="E173" s="16">
         <v>20</v>
       </c>
       <c r="F173" s="16">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>40900000</v>
       </c>
       <c r="G173" s="16">
         <v>2</v>
       </c>
       <c r="H173" s="16">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0.31640000000000179</v>
       </c>
       <c r="I173" s="16">
@@ -27697,17 +28404,17 @@
         <v>60</v>
       </c>
       <c r="L173" s="16">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1.2760000000000005</v>
       </c>
       <c r="M173" s="20">
         <v>200</v>
       </c>
       <c r="N173" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O173" s="12" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1E+144</v>
       </c>
     </row>
@@ -27716,25 +28423,25 @@
         <v>420</v>
       </c>
       <c r="C174" s="16">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>3E+146</v>
       </c>
       <c r="D174" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>300화</v>
       </c>
       <c r="E174" s="16">
         <v>20</v>
       </c>
       <c r="F174" s="16">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>41000000</v>
       </c>
       <c r="G174" s="16">
         <v>2</v>
       </c>
       <c r="H174" s="16">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0.3168000000000018</v>
       </c>
       <c r="I174" s="16">
@@ -27747,17 +28454,17 @@
         <v>60</v>
       </c>
       <c r="L174" s="16">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1.2800000000000005</v>
       </c>
       <c r="M174" s="20">
         <v>300</v>
       </c>
       <c r="N174" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O174" s="12" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1E+144</v>
       </c>
     </row>
@@ -27766,25 +28473,25 @@
         <v>421</v>
       </c>
       <c r="C175" s="16">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>4.9999999999999999E+146</v>
       </c>
       <c r="D175" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>500화</v>
       </c>
       <c r="E175" s="16">
         <v>20</v>
       </c>
       <c r="F175" s="16">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>41100000</v>
       </c>
       <c r="G175" s="16">
         <v>2</v>
       </c>
       <c r="H175" s="16">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0.31720000000000181</v>
       </c>
       <c r="I175" s="16">
@@ -27797,17 +28504,17 @@
         <v>60</v>
       </c>
       <c r="L175" s="16">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1.2840000000000005</v>
       </c>
       <c r="M175" s="20">
         <v>500</v>
       </c>
       <c r="N175" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O175" s="12" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1E+144</v>
       </c>
     </row>
@@ -27816,25 +28523,25 @@
         <v>422</v>
       </c>
       <c r="C176" s="16">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>7.9999999999999995E+146</v>
       </c>
       <c r="D176" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>800화</v>
       </c>
       <c r="E176" s="16">
         <v>20</v>
       </c>
       <c r="F176" s="16">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>41200000</v>
       </c>
       <c r="G176" s="16">
         <v>2</v>
       </c>
       <c r="H176" s="16">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0.31760000000000183</v>
       </c>
       <c r="I176" s="16">
@@ -27847,17 +28554,17 @@
         <v>60</v>
       </c>
       <c r="L176" s="16">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1.2880000000000005</v>
       </c>
       <c r="M176" s="20">
         <v>800</v>
       </c>
       <c r="N176" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O176" s="12" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1E+144</v>
       </c>
     </row>
@@ -27866,25 +28573,25 @@
         <v>423</v>
       </c>
       <c r="C177" s="16">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>9.9999999999999998E+146</v>
       </c>
       <c r="D177" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>1000화</v>
       </c>
       <c r="E177" s="16">
         <v>20</v>
       </c>
       <c r="F177" s="16">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>41300000</v>
       </c>
       <c r="G177" s="16">
         <v>2</v>
       </c>
       <c r="H177" s="16">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0.31800000000000184</v>
       </c>
       <c r="I177" s="16">
@@ -27897,17 +28604,17 @@
         <v>60</v>
       </c>
       <c r="L177" s="16">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1.2920000000000005</v>
       </c>
       <c r="M177" s="20">
         <v>1000</v>
       </c>
       <c r="N177" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O177" s="12" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1E+144</v>
       </c>
     </row>
@@ -27916,25 +28623,25 @@
         <v>424</v>
       </c>
       <c r="C178" s="16">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>2E+147</v>
       </c>
       <c r="D178" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>2000화</v>
       </c>
       <c r="E178" s="16">
         <v>20</v>
       </c>
       <c r="F178" s="16">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>41400000</v>
       </c>
       <c r="G178" s="16">
         <v>2</v>
       </c>
       <c r="H178" s="16">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0.31840000000000185</v>
       </c>
       <c r="I178" s="16">
@@ -27947,17 +28654,17 @@
         <v>60</v>
       </c>
       <c r="L178" s="16">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1.2960000000000005</v>
       </c>
       <c r="M178" s="20">
         <v>2000</v>
       </c>
       <c r="N178" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="O178" s="12" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1E+144</v>
       </c>
     </row>
@@ -27966,25 +28673,25 @@
         <v>425</v>
       </c>
       <c r="C179" s="16">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>5.0000000000000002E+147</v>
       </c>
       <c r="D179" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>5000화</v>
       </c>
       <c r="E179" s="16">
         <v>20</v>
       </c>
       <c r="F179" s="16">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>41500000</v>
       </c>
       <c r="G179" s="16">
         <v>2</v>
       </c>
       <c r="H179" s="16">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0.31880000000000186</v>
       </c>
       <c r="I179" s="16">
@@ -27997,18 +28704,768 @@
         <v>60</v>
       </c>
       <c r="L179" s="16">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>1.3000000000000005</v>
       </c>
       <c r="M179" s="20">
         <v>5000</v>
       </c>
       <c r="N179" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="O179" s="12" t="str">
+        <f t="shared" si="56"/>
+        <v>1E+144</v>
+      </c>
+    </row>
+    <row r="180" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B180" s="21">
+        <v>426</v>
+      </c>
+      <c r="C180" s="16">
+        <f t="shared" ref="C180:C194" si="57">M180*O180</f>
+        <v>1E+148</v>
+      </c>
+      <c r="D180" s="16" t="str">
+        <f t="shared" ref="D180:D194" si="58">M180&amp;N180</f>
+        <v>1명</v>
+      </c>
+      <c r="E180" s="16">
+        <v>20</v>
+      </c>
+      <c r="F180" s="16">
+        <f t="shared" si="53"/>
+        <v>41600000</v>
+      </c>
+      <c r="G180" s="16">
+        <v>2</v>
+      </c>
+      <c r="H180" s="16">
+        <f t="shared" si="54"/>
+        <v>0.31920000000000187</v>
+      </c>
+      <c r="I180" s="16">
+        <v>23</v>
+      </c>
+      <c r="J180" s="16">
+        <v>0</v>
+      </c>
+      <c r="K180" s="16">
+        <v>60</v>
+      </c>
+      <c r="L180" s="16">
+        <f t="shared" si="55"/>
+        <v>1.3040000000000005</v>
+      </c>
+      <c r="M180" s="20">
+        <v>1</v>
+      </c>
+      <c r="N180" s="19" t="s">
         <v>340</v>
       </c>
-      <c r="O179" s="12" t="str">
+      <c r="O180" s="12" t="str">
+        <f t="shared" si="56"/>
+        <v>1E+148</v>
+      </c>
+    </row>
+    <row r="181" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B181" s="21">
+        <v>427</v>
+      </c>
+      <c r="C181" s="16">
+        <f t="shared" si="57"/>
+        <v>2.0000000000000001E+148</v>
+      </c>
+      <c r="D181" s="16" t="str">
+        <f t="shared" si="58"/>
+        <v>2명</v>
+      </c>
+      <c r="E181" s="16">
+        <v>20</v>
+      </c>
+      <c r="F181" s="16">
+        <f t="shared" si="53"/>
+        <v>41700000</v>
+      </c>
+      <c r="G181" s="16">
+        <v>2</v>
+      </c>
+      <c r="H181" s="16">
         <f t="shared" si="54"/>
-        <v>1E+144</v>
+        <v>0.31960000000000188</v>
+      </c>
+      <c r="I181" s="16">
+        <v>23</v>
+      </c>
+      <c r="J181" s="16">
+        <v>0</v>
+      </c>
+      <c r="K181" s="16">
+        <v>60</v>
+      </c>
+      <c r="L181" s="16">
+        <f t="shared" si="55"/>
+        <v>1.3080000000000005</v>
+      </c>
+      <c r="M181" s="20">
+        <v>2</v>
+      </c>
+      <c r="N181" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="O181" s="12" t="str">
+        <f t="shared" si="56"/>
+        <v>1E+148</v>
+      </c>
+    </row>
+    <row r="182" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B182" s="21">
+        <v>428</v>
+      </c>
+      <c r="C182" s="16">
+        <f t="shared" si="57"/>
+        <v>5.0000000000000002E+148</v>
+      </c>
+      <c r="D182" s="16" t="str">
+        <f t="shared" si="58"/>
+        <v>5명</v>
+      </c>
+      <c r="E182" s="16">
+        <v>20</v>
+      </c>
+      <c r="F182" s="16">
+        <f t="shared" si="53"/>
+        <v>41800000</v>
+      </c>
+      <c r="G182" s="16">
+        <v>2</v>
+      </c>
+      <c r="H182" s="16">
+        <f t="shared" si="54"/>
+        <v>0.32000000000000189</v>
+      </c>
+      <c r="I182" s="16">
+        <v>23</v>
+      </c>
+      <c r="J182" s="16">
+        <v>0</v>
+      </c>
+      <c r="K182" s="16">
+        <v>60</v>
+      </c>
+      <c r="L182" s="16">
+        <f t="shared" si="55"/>
+        <v>1.3120000000000005</v>
+      </c>
+      <c r="M182" s="20">
+        <v>5</v>
+      </c>
+      <c r="N182" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="O182" s="12" t="str">
+        <f t="shared" si="56"/>
+        <v>1E+148</v>
+      </c>
+    </row>
+    <row r="183" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B183" s="21">
+        <v>429</v>
+      </c>
+      <c r="C183" s="16">
+        <f t="shared" si="57"/>
+        <v>1E+149</v>
+      </c>
+      <c r="D183" s="16" t="str">
+        <f t="shared" si="58"/>
+        <v>10명</v>
+      </c>
+      <c r="E183" s="16">
+        <v>20</v>
+      </c>
+      <c r="F183" s="16">
+        <f t="shared" si="53"/>
+        <v>41900000</v>
+      </c>
+      <c r="G183" s="16">
+        <v>2</v>
+      </c>
+      <c r="H183" s="16">
+        <f t="shared" si="54"/>
+        <v>0.32040000000000191</v>
+      </c>
+      <c r="I183" s="16">
+        <v>23</v>
+      </c>
+      <c r="J183" s="16">
+        <v>0</v>
+      </c>
+      <c r="K183" s="16">
+        <v>60</v>
+      </c>
+      <c r="L183" s="16">
+        <f t="shared" si="55"/>
+        <v>1.3160000000000005</v>
+      </c>
+      <c r="M183" s="20">
+        <v>10</v>
+      </c>
+      <c r="N183" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="O183" s="12" t="str">
+        <f t="shared" si="56"/>
+        <v>1E+148</v>
+      </c>
+    </row>
+    <row r="184" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B184" s="21">
+        <v>430</v>
+      </c>
+      <c r="C184" s="16">
+        <f t="shared" si="57"/>
+        <v>2.0000000000000001E+149</v>
+      </c>
+      <c r="D184" s="16" t="str">
+        <f t="shared" si="58"/>
+        <v>20명</v>
+      </c>
+      <c r="E184" s="16">
+        <v>20</v>
+      </c>
+      <c r="F184" s="16">
+        <f t="shared" si="53"/>
+        <v>42000000</v>
+      </c>
+      <c r="G184" s="16">
+        <v>2</v>
+      </c>
+      <c r="H184" s="16">
+        <f t="shared" si="54"/>
+        <v>0.32080000000000192</v>
+      </c>
+      <c r="I184" s="16">
+        <v>23</v>
+      </c>
+      <c r="J184" s="16">
+        <v>0</v>
+      </c>
+      <c r="K184" s="16">
+        <v>60</v>
+      </c>
+      <c r="L184" s="16">
+        <f t="shared" si="55"/>
+        <v>1.3200000000000005</v>
+      </c>
+      <c r="M184" s="20">
+        <v>20</v>
+      </c>
+      <c r="N184" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="O184" s="12" t="str">
+        <f t="shared" si="56"/>
+        <v>1E+148</v>
+      </c>
+    </row>
+    <row r="185" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B185" s="21">
+        <v>431</v>
+      </c>
+      <c r="C185" s="16">
+        <f t="shared" si="57"/>
+        <v>4.9999999999999999E+149</v>
+      </c>
+      <c r="D185" s="16" t="str">
+        <f t="shared" si="58"/>
+        <v>50명</v>
+      </c>
+      <c r="E185" s="16">
+        <v>20</v>
+      </c>
+      <c r="F185" s="16">
+        <f t="shared" si="53"/>
+        <v>42100000</v>
+      </c>
+      <c r="G185" s="16">
+        <v>2</v>
+      </c>
+      <c r="H185" s="16">
+        <f t="shared" si="54"/>
+        <v>0.32120000000000193</v>
+      </c>
+      <c r="I185" s="16">
+        <v>23</v>
+      </c>
+      <c r="J185" s="16">
+        <v>0</v>
+      </c>
+      <c r="K185" s="16">
+        <v>60</v>
+      </c>
+      <c r="L185" s="16">
+        <f t="shared" si="55"/>
+        <v>1.3240000000000005</v>
+      </c>
+      <c r="M185" s="20">
+        <v>50</v>
+      </c>
+      <c r="N185" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="O185" s="12" t="str">
+        <f t="shared" si="56"/>
+        <v>1E+148</v>
+      </c>
+    </row>
+    <row r="186" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B186" s="21">
+        <v>432</v>
+      </c>
+      <c r="C186" s="16">
+        <f t="shared" si="57"/>
+        <v>9.9999999999999998E+149</v>
+      </c>
+      <c r="D186" s="16" t="str">
+        <f t="shared" si="58"/>
+        <v>100명</v>
+      </c>
+      <c r="E186" s="16">
+        <v>20</v>
+      </c>
+      <c r="F186" s="16">
+        <f t="shared" si="53"/>
+        <v>42200000</v>
+      </c>
+      <c r="G186" s="16">
+        <v>2</v>
+      </c>
+      <c r="H186" s="16">
+        <f t="shared" si="54"/>
+        <v>0.32160000000000194</v>
+      </c>
+      <c r="I186" s="16">
+        <v>23</v>
+      </c>
+      <c r="J186" s="16">
+        <v>0</v>
+      </c>
+      <c r="K186" s="16">
+        <v>60</v>
+      </c>
+      <c r="L186" s="16">
+        <f t="shared" si="55"/>
+        <v>1.3280000000000005</v>
+      </c>
+      <c r="M186" s="20">
+        <v>100</v>
+      </c>
+      <c r="N186" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="O186" s="12" t="str">
+        <f t="shared" si="56"/>
+        <v>1E+148</v>
+      </c>
+    </row>
+    <row r="187" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B187" s="21">
+        <v>433</v>
+      </c>
+      <c r="C187" s="16">
+        <f t="shared" si="57"/>
+        <v>1.5000000000000001E+150</v>
+      </c>
+      <c r="D187" s="16" t="str">
+        <f t="shared" si="58"/>
+        <v>150명</v>
+      </c>
+      <c r="E187" s="16">
+        <v>20</v>
+      </c>
+      <c r="F187" s="16">
+        <f t="shared" si="53"/>
+        <v>42300000</v>
+      </c>
+      <c r="G187" s="16">
+        <v>2</v>
+      </c>
+      <c r="H187" s="16">
+        <f t="shared" si="54"/>
+        <v>0.32200000000000195</v>
+      </c>
+      <c r="I187" s="16">
+        <v>23</v>
+      </c>
+      <c r="J187" s="16">
+        <v>0</v>
+      </c>
+      <c r="K187" s="16">
+        <v>60</v>
+      </c>
+      <c r="L187" s="16">
+        <f t="shared" si="55"/>
+        <v>1.3320000000000005</v>
+      </c>
+      <c r="M187" s="20">
+        <v>150</v>
+      </c>
+      <c r="N187" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="O187" s="12" t="str">
+        <f t="shared" si="56"/>
+        <v>1E+148</v>
+      </c>
+    </row>
+    <row r="188" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B188" s="21">
+        <v>434</v>
+      </c>
+      <c r="C188" s="16">
+        <f t="shared" si="57"/>
+        <v>2E+150</v>
+      </c>
+      <c r="D188" s="16" t="str">
+        <f t="shared" si="58"/>
+        <v>200명</v>
+      </c>
+      <c r="E188" s="16">
+        <v>20</v>
+      </c>
+      <c r="F188" s="16">
+        <f t="shared" si="53"/>
+        <v>42400000</v>
+      </c>
+      <c r="G188" s="16">
+        <v>2</v>
+      </c>
+      <c r="H188" s="16">
+        <f t="shared" si="54"/>
+        <v>0.32240000000000196</v>
+      </c>
+      <c r="I188" s="16">
+        <v>23</v>
+      </c>
+      <c r="J188" s="16">
+        <v>0</v>
+      </c>
+      <c r="K188" s="16">
+        <v>60</v>
+      </c>
+      <c r="L188" s="16">
+        <f t="shared" si="55"/>
+        <v>1.3360000000000005</v>
+      </c>
+      <c r="M188" s="20">
+        <v>200</v>
+      </c>
+      <c r="N188" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="O188" s="12" t="str">
+        <f t="shared" si="56"/>
+        <v>1E+148</v>
+      </c>
+    </row>
+    <row r="189" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B189" s="21">
+        <v>435</v>
+      </c>
+      <c r="C189" s="16">
+        <f t="shared" si="57"/>
+        <v>3.0000000000000001E+150</v>
+      </c>
+      <c r="D189" s="16" t="str">
+        <f t="shared" si="58"/>
+        <v>300명</v>
+      </c>
+      <c r="E189" s="16">
+        <v>20</v>
+      </c>
+      <c r="F189" s="16">
+        <f t="shared" si="53"/>
+        <v>42500000</v>
+      </c>
+      <c r="G189" s="16">
+        <v>2</v>
+      </c>
+      <c r="H189" s="16">
+        <f t="shared" si="54"/>
+        <v>0.32280000000000197</v>
+      </c>
+      <c r="I189" s="16">
+        <v>23</v>
+      </c>
+      <c r="J189" s="16">
+        <v>0</v>
+      </c>
+      <c r="K189" s="16">
+        <v>60</v>
+      </c>
+      <c r="L189" s="16">
+        <f t="shared" si="55"/>
+        <v>1.3400000000000005</v>
+      </c>
+      <c r="M189" s="20">
+        <v>300</v>
+      </c>
+      <c r="N189" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="O189" s="12" t="str">
+        <f t="shared" si="56"/>
+        <v>1E+148</v>
+      </c>
+    </row>
+    <row r="190" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B190" s="21">
+        <v>436</v>
+      </c>
+      <c r="C190" s="16">
+        <f t="shared" si="57"/>
+        <v>5.0000000000000001E+150</v>
+      </c>
+      <c r="D190" s="16" t="str">
+        <f t="shared" si="58"/>
+        <v>500명</v>
+      </c>
+      <c r="E190" s="16">
+        <v>20</v>
+      </c>
+      <c r="F190" s="16">
+        <f t="shared" si="53"/>
+        <v>42600000</v>
+      </c>
+      <c r="G190" s="16">
+        <v>2</v>
+      </c>
+      <c r="H190" s="16">
+        <f t="shared" si="54"/>
+        <v>0.32320000000000199</v>
+      </c>
+      <c r="I190" s="16">
+        <v>23</v>
+      </c>
+      <c r="J190" s="16">
+        <v>0</v>
+      </c>
+      <c r="K190" s="16">
+        <v>60</v>
+      </c>
+      <c r="L190" s="16">
+        <f t="shared" si="55"/>
+        <v>1.3440000000000005</v>
+      </c>
+      <c r="M190" s="20">
+        <v>500</v>
+      </c>
+      <c r="N190" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="O190" s="12" t="str">
+        <f t="shared" si="56"/>
+        <v>1E+148</v>
+      </c>
+    </row>
+    <row r="191" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B191" s="21">
+        <v>437</v>
+      </c>
+      <c r="C191" s="16">
+        <f t="shared" si="57"/>
+        <v>7.9999999999999998E+150</v>
+      </c>
+      <c r="D191" s="16" t="str">
+        <f t="shared" si="58"/>
+        <v>800명</v>
+      </c>
+      <c r="E191" s="16">
+        <v>20</v>
+      </c>
+      <c r="F191" s="16">
+        <f t="shared" si="53"/>
+        <v>42700000</v>
+      </c>
+      <c r="G191" s="16">
+        <v>2</v>
+      </c>
+      <c r="H191" s="16">
+        <f t="shared" si="54"/>
+        <v>0.323600000000002</v>
+      </c>
+      <c r="I191" s="16">
+        <v>23</v>
+      </c>
+      <c r="J191" s="16">
+        <v>0</v>
+      </c>
+      <c r="K191" s="16">
+        <v>60</v>
+      </c>
+      <c r="L191" s="16">
+        <f t="shared" si="55"/>
+        <v>1.3480000000000005</v>
+      </c>
+      <c r="M191" s="20">
+        <v>800</v>
+      </c>
+      <c r="N191" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="O191" s="12" t="str">
+        <f t="shared" si="56"/>
+        <v>1E+148</v>
+      </c>
+    </row>
+    <row r="192" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B192" s="21">
+        <v>438</v>
+      </c>
+      <c r="C192" s="16">
+        <f t="shared" si="57"/>
+        <v>1E+151</v>
+      </c>
+      <c r="D192" s="16" t="str">
+        <f t="shared" si="58"/>
+        <v>1000명</v>
+      </c>
+      <c r="E192" s="16">
+        <v>20</v>
+      </c>
+      <c r="F192" s="16">
+        <f t="shared" si="53"/>
+        <v>42800000</v>
+      </c>
+      <c r="G192" s="16">
+        <v>2</v>
+      </c>
+      <c r="H192" s="16">
+        <f t="shared" si="54"/>
+        <v>0.32400000000000201</v>
+      </c>
+      <c r="I192" s="16">
+        <v>23</v>
+      </c>
+      <c r="J192" s="16">
+        <v>0</v>
+      </c>
+      <c r="K192" s="16">
+        <v>60</v>
+      </c>
+      <c r="L192" s="16">
+        <f t="shared" si="55"/>
+        <v>1.3520000000000005</v>
+      </c>
+      <c r="M192" s="20">
+        <v>1000</v>
+      </c>
+      <c r="N192" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="O192" s="12" t="str">
+        <f t="shared" si="56"/>
+        <v>1E+148</v>
+      </c>
+    </row>
+    <row r="193" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B193" s="21">
+        <v>439</v>
+      </c>
+      <c r="C193" s="16">
+        <f t="shared" si="57"/>
+        <v>2E+151</v>
+      </c>
+      <c r="D193" s="16" t="str">
+        <f t="shared" si="58"/>
+        <v>2000명</v>
+      </c>
+      <c r="E193" s="16">
+        <v>20</v>
+      </c>
+      <c r="F193" s="16">
+        <f t="shared" si="53"/>
+        <v>42900000</v>
+      </c>
+      <c r="G193" s="16">
+        <v>2</v>
+      </c>
+      <c r="H193" s="16">
+        <f t="shared" si="54"/>
+        <v>0.32440000000000202</v>
+      </c>
+      <c r="I193" s="16">
+        <v>23</v>
+      </c>
+      <c r="J193" s="16">
+        <v>0</v>
+      </c>
+      <c r="K193" s="16">
+        <v>60</v>
+      </c>
+      <c r="L193" s="16">
+        <f t="shared" si="55"/>
+        <v>1.3560000000000005</v>
+      </c>
+      <c r="M193" s="20">
+        <v>2000</v>
+      </c>
+      <c r="N193" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="O193" s="12" t="str">
+        <f t="shared" si="56"/>
+        <v>1E+148</v>
+      </c>
+    </row>
+    <row r="194" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B194" s="21">
+        <v>440</v>
+      </c>
+      <c r="C194" s="16">
+        <f t="shared" si="57"/>
+        <v>5.0000000000000002E+151</v>
+      </c>
+      <c r="D194" s="16" t="str">
+        <f t="shared" si="58"/>
+        <v>5000명</v>
+      </c>
+      <c r="E194" s="16">
+        <v>20</v>
+      </c>
+      <c r="F194" s="16">
+        <f t="shared" si="53"/>
+        <v>43000000</v>
+      </c>
+      <c r="G194" s="16">
+        <v>2</v>
+      </c>
+      <c r="H194" s="16">
+        <f t="shared" si="54"/>
+        <v>0.32480000000000203</v>
+      </c>
+      <c r="I194" s="16">
+        <v>23</v>
+      </c>
+      <c r="J194" s="16">
+        <v>0</v>
+      </c>
+      <c r="K194" s="16">
+        <v>60</v>
+      </c>
+      <c r="L194" s="16">
+        <f t="shared" si="55"/>
+        <v>1.3600000000000005</v>
+      </c>
+      <c r="M194" s="20">
+        <v>5000</v>
+      </c>
+      <c r="N194" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="O194" s="12" t="str">
+        <f t="shared" si="56"/>
+        <v>1E+148</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/SusanoTable.xlsx
+++ b/Assets/06.Table/SusanoTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D63DA3D-A72C-47DF-BB99-27F7D0E9F24A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A005A0E0-32F9-4850-9C19-CA99A095BE4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="343">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1362,11 +1362,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a</t>
+    <t>b</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>b</t>
+    <t>월</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1892,11 +1892,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:K442"/>
+  <dimension ref="A1:K457"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A430" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B443" sqref="B443"/>
+      <pane ySplit="1" topLeftCell="A436" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C450" sqref="C450"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -19028,6 +19028,681 @@
         <v>1.3600000000000005</v>
       </c>
     </row>
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A443">
+        <v>441</v>
+      </c>
+      <c r="B443">
+        <f>VLOOKUP(A443,UnitChange!B:K,2,FALSE)</f>
+        <v>1E+152</v>
+      </c>
+      <c r="C443" t="str">
+        <f>VLOOKUP(A443,UnitChange!B:K,3,FALSE)</f>
+        <v>1월</v>
+      </c>
+      <c r="D443">
+        <f>VLOOKUP(A443,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E443">
+        <f>VLOOKUP(A443,UnitChange!B:K,5,FALSE)</f>
+        <v>43100000</v>
+      </c>
+      <c r="F443">
+        <f>VLOOKUP(A443,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G443">
+        <f>VLOOKUP(A443,UnitChange!B:K,7,FALSE)</f>
+        <v>0.32520000000000204</v>
+      </c>
+      <c r="H443">
+        <f>VLOOKUP(A443,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I443">
+        <f>VLOOKUP(A443,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J443">
+        <f>VLOOKUP(A443,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K443" s="1">
+        <f>VLOOKUP(A443,UnitChange!B:L,11,FALSE)</f>
+        <v>1.3640000000000005</v>
+      </c>
+    </row>
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A444">
+        <v>442</v>
+      </c>
+      <c r="B444">
+        <f>VLOOKUP(A444,UnitChange!B:K,2,FALSE)</f>
+        <v>2.0000000000000001E+152</v>
+      </c>
+      <c r="C444" t="str">
+        <f>VLOOKUP(A444,UnitChange!B:K,3,FALSE)</f>
+        <v>2월</v>
+      </c>
+      <c r="D444">
+        <f>VLOOKUP(A444,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E444">
+        <f>VLOOKUP(A444,UnitChange!B:K,5,FALSE)</f>
+        <v>43200000</v>
+      </c>
+      <c r="F444">
+        <f>VLOOKUP(A444,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G444">
+        <f>VLOOKUP(A444,UnitChange!B:K,7,FALSE)</f>
+        <v>0.32560000000000205</v>
+      </c>
+      <c r="H444">
+        <f>VLOOKUP(A444,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I444">
+        <f>VLOOKUP(A444,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J444">
+        <f>VLOOKUP(A444,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K444" s="1">
+        <f>VLOOKUP(A444,UnitChange!B:L,11,FALSE)</f>
+        <v>1.3680000000000005</v>
+      </c>
+    </row>
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A445">
+        <v>443</v>
+      </c>
+      <c r="B445">
+        <f>VLOOKUP(A445,UnitChange!B:K,2,FALSE)</f>
+        <v>5E+152</v>
+      </c>
+      <c r="C445" t="str">
+        <f>VLOOKUP(A445,UnitChange!B:K,3,FALSE)</f>
+        <v>5월</v>
+      </c>
+      <c r="D445">
+        <f>VLOOKUP(A445,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E445">
+        <f>VLOOKUP(A445,UnitChange!B:K,5,FALSE)</f>
+        <v>43300000</v>
+      </c>
+      <c r="F445">
+        <f>VLOOKUP(A445,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G445">
+        <f>VLOOKUP(A445,UnitChange!B:K,7,FALSE)</f>
+        <v>0.32600000000000207</v>
+      </c>
+      <c r="H445">
+        <f>VLOOKUP(A445,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I445">
+        <f>VLOOKUP(A445,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J445">
+        <f>VLOOKUP(A445,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K445" s="1">
+        <f>VLOOKUP(A445,UnitChange!B:L,11,FALSE)</f>
+        <v>1.3720000000000006</v>
+      </c>
+    </row>
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A446">
+        <v>444</v>
+      </c>
+      <c r="B446">
+        <f>VLOOKUP(A446,UnitChange!B:K,2,FALSE)</f>
+        <v>1E+153</v>
+      </c>
+      <c r="C446" t="str">
+        <f>VLOOKUP(A446,UnitChange!B:K,3,FALSE)</f>
+        <v>10월</v>
+      </c>
+      <c r="D446">
+        <f>VLOOKUP(A446,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E446">
+        <f>VLOOKUP(A446,UnitChange!B:K,5,FALSE)</f>
+        <v>43400000</v>
+      </c>
+      <c r="F446">
+        <f>VLOOKUP(A446,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G446">
+        <f>VLOOKUP(A446,UnitChange!B:K,7,FALSE)</f>
+        <v>0.32640000000000208</v>
+      </c>
+      <c r="H446">
+        <f>VLOOKUP(A446,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I446">
+        <f>VLOOKUP(A446,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J446">
+        <f>VLOOKUP(A446,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K446" s="1">
+        <f>VLOOKUP(A446,UnitChange!B:L,11,FALSE)</f>
+        <v>1.3760000000000006</v>
+      </c>
+    </row>
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A447">
+        <v>445</v>
+      </c>
+      <c r="B447">
+        <f>VLOOKUP(A447,UnitChange!B:K,2,FALSE)</f>
+        <v>2E+153</v>
+      </c>
+      <c r="C447" t="str">
+        <f>VLOOKUP(A447,UnitChange!B:K,3,FALSE)</f>
+        <v>20월</v>
+      </c>
+      <c r="D447">
+        <f>VLOOKUP(A447,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E447">
+        <f>VLOOKUP(A447,UnitChange!B:K,5,FALSE)</f>
+        <v>43500000</v>
+      </c>
+      <c r="F447">
+        <f>VLOOKUP(A447,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G447">
+        <f>VLOOKUP(A447,UnitChange!B:K,7,FALSE)</f>
+        <v>0.32680000000000209</v>
+      </c>
+      <c r="H447">
+        <f>VLOOKUP(A447,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I447">
+        <f>VLOOKUP(A447,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J447">
+        <f>VLOOKUP(A447,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K447" s="1">
+        <f>VLOOKUP(A447,UnitChange!B:L,11,FALSE)</f>
+        <v>1.3800000000000006</v>
+      </c>
+    </row>
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A448">
+        <v>446</v>
+      </c>
+      <c r="B448">
+        <f>VLOOKUP(A448,UnitChange!B:K,2,FALSE)</f>
+        <v>5.0000000000000002E+153</v>
+      </c>
+      <c r="C448" t="str">
+        <f>VLOOKUP(A448,UnitChange!B:K,3,FALSE)</f>
+        <v>50월</v>
+      </c>
+      <c r="D448">
+        <f>VLOOKUP(A448,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E448">
+        <f>VLOOKUP(A448,UnitChange!B:K,5,FALSE)</f>
+        <v>43600000</v>
+      </c>
+      <c r="F448">
+        <f>VLOOKUP(A448,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G448">
+        <f>VLOOKUP(A448,UnitChange!B:K,7,FALSE)</f>
+        <v>0.3272000000000021</v>
+      </c>
+      <c r="H448">
+        <f>VLOOKUP(A448,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I448">
+        <f>VLOOKUP(A448,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J448">
+        <f>VLOOKUP(A448,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K448" s="1">
+        <f>VLOOKUP(A448,UnitChange!B:L,11,FALSE)</f>
+        <v>1.3840000000000006</v>
+      </c>
+    </row>
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A449">
+        <v>447</v>
+      </c>
+      <c r="B449">
+        <f>VLOOKUP(A449,UnitChange!B:K,2,FALSE)</f>
+        <v>1E+154</v>
+      </c>
+      <c r="C449" t="str">
+        <f>VLOOKUP(A449,UnitChange!B:K,3,FALSE)</f>
+        <v>100월</v>
+      </c>
+      <c r="D449">
+        <f>VLOOKUP(A449,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E449">
+        <f>VLOOKUP(A449,UnitChange!B:K,5,FALSE)</f>
+        <v>43700000</v>
+      </c>
+      <c r="F449">
+        <f>VLOOKUP(A449,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G449">
+        <f>VLOOKUP(A449,UnitChange!B:K,7,FALSE)</f>
+        <v>0.32760000000000211</v>
+      </c>
+      <c r="H449">
+        <f>VLOOKUP(A449,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I449">
+        <f>VLOOKUP(A449,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J449">
+        <f>VLOOKUP(A449,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K449" s="1">
+        <f>VLOOKUP(A449,UnitChange!B:L,11,FALSE)</f>
+        <v>1.3880000000000006</v>
+      </c>
+    </row>
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A450">
+        <v>448</v>
+      </c>
+      <c r="B450">
+        <f>VLOOKUP(A450,UnitChange!B:K,2,FALSE)</f>
+        <v>1.5000000000000001E+154</v>
+      </c>
+      <c r="C450" t="str">
+        <f>VLOOKUP(A450,UnitChange!B:K,3,FALSE)</f>
+        <v>150월</v>
+      </c>
+      <c r="D450">
+        <f>VLOOKUP(A450,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E450">
+        <f>VLOOKUP(A450,UnitChange!B:K,5,FALSE)</f>
+        <v>43800000</v>
+      </c>
+      <c r="F450">
+        <f>VLOOKUP(A450,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G450">
+        <f>VLOOKUP(A450,UnitChange!B:K,7,FALSE)</f>
+        <v>0.32800000000000212</v>
+      </c>
+      <c r="H450">
+        <f>VLOOKUP(A450,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I450">
+        <f>VLOOKUP(A450,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J450">
+        <f>VLOOKUP(A450,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K450" s="1">
+        <f>VLOOKUP(A450,UnitChange!B:L,11,FALSE)</f>
+        <v>1.3920000000000006</v>
+      </c>
+    </row>
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A451">
+        <v>449</v>
+      </c>
+      <c r="B451">
+        <f>VLOOKUP(A451,UnitChange!B:K,2,FALSE)</f>
+        <v>2.0000000000000001E+154</v>
+      </c>
+      <c r="C451" t="str">
+        <f>VLOOKUP(A451,UnitChange!B:K,3,FALSE)</f>
+        <v>200월</v>
+      </c>
+      <c r="D451">
+        <f>VLOOKUP(A451,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E451">
+        <f>VLOOKUP(A451,UnitChange!B:K,5,FALSE)</f>
+        <v>43900000</v>
+      </c>
+      <c r="F451">
+        <f>VLOOKUP(A451,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G451">
+        <f>VLOOKUP(A451,UnitChange!B:K,7,FALSE)</f>
+        <v>0.32840000000000213</v>
+      </c>
+      <c r="H451">
+        <f>VLOOKUP(A451,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I451">
+        <f>VLOOKUP(A451,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J451">
+        <f>VLOOKUP(A451,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K451" s="1">
+        <f>VLOOKUP(A451,UnitChange!B:L,11,FALSE)</f>
+        <v>1.3960000000000006</v>
+      </c>
+    </row>
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A452">
+        <v>450</v>
+      </c>
+      <c r="B452">
+        <f>VLOOKUP(A452,UnitChange!B:K,2,FALSE)</f>
+        <v>3.0000000000000003E+154</v>
+      </c>
+      <c r="C452" t="str">
+        <f>VLOOKUP(A452,UnitChange!B:K,3,FALSE)</f>
+        <v>300월</v>
+      </c>
+      <c r="D452">
+        <f>VLOOKUP(A452,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E452">
+        <f>VLOOKUP(A452,UnitChange!B:K,5,FALSE)</f>
+        <v>44000000</v>
+      </c>
+      <c r="F452">
+        <f>VLOOKUP(A452,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G452">
+        <f>VLOOKUP(A452,UnitChange!B:K,7,FALSE)</f>
+        <v>0.32880000000000215</v>
+      </c>
+      <c r="H452">
+        <f>VLOOKUP(A452,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I452">
+        <f>VLOOKUP(A452,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J452">
+        <f>VLOOKUP(A452,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K452" s="1">
+        <f>VLOOKUP(A452,UnitChange!B:L,11,FALSE)</f>
+        <v>1.4000000000000006</v>
+      </c>
+    </row>
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A453">
+        <v>451</v>
+      </c>
+      <c r="B453">
+        <f>VLOOKUP(A453,UnitChange!B:K,2,FALSE)</f>
+        <v>5E+154</v>
+      </c>
+      <c r="C453" t="str">
+        <f>VLOOKUP(A453,UnitChange!B:K,3,FALSE)</f>
+        <v>500월</v>
+      </c>
+      <c r="D453">
+        <f>VLOOKUP(A453,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E453">
+        <f>VLOOKUP(A453,UnitChange!B:K,5,FALSE)</f>
+        <v>44100000</v>
+      </c>
+      <c r="F453">
+        <f>VLOOKUP(A453,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G453">
+        <f>VLOOKUP(A453,UnitChange!B:K,7,FALSE)</f>
+        <v>0.32920000000000216</v>
+      </c>
+      <c r="H453">
+        <f>VLOOKUP(A453,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I453">
+        <f>VLOOKUP(A453,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J453">
+        <f>VLOOKUP(A453,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K453" s="1">
+        <f>VLOOKUP(A453,UnitChange!B:L,11,FALSE)</f>
+        <v>1.4040000000000006</v>
+      </c>
+    </row>
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A454">
+        <v>452</v>
+      </c>
+      <c r="B454">
+        <f>VLOOKUP(A454,UnitChange!B:K,2,FALSE)</f>
+        <v>8.0000000000000003E+154</v>
+      </c>
+      <c r="C454" t="str">
+        <f>VLOOKUP(A454,UnitChange!B:K,3,FALSE)</f>
+        <v>800월</v>
+      </c>
+      <c r="D454">
+        <f>VLOOKUP(A454,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E454">
+        <f>VLOOKUP(A454,UnitChange!B:K,5,FALSE)</f>
+        <v>44200000</v>
+      </c>
+      <c r="F454">
+        <f>VLOOKUP(A454,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G454">
+        <f>VLOOKUP(A454,UnitChange!B:K,7,FALSE)</f>
+        <v>0.32960000000000217</v>
+      </c>
+      <c r="H454">
+        <f>VLOOKUP(A454,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I454">
+        <f>VLOOKUP(A454,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J454">
+        <f>VLOOKUP(A454,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K454" s="1">
+        <f>VLOOKUP(A454,UnitChange!B:L,11,FALSE)</f>
+        <v>1.4080000000000006</v>
+      </c>
+    </row>
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A455">
+        <v>453</v>
+      </c>
+      <c r="B455">
+        <f>VLOOKUP(A455,UnitChange!B:K,2,FALSE)</f>
+        <v>1E+155</v>
+      </c>
+      <c r="C455" t="str">
+        <f>VLOOKUP(A455,UnitChange!B:K,3,FALSE)</f>
+        <v>1000월</v>
+      </c>
+      <c r="D455">
+        <f>VLOOKUP(A455,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E455">
+        <f>VLOOKUP(A455,UnitChange!B:K,5,FALSE)</f>
+        <v>44300000</v>
+      </c>
+      <c r="F455">
+        <f>VLOOKUP(A455,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G455">
+        <f>VLOOKUP(A455,UnitChange!B:K,7,FALSE)</f>
+        <v>0.33000000000000218</v>
+      </c>
+      <c r="H455">
+        <f>VLOOKUP(A455,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I455">
+        <f>VLOOKUP(A455,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J455">
+        <f>VLOOKUP(A455,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K455" s="1">
+        <f>VLOOKUP(A455,UnitChange!B:L,11,FALSE)</f>
+        <v>1.4120000000000006</v>
+      </c>
+    </row>
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A456">
+        <v>454</v>
+      </c>
+      <c r="B456">
+        <f>VLOOKUP(A456,UnitChange!B:K,2,FALSE)</f>
+        <v>2E+155</v>
+      </c>
+      <c r="C456" t="str">
+        <f>VLOOKUP(A456,UnitChange!B:K,3,FALSE)</f>
+        <v>2000월</v>
+      </c>
+      <c r="D456">
+        <f>VLOOKUP(A456,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E456">
+        <f>VLOOKUP(A456,UnitChange!B:K,5,FALSE)</f>
+        <v>44400000</v>
+      </c>
+      <c r="F456">
+        <f>VLOOKUP(A456,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G456">
+        <f>VLOOKUP(A456,UnitChange!B:K,7,FALSE)</f>
+        <v>0.33040000000000219</v>
+      </c>
+      <c r="H456">
+        <f>VLOOKUP(A456,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I456">
+        <f>VLOOKUP(A456,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J456">
+        <f>VLOOKUP(A456,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K456" s="1">
+        <f>VLOOKUP(A456,UnitChange!B:L,11,FALSE)</f>
+        <v>1.4160000000000006</v>
+      </c>
+    </row>
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A457">
+        <v>455</v>
+      </c>
+      <c r="B457">
+        <f>VLOOKUP(A457,UnitChange!B:K,2,FALSE)</f>
+        <v>4.9999999999999999E+155</v>
+      </c>
+      <c r="C457" t="str">
+        <f>VLOOKUP(A457,UnitChange!B:K,3,FALSE)</f>
+        <v>5000월</v>
+      </c>
+      <c r="D457">
+        <f>VLOOKUP(A457,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E457">
+        <f>VLOOKUP(A457,UnitChange!B:K,5,FALSE)</f>
+        <v>44500000</v>
+      </c>
+      <c r="F457">
+        <f>VLOOKUP(A457,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G457">
+        <f>VLOOKUP(A457,UnitChange!B:K,7,FALSE)</f>
+        <v>0.3308000000000022</v>
+      </c>
+      <c r="H457">
+        <f>VLOOKUP(A457,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I457">
+        <f>VLOOKUP(A457,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J457">
+        <f>VLOOKUP(A457,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K457" s="1">
+        <f>VLOOKUP(A457,UnitChange!B:L,11,FALSE)</f>
+        <v>1.4200000000000006</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19037,10 +19712,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626C1493-E0FD-4651-99C5-58D15BDAC6AC}">
-  <dimension ref="B1:AC194"/>
+  <dimension ref="B1:AC209"/>
   <sheetViews>
-    <sheetView topLeftCell="A167" workbookViewId="0">
-      <selection activeCell="K182" sqref="K182"/>
+    <sheetView topLeftCell="A179" workbookViewId="0">
+      <selection activeCell="J202" sqref="J202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -21674,7 +22349,7 @@
         <v>1E+108</v>
       </c>
       <c r="Q43" s="12" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="R43" s="12">
         <v>152</v>
@@ -21747,7 +22422,7 @@
         <v>1E+108</v>
       </c>
       <c r="Q44" s="12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="R44" s="12">
         <v>156</v>
@@ -27984,14 +28659,14 @@
         <v>20</v>
       </c>
       <c r="F165" s="16">
-        <f t="shared" ref="F165:F194" si="53">F164+100000</f>
+        <f t="shared" ref="F165:F209" si="53">F164+100000</f>
         <v>40100000</v>
       </c>
       <c r="G165" s="16">
         <v>2</v>
       </c>
       <c r="H165" s="16">
-        <f t="shared" ref="H165:H194" si="54">IF(RIGHT(H164,2)="24",H164+0.0076,H164+0.0004)</f>
+        <f t="shared" ref="H165:H209" si="54">IF(RIGHT(H164,2)="24",H164+0.0076,H164+0.0004)</f>
         <v>0.3132000000000017</v>
       </c>
       <c r="I165" s="16">
@@ -28004,7 +28679,7 @@
         <v>60</v>
       </c>
       <c r="L165" s="16">
-        <f t="shared" ref="L165:L194" si="55">L164+0.004</f>
+        <f t="shared" ref="L165:L209" si="55">L164+0.004</f>
         <v>1.2440000000000004</v>
       </c>
       <c r="M165" s="20">
@@ -28114,7 +28789,7 @@
         <v>339</v>
       </c>
       <c r="O167" s="12" t="str">
-        <f t="shared" ref="O167:O194" si="56">VLOOKUP(N167,Q:T,4,FALSE)</f>
+        <f t="shared" ref="O167:O209" si="56">VLOOKUP(N167,Q:T,4,FALSE)</f>
         <v>1E+144</v>
       </c>
     </row>
@@ -29466,6 +30141,756 @@
       <c r="O194" s="12" t="str">
         <f t="shared" si="56"/>
         <v>1E+148</v>
+      </c>
+    </row>
+    <row r="195" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B195" s="21">
+        <v>441</v>
+      </c>
+      <c r="C195" s="16">
+        <f t="shared" ref="C195:C209" si="59">M195*O195</f>
+        <v>1E+152</v>
+      </c>
+      <c r="D195" s="16" t="str">
+        <f t="shared" ref="D195:D209" si="60">M195&amp;N195</f>
+        <v>1월</v>
+      </c>
+      <c r="E195" s="16">
+        <v>20</v>
+      </c>
+      <c r="F195" s="16">
+        <f t="shared" si="53"/>
+        <v>43100000</v>
+      </c>
+      <c r="G195" s="16">
+        <v>2</v>
+      </c>
+      <c r="H195" s="16">
+        <f t="shared" si="54"/>
+        <v>0.32520000000000204</v>
+      </c>
+      <c r="I195" s="16">
+        <v>23</v>
+      </c>
+      <c r="J195" s="16">
+        <v>0</v>
+      </c>
+      <c r="K195" s="16">
+        <v>60</v>
+      </c>
+      <c r="L195" s="16">
+        <f t="shared" si="55"/>
+        <v>1.3640000000000005</v>
+      </c>
+      <c r="M195" s="20">
+        <v>1</v>
+      </c>
+      <c r="N195" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="O195" s="12" t="str">
+        <f t="shared" si="56"/>
+        <v>1E+152</v>
+      </c>
+    </row>
+    <row r="196" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B196" s="21">
+        <v>442</v>
+      </c>
+      <c r="C196" s="16">
+        <f t="shared" si="59"/>
+        <v>2.0000000000000001E+152</v>
+      </c>
+      <c r="D196" s="16" t="str">
+        <f t="shared" si="60"/>
+        <v>2월</v>
+      </c>
+      <c r="E196" s="16">
+        <v>20</v>
+      </c>
+      <c r="F196" s="16">
+        <f t="shared" si="53"/>
+        <v>43200000</v>
+      </c>
+      <c r="G196" s="16">
+        <v>2</v>
+      </c>
+      <c r="H196" s="16">
+        <f t="shared" si="54"/>
+        <v>0.32560000000000205</v>
+      </c>
+      <c r="I196" s="16">
+        <v>23</v>
+      </c>
+      <c r="J196" s="16">
+        <v>0</v>
+      </c>
+      <c r="K196" s="16">
+        <v>60</v>
+      </c>
+      <c r="L196" s="16">
+        <f t="shared" si="55"/>
+        <v>1.3680000000000005</v>
+      </c>
+      <c r="M196" s="20">
+        <v>2</v>
+      </c>
+      <c r="N196" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="O196" s="12" t="str">
+        <f t="shared" si="56"/>
+        <v>1E+152</v>
+      </c>
+    </row>
+    <row r="197" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B197" s="21">
+        <v>443</v>
+      </c>
+      <c r="C197" s="16">
+        <f t="shared" si="59"/>
+        <v>5E+152</v>
+      </c>
+      <c r="D197" s="16" t="str">
+        <f t="shared" si="60"/>
+        <v>5월</v>
+      </c>
+      <c r="E197" s="16">
+        <v>20</v>
+      </c>
+      <c r="F197" s="16">
+        <f t="shared" si="53"/>
+        <v>43300000</v>
+      </c>
+      <c r="G197" s="16">
+        <v>2</v>
+      </c>
+      <c r="H197" s="16">
+        <f t="shared" si="54"/>
+        <v>0.32600000000000207</v>
+      </c>
+      <c r="I197" s="16">
+        <v>23</v>
+      </c>
+      <c r="J197" s="16">
+        <v>0</v>
+      </c>
+      <c r="K197" s="16">
+        <v>60</v>
+      </c>
+      <c r="L197" s="16">
+        <f t="shared" si="55"/>
+        <v>1.3720000000000006</v>
+      </c>
+      <c r="M197" s="20">
+        <v>5</v>
+      </c>
+      <c r="N197" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="O197" s="12" t="str">
+        <f t="shared" si="56"/>
+        <v>1E+152</v>
+      </c>
+    </row>
+    <row r="198" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B198" s="21">
+        <v>444</v>
+      </c>
+      <c r="C198" s="16">
+        <f t="shared" si="59"/>
+        <v>1E+153</v>
+      </c>
+      <c r="D198" s="16" t="str">
+        <f t="shared" si="60"/>
+        <v>10월</v>
+      </c>
+      <c r="E198" s="16">
+        <v>20</v>
+      </c>
+      <c r="F198" s="16">
+        <f t="shared" si="53"/>
+        <v>43400000</v>
+      </c>
+      <c r="G198" s="16">
+        <v>2</v>
+      </c>
+      <c r="H198" s="16">
+        <f t="shared" si="54"/>
+        <v>0.32640000000000208</v>
+      </c>
+      <c r="I198" s="16">
+        <v>23</v>
+      </c>
+      <c r="J198" s="16">
+        <v>0</v>
+      </c>
+      <c r="K198" s="16">
+        <v>60</v>
+      </c>
+      <c r="L198" s="16">
+        <f t="shared" si="55"/>
+        <v>1.3760000000000006</v>
+      </c>
+      <c r="M198" s="20">
+        <v>10</v>
+      </c>
+      <c r="N198" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="O198" s="12" t="str">
+        <f t="shared" si="56"/>
+        <v>1E+152</v>
+      </c>
+    </row>
+    <row r="199" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B199" s="21">
+        <v>445</v>
+      </c>
+      <c r="C199" s="16">
+        <f t="shared" si="59"/>
+        <v>2E+153</v>
+      </c>
+      <c r="D199" s="16" t="str">
+        <f t="shared" si="60"/>
+        <v>20월</v>
+      </c>
+      <c r="E199" s="16">
+        <v>20</v>
+      </c>
+      <c r="F199" s="16">
+        <f t="shared" si="53"/>
+        <v>43500000</v>
+      </c>
+      <c r="G199" s="16">
+        <v>2</v>
+      </c>
+      <c r="H199" s="16">
+        <f t="shared" si="54"/>
+        <v>0.32680000000000209</v>
+      </c>
+      <c r="I199" s="16">
+        <v>23</v>
+      </c>
+      <c r="J199" s="16">
+        <v>0</v>
+      </c>
+      <c r="K199" s="16">
+        <v>60</v>
+      </c>
+      <c r="L199" s="16">
+        <f t="shared" si="55"/>
+        <v>1.3800000000000006</v>
+      </c>
+      <c r="M199" s="20">
+        <v>20</v>
+      </c>
+      <c r="N199" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="O199" s="12" t="str">
+        <f t="shared" si="56"/>
+        <v>1E+152</v>
+      </c>
+    </row>
+    <row r="200" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B200" s="21">
+        <v>446</v>
+      </c>
+      <c r="C200" s="16">
+        <f t="shared" si="59"/>
+        <v>5.0000000000000002E+153</v>
+      </c>
+      <c r="D200" s="16" t="str">
+        <f t="shared" si="60"/>
+        <v>50월</v>
+      </c>
+      <c r="E200" s="16">
+        <v>20</v>
+      </c>
+      <c r="F200" s="16">
+        <f t="shared" si="53"/>
+        <v>43600000</v>
+      </c>
+      <c r="G200" s="16">
+        <v>2</v>
+      </c>
+      <c r="H200" s="16">
+        <f t="shared" si="54"/>
+        <v>0.3272000000000021</v>
+      </c>
+      <c r="I200" s="16">
+        <v>23</v>
+      </c>
+      <c r="J200" s="16">
+        <v>0</v>
+      </c>
+      <c r="K200" s="16">
+        <v>60</v>
+      </c>
+      <c r="L200" s="16">
+        <f t="shared" si="55"/>
+        <v>1.3840000000000006</v>
+      </c>
+      <c r="M200" s="20">
+        <v>50</v>
+      </c>
+      <c r="N200" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="O200" s="12" t="str">
+        <f t="shared" si="56"/>
+        <v>1E+152</v>
+      </c>
+    </row>
+    <row r="201" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B201" s="21">
+        <v>447</v>
+      </c>
+      <c r="C201" s="16">
+        <f t="shared" si="59"/>
+        <v>1E+154</v>
+      </c>
+      <c r="D201" s="16" t="str">
+        <f t="shared" si="60"/>
+        <v>100월</v>
+      </c>
+      <c r="E201" s="16">
+        <v>20</v>
+      </c>
+      <c r="F201" s="16">
+        <f t="shared" si="53"/>
+        <v>43700000</v>
+      </c>
+      <c r="G201" s="16">
+        <v>2</v>
+      </c>
+      <c r="H201" s="16">
+        <f t="shared" si="54"/>
+        <v>0.32760000000000211</v>
+      </c>
+      <c r="I201" s="16">
+        <v>23</v>
+      </c>
+      <c r="J201" s="16">
+        <v>0</v>
+      </c>
+      <c r="K201" s="16">
+        <v>60</v>
+      </c>
+      <c r="L201" s="16">
+        <f t="shared" si="55"/>
+        <v>1.3880000000000006</v>
+      </c>
+      <c r="M201" s="20">
+        <v>100</v>
+      </c>
+      <c r="N201" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="O201" s="12" t="str">
+        <f t="shared" si="56"/>
+        <v>1E+152</v>
+      </c>
+    </row>
+    <row r="202" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B202" s="21">
+        <v>448</v>
+      </c>
+      <c r="C202" s="16">
+        <f t="shared" si="59"/>
+        <v>1.5000000000000001E+154</v>
+      </c>
+      <c r="D202" s="16" t="str">
+        <f t="shared" si="60"/>
+        <v>150월</v>
+      </c>
+      <c r="E202" s="16">
+        <v>20</v>
+      </c>
+      <c r="F202" s="16">
+        <f t="shared" si="53"/>
+        <v>43800000</v>
+      </c>
+      <c r="G202" s="16">
+        <v>2</v>
+      </c>
+      <c r="H202" s="16">
+        <f t="shared" si="54"/>
+        <v>0.32800000000000212</v>
+      </c>
+      <c r="I202" s="16">
+        <v>23</v>
+      </c>
+      <c r="J202" s="16">
+        <v>0</v>
+      </c>
+      <c r="K202" s="16">
+        <v>60</v>
+      </c>
+      <c r="L202" s="16">
+        <f t="shared" si="55"/>
+        <v>1.3920000000000006</v>
+      </c>
+      <c r="M202" s="20">
+        <v>150</v>
+      </c>
+      <c r="N202" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="O202" s="12" t="str">
+        <f t="shared" si="56"/>
+        <v>1E+152</v>
+      </c>
+    </row>
+    <row r="203" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B203" s="21">
+        <v>449</v>
+      </c>
+      <c r="C203" s="16">
+        <f t="shared" si="59"/>
+        <v>2.0000000000000001E+154</v>
+      </c>
+      <c r="D203" s="16" t="str">
+        <f t="shared" si="60"/>
+        <v>200월</v>
+      </c>
+      <c r="E203" s="16">
+        <v>20</v>
+      </c>
+      <c r="F203" s="16">
+        <f t="shared" si="53"/>
+        <v>43900000</v>
+      </c>
+      <c r="G203" s="16">
+        <v>2</v>
+      </c>
+      <c r="H203" s="16">
+        <f t="shared" si="54"/>
+        <v>0.32840000000000213</v>
+      </c>
+      <c r="I203" s="16">
+        <v>23</v>
+      </c>
+      <c r="J203" s="16">
+        <v>0</v>
+      </c>
+      <c r="K203" s="16">
+        <v>60</v>
+      </c>
+      <c r="L203" s="16">
+        <f t="shared" si="55"/>
+        <v>1.3960000000000006</v>
+      </c>
+      <c r="M203" s="20">
+        <v>200</v>
+      </c>
+      <c r="N203" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="O203" s="12" t="str">
+        <f t="shared" si="56"/>
+        <v>1E+152</v>
+      </c>
+    </row>
+    <row r="204" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B204" s="21">
+        <v>450</v>
+      </c>
+      <c r="C204" s="16">
+        <f t="shared" si="59"/>
+        <v>3.0000000000000003E+154</v>
+      </c>
+      <c r="D204" s="16" t="str">
+        <f t="shared" si="60"/>
+        <v>300월</v>
+      </c>
+      <c r="E204" s="16">
+        <v>20</v>
+      </c>
+      <c r="F204" s="16">
+        <f t="shared" si="53"/>
+        <v>44000000</v>
+      </c>
+      <c r="G204" s="16">
+        <v>2</v>
+      </c>
+      <c r="H204" s="16">
+        <f t="shared" si="54"/>
+        <v>0.32880000000000215</v>
+      </c>
+      <c r="I204" s="16">
+        <v>23</v>
+      </c>
+      <c r="J204" s="16">
+        <v>0</v>
+      </c>
+      <c r="K204" s="16">
+        <v>60</v>
+      </c>
+      <c r="L204" s="16">
+        <f t="shared" si="55"/>
+        <v>1.4000000000000006</v>
+      </c>
+      <c r="M204" s="20">
+        <v>300</v>
+      </c>
+      <c r="N204" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="O204" s="12" t="str">
+        <f t="shared" si="56"/>
+        <v>1E+152</v>
+      </c>
+    </row>
+    <row r="205" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B205" s="21">
+        <v>451</v>
+      </c>
+      <c r="C205" s="16">
+        <f t="shared" si="59"/>
+        <v>5E+154</v>
+      </c>
+      <c r="D205" s="16" t="str">
+        <f t="shared" si="60"/>
+        <v>500월</v>
+      </c>
+      <c r="E205" s="16">
+        <v>20</v>
+      </c>
+      <c r="F205" s="16">
+        <f t="shared" si="53"/>
+        <v>44100000</v>
+      </c>
+      <c r="G205" s="16">
+        <v>2</v>
+      </c>
+      <c r="H205" s="16">
+        <f t="shared" si="54"/>
+        <v>0.32920000000000216</v>
+      </c>
+      <c r="I205" s="16">
+        <v>23</v>
+      </c>
+      <c r="J205" s="16">
+        <v>0</v>
+      </c>
+      <c r="K205" s="16">
+        <v>60</v>
+      </c>
+      <c r="L205" s="16">
+        <f t="shared" si="55"/>
+        <v>1.4040000000000006</v>
+      </c>
+      <c r="M205" s="20">
+        <v>500</v>
+      </c>
+      <c r="N205" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="O205" s="12" t="str">
+        <f t="shared" si="56"/>
+        <v>1E+152</v>
+      </c>
+    </row>
+    <row r="206" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B206" s="21">
+        <v>452</v>
+      </c>
+      <c r="C206" s="16">
+        <f t="shared" si="59"/>
+        <v>8.0000000000000003E+154</v>
+      </c>
+      <c r="D206" s="16" t="str">
+        <f t="shared" si="60"/>
+        <v>800월</v>
+      </c>
+      <c r="E206" s="16">
+        <v>20</v>
+      </c>
+      <c r="F206" s="16">
+        <f t="shared" si="53"/>
+        <v>44200000</v>
+      </c>
+      <c r="G206" s="16">
+        <v>2</v>
+      </c>
+      <c r="H206" s="16">
+        <f t="shared" si="54"/>
+        <v>0.32960000000000217</v>
+      </c>
+      <c r="I206" s="16">
+        <v>23</v>
+      </c>
+      <c r="J206" s="16">
+        <v>0</v>
+      </c>
+      <c r="K206" s="16">
+        <v>60</v>
+      </c>
+      <c r="L206" s="16">
+        <f t="shared" si="55"/>
+        <v>1.4080000000000006</v>
+      </c>
+      <c r="M206" s="20">
+        <v>800</v>
+      </c>
+      <c r="N206" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="O206" s="12" t="str">
+        <f t="shared" si="56"/>
+        <v>1E+152</v>
+      </c>
+    </row>
+    <row r="207" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B207" s="21">
+        <v>453</v>
+      </c>
+      <c r="C207" s="16">
+        <f t="shared" si="59"/>
+        <v>1E+155</v>
+      </c>
+      <c r="D207" s="16" t="str">
+        <f t="shared" si="60"/>
+        <v>1000월</v>
+      </c>
+      <c r="E207" s="16">
+        <v>20</v>
+      </c>
+      <c r="F207" s="16">
+        <f t="shared" si="53"/>
+        <v>44300000</v>
+      </c>
+      <c r="G207" s="16">
+        <v>2</v>
+      </c>
+      <c r="H207" s="16">
+        <f t="shared" si="54"/>
+        <v>0.33000000000000218</v>
+      </c>
+      <c r="I207" s="16">
+        <v>23</v>
+      </c>
+      <c r="J207" s="16">
+        <v>0</v>
+      </c>
+      <c r="K207" s="16">
+        <v>60</v>
+      </c>
+      <c r="L207" s="16">
+        <f t="shared" si="55"/>
+        <v>1.4120000000000006</v>
+      </c>
+      <c r="M207" s="20">
+        <v>1000</v>
+      </c>
+      <c r="N207" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="O207" s="12" t="str">
+        <f t="shared" si="56"/>
+        <v>1E+152</v>
+      </c>
+    </row>
+    <row r="208" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B208" s="21">
+        <v>454</v>
+      </c>
+      <c r="C208" s="16">
+        <f t="shared" si="59"/>
+        <v>2E+155</v>
+      </c>
+      <c r="D208" s="16" t="str">
+        <f t="shared" si="60"/>
+        <v>2000월</v>
+      </c>
+      <c r="E208" s="16">
+        <v>20</v>
+      </c>
+      <c r="F208" s="16">
+        <f t="shared" si="53"/>
+        <v>44400000</v>
+      </c>
+      <c r="G208" s="16">
+        <v>2</v>
+      </c>
+      <c r="H208" s="16">
+        <f t="shared" si="54"/>
+        <v>0.33040000000000219</v>
+      </c>
+      <c r="I208" s="16">
+        <v>23</v>
+      </c>
+      <c r="J208" s="16">
+        <v>0</v>
+      </c>
+      <c r="K208" s="16">
+        <v>60</v>
+      </c>
+      <c r="L208" s="16">
+        <f t="shared" si="55"/>
+        <v>1.4160000000000006</v>
+      </c>
+      <c r="M208" s="20">
+        <v>2000</v>
+      </c>
+      <c r="N208" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="O208" s="12" t="str">
+        <f t="shared" si="56"/>
+        <v>1E+152</v>
+      </c>
+    </row>
+    <row r="209" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B209" s="21">
+        <v>455</v>
+      </c>
+      <c r="C209" s="16">
+        <f t="shared" si="59"/>
+        <v>4.9999999999999999E+155</v>
+      </c>
+      <c r="D209" s="16" t="str">
+        <f t="shared" si="60"/>
+        <v>5000월</v>
+      </c>
+      <c r="E209" s="16">
+        <v>20</v>
+      </c>
+      <c r="F209" s="16">
+        <f t="shared" si="53"/>
+        <v>44500000</v>
+      </c>
+      <c r="G209" s="16">
+        <v>2</v>
+      </c>
+      <c r="H209" s="16">
+        <f t="shared" si="54"/>
+        <v>0.3308000000000022</v>
+      </c>
+      <c r="I209" s="16">
+        <v>23</v>
+      </c>
+      <c r="J209" s="16">
+        <v>0</v>
+      </c>
+      <c r="K209" s="16">
+        <v>60</v>
+      </c>
+      <c r="L209" s="16">
+        <f t="shared" si="55"/>
+        <v>1.4200000000000006</v>
+      </c>
+      <c r="M209" s="20">
+        <v>5000</v>
+      </c>
+      <c r="N209" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="O209" s="12" t="str">
+        <f t="shared" si="56"/>
+        <v>1E+152</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/SusanoTable.xlsx
+++ b/Assets/06.Table/SusanoTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8120DD4A-A9C4-46B6-9D29-A501C3083CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4657B18B-17BD-4837-97F3-9FEAE05F53D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SusanoTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="346">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1374,11 +1374,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a</t>
+    <t>b</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>b</t>
+    <t>절</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1904,11 +1904,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:K487"/>
+  <dimension ref="A1:K502"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A480" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C497" sqref="C497"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -21065,6 +21065,681 @@
         <v>1.5400000000000007</v>
       </c>
     </row>
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A488">
+        <v>486</v>
+      </c>
+      <c r="B488">
+        <f>VLOOKUP(A488,UnitChange!B:K,2,FALSE)</f>
+        <v>1E+164</v>
+      </c>
+      <c r="C488" t="str">
+        <f>VLOOKUP(A488,UnitChange!B:K,3,FALSE)</f>
+        <v>1절</v>
+      </c>
+      <c r="D488">
+        <f>VLOOKUP(A488,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E488">
+        <f>VLOOKUP(A488,UnitChange!B:K,5,FALSE)</f>
+        <v>47600000</v>
+      </c>
+      <c r="F488">
+        <f>VLOOKUP(A488,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G488">
+        <f>VLOOKUP(A488,UnitChange!B:K,7,FALSE)</f>
+        <v>0.34320000000000256</v>
+      </c>
+      <c r="H488">
+        <f>VLOOKUP(A488,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I488">
+        <f>VLOOKUP(A488,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J488">
+        <f>VLOOKUP(A488,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K488" s="1">
+        <f>VLOOKUP(A488,UnitChange!B:L,11,FALSE)</f>
+        <v>1.5440000000000007</v>
+      </c>
+    </row>
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A489">
+        <v>487</v>
+      </c>
+      <c r="B489">
+        <f>VLOOKUP(A489,UnitChange!B:K,2,FALSE)</f>
+        <v>2E+164</v>
+      </c>
+      <c r="C489" t="str">
+        <f>VLOOKUP(A489,UnitChange!B:K,3,FALSE)</f>
+        <v>2절</v>
+      </c>
+      <c r="D489">
+        <f>VLOOKUP(A489,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E489">
+        <f>VLOOKUP(A489,UnitChange!B:K,5,FALSE)</f>
+        <v>47700000</v>
+      </c>
+      <c r="F489">
+        <f>VLOOKUP(A489,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G489">
+        <f>VLOOKUP(A489,UnitChange!B:K,7,FALSE)</f>
+        <v>0.34360000000000257</v>
+      </c>
+      <c r="H489">
+        <f>VLOOKUP(A489,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I489">
+        <f>VLOOKUP(A489,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J489">
+        <f>VLOOKUP(A489,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K489" s="1">
+        <f>VLOOKUP(A489,UnitChange!B:L,11,FALSE)</f>
+        <v>1.5480000000000007</v>
+      </c>
+    </row>
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A490">
+        <v>488</v>
+      </c>
+      <c r="B490">
+        <f>VLOOKUP(A490,UnitChange!B:K,2,FALSE)</f>
+        <v>5.0000000000000005E+164</v>
+      </c>
+      <c r="C490" t="str">
+        <f>VLOOKUP(A490,UnitChange!B:K,3,FALSE)</f>
+        <v>5절</v>
+      </c>
+      <c r="D490">
+        <f>VLOOKUP(A490,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E490">
+        <f>VLOOKUP(A490,UnitChange!B:K,5,FALSE)</f>
+        <v>47800000</v>
+      </c>
+      <c r="F490">
+        <f>VLOOKUP(A490,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G490">
+        <f>VLOOKUP(A490,UnitChange!B:K,7,FALSE)</f>
+        <v>0.34400000000000258</v>
+      </c>
+      <c r="H490">
+        <f>VLOOKUP(A490,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I490">
+        <f>VLOOKUP(A490,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J490">
+        <f>VLOOKUP(A490,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K490" s="1">
+        <f>VLOOKUP(A490,UnitChange!B:L,11,FALSE)</f>
+        <v>1.5520000000000007</v>
+      </c>
+    </row>
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A491">
+        <v>489</v>
+      </c>
+      <c r="B491">
+        <f>VLOOKUP(A491,UnitChange!B:K,2,FALSE)</f>
+        <v>1.0000000000000001E+165</v>
+      </c>
+      <c r="C491" t="str">
+        <f>VLOOKUP(A491,UnitChange!B:K,3,FALSE)</f>
+        <v>10절</v>
+      </c>
+      <c r="D491">
+        <f>VLOOKUP(A491,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E491">
+        <f>VLOOKUP(A491,UnitChange!B:K,5,FALSE)</f>
+        <v>47900000</v>
+      </c>
+      <c r="F491">
+        <f>VLOOKUP(A491,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G491">
+        <f>VLOOKUP(A491,UnitChange!B:K,7,FALSE)</f>
+        <v>0.34440000000000259</v>
+      </c>
+      <c r="H491">
+        <f>VLOOKUP(A491,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I491">
+        <f>VLOOKUP(A491,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J491">
+        <f>VLOOKUP(A491,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K491" s="1">
+        <f>VLOOKUP(A491,UnitChange!B:L,11,FALSE)</f>
+        <v>1.5560000000000007</v>
+      </c>
+    </row>
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A492">
+        <v>490</v>
+      </c>
+      <c r="B492">
+        <f>VLOOKUP(A492,UnitChange!B:K,2,FALSE)</f>
+        <v>2.0000000000000002E+165</v>
+      </c>
+      <c r="C492" t="str">
+        <f>VLOOKUP(A492,UnitChange!B:K,3,FALSE)</f>
+        <v>20절</v>
+      </c>
+      <c r="D492">
+        <f>VLOOKUP(A492,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E492">
+        <f>VLOOKUP(A492,UnitChange!B:K,5,FALSE)</f>
+        <v>48000000</v>
+      </c>
+      <c r="F492">
+        <f>VLOOKUP(A492,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G492">
+        <f>VLOOKUP(A492,UnitChange!B:K,7,FALSE)</f>
+        <v>0.3448000000000026</v>
+      </c>
+      <c r="H492">
+        <f>VLOOKUP(A492,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I492">
+        <f>VLOOKUP(A492,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J492">
+        <f>VLOOKUP(A492,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K492" s="1">
+        <f>VLOOKUP(A492,UnitChange!B:L,11,FALSE)</f>
+        <v>1.5600000000000007</v>
+      </c>
+    </row>
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A493">
+        <v>491</v>
+      </c>
+      <c r="B493">
+        <f>VLOOKUP(A493,UnitChange!B:K,2,FALSE)</f>
+        <v>4.9999999999999997E+165</v>
+      </c>
+      <c r="C493" t="str">
+        <f>VLOOKUP(A493,UnitChange!B:K,3,FALSE)</f>
+        <v>50절</v>
+      </c>
+      <c r="D493">
+        <f>VLOOKUP(A493,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E493">
+        <f>VLOOKUP(A493,UnitChange!B:K,5,FALSE)</f>
+        <v>48100000</v>
+      </c>
+      <c r="F493">
+        <f>VLOOKUP(A493,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G493">
+        <f>VLOOKUP(A493,UnitChange!B:K,7,FALSE)</f>
+        <v>0.34520000000000262</v>
+      </c>
+      <c r="H493">
+        <f>VLOOKUP(A493,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I493">
+        <f>VLOOKUP(A493,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J493">
+        <f>VLOOKUP(A493,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K493" s="1">
+        <f>VLOOKUP(A493,UnitChange!B:L,11,FALSE)</f>
+        <v>1.5640000000000007</v>
+      </c>
+    </row>
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A494">
+        <v>492</v>
+      </c>
+      <c r="B494">
+        <f>VLOOKUP(A494,UnitChange!B:K,2,FALSE)</f>
+        <v>9.9999999999999994E+165</v>
+      </c>
+      <c r="C494" t="str">
+        <f>VLOOKUP(A494,UnitChange!B:K,3,FALSE)</f>
+        <v>100절</v>
+      </c>
+      <c r="D494">
+        <f>VLOOKUP(A494,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E494">
+        <f>VLOOKUP(A494,UnitChange!B:K,5,FALSE)</f>
+        <v>48200000</v>
+      </c>
+      <c r="F494">
+        <f>VLOOKUP(A494,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G494">
+        <f>VLOOKUP(A494,UnitChange!B:K,7,FALSE)</f>
+        <v>0.34560000000000263</v>
+      </c>
+      <c r="H494">
+        <f>VLOOKUP(A494,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I494">
+        <f>VLOOKUP(A494,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J494">
+        <f>VLOOKUP(A494,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K494" s="1">
+        <f>VLOOKUP(A494,UnitChange!B:L,11,FALSE)</f>
+        <v>1.5680000000000007</v>
+      </c>
+    </row>
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A495">
+        <v>493</v>
+      </c>
+      <c r="B495">
+        <f>VLOOKUP(A495,UnitChange!B:K,2,FALSE)</f>
+        <v>1.5E+166</v>
+      </c>
+      <c r="C495" t="str">
+        <f>VLOOKUP(A495,UnitChange!B:K,3,FALSE)</f>
+        <v>150절</v>
+      </c>
+      <c r="D495">
+        <f>VLOOKUP(A495,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E495">
+        <f>VLOOKUP(A495,UnitChange!B:K,5,FALSE)</f>
+        <v>48300000</v>
+      </c>
+      <c r="F495">
+        <f>VLOOKUP(A495,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G495">
+        <f>VLOOKUP(A495,UnitChange!B:K,7,FALSE)</f>
+        <v>0.34600000000000264</v>
+      </c>
+      <c r="H495">
+        <f>VLOOKUP(A495,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I495">
+        <f>VLOOKUP(A495,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J495">
+        <f>VLOOKUP(A495,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K495" s="1">
+        <f>VLOOKUP(A495,UnitChange!B:L,11,FALSE)</f>
+        <v>1.5720000000000007</v>
+      </c>
+    </row>
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A496">
+        <v>494</v>
+      </c>
+      <c r="B496">
+        <f>VLOOKUP(A496,UnitChange!B:K,2,FALSE)</f>
+        <v>1.9999999999999999E+166</v>
+      </c>
+      <c r="C496" t="str">
+        <f>VLOOKUP(A496,UnitChange!B:K,3,FALSE)</f>
+        <v>200절</v>
+      </c>
+      <c r="D496">
+        <f>VLOOKUP(A496,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E496">
+        <f>VLOOKUP(A496,UnitChange!B:K,5,FALSE)</f>
+        <v>48400000</v>
+      </c>
+      <c r="F496">
+        <f>VLOOKUP(A496,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G496">
+        <f>VLOOKUP(A496,UnitChange!B:K,7,FALSE)</f>
+        <v>0.34640000000000265</v>
+      </c>
+      <c r="H496">
+        <f>VLOOKUP(A496,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I496">
+        <f>VLOOKUP(A496,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J496">
+        <f>VLOOKUP(A496,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K496" s="1">
+        <f>VLOOKUP(A496,UnitChange!B:L,11,FALSE)</f>
+        <v>1.5760000000000007</v>
+      </c>
+    </row>
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A497">
+        <v>495</v>
+      </c>
+      <c r="B497">
+        <f>VLOOKUP(A497,UnitChange!B:K,2,FALSE)</f>
+        <v>3E+166</v>
+      </c>
+      <c r="C497" t="str">
+        <f>VLOOKUP(A497,UnitChange!B:K,3,FALSE)</f>
+        <v>300절</v>
+      </c>
+      <c r="D497">
+        <f>VLOOKUP(A497,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E497">
+        <f>VLOOKUP(A497,UnitChange!B:K,5,FALSE)</f>
+        <v>48500000</v>
+      </c>
+      <c r="F497">
+        <f>VLOOKUP(A497,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G497">
+        <f>VLOOKUP(A497,UnitChange!B:K,7,FALSE)</f>
+        <v>0.34680000000000266</v>
+      </c>
+      <c r="H497">
+        <f>VLOOKUP(A497,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I497">
+        <f>VLOOKUP(A497,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J497">
+        <f>VLOOKUP(A497,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K497" s="1">
+        <f>VLOOKUP(A497,UnitChange!B:L,11,FALSE)</f>
+        <v>1.5800000000000007</v>
+      </c>
+    </row>
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A498">
+        <v>496</v>
+      </c>
+      <c r="B498">
+        <f>VLOOKUP(A498,UnitChange!B:K,2,FALSE)</f>
+        <v>5.0000000000000002E+166</v>
+      </c>
+      <c r="C498" t="str">
+        <f>VLOOKUP(A498,UnitChange!B:K,3,FALSE)</f>
+        <v>500절</v>
+      </c>
+      <c r="D498">
+        <f>VLOOKUP(A498,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E498">
+        <f>VLOOKUP(A498,UnitChange!B:K,5,FALSE)</f>
+        <v>48600000</v>
+      </c>
+      <c r="F498">
+        <f>VLOOKUP(A498,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G498">
+        <f>VLOOKUP(A498,UnitChange!B:K,7,FALSE)</f>
+        <v>0.34720000000000267</v>
+      </c>
+      <c r="H498">
+        <f>VLOOKUP(A498,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I498">
+        <f>VLOOKUP(A498,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J498">
+        <f>VLOOKUP(A498,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K498" s="1">
+        <f>VLOOKUP(A498,UnitChange!B:L,11,FALSE)</f>
+        <v>1.5840000000000007</v>
+      </c>
+    </row>
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A499">
+        <v>497</v>
+      </c>
+      <c r="B499">
+        <f>VLOOKUP(A499,UnitChange!B:K,2,FALSE)</f>
+        <v>7.9999999999999995E+166</v>
+      </c>
+      <c r="C499" t="str">
+        <f>VLOOKUP(A499,UnitChange!B:K,3,FALSE)</f>
+        <v>800절</v>
+      </c>
+      <c r="D499">
+        <f>VLOOKUP(A499,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E499">
+        <f>VLOOKUP(A499,UnitChange!B:K,5,FALSE)</f>
+        <v>48700000</v>
+      </c>
+      <c r="F499">
+        <f>VLOOKUP(A499,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G499">
+        <f>VLOOKUP(A499,UnitChange!B:K,7,FALSE)</f>
+        <v>0.34760000000000268</v>
+      </c>
+      <c r="H499">
+        <f>VLOOKUP(A499,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I499">
+        <f>VLOOKUP(A499,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J499">
+        <f>VLOOKUP(A499,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K499" s="1">
+        <f>VLOOKUP(A499,UnitChange!B:L,11,FALSE)</f>
+        <v>1.5880000000000007</v>
+      </c>
+    </row>
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A500">
+        <v>498</v>
+      </c>
+      <c r="B500">
+        <f>VLOOKUP(A500,UnitChange!B:K,2,FALSE)</f>
+        <v>1E+167</v>
+      </c>
+      <c r="C500" t="str">
+        <f>VLOOKUP(A500,UnitChange!B:K,3,FALSE)</f>
+        <v>1000절</v>
+      </c>
+      <c r="D500">
+        <f>VLOOKUP(A500,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E500">
+        <f>VLOOKUP(A500,UnitChange!B:K,5,FALSE)</f>
+        <v>48800000</v>
+      </c>
+      <c r="F500">
+        <f>VLOOKUP(A500,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G500">
+        <f>VLOOKUP(A500,UnitChange!B:K,7,FALSE)</f>
+        <v>0.3480000000000027</v>
+      </c>
+      <c r="H500">
+        <f>VLOOKUP(A500,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I500">
+        <f>VLOOKUP(A500,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J500">
+        <f>VLOOKUP(A500,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K500" s="1">
+        <f>VLOOKUP(A500,UnitChange!B:L,11,FALSE)</f>
+        <v>1.5920000000000007</v>
+      </c>
+    </row>
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A501">
+        <v>499</v>
+      </c>
+      <c r="B501">
+        <f>VLOOKUP(A501,UnitChange!B:K,2,FALSE)</f>
+        <v>2.0000000000000001E+167</v>
+      </c>
+      <c r="C501" t="str">
+        <f>VLOOKUP(A501,UnitChange!B:K,3,FALSE)</f>
+        <v>2000절</v>
+      </c>
+      <c r="D501">
+        <f>VLOOKUP(A501,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E501">
+        <f>VLOOKUP(A501,UnitChange!B:K,5,FALSE)</f>
+        <v>48900000</v>
+      </c>
+      <c r="F501">
+        <f>VLOOKUP(A501,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G501">
+        <f>VLOOKUP(A501,UnitChange!B:K,7,FALSE)</f>
+        <v>0.34840000000000271</v>
+      </c>
+      <c r="H501">
+        <f>VLOOKUP(A501,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I501">
+        <f>VLOOKUP(A501,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J501">
+        <f>VLOOKUP(A501,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K501" s="1">
+        <f>VLOOKUP(A501,UnitChange!B:L,11,FALSE)</f>
+        <v>1.5960000000000008</v>
+      </c>
+    </row>
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A502">
+        <v>500</v>
+      </c>
+      <c r="B502">
+        <f>VLOOKUP(A502,UnitChange!B:K,2,FALSE)</f>
+        <v>4.9999999999999997E+167</v>
+      </c>
+      <c r="C502" t="str">
+        <f>VLOOKUP(A502,UnitChange!B:K,3,FALSE)</f>
+        <v>5000절</v>
+      </c>
+      <c r="D502">
+        <f>VLOOKUP(A502,UnitChange!B:K,4,FALSE)</f>
+        <v>20</v>
+      </c>
+      <c r="E502">
+        <f>VLOOKUP(A502,UnitChange!B:K,5,FALSE)</f>
+        <v>49000000</v>
+      </c>
+      <c r="F502">
+        <f>VLOOKUP(A502,UnitChange!B:K,6,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="G502">
+        <f>VLOOKUP(A502,UnitChange!B:K,7,FALSE)</f>
+        <v>0.34880000000000272</v>
+      </c>
+      <c r="H502">
+        <f>VLOOKUP(A502,UnitChange!B:K,8,FALSE)</f>
+        <v>23</v>
+      </c>
+      <c r="I502">
+        <f>VLOOKUP(A502,UnitChange!B:K,9,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J502">
+        <f>VLOOKUP(A502,UnitChange!B:K,10,FALSE)</f>
+        <v>60</v>
+      </c>
+      <c r="K502" s="1">
+        <f>VLOOKUP(A502,UnitChange!B:L,11,FALSE)</f>
+        <v>1.6000000000000008</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21074,10 +21749,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626C1493-E0FD-4651-99C5-58D15BDAC6AC}">
-  <dimension ref="B1:AC239"/>
+  <dimension ref="B1:AC254"/>
   <sheetViews>
-    <sheetView topLeftCell="A216" workbookViewId="0">
-      <selection activeCell="J230" sqref="J230"/>
+    <sheetView topLeftCell="A225" workbookViewId="0">
+      <selection activeCell="E243" sqref="E243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -23930,7 +24605,7 @@
         <v>1E+112</v>
       </c>
       <c r="Q46" s="12" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="R46" s="12">
         <v>164</v>
@@ -24003,7 +24678,7 @@
         <v>1E+112</v>
       </c>
       <c r="Q47" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R47" s="12">
         <v>168</v>
@@ -33257,14 +33932,14 @@
         <v>20</v>
       </c>
       <c r="F229" s="16">
-        <f t="shared" ref="F229:F239" si="69">F228+100000</f>
+        <f t="shared" ref="F229:F254" si="69">F228+100000</f>
         <v>46500000</v>
       </c>
       <c r="G229" s="16">
         <v>2</v>
       </c>
       <c r="H229" s="16">
-        <f t="shared" ref="H229:H239" si="70">IF(RIGHT(H228,2)="24",H228+0.0076,H228+0.0004)</f>
+        <f t="shared" ref="H229:H254" si="70">IF(RIGHT(H228,2)="24",H228+0.0076,H228+0.0004)</f>
         <v>0.33880000000000243</v>
       </c>
       <c r="I229" s="16">
@@ -33277,7 +33952,7 @@
         <v>60</v>
       </c>
       <c r="L229" s="16">
-        <f t="shared" ref="L229:L239" si="71">L228+0.004</f>
+        <f t="shared" ref="L229:L254" si="71">L228+0.004</f>
         <v>1.5000000000000007</v>
       </c>
       <c r="M229" s="20">
@@ -33387,7 +34062,7 @@
         <v>343</v>
       </c>
       <c r="O231" s="12" t="str">
-        <f t="shared" ref="O231:O239" si="72">VLOOKUP(N231,Q:T,4,FALSE)</f>
+        <f t="shared" ref="O231:O254" si="72">VLOOKUP(N231,Q:T,4,FALSE)</f>
         <v>1E+160</v>
       </c>
     </row>
@@ -33789,6 +34464,756 @@
       <c r="O239" s="12" t="str">
         <f t="shared" si="72"/>
         <v>1E+160</v>
+      </c>
+    </row>
+    <row r="240" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B240" s="21">
+        <v>486</v>
+      </c>
+      <c r="C240" s="16">
+        <f t="shared" ref="C240:C254" si="73">M240*O240</f>
+        <v>1E+164</v>
+      </c>
+      <c r="D240" s="16" t="str">
+        <f t="shared" ref="D240:D254" si="74">M240&amp;N240</f>
+        <v>1절</v>
+      </c>
+      <c r="E240" s="16">
+        <v>20</v>
+      </c>
+      <c r="F240" s="16">
+        <f t="shared" si="69"/>
+        <v>47600000</v>
+      </c>
+      <c r="G240" s="16">
+        <v>2</v>
+      </c>
+      <c r="H240" s="16">
+        <f t="shared" si="70"/>
+        <v>0.34320000000000256</v>
+      </c>
+      <c r="I240" s="16">
+        <v>23</v>
+      </c>
+      <c r="J240" s="16">
+        <v>0</v>
+      </c>
+      <c r="K240" s="16">
+        <v>60</v>
+      </c>
+      <c r="L240" s="16">
+        <f t="shared" si="71"/>
+        <v>1.5440000000000007</v>
+      </c>
+      <c r="M240" s="20">
+        <v>1</v>
+      </c>
+      <c r="N240" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="O240" s="12" t="str">
+        <f t="shared" si="72"/>
+        <v>1E+164</v>
+      </c>
+    </row>
+    <row r="241" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B241" s="21">
+        <v>487</v>
+      </c>
+      <c r="C241" s="16">
+        <f t="shared" si="73"/>
+        <v>2E+164</v>
+      </c>
+      <c r="D241" s="16" t="str">
+        <f t="shared" si="74"/>
+        <v>2절</v>
+      </c>
+      <c r="E241" s="16">
+        <v>20</v>
+      </c>
+      <c r="F241" s="16">
+        <f t="shared" si="69"/>
+        <v>47700000</v>
+      </c>
+      <c r="G241" s="16">
+        <v>2</v>
+      </c>
+      <c r="H241" s="16">
+        <f t="shared" si="70"/>
+        <v>0.34360000000000257</v>
+      </c>
+      <c r="I241" s="16">
+        <v>23</v>
+      </c>
+      <c r="J241" s="16">
+        <v>0</v>
+      </c>
+      <c r="K241" s="16">
+        <v>60</v>
+      </c>
+      <c r="L241" s="16">
+        <f t="shared" si="71"/>
+        <v>1.5480000000000007</v>
+      </c>
+      <c r="M241" s="20">
+        <v>2</v>
+      </c>
+      <c r="N241" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="O241" s="12" t="str">
+        <f t="shared" si="72"/>
+        <v>1E+164</v>
+      </c>
+    </row>
+    <row r="242" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B242" s="21">
+        <v>488</v>
+      </c>
+      <c r="C242" s="16">
+        <f t="shared" si="73"/>
+        <v>5.0000000000000005E+164</v>
+      </c>
+      <c r="D242" s="16" t="str">
+        <f t="shared" si="74"/>
+        <v>5절</v>
+      </c>
+      <c r="E242" s="16">
+        <v>20</v>
+      </c>
+      <c r="F242" s="16">
+        <f t="shared" si="69"/>
+        <v>47800000</v>
+      </c>
+      <c r="G242" s="16">
+        <v>2</v>
+      </c>
+      <c r="H242" s="16">
+        <f t="shared" si="70"/>
+        <v>0.34400000000000258</v>
+      </c>
+      <c r="I242" s="16">
+        <v>23</v>
+      </c>
+      <c r="J242" s="16">
+        <v>0</v>
+      </c>
+      <c r="K242" s="16">
+        <v>60</v>
+      </c>
+      <c r="L242" s="16">
+        <f t="shared" si="71"/>
+        <v>1.5520000000000007</v>
+      </c>
+      <c r="M242" s="20">
+        <v>5</v>
+      </c>
+      <c r="N242" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="O242" s="12" t="str">
+        <f t="shared" si="72"/>
+        <v>1E+164</v>
+      </c>
+    </row>
+    <row r="243" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B243" s="21">
+        <v>489</v>
+      </c>
+      <c r="C243" s="16">
+        <f t="shared" si="73"/>
+        <v>1.0000000000000001E+165</v>
+      </c>
+      <c r="D243" s="16" t="str">
+        <f t="shared" si="74"/>
+        <v>10절</v>
+      </c>
+      <c r="E243" s="16">
+        <v>20</v>
+      </c>
+      <c r="F243" s="16">
+        <f t="shared" si="69"/>
+        <v>47900000</v>
+      </c>
+      <c r="G243" s="16">
+        <v>2</v>
+      </c>
+      <c r="H243" s="16">
+        <f t="shared" si="70"/>
+        <v>0.34440000000000259</v>
+      </c>
+      <c r="I243" s="16">
+        <v>23</v>
+      </c>
+      <c r="J243" s="16">
+        <v>0</v>
+      </c>
+      <c r="K243" s="16">
+        <v>60</v>
+      </c>
+      <c r="L243" s="16">
+        <f t="shared" si="71"/>
+        <v>1.5560000000000007</v>
+      </c>
+      <c r="M243" s="20">
+        <v>10</v>
+      </c>
+      <c r="N243" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="O243" s="12" t="str">
+        <f t="shared" si="72"/>
+        <v>1E+164</v>
+      </c>
+    </row>
+    <row r="244" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B244" s="21">
+        <v>490</v>
+      </c>
+      <c r="C244" s="16">
+        <f t="shared" si="73"/>
+        <v>2.0000000000000002E+165</v>
+      </c>
+      <c r="D244" s="16" t="str">
+        <f t="shared" si="74"/>
+        <v>20절</v>
+      </c>
+      <c r="E244" s="16">
+        <v>20</v>
+      </c>
+      <c r="F244" s="16">
+        <f t="shared" si="69"/>
+        <v>48000000</v>
+      </c>
+      <c r="G244" s="16">
+        <v>2</v>
+      </c>
+      <c r="H244" s="16">
+        <f t="shared" si="70"/>
+        <v>0.3448000000000026</v>
+      </c>
+      <c r="I244" s="16">
+        <v>23</v>
+      </c>
+      <c r="J244" s="16">
+        <v>0</v>
+      </c>
+      <c r="K244" s="16">
+        <v>60</v>
+      </c>
+      <c r="L244" s="16">
+        <f t="shared" si="71"/>
+        <v>1.5600000000000007</v>
+      </c>
+      <c r="M244" s="20">
+        <v>20</v>
+      </c>
+      <c r="N244" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="O244" s="12" t="str">
+        <f t="shared" si="72"/>
+        <v>1E+164</v>
+      </c>
+    </row>
+    <row r="245" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B245" s="21">
+        <v>491</v>
+      </c>
+      <c r="C245" s="16">
+        <f t="shared" si="73"/>
+        <v>4.9999999999999997E+165</v>
+      </c>
+      <c r="D245" s="16" t="str">
+        <f t="shared" si="74"/>
+        <v>50절</v>
+      </c>
+      <c r="E245" s="16">
+        <v>20</v>
+      </c>
+      <c r="F245" s="16">
+        <f t="shared" si="69"/>
+        <v>48100000</v>
+      </c>
+      <c r="G245" s="16">
+        <v>2</v>
+      </c>
+      <c r="H245" s="16">
+        <f t="shared" si="70"/>
+        <v>0.34520000000000262</v>
+      </c>
+      <c r="I245" s="16">
+        <v>23</v>
+      </c>
+      <c r="J245" s="16">
+        <v>0</v>
+      </c>
+      <c r="K245" s="16">
+        <v>60</v>
+      </c>
+      <c r="L245" s="16">
+        <f t="shared" si="71"/>
+        <v>1.5640000000000007</v>
+      </c>
+      <c r="M245" s="20">
+        <v>50</v>
+      </c>
+      <c r="N245" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="O245" s="12" t="str">
+        <f t="shared" si="72"/>
+        <v>1E+164</v>
+      </c>
+    </row>
+    <row r="246" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B246" s="21">
+        <v>492</v>
+      </c>
+      <c r="C246" s="16">
+        <f t="shared" si="73"/>
+        <v>9.9999999999999994E+165</v>
+      </c>
+      <c r="D246" s="16" t="str">
+        <f t="shared" si="74"/>
+        <v>100절</v>
+      </c>
+      <c r="E246" s="16">
+        <v>20</v>
+      </c>
+      <c r="F246" s="16">
+        <f t="shared" si="69"/>
+        <v>48200000</v>
+      </c>
+      <c r="G246" s="16">
+        <v>2</v>
+      </c>
+      <c r="H246" s="16">
+        <f t="shared" si="70"/>
+        <v>0.34560000000000263</v>
+      </c>
+      <c r="I246" s="16">
+        <v>23</v>
+      </c>
+      <c r="J246" s="16">
+        <v>0</v>
+      </c>
+      <c r="K246" s="16">
+        <v>60</v>
+      </c>
+      <c r="L246" s="16">
+        <f t="shared" si="71"/>
+        <v>1.5680000000000007</v>
+      </c>
+      <c r="M246" s="20">
+        <v>100</v>
+      </c>
+      <c r="N246" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="O246" s="12" t="str">
+        <f t="shared" si="72"/>
+        <v>1E+164</v>
+      </c>
+    </row>
+    <row r="247" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B247" s="21">
+        <v>493</v>
+      </c>
+      <c r="C247" s="16">
+        <f t="shared" si="73"/>
+        <v>1.5E+166</v>
+      </c>
+      <c r="D247" s="16" t="str">
+        <f t="shared" si="74"/>
+        <v>150절</v>
+      </c>
+      <c r="E247" s="16">
+        <v>20</v>
+      </c>
+      <c r="F247" s="16">
+        <f t="shared" si="69"/>
+        <v>48300000</v>
+      </c>
+      <c r="G247" s="16">
+        <v>2</v>
+      </c>
+      <c r="H247" s="16">
+        <f t="shared" si="70"/>
+        <v>0.34600000000000264</v>
+      </c>
+      <c r="I247" s="16">
+        <v>23</v>
+      </c>
+      <c r="J247" s="16">
+        <v>0</v>
+      </c>
+      <c r="K247" s="16">
+        <v>60</v>
+      </c>
+      <c r="L247" s="16">
+        <f t="shared" si="71"/>
+        <v>1.5720000000000007</v>
+      </c>
+      <c r="M247" s="20">
+        <v>150</v>
+      </c>
+      <c r="N247" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="O247" s="12" t="str">
+        <f t="shared" si="72"/>
+        <v>1E+164</v>
+      </c>
+    </row>
+    <row r="248" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B248" s="21">
+        <v>494</v>
+      </c>
+      <c r="C248" s="16">
+        <f t="shared" si="73"/>
+        <v>1.9999999999999999E+166</v>
+      </c>
+      <c r="D248" s="16" t="str">
+        <f t="shared" si="74"/>
+        <v>200절</v>
+      </c>
+      <c r="E248" s="16">
+        <v>20</v>
+      </c>
+      <c r="F248" s="16">
+        <f t="shared" si="69"/>
+        <v>48400000</v>
+      </c>
+      <c r="G248" s="16">
+        <v>2</v>
+      </c>
+      <c r="H248" s="16">
+        <f t="shared" si="70"/>
+        <v>0.34640000000000265</v>
+      </c>
+      <c r="I248" s="16">
+        <v>23</v>
+      </c>
+      <c r="J248" s="16">
+        <v>0</v>
+      </c>
+      <c r="K248" s="16">
+        <v>60</v>
+      </c>
+      <c r="L248" s="16">
+        <f t="shared" si="71"/>
+        <v>1.5760000000000007</v>
+      </c>
+      <c r="M248" s="20">
+        <v>200</v>
+      </c>
+      <c r="N248" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="O248" s="12" t="str">
+        <f t="shared" si="72"/>
+        <v>1E+164</v>
+      </c>
+    </row>
+    <row r="249" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B249" s="21">
+        <v>495</v>
+      </c>
+      <c r="C249" s="16">
+        <f t="shared" si="73"/>
+        <v>3E+166</v>
+      </c>
+      <c r="D249" s="16" t="str">
+        <f t="shared" si="74"/>
+        <v>300절</v>
+      </c>
+      <c r="E249" s="16">
+        <v>20</v>
+      </c>
+      <c r="F249" s="16">
+        <f t="shared" si="69"/>
+        <v>48500000</v>
+      </c>
+      <c r="G249" s="16">
+        <v>2</v>
+      </c>
+      <c r="H249" s="16">
+        <f t="shared" si="70"/>
+        <v>0.34680000000000266</v>
+      </c>
+      <c r="I249" s="16">
+        <v>23</v>
+      </c>
+      <c r="J249" s="16">
+        <v>0</v>
+      </c>
+      <c r="K249" s="16">
+        <v>60</v>
+      </c>
+      <c r="L249" s="16">
+        <f t="shared" si="71"/>
+        <v>1.5800000000000007</v>
+      </c>
+      <c r="M249" s="20">
+        <v>300</v>
+      </c>
+      <c r="N249" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="O249" s="12" t="str">
+        <f t="shared" si="72"/>
+        <v>1E+164</v>
+      </c>
+    </row>
+    <row r="250" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B250" s="21">
+        <v>496</v>
+      </c>
+      <c r="C250" s="16">
+        <f t="shared" si="73"/>
+        <v>5.0000000000000002E+166</v>
+      </c>
+      <c r="D250" s="16" t="str">
+        <f t="shared" si="74"/>
+        <v>500절</v>
+      </c>
+      <c r="E250" s="16">
+        <v>20</v>
+      </c>
+      <c r="F250" s="16">
+        <f t="shared" si="69"/>
+        <v>48600000</v>
+      </c>
+      <c r="G250" s="16">
+        <v>2</v>
+      </c>
+      <c r="H250" s="16">
+        <f t="shared" si="70"/>
+        <v>0.34720000000000267</v>
+      </c>
+      <c r="I250" s="16">
+        <v>23</v>
+      </c>
+      <c r="J250" s="16">
+        <v>0</v>
+      </c>
+      <c r="K250" s="16">
+        <v>60</v>
+      </c>
+      <c r="L250" s="16">
+        <f t="shared" si="71"/>
+        <v>1.5840000000000007</v>
+      </c>
+      <c r="M250" s="20">
+        <v>500</v>
+      </c>
+      <c r="N250" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="O250" s="12" t="str">
+        <f t="shared" si="72"/>
+        <v>1E+164</v>
+      </c>
+    </row>
+    <row r="251" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B251" s="21">
+        <v>497</v>
+      </c>
+      <c r="C251" s="16">
+        <f t="shared" si="73"/>
+        <v>7.9999999999999995E+166</v>
+      </c>
+      <c r="D251" s="16" t="str">
+        <f t="shared" si="74"/>
+        <v>800절</v>
+      </c>
+      <c r="E251" s="16">
+        <v>20</v>
+      </c>
+      <c r="F251" s="16">
+        <f t="shared" si="69"/>
+        <v>48700000</v>
+      </c>
+      <c r="G251" s="16">
+        <v>2</v>
+      </c>
+      <c r="H251" s="16">
+        <f t="shared" si="70"/>
+        <v>0.34760000000000268</v>
+      </c>
+      <c r="I251" s="16">
+        <v>23</v>
+      </c>
+      <c r="J251" s="16">
+        <v>0</v>
+      </c>
+      <c r="K251" s="16">
+        <v>60</v>
+      </c>
+      <c r="L251" s="16">
+        <f t="shared" si="71"/>
+        <v>1.5880000000000007</v>
+      </c>
+      <c r="M251" s="20">
+        <v>800</v>
+      </c>
+      <c r="N251" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="O251" s="12" t="str">
+        <f t="shared" si="72"/>
+        <v>1E+164</v>
+      </c>
+    </row>
+    <row r="252" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B252" s="21">
+        <v>498</v>
+      </c>
+      <c r="C252" s="16">
+        <f t="shared" si="73"/>
+        <v>1E+167</v>
+      </c>
+      <c r="D252" s="16" t="str">
+        <f t="shared" si="74"/>
+        <v>1000절</v>
+      </c>
+      <c r="E252" s="16">
+        <v>20</v>
+      </c>
+      <c r="F252" s="16">
+        <f t="shared" si="69"/>
+        <v>48800000</v>
+      </c>
+      <c r="G252" s="16">
+        <v>2</v>
+      </c>
+      <c r="H252" s="16">
+        <f t="shared" si="70"/>
+        <v>0.3480000000000027</v>
+      </c>
+      <c r="I252" s="16">
+        <v>23</v>
+      </c>
+      <c r="J252" s="16">
+        <v>0</v>
+      </c>
+      <c r="K252" s="16">
+        <v>60</v>
+      </c>
+      <c r="L252" s="16">
+        <f t="shared" si="71"/>
+        <v>1.5920000000000007</v>
+      </c>
+      <c r="M252" s="20">
+        <v>1000</v>
+      </c>
+      <c r="N252" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="O252" s="12" t="str">
+        <f t="shared" si="72"/>
+        <v>1E+164</v>
+      </c>
+    </row>
+    <row r="253" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B253" s="21">
+        <v>499</v>
+      </c>
+      <c r="C253" s="16">
+        <f t="shared" si="73"/>
+        <v>2.0000000000000001E+167</v>
+      </c>
+      <c r="D253" s="16" t="str">
+        <f t="shared" si="74"/>
+        <v>2000절</v>
+      </c>
+      <c r="E253" s="16">
+        <v>20</v>
+      </c>
+      <c r="F253" s="16">
+        <f t="shared" si="69"/>
+        <v>48900000</v>
+      </c>
+      <c r="G253" s="16">
+        <v>2</v>
+      </c>
+      <c r="H253" s="16">
+        <f t="shared" si="70"/>
+        <v>0.34840000000000271</v>
+      </c>
+      <c r="I253" s="16">
+        <v>23</v>
+      </c>
+      <c r="J253" s="16">
+        <v>0</v>
+      </c>
+      <c r="K253" s="16">
+        <v>60</v>
+      </c>
+      <c r="L253" s="16">
+        <f t="shared" si="71"/>
+        <v>1.5960000000000008</v>
+      </c>
+      <c r="M253" s="20">
+        <v>2000</v>
+      </c>
+      <c r="N253" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="O253" s="12" t="str">
+        <f t="shared" si="72"/>
+        <v>1E+164</v>
+      </c>
+    </row>
+    <row r="254" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B254" s="21">
+        <v>500</v>
+      </c>
+      <c r="C254" s="16">
+        <f t="shared" si="73"/>
+        <v>4.9999999999999997E+167</v>
+      </c>
+      <c r="D254" s="16" t="str">
+        <f t="shared" si="74"/>
+        <v>5000절</v>
+      </c>
+      <c r="E254" s="16">
+        <v>20</v>
+      </c>
+      <c r="F254" s="16">
+        <f t="shared" si="69"/>
+        <v>49000000</v>
+      </c>
+      <c r="G254" s="16">
+        <v>2</v>
+      </c>
+      <c r="H254" s="16">
+        <f t="shared" si="70"/>
+        <v>0.34880000000000272</v>
+      </c>
+      <c r="I254" s="16">
+        <v>23</v>
+      </c>
+      <c r="J254" s="16">
+        <v>0</v>
+      </c>
+      <c r="K254" s="16">
+        <v>60</v>
+      </c>
+      <c r="L254" s="16">
+        <f t="shared" si="71"/>
+        <v>1.6000000000000008</v>
+      </c>
+      <c r="M254" s="20">
+        <v>5000</v>
+      </c>
+      <c r="N254" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="O254" s="12" t="str">
+        <f t="shared" si="72"/>
+        <v>1E+164</v>
       </c>
     </row>
   </sheetData>
